--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +390,21 @@
           <t>recessq</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lasgova</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lalgova</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cpgs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -399,13 +414,22 @@
         <v>38.3</v>
       </c>
       <c r="C2">
-        <v>4960</v>
+        <v>4940.7</v>
       </c>
       <c r="D2">
-        <v>1056.2</v>
+        <v>1052.1</v>
       </c>
       <c r="E2">
         <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2613.333333333334</v>
+      </c>
+      <c r="G2">
+        <v>7048.666666666667</v>
+      </c>
+      <c r="H2">
+        <v>23545.66666666667</v>
       </c>
     </row>
     <row r="3">
@@ -416,13 +440,22 @@
         <v>38.83333333333334</v>
       </c>
       <c r="C3">
-        <v>4999.8</v>
+        <v>4982</v>
       </c>
       <c r="D3">
-        <v>1079.5</v>
+        <v>1075.7</v>
       </c>
       <c r="E3">
         <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2648.333333333334</v>
+      </c>
+      <c r="G3">
+        <v>7104.333333333333</v>
+      </c>
+      <c r="H3">
+        <v>24037</v>
       </c>
     </row>
     <row r="4">
@@ -433,13 +466,22 @@
         <v>39.23333333333334</v>
       </c>
       <c r="C4">
-        <v>5038.1</v>
+        <v>5021.9</v>
       </c>
       <c r="D4">
-        <v>1096.7</v>
+        <v>1093.2</v>
       </c>
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2681.666666666667</v>
+      </c>
+      <c r="G4">
+        <v>7204.333333333333</v>
+      </c>
+      <c r="H4">
+        <v>25485.66666666667</v>
       </c>
     </row>
     <row r="5">
@@ -450,13 +492,22 @@
         <v>39.8</v>
       </c>
       <c r="C5">
-        <v>5075.2</v>
+        <v>5060.8</v>
       </c>
       <c r="D5">
-        <v>1119.4</v>
+        <v>1116.2</v>
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2716.333333333334</v>
+      </c>
+      <c r="G5">
+        <v>7279.333333333333</v>
+      </c>
+      <c r="H5">
+        <v>25754.66666666667</v>
       </c>
     </row>
     <row r="6">
@@ -467,13 +518,22 @@
         <v>40.16666666666667</v>
       </c>
       <c r="C6">
-        <v>5112.2</v>
+        <v>5099.9</v>
       </c>
       <c r="D6">
-        <v>1144.7</v>
+        <v>1142</v>
       </c>
       <c r="E6">
         <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>2719.333333333334</v>
+      </c>
+      <c r="G6">
+        <v>7353.333333333333</v>
+      </c>
+      <c r="H6">
+        <v>25713</v>
       </c>
     </row>
     <row r="7">
@@ -484,13 +544,22 @@
         <v>40.53333333333334</v>
       </c>
       <c r="C7">
-        <v>5149.9</v>
+        <v>5139.7</v>
       </c>
       <c r="D7">
-        <v>1168.3</v>
+        <v>1165.9</v>
       </c>
       <c r="E7">
         <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>2739.666666666667</v>
+      </c>
+      <c r="G7">
+        <v>7419.666666666667</v>
+      </c>
+      <c r="H7">
+        <v>25998.66666666667</v>
       </c>
     </row>
     <row r="8">
@@ -501,13 +570,22 @@
         <v>40.96666666666667</v>
       </c>
       <c r="C8">
-        <v>5188.1</v>
+        <v>5180</v>
       </c>
       <c r="D8">
-        <v>1188.9</v>
+        <v>1187.1</v>
       </c>
       <c r="E8">
         <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>2751.666666666667</v>
+      </c>
+      <c r="G8">
+        <v>7443.666666666667</v>
+      </c>
+      <c r="H8">
+        <v>25691</v>
       </c>
     </row>
     <row r="9">
@@ -518,13 +596,22 @@
         <v>41.23333333333334</v>
       </c>
       <c r="C9">
-        <v>5227</v>
+        <v>5221</v>
       </c>
       <c r="D9">
-        <v>1207.8</v>
+        <v>1206.4</v>
       </c>
       <c r="E9">
         <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>2781</v>
+      </c>
+      <c r="G9">
+        <v>7534</v>
+      </c>
+      <c r="H9">
+        <v>26178.66666666667</v>
       </c>
     </row>
     <row r="10">
@@ -535,13 +622,22 @@
         <v>41.6</v>
       </c>
       <c r="C10">
-        <v>5266.6</v>
+        <v>5262.8</v>
       </c>
       <c r="D10">
-        <v>1235.4</v>
+        <v>1234.6</v>
       </c>
       <c r="E10">
         <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>2815</v>
+      </c>
+      <c r="G10">
+        <v>7651.666666666667</v>
+      </c>
+      <c r="H10">
+        <v>25519</v>
       </c>
     </row>
     <row r="11">
@@ -552,13 +648,22 @@
         <v>41.8</v>
       </c>
       <c r="C11">
-        <v>5306.7</v>
+        <v>5305.2</v>
       </c>
       <c r="D11">
-        <v>1252.6</v>
+        <v>1252.3</v>
       </c>
       <c r="E11">
         <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>2849</v>
+      </c>
+      <c r="G11">
+        <v>7726.333333333333</v>
+      </c>
+      <c r="H11">
+        <v>24875</v>
       </c>
     </row>
     <row r="12">
@@ -569,13 +674,22 @@
         <v>42.2</v>
       </c>
       <c r="C12">
-        <v>5347.4</v>
+        <v>5348.2</v>
       </c>
       <c r="D12">
-        <v>1274.3</v>
+        <v>1274.5</v>
       </c>
       <c r="E12">
         <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>2874</v>
+      </c>
+      <c r="G12">
+        <v>7855</v>
+      </c>
+      <c r="H12">
+        <v>25641</v>
       </c>
     </row>
     <row r="13">
@@ -586,13 +700,22 @@
         <v>42.63333333333333</v>
       </c>
       <c r="C13">
-        <v>5388.7</v>
+        <v>5391.9</v>
       </c>
       <c r="D13">
-        <v>1300.5</v>
+        <v>1301.3</v>
       </c>
       <c r="E13">
         <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>2901.333333333334</v>
+      </c>
+      <c r="G13">
+        <v>7931.333333333333</v>
+      </c>
+      <c r="H13">
+        <v>27114.33333333333</v>
       </c>
     </row>
     <row r="14">
@@ -603,13 +726,22 @@
         <v>43.26666666666667</v>
       </c>
       <c r="C14">
-        <v>5431.5</v>
+        <v>5436.6</v>
       </c>
       <c r="D14">
-        <v>1325.9</v>
+        <v>1327.2</v>
       </c>
       <c r="E14">
         <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>2899.666666666667</v>
+      </c>
+      <c r="G14">
+        <v>8016</v>
+      </c>
+      <c r="H14">
+        <v>27472.66666666667</v>
       </c>
     </row>
     <row r="15">
@@ -620,13 +752,22 @@
         <v>44.16666666666666</v>
       </c>
       <c r="C15">
-        <v>5476.9</v>
+        <v>5483.5</v>
       </c>
       <c r="D15">
-        <v>1357.6</v>
+        <v>1359.2</v>
       </c>
       <c r="E15">
         <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>2911.666666666667</v>
+      </c>
+      <c r="G15">
+        <v>8115</v>
+      </c>
+      <c r="H15">
+        <v>27079.33333333333</v>
       </c>
     </row>
     <row r="16">
@@ -637,13 +778,22 @@
         <v>45.06666666666666</v>
       </c>
       <c r="C16">
-        <v>5523.2</v>
+        <v>5530.8</v>
       </c>
       <c r="D16">
-        <v>1395.7</v>
+        <v>1397.6</v>
       </c>
       <c r="E16">
         <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>2926.333333333334</v>
+      </c>
+      <c r="G16">
+        <v>8183.666666666667</v>
+      </c>
+      <c r="H16">
+        <v>27510</v>
       </c>
     </row>
     <row r="17">
@@ -654,13 +804,22 @@
         <v>46.16666666666666</v>
       </c>
       <c r="C17">
-        <v>5571</v>
+        <v>5579.2</v>
       </c>
       <c r="D17">
-        <v>1435.8</v>
+        <v>1437.9</v>
       </c>
       <c r="E17">
         <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2953.333333333334</v>
+      </c>
+      <c r="G17">
+        <v>8272.333333333334</v>
+      </c>
+      <c r="H17">
+        <v>28620</v>
       </c>
     </row>
     <row r="18">
@@ -671,13 +830,22 @@
         <v>47.56666666666666</v>
       </c>
       <c r="C18">
-        <v>5619.7</v>
+        <v>5628.2</v>
       </c>
       <c r="D18">
-        <v>1475.7</v>
+        <v>1477.9</v>
       </c>
       <c r="E18">
         <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2988.666666666667</v>
+      </c>
+      <c r="G18">
+        <v>8307.666666666666</v>
+      </c>
+      <c r="H18">
+        <v>30923.66666666667</v>
       </c>
     </row>
     <row r="19">
@@ -688,13 +856,22 @@
         <v>48.76666666666667</v>
       </c>
       <c r="C19">
-        <v>5669.1</v>
+        <v>5677.5</v>
       </c>
       <c r="D19">
-        <v>1523.9</v>
+        <v>1526.2</v>
       </c>
       <c r="E19">
         <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3018</v>
+      </c>
+      <c r="G19">
+        <v>8346.333333333334</v>
+      </c>
+      <c r="H19">
+        <v>33400.66666666666</v>
       </c>
     </row>
     <row r="20">
@@ -705,13 +882,22 @@
         <v>50.23333333333334</v>
       </c>
       <c r="C20">
-        <v>5718.1</v>
+        <v>5726.2</v>
       </c>
       <c r="D20">
-        <v>1582</v>
+        <v>1584.3</v>
       </c>
       <c r="E20">
         <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3048.333333333334</v>
+      </c>
+      <c r="G20">
+        <v>8424.666666666666</v>
+      </c>
+      <c r="H20">
+        <v>33701.66666666666</v>
       </c>
     </row>
     <row r="21">
@@ -722,13 +908,22 @@
         <v>51.76666666666667</v>
       </c>
       <c r="C21">
-        <v>5766.6</v>
+        <v>5774.2</v>
       </c>
       <c r="D21">
-        <v>1642.5</v>
+        <v>1644.6</v>
       </c>
       <c r="E21">
         <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3099</v>
+      </c>
+      <c r="G21">
+        <v>8551.333333333334</v>
+      </c>
+      <c r="H21">
+        <v>33884</v>
       </c>
     </row>
     <row r="22">
@@ -739,13 +934,22 @@
         <v>52.86666666666667</v>
       </c>
       <c r="C22">
-        <v>5814</v>
+        <v>5820.9</v>
       </c>
       <c r="D22">
-        <v>1693.5</v>
+        <v>1695.5</v>
       </c>
       <c r="E22">
         <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3161.666666666667</v>
+      </c>
+      <c r="G22">
+        <v>8673</v>
+      </c>
+      <c r="H22">
+        <v>37820.33333333334</v>
       </c>
     </row>
     <row r="23">
@@ -756,13 +960,22 @@
         <v>53.5</v>
       </c>
       <c r="C23">
-        <v>5860.5</v>
+        <v>5866.7</v>
       </c>
       <c r="D23">
-        <v>1732.5</v>
+        <v>1734.3</v>
       </c>
       <c r="E23">
         <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>3177.333333333334</v>
+      </c>
+      <c r="G23">
+        <v>8751.333333333334</v>
+      </c>
+      <c r="H23">
+        <v>35429.66666666666</v>
       </c>
     </row>
     <row r="24">
@@ -773,13 +986,22 @@
         <v>54.56666666666666</v>
       </c>
       <c r="C24">
-        <v>5906.6</v>
+        <v>5912</v>
       </c>
       <c r="D24">
-        <v>1776.9</v>
+        <v>1778.6</v>
       </c>
       <c r="E24">
         <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>3178</v>
+      </c>
+      <c r="G24">
+        <v>8786.333333333334</v>
+      </c>
+      <c r="H24">
+        <v>36988.33333333334</v>
       </c>
     </row>
     <row r="25">
@@ -790,13 +1012,22 @@
         <v>55.56666666666667</v>
       </c>
       <c r="C25">
-        <v>5952.7</v>
+        <v>5957.4</v>
       </c>
       <c r="D25">
-        <v>1820.7</v>
+        <v>1822.2</v>
       </c>
       <c r="E25">
         <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>3197.333333333334</v>
+      </c>
+      <c r="G25">
+        <v>8824.666666666666</v>
+      </c>
+      <c r="H25">
+        <v>39554</v>
       </c>
     </row>
     <row r="26">
@@ -807,13 +1038,22 @@
         <v>56.23333333333333</v>
       </c>
       <c r="C26">
-        <v>5998.7</v>
+        <v>6002.8</v>
       </c>
       <c r="D26">
-        <v>1854.3</v>
+        <v>1855.5</v>
       </c>
       <c r="E26">
         <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>3214.333333333334</v>
+      </c>
+      <c r="G26">
+        <v>8883</v>
+      </c>
+      <c r="H26">
+        <v>42554</v>
       </c>
     </row>
     <row r="27">
@@ -824,13 +1064,22 @@
         <v>56.73333333333333</v>
       </c>
       <c r="C27">
-        <v>6045.6</v>
+        <v>6048.9</v>
       </c>
       <c r="D27">
-        <v>1887.5</v>
+        <v>1888.6</v>
       </c>
       <c r="E27">
         <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>3241.666666666667</v>
+      </c>
+      <c r="G27">
+        <v>8868.666666666666</v>
+      </c>
+      <c r="H27">
+        <v>38830.66666666666</v>
       </c>
     </row>
     <row r="28">
@@ -841,13 +1090,22 @@
         <v>57.6</v>
       </c>
       <c r="C28">
-        <v>6093.8</v>
+        <v>6096.4</v>
       </c>
       <c r="D28">
-        <v>1927.2</v>
+        <v>1928.1</v>
       </c>
       <c r="E28">
         <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>3290.666666666667</v>
+      </c>
+      <c r="G28">
+        <v>8845</v>
+      </c>
+      <c r="H28">
+        <v>36130</v>
       </c>
     </row>
     <row r="29">
@@ -858,13 +1116,22 @@
         <v>58.43333333333334</v>
       </c>
       <c r="C29">
-        <v>6142.8</v>
+        <v>6144.7</v>
       </c>
       <c r="D29">
-        <v>1977.5</v>
+        <v>1978.1</v>
       </c>
       <c r="E29">
         <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>3342</v>
+      </c>
+      <c r="G29">
+        <v>8861</v>
+      </c>
+      <c r="H29">
+        <v>34359.66666666666</v>
       </c>
     </row>
     <row r="30">
@@ -875,13 +1142,22 @@
         <v>59.53333333333333</v>
       </c>
       <c r="C30">
-        <v>6193.4</v>
+        <v>6194.5</v>
       </c>
       <c r="D30">
-        <v>2025.9</v>
+        <v>2026.2</v>
       </c>
       <c r="E30">
         <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>3341.333333333334</v>
+      </c>
+      <c r="G30">
+        <v>8860.666666666666</v>
+      </c>
+      <c r="H30">
+        <v>36034</v>
       </c>
     </row>
     <row r="31">
@@ -892,13 +1168,22 @@
         <v>60.6</v>
       </c>
       <c r="C31">
-        <v>6245.2</v>
+        <v>6245.6</v>
       </c>
       <c r="D31">
-        <v>2071.7</v>
+        <v>2071.8</v>
       </c>
       <c r="E31">
         <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>3374.666666666667</v>
+      </c>
+      <c r="G31">
+        <v>8907.333333333334</v>
+      </c>
+      <c r="H31">
+        <v>37037.66666666666</v>
       </c>
     </row>
     <row r="32">
@@ -909,13 +1194,22 @@
         <v>61.43333333333334</v>
       </c>
       <c r="C32">
-        <v>6297.7</v>
+        <v>6297.4</v>
       </c>
       <c r="D32">
-        <v>2114.5</v>
+        <v>2114.4</v>
       </c>
       <c r="E32">
         <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>3385</v>
+      </c>
+      <c r="G32">
+        <v>9099.333333333334</v>
+      </c>
+      <c r="H32">
+        <v>35666.33333333334</v>
       </c>
     </row>
     <row r="33">
@@ -926,13 +1220,22 @@
         <v>62.26666666666666</v>
       </c>
       <c r="C33">
-        <v>6351.7</v>
+        <v>6350.6</v>
       </c>
       <c r="D33">
-        <v>2178.7</v>
+        <v>2178.3</v>
       </c>
       <c r="E33">
         <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>3404.666666666667</v>
+      </c>
+      <c r="G33">
+        <v>9231</v>
+      </c>
+      <c r="H33">
+        <v>35160</v>
       </c>
     </row>
     <row r="34">
@@ -943,13 +1246,22 @@
         <v>63.36666666666667</v>
       </c>
       <c r="C34">
-        <v>6407</v>
+        <v>6405.2</v>
       </c>
       <c r="D34">
-        <v>2229.7</v>
+        <v>2229</v>
       </c>
       <c r="E34">
         <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>3442.333333333334</v>
+      </c>
+      <c r="G34">
+        <v>9348.333333333334</v>
+      </c>
+      <c r="H34">
+        <v>34095.33333333334</v>
       </c>
     </row>
     <row r="35">
@@ -960,13 +1272,22 @@
         <v>64.76666666666667</v>
       </c>
       <c r="C35">
-        <v>6463.4</v>
+        <v>6460.8</v>
       </c>
       <c r="D35">
-        <v>2292.2</v>
+        <v>2291.3</v>
       </c>
       <c r="E35">
         <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>3479</v>
+      </c>
+      <c r="G35">
+        <v>9466</v>
+      </c>
+      <c r="H35">
+        <v>41889.66666666666</v>
       </c>
     </row>
     <row r="36">
@@ -977,13 +1298,22 @@
         <v>66.23333333333333</v>
       </c>
       <c r="C36">
-        <v>6521.2</v>
+        <v>6518</v>
       </c>
       <c r="D36">
-        <v>2352.1</v>
+        <v>2350.9</v>
       </c>
       <c r="E36">
         <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>3477.333333333334</v>
+      </c>
+      <c r="G36">
+        <v>9492.333333333334</v>
+      </c>
+      <c r="H36">
+        <v>43760.66666666666</v>
       </c>
     </row>
     <row r="37">
@@ -994,13 +1324,22 @@
         <v>67.83333333333333</v>
       </c>
       <c r="C37">
-        <v>6580.1</v>
+        <v>6576.2</v>
       </c>
       <c r="D37">
-        <v>2421.8</v>
+        <v>2420.4</v>
       </c>
       <c r="E37">
         <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>3494</v>
+      </c>
+      <c r="G37">
+        <v>9482.666666666666</v>
+      </c>
+      <c r="H37">
+        <v>45015.33333333334</v>
       </c>
     </row>
     <row r="38">
@@ -1011,13 +1350,22 @@
         <v>69.56666666666666</v>
       </c>
       <c r="C38">
-        <v>6640.6</v>
+        <v>6636</v>
       </c>
       <c r="D38">
-        <v>2488.7</v>
+        <v>2486.9</v>
       </c>
       <c r="E38">
         <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>3504.333333333334</v>
+      </c>
+      <c r="G38">
+        <v>9531.333333333334</v>
+      </c>
+      <c r="H38">
+        <v>40794</v>
       </c>
     </row>
     <row r="39">
@@ -1028,13 +1376,22 @@
         <v>71.89999999999999</v>
       </c>
       <c r="C39">
-        <v>6697.9</v>
+        <v>6693.8</v>
       </c>
       <c r="D39">
-        <v>2571.5</v>
+        <v>2570</v>
       </c>
       <c r="E39">
         <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>3518</v>
+      </c>
+      <c r="G39">
+        <v>9604.333333333334</v>
+      </c>
+      <c r="H39">
+        <v>45875.33333333334</v>
       </c>
     </row>
     <row r="40">
@@ -1045,13 +1402,22 @@
         <v>74.23333333333333</v>
       </c>
       <c r="C40">
-        <v>6750.5</v>
+        <v>6748.7</v>
       </c>
       <c r="D40">
-        <v>2648.5</v>
+        <v>2647.8</v>
       </c>
       <c r="E40">
         <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>3560.666666666667</v>
+      </c>
+      <c r="G40">
+        <v>9710.666666666666</v>
+      </c>
+      <c r="H40">
+        <v>49343.66666666666</v>
       </c>
     </row>
     <row r="41">
@@ -1062,13 +1428,22 @@
         <v>76.5</v>
       </c>
       <c r="C41">
-        <v>6798</v>
+        <v>6800.2</v>
       </c>
       <c r="D41">
-        <v>2716.6</v>
+        <v>2717.5</v>
       </c>
       <c r="E41">
         <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>3579.333333333334</v>
+      </c>
+      <c r="G41">
+        <v>9697.333333333334</v>
+      </c>
+      <c r="H41">
+        <v>52609</v>
       </c>
     </row>
     <row r="42">
@@ -1079,13 +1454,22 @@
         <v>79.5</v>
       </c>
       <c r="C42">
-        <v>6839.7</v>
+        <v>6847.6</v>
       </c>
       <c r="D42">
-        <v>2790.7</v>
+        <v>2793.9</v>
       </c>
       <c r="E42">
         <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3582</v>
+      </c>
+      <c r="G42">
+        <v>9741.333333333334</v>
+      </c>
+      <c r="H42">
+        <v>55934.33333333334</v>
       </c>
     </row>
     <row r="43">
@@ -1096,13 +1480,22 @@
         <v>82.2</v>
       </c>
       <c r="C43">
-        <v>6874.8</v>
+        <v>6890.3</v>
       </c>
       <c r="D43">
-        <v>2871.8</v>
+        <v>2878.2</v>
       </c>
       <c r="E43">
         <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3602.666666666667</v>
+      </c>
+      <c r="G43">
+        <v>9749.333333333334</v>
+      </c>
+      <c r="H43">
+        <v>54112</v>
       </c>
     </row>
     <row r="44">
@@ -1113,13 +1506,22 @@
         <v>83.73333333333333</v>
       </c>
       <c r="C44">
-        <v>6903.2</v>
+        <v>6928.3</v>
       </c>
       <c r="D44">
-        <v>2948.1</v>
+        <v>2958.8</v>
       </c>
       <c r="E44">
         <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3624</v>
+      </c>
+      <c r="G44">
+        <v>9782.333333333334</v>
+      </c>
+      <c r="H44">
+        <v>52797</v>
       </c>
     </row>
     <row r="45">
@@ -1130,13 +1532,22 @@
         <v>86.16666666666667</v>
       </c>
       <c r="C45">
-        <v>6934.7</v>
+        <v>6968.3</v>
       </c>
       <c r="D45">
-        <v>3038.7</v>
+        <v>3053.4</v>
       </c>
       <c r="E45">
         <v>-1</v>
+      </c>
+      <c r="F45">
+        <v>3630.666666666667</v>
+      </c>
+      <c r="G45">
+        <v>9793</v>
+      </c>
+      <c r="H45">
+        <v>54381</v>
       </c>
     </row>
     <row r="46">
@@ -1147,13 +1558,22 @@
         <v>88.46666666666665</v>
       </c>
       <c r="C46">
-        <v>6971.9</v>
+        <v>7012.5</v>
       </c>
       <c r="D46">
-        <v>3135.4</v>
+        <v>3153.6</v>
       </c>
       <c r="E46">
         <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>3636</v>
+      </c>
+      <c r="G46">
+        <v>9750.333333333334</v>
+      </c>
+      <c r="H46">
+        <v>60484</v>
       </c>
     </row>
     <row r="47">
@@ -1164,13 +1584,22 @@
         <v>90.23333333333335</v>
       </c>
       <c r="C47">
-        <v>7013.8</v>
+        <v>7059.7</v>
       </c>
       <c r="D47">
-        <v>3216.7</v>
+        <v>3237.8</v>
       </c>
       <c r="E47">
         <v>-1</v>
+      </c>
+      <c r="F47">
+        <v>3631.666666666667</v>
+      </c>
+      <c r="G47">
+        <v>9665</v>
+      </c>
+      <c r="H47">
+        <v>53862</v>
       </c>
     </row>
     <row r="48">
@@ -1181,13 +1610,22 @@
         <v>92.73333333333333</v>
       </c>
       <c r="C48">
-        <v>7059.8</v>
+        <v>7109.5</v>
       </c>
       <c r="D48">
-        <v>3298.8</v>
+        <v>3322</v>
       </c>
       <c r="E48">
         <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3640</v>
+      </c>
+      <c r="G48">
+        <v>9547.666666666666</v>
+      </c>
+      <c r="H48">
+        <v>52044</v>
       </c>
     </row>
     <row r="49">
@@ -1198,13 +1636,22 @@
         <v>94.16666666666667</v>
       </c>
       <c r="C49">
-        <v>7109.7</v>
+        <v>7161.9</v>
       </c>
       <c r="D49">
-        <v>3379.5</v>
+        <v>3404.3</v>
       </c>
       <c r="E49">
         <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3653</v>
+      </c>
+      <c r="G49">
+        <v>9507</v>
+      </c>
+      <c r="H49">
+        <v>54313.66666666666</v>
       </c>
     </row>
     <row r="50">
@@ -1215,13 +1662,22 @@
         <v>94.96666666666665</v>
       </c>
       <c r="C50">
-        <v>7163</v>
+        <v>7216.2</v>
       </c>
       <c r="D50">
-        <v>3451.7</v>
+        <v>3477.3</v>
       </c>
       <c r="E50">
         <v>1</v>
+      </c>
+      <c r="F50">
+        <v>3645.666666666667</v>
+      </c>
+      <c r="G50">
+        <v>9484.333333333334</v>
+      </c>
+      <c r="H50">
+        <v>51944</v>
       </c>
     </row>
     <row r="51">
@@ -1232,13 +1688,22 @@
         <v>96.23333333333333</v>
       </c>
       <c r="C51">
-        <v>7218.8</v>
+        <v>7271.9</v>
       </c>
       <c r="D51">
-        <v>3523.8</v>
+        <v>3549.7</v>
       </c>
       <c r="E51">
         <v>1</v>
+      </c>
+      <c r="F51">
+        <v>3647.333333333334</v>
+      </c>
+      <c r="G51">
+        <v>9495.666666666666</v>
+      </c>
+      <c r="H51">
+        <v>52182.66666666666</v>
       </c>
     </row>
     <row r="52">
@@ -1249,13 +1714,22 @@
         <v>98</v>
       </c>
       <c r="C52">
-        <v>7276.9</v>
+        <v>7328.5</v>
       </c>
       <c r="D52">
-        <v>3602.5</v>
+        <v>3628</v>
       </c>
       <c r="E52">
         <v>1</v>
+      </c>
+      <c r="F52">
+        <v>3625.666666666667</v>
+      </c>
+      <c r="G52">
+        <v>9409.666666666666</v>
+      </c>
+      <c r="H52">
+        <v>52486.33333333334</v>
       </c>
     </row>
     <row r="53">
@@ -1266,13 +1740,22 @@
         <v>98.33333333333333</v>
       </c>
       <c r="C53">
-        <v>7337</v>
+        <v>7386.2</v>
       </c>
       <c r="D53">
-        <v>3670</v>
+        <v>3694.6</v>
       </c>
       <c r="E53">
         <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3640.333333333334</v>
+      </c>
+      <c r="G53">
+        <v>9437</v>
+      </c>
+      <c r="H53">
+        <v>54765.33333333334</v>
       </c>
     </row>
     <row r="54">
@@ -1283,13 +1766,22 @@
         <v>98.3</v>
       </c>
       <c r="C54">
-        <v>7397.1</v>
+        <v>7443.9</v>
       </c>
       <c r="D54">
-        <v>3727.9</v>
+        <v>3751.5</v>
       </c>
       <c r="E54">
         <v>-1</v>
+      </c>
+      <c r="F54">
+        <v>3650.333333333334</v>
+      </c>
+      <c r="G54">
+        <v>9447.333333333334</v>
+      </c>
+      <c r="H54">
+        <v>52678.33333333334</v>
       </c>
     </row>
     <row r="55">
@@ -1300,13 +1792,22 @@
         <v>99.43333333333334</v>
       </c>
       <c r="C55">
-        <v>7458.6</v>
+        <v>7502.9</v>
       </c>
       <c r="D55">
-        <v>3786.8</v>
+        <v>3809.3</v>
       </c>
       <c r="E55">
         <v>-1</v>
+      </c>
+      <c r="F55">
+        <v>3656</v>
+      </c>
+      <c r="G55">
+        <v>9445.333333333334</v>
+      </c>
+      <c r="H55">
+        <v>51386</v>
       </c>
     </row>
     <row r="56">
@@ -1317,13 +1818,22 @@
         <v>100.4</v>
       </c>
       <c r="C56">
-        <v>7521.8</v>
+        <v>7563.6</v>
       </c>
       <c r="D56">
-        <v>3859.5</v>
+        <v>3881</v>
       </c>
       <c r="E56">
         <v>-1</v>
+      </c>
+      <c r="F56">
+        <v>3671.333333333334</v>
+      </c>
+      <c r="G56">
+        <v>9433</v>
+      </c>
+      <c r="H56">
+        <v>53662.33333333334</v>
       </c>
     </row>
     <row r="57">
@@ -1334,13 +1844,22 @@
         <v>101.1666666666667</v>
       </c>
       <c r="C57">
-        <v>7587.4</v>
+        <v>7626.8</v>
       </c>
       <c r="D57">
-        <v>3922.7</v>
+        <v>3943</v>
       </c>
       <c r="E57">
         <v>-1</v>
+      </c>
+      <c r="F57">
+        <v>3671.666666666667</v>
+      </c>
+      <c r="G57">
+        <v>9401.666666666666</v>
+      </c>
+      <c r="H57">
+        <v>53249</v>
       </c>
     </row>
     <row r="58">
@@ -1351,13 +1870,22 @@
         <v>101.9333333333333</v>
       </c>
       <c r="C58">
-        <v>7655.5</v>
+        <v>7692.5</v>
       </c>
       <c r="D58">
-        <v>3998</v>
+        <v>4017.3</v>
       </c>
       <c r="E58">
         <v>-1</v>
+      </c>
+      <c r="F58">
+        <v>3687</v>
+      </c>
+      <c r="G58">
+        <v>9412</v>
+      </c>
+      <c r="H58">
+        <v>55752.33333333334</v>
       </c>
     </row>
     <row r="59">
@@ -1368,13 +1896,22 @@
         <v>102.4666666666667</v>
       </c>
       <c r="C59">
-        <v>7725.9</v>
+        <v>7760.5</v>
       </c>
       <c r="D59">
-        <v>4069.2</v>
+        <v>4087.5</v>
       </c>
       <c r="E59">
         <v>-1</v>
+      </c>
+      <c r="F59">
+        <v>3720</v>
+      </c>
+      <c r="G59">
+        <v>9445.333333333334</v>
+      </c>
+      <c r="H59">
+        <v>57382.66666666666</v>
       </c>
     </row>
     <row r="60">
@@ -1385,13 +1922,22 @@
         <v>103.9333333333333</v>
       </c>
       <c r="C60">
-        <v>7798</v>
+        <v>7830.2</v>
       </c>
       <c r="D60">
-        <v>4143.8</v>
+        <v>4160.9</v>
       </c>
       <c r="E60">
         <v>-1</v>
+      </c>
+      <c r="F60">
+        <v>3758</v>
+      </c>
+      <c r="G60">
+        <v>9509</v>
+      </c>
+      <c r="H60">
+        <v>59910.33333333334</v>
       </c>
     </row>
     <row r="61">
@@ -1402,13 +1948,22 @@
         <v>104.8</v>
       </c>
       <c r="C61">
-        <v>7871.4</v>
+        <v>7901.2</v>
       </c>
       <c r="D61">
-        <v>4214</v>
+        <v>4230</v>
       </c>
       <c r="E61">
         <v>-1</v>
+      </c>
+      <c r="F61">
+        <v>3773</v>
+      </c>
+      <c r="G61">
+        <v>9555</v>
+      </c>
+      <c r="H61">
+        <v>60890.66666666666</v>
       </c>
     </row>
     <row r="62">
@@ -1419,13 +1974,22 @@
         <v>105.6666666666667</v>
       </c>
       <c r="C62">
-        <v>7945.2</v>
+        <v>7972.5</v>
       </c>
       <c r="D62">
-        <v>4295.6</v>
+        <v>4310.4</v>
       </c>
       <c r="E62">
         <v>-1</v>
+      </c>
+      <c r="F62">
+        <v>3798.333333333334</v>
+      </c>
+      <c r="G62">
+        <v>9595.666666666666</v>
+      </c>
+      <c r="H62">
+        <v>62514.66666666666</v>
       </c>
     </row>
     <row r="63">
@@ -1436,13 +2000,22 @@
         <v>106.6333333333333</v>
       </c>
       <c r="C63">
-        <v>8019.5</v>
+        <v>8044.2</v>
       </c>
       <c r="D63">
-        <v>4363.7</v>
+        <v>4377.1</v>
       </c>
       <c r="E63">
         <v>-1</v>
+      </c>
+      <c r="F63">
+        <v>3819.333333333334</v>
+      </c>
+      <c r="G63">
+        <v>9640.333333333334</v>
+      </c>
+      <c r="H63">
+        <v>65739.33333333333</v>
       </c>
     </row>
     <row r="64">
@@ -1453,13 +2026,22 @@
         <v>107.1333333333333</v>
       </c>
       <c r="C64">
-        <v>8093.9</v>
+        <v>8115.9</v>
       </c>
       <c r="D64">
-        <v>4430.7</v>
+        <v>4442.8</v>
       </c>
       <c r="E64">
         <v>-1</v>
+      </c>
+      <c r="F64">
+        <v>3844.333333333334</v>
+      </c>
+      <c r="G64">
+        <v>9746.666666666666</v>
+      </c>
+      <c r="H64">
+        <v>67220</v>
       </c>
     </row>
     <row r="65">
@@ -1470,13 +2052,22 @@
         <v>108.2</v>
       </c>
       <c r="C65">
-        <v>8167.9</v>
+        <v>8187.2</v>
       </c>
       <c r="D65">
-        <v>4496.2</v>
+        <v>4506.8</v>
       </c>
       <c r="E65">
         <v>-1</v>
+      </c>
+      <c r="F65">
+        <v>3864.333333333334</v>
+      </c>
+      <c r="G65">
+        <v>9764.333333333334</v>
+      </c>
+      <c r="H65">
+        <v>66558.33333333333</v>
       </c>
     </row>
     <row r="66">
@@ -1487,13 +2078,22 @@
         <v>108.6666666666667</v>
       </c>
       <c r="C66">
-        <v>8241.299999999999</v>
+        <v>8257.9</v>
       </c>
       <c r="D66">
-        <v>4559.2</v>
+        <v>4568.4</v>
       </c>
       <c r="E66">
         <v>-1</v>
+      </c>
+      <c r="F66">
+        <v>3872.333333333334</v>
+      </c>
+      <c r="G66">
+        <v>9815.333333333334</v>
+      </c>
+      <c r="H66">
+        <v>70815.33333333333</v>
       </c>
     </row>
     <row r="67">
@@ -1504,13 +2104,22 @@
         <v>107.9333333333333</v>
       </c>
       <c r="C67">
-        <v>8314.4</v>
+        <v>8328.299999999999</v>
       </c>
       <c r="D67">
-        <v>4617</v>
+        <v>4624.7</v>
       </c>
       <c r="E67">
         <v>-1</v>
+      </c>
+      <c r="F67">
+        <v>3883</v>
+      </c>
+      <c r="G67">
+        <v>9854.333333333334</v>
+      </c>
+      <c r="H67">
+        <v>72215.33333333333</v>
       </c>
     </row>
     <row r="68">
@@ -1521,13 +2130,22 @@
         <v>108.5</v>
       </c>
       <c r="C68">
-        <v>8387.5</v>
+        <v>8398.5</v>
       </c>
       <c r="D68">
-        <v>4676.8</v>
+        <v>4682.9</v>
       </c>
       <c r="E68">
         <v>-1</v>
+      </c>
+      <c r="F68">
+        <v>3889.333333333334</v>
+      </c>
+      <c r="G68">
+        <v>9906.666666666666</v>
+      </c>
+      <c r="H68">
+        <v>73843.33333333333</v>
       </c>
     </row>
     <row r="69">
@@ -1538,13 +2156,22 @@
         <v>109.2</v>
       </c>
       <c r="C69">
-        <v>8460.4</v>
+        <v>8468.4</v>
       </c>
       <c r="D69">
-        <v>4743.1</v>
+        <v>4747.5</v>
       </c>
       <c r="E69">
         <v>-1</v>
+      </c>
+      <c r="F69">
+        <v>3926.666666666667</v>
+      </c>
+      <c r="G69">
+        <v>10024.33333333333</v>
+      </c>
+      <c r="H69">
+        <v>71122.66666666667</v>
       </c>
     </row>
     <row r="70">
@@ -1555,13 +2182,22 @@
         <v>110.6666666666667</v>
       </c>
       <c r="C70">
-        <v>8532.9</v>
+        <v>8537.9</v>
       </c>
       <c r="D70">
-        <v>4814.2</v>
+        <v>4817</v>
       </c>
       <c r="E70">
         <v>-1</v>
+      </c>
+      <c r="F70">
+        <v>3943.666666666667</v>
+      </c>
+      <c r="G70">
+        <v>10039.33333333333</v>
+      </c>
+      <c r="H70">
+        <v>75290</v>
       </c>
     </row>
     <row r="71">
@@ -1572,13 +2208,22 @@
         <v>111.9666666666667</v>
       </c>
       <c r="C71">
-        <v>8604.9</v>
+        <v>8606.700000000001</v>
       </c>
       <c r="D71">
-        <v>4888.4</v>
+        <v>4889.4</v>
       </c>
       <c r="E71">
         <v>-1</v>
+      </c>
+      <c r="F71">
+        <v>3953</v>
+      </c>
+      <c r="G71">
+        <v>10083.33333333333</v>
+      </c>
+      <c r="H71">
+        <v>75025.66666666667</v>
       </c>
     </row>
     <row r="72">
@@ -1589,13 +2234,22 @@
         <v>113.1666666666667</v>
       </c>
       <c r="C72">
-        <v>8676.5</v>
+        <v>8675.1</v>
       </c>
       <c r="D72">
-        <v>4966.4</v>
+        <v>4965.6</v>
       </c>
       <c r="E72">
         <v>-1</v>
+      </c>
+      <c r="F72">
+        <v>3969</v>
+      </c>
+      <c r="G72">
+        <v>10092.33333333333</v>
+      </c>
+      <c r="H72">
+        <v>77047</v>
       </c>
     </row>
     <row r="73">
@@ -1606,13 +2260,22 @@
         <v>114.1666666666667</v>
       </c>
       <c r="C73">
-        <v>8748.1</v>
+        <v>8743.5</v>
       </c>
       <c r="D73">
-        <v>5047.2</v>
+        <v>5044.5</v>
       </c>
       <c r="E73">
         <v>-1</v>
+      </c>
+      <c r="F73">
+        <v>4000.666666666667</v>
+      </c>
+      <c r="G73">
+        <v>10184.66666666667</v>
+      </c>
+      <c r="H73">
+        <v>78058</v>
       </c>
     </row>
     <row r="74">
@@ -1623,13 +2286,22 @@
         <v>114.9333333333333</v>
       </c>
       <c r="C74">
-        <v>8819.1</v>
+        <v>8811.200000000001</v>
       </c>
       <c r="D74">
-        <v>5128.1</v>
+        <v>5123.5</v>
       </c>
       <c r="E74">
         <v>-1</v>
+      </c>
+      <c r="F74">
+        <v>4030.666666666667</v>
+      </c>
+      <c r="G74">
+        <v>10250.66666666667</v>
+      </c>
+      <c r="H74">
+        <v>79349.66666666667</v>
       </c>
     </row>
     <row r="75">
@@ -1640,13 +2312,22 @@
         <v>116.2</v>
       </c>
       <c r="C75">
-        <v>8890.200000000001</v>
+        <v>8878.9</v>
       </c>
       <c r="D75">
-        <v>5219.7</v>
+        <v>5213.1</v>
       </c>
       <c r="E75">
         <v>-1</v>
+      </c>
+      <c r="F75">
+        <v>4065.333333333334</v>
+      </c>
+      <c r="G75">
+        <v>10315.33333333333</v>
+      </c>
+      <c r="H75">
+        <v>83348</v>
       </c>
     </row>
     <row r="76">
@@ -1657,13 +2338,22 @@
         <v>117.7333333333333</v>
       </c>
       <c r="C76">
-        <v>8960.9</v>
+        <v>8946.299999999999</v>
       </c>
       <c r="D76">
-        <v>5324.1</v>
+        <v>5315.4</v>
       </c>
       <c r="E76">
         <v>-1</v>
+      </c>
+      <c r="F76">
+        <v>4094.333333333334</v>
+      </c>
+      <c r="G76">
+        <v>10341.66666666667</v>
+      </c>
+      <c r="H76">
+        <v>82022.66666666667</v>
       </c>
     </row>
     <row r="77">
@@ -1674,13 +2364,22 @@
         <v>118.9333333333333</v>
       </c>
       <c r="C77">
-        <v>9031.6</v>
+        <v>9013.700000000001</v>
       </c>
       <c r="D77">
-        <v>5412.5</v>
+        <v>5401.8</v>
       </c>
       <c r="E77">
         <v>-1</v>
+      </c>
+      <c r="F77">
+        <v>4114.666666666667</v>
+      </c>
+      <c r="G77">
+        <v>10446.66666666667</v>
+      </c>
+      <c r="H77">
+        <v>84604</v>
       </c>
     </row>
     <row r="78">
@@ -1691,13 +2390,22 @@
         <v>120.3666666666667</v>
       </c>
       <c r="C78">
-        <v>9102.1</v>
+        <v>9080.700000000001</v>
       </c>
       <c r="D78">
-        <v>5511.6</v>
+        <v>5498.7</v>
       </c>
       <c r="E78">
         <v>-1</v>
+      </c>
+      <c r="F78">
+        <v>4135.666666666667</v>
+      </c>
+      <c r="G78">
+        <v>10510.66666666667</v>
+      </c>
+      <c r="H78">
+        <v>83566.66666666667</v>
       </c>
     </row>
     <row r="79">
@@ -1708,13 +2416,22 @@
         <v>122.4</v>
       </c>
       <c r="C79">
-        <v>9172.4</v>
+        <v>9147.6</v>
       </c>
       <c r="D79">
-        <v>5613.3</v>
+        <v>5598.2</v>
       </c>
       <c r="E79">
         <v>-1</v>
+      </c>
+      <c r="F79">
+        <v>4169</v>
+      </c>
+      <c r="G79">
+        <v>10566.33333333333</v>
+      </c>
+      <c r="H79">
+        <v>85684</v>
       </c>
     </row>
     <row r="80">
@@ -1725,13 +2442,22 @@
         <v>123.2666666666667</v>
       </c>
       <c r="C80">
-        <v>9242.4</v>
+        <v>9214.200000000001</v>
       </c>
       <c r="D80">
-        <v>5697.6</v>
+        <v>5680.2</v>
       </c>
       <c r="E80">
         <v>-1</v>
+      </c>
+      <c r="F80">
+        <v>4201.333333333333</v>
+      </c>
+      <c r="G80">
+        <v>10640.66666666667</v>
+      </c>
+      <c r="H80">
+        <v>85730.33333333333</v>
       </c>
     </row>
     <row r="81">
@@ -1742,13 +2468,22 @@
         <v>124.4</v>
       </c>
       <c r="C81">
-        <v>9311.6</v>
+        <v>9280.700000000001</v>
       </c>
       <c r="D81">
-        <v>5781</v>
+        <v>5761.9</v>
       </c>
       <c r="E81">
         <v>-1</v>
+      </c>
+      <c r="F81">
+        <v>4221</v>
+      </c>
+      <c r="G81">
+        <v>10719.66666666667</v>
+      </c>
+      <c r="H81">
+        <v>89358.33333333333</v>
       </c>
     </row>
     <row r="82">
@@ -1759,13 +2494,22 @@
         <v>126.5666666666667</v>
       </c>
       <c r="C82">
-        <v>9379</v>
+        <v>9346.4</v>
       </c>
       <c r="D82">
-        <v>5885.7</v>
+        <v>5865.2</v>
       </c>
       <c r="E82">
         <v>-1</v>
+      </c>
+      <c r="F82">
+        <v>4258</v>
+      </c>
+      <c r="G82">
+        <v>10814</v>
+      </c>
+      <c r="H82">
+        <v>94388.33333333333</v>
       </c>
     </row>
     <row r="83">
@@ -1776,13 +2520,22 @@
         <v>127.6666666666667</v>
       </c>
       <c r="C83">
-        <v>9444.9</v>
+        <v>9411.5</v>
       </c>
       <c r="D83">
-        <v>5993.4</v>
+        <v>5972.2</v>
       </c>
       <c r="E83">
         <v>-1</v>
+      </c>
+      <c r="F83">
+        <v>4295.666666666667</v>
+      </c>
+      <c r="G83">
+        <v>10873</v>
+      </c>
+      <c r="H83">
+        <v>93807</v>
       </c>
     </row>
     <row r="84">
@@ -1793,13 +2546,22 @@
         <v>129.8666666666667</v>
       </c>
       <c r="C84">
-        <v>9508.799999999999</v>
+        <v>9475.299999999999</v>
       </c>
       <c r="D84">
-        <v>6085.7</v>
+        <v>6064.3</v>
       </c>
       <c r="E84">
         <v>1</v>
+      </c>
+      <c r="F84">
+        <v>4322.666666666667</v>
+      </c>
+      <c r="G84">
+        <v>10967.33333333333</v>
+      </c>
+      <c r="H84">
+        <v>94972</v>
       </c>
     </row>
     <row r="85">
@@ -1810,13 +2572,22 @@
         <v>132.1</v>
       </c>
       <c r="C85">
-        <v>9570.6</v>
+        <v>9537.799999999999</v>
       </c>
       <c r="D85">
-        <v>6170.8</v>
+        <v>6149.7</v>
       </c>
       <c r="E85">
         <v>1</v>
+      </c>
+      <c r="F85">
+        <v>4342.666666666667</v>
+      </c>
+      <c r="G85">
+        <v>11000.33333333333</v>
+      </c>
+      <c r="H85">
+        <v>98807.66666666667</v>
       </c>
     </row>
     <row r="86">
@@ -1827,13 +2598,22 @@
         <v>132.9333333333333</v>
       </c>
       <c r="C86">
-        <v>9630.799999999999</v>
+        <v>9599.200000000001</v>
       </c>
       <c r="D86">
-        <v>6270.5</v>
+        <v>6249.9</v>
       </c>
       <c r="E86">
         <v>1</v>
+      </c>
+      <c r="F86">
+        <v>4358</v>
+      </c>
+      <c r="G86">
+        <v>11027</v>
+      </c>
+      <c r="H86">
+        <v>95253.66666666667</v>
       </c>
     </row>
     <row r="87">
@@ -1844,13 +2624,22 @@
         <v>133.7333333333334</v>
       </c>
       <c r="C87">
-        <v>9689.299999999999</v>
+        <v>9659.6</v>
       </c>
       <c r="D87">
-        <v>6355</v>
+        <v>6335.5</v>
       </c>
       <c r="E87">
         <v>-1</v>
+      </c>
+      <c r="F87">
+        <v>4362.333333333333</v>
+      </c>
+      <c r="G87">
+        <v>11057.33333333333</v>
+      </c>
+      <c r="H87">
+        <v>96128.66666666667</v>
       </c>
     </row>
     <row r="88">
@@ -1861,13 +2650,22 @@
         <v>134.6333333333333</v>
       </c>
       <c r="C88">
-        <v>9747</v>
+        <v>9719.4</v>
       </c>
       <c r="D88">
-        <v>6442.6</v>
+        <v>6424.4</v>
       </c>
       <c r="E88">
         <v>-1</v>
+      </c>
+      <c r="F88">
+        <v>4345</v>
+      </c>
+      <c r="G88">
+        <v>11099.33333333333</v>
+      </c>
+      <c r="H88">
+        <v>97326.33333333333</v>
       </c>
     </row>
     <row r="89">
@@ -1878,13 +2676,22 @@
         <v>135.7333333333333</v>
       </c>
       <c r="C89">
-        <v>9804.6</v>
+        <v>9779.4</v>
       </c>
       <c r="D89">
-        <v>6519.1</v>
+        <v>6502.4</v>
       </c>
       <c r="E89">
         <v>-1</v>
+      </c>
+      <c r="F89">
+        <v>4354.333333333333</v>
+      </c>
+      <c r="G89">
+        <v>11139.33333333333</v>
+      </c>
+      <c r="H89">
+        <v>99221</v>
       </c>
     </row>
     <row r="90">
@@ -1895,13 +2702,22 @@
         <v>136.5333333333333</v>
       </c>
       <c r="C90">
-        <v>9862.4</v>
+        <v>9839.700000000001</v>
       </c>
       <c r="D90">
-        <v>6582</v>
+        <v>6566.9</v>
       </c>
       <c r="E90">
         <v>-1</v>
+      </c>
+      <c r="F90">
+        <v>4372</v>
+      </c>
+      <c r="G90">
+        <v>11199</v>
+      </c>
+      <c r="H90">
+        <v>106368.6666666667</v>
       </c>
     </row>
     <row r="91">
@@ -1912,13 +2728,22 @@
         <v>137.5666666666667</v>
       </c>
       <c r="C91">
-        <v>9921.1</v>
+        <v>9900.9</v>
       </c>
       <c r="D91">
-        <v>6661</v>
+        <v>6647.5</v>
       </c>
       <c r="E91">
         <v>-1</v>
+      </c>
+      <c r="F91">
+        <v>4395.666666666667</v>
+      </c>
+      <c r="G91">
+        <v>11238</v>
+      </c>
+      <c r="H91">
+        <v>103446</v>
       </c>
     </row>
     <row r="92">
@@ -1929,13 +2754,22 @@
         <v>138.7</v>
       </c>
       <c r="C92">
-        <v>9981.200000000001</v>
+        <v>9963.6</v>
       </c>
       <c r="D92">
-        <v>6734.1</v>
+        <v>6722.2</v>
       </c>
       <c r="E92">
         <v>-1</v>
+      </c>
+      <c r="F92">
+        <v>4425.333333333333</v>
+      </c>
+      <c r="G92">
+        <v>11306.66666666667</v>
+      </c>
+      <c r="H92">
+        <v>99580.33333333333</v>
       </c>
     </row>
     <row r="93">
@@ -1946,13 +2780,22 @@
         <v>139.8</v>
       </c>
       <c r="C93">
-        <v>10042.2</v>
+        <v>10027.2</v>
       </c>
       <c r="D93">
-        <v>6821.9</v>
+        <v>6811.7</v>
       </c>
       <c r="E93">
         <v>-1</v>
+      </c>
+      <c r="F93">
+        <v>4438</v>
+      </c>
+      <c r="G93">
+        <v>11319.66666666667</v>
+      </c>
+      <c r="H93">
+        <v>98022.33333333333</v>
       </c>
     </row>
     <row r="94">
@@ -1963,13 +2806,22 @@
         <v>140.7666666666667</v>
       </c>
       <c r="C94">
-        <v>10104.3</v>
+        <v>10091.8</v>
       </c>
       <c r="D94">
-        <v>6902.5</v>
+        <v>6894</v>
       </c>
       <c r="E94">
         <v>-1</v>
+      </c>
+      <c r="F94">
+        <v>4456</v>
+      </c>
+      <c r="G94">
+        <v>11366.66666666667</v>
+      </c>
+      <c r="H94">
+        <v>102495</v>
       </c>
     </row>
     <row r="95">
@@ -1980,13 +2832,22 @@
         <v>141.7333333333334</v>
       </c>
       <c r="C95">
-        <v>10167.9</v>
+        <v>10158.1</v>
       </c>
       <c r="D95">
-        <v>6987.3</v>
+        <v>6980.6</v>
       </c>
       <c r="E95">
         <v>-1</v>
+      </c>
+      <c r="F95">
+        <v>4478</v>
+      </c>
+      <c r="G95">
+        <v>11407.66666666667</v>
+      </c>
+      <c r="H95">
+        <v>111962</v>
       </c>
     </row>
     <row r="96">
@@ -1997,13 +2858,22 @@
         <v>142.3333333333333</v>
       </c>
       <c r="C96">
-        <v>10232.3</v>
+        <v>10225.2</v>
       </c>
       <c r="D96">
-        <v>7073.4</v>
+        <v>7068.5</v>
       </c>
       <c r="E96">
         <v>-1</v>
+      </c>
+      <c r="F96">
+        <v>4496</v>
+      </c>
+      <c r="G96">
+        <v>11483</v>
+      </c>
+      <c r="H96">
+        <v>116124.6666666667</v>
       </c>
     </row>
     <row r="97">
@@ -2014,13 +2884,22 @@
         <v>143.4333333333333</v>
       </c>
       <c r="C97">
-        <v>10297.7</v>
+        <v>10293.3</v>
       </c>
       <c r="D97">
-        <v>7157.4</v>
+        <v>7154.3</v>
       </c>
       <c r="E97">
         <v>-1</v>
+      </c>
+      <c r="F97">
+        <v>4515</v>
+      </c>
+      <c r="G97">
+        <v>11520.66666666667</v>
+      </c>
+      <c r="H97">
+        <v>118029</v>
       </c>
     </row>
     <row r="98">
@@ -2031,13 +2910,22 @@
         <v>144.0333333333333</v>
       </c>
       <c r="C98">
-        <v>10363.7</v>
+        <v>10362.2</v>
       </c>
       <c r="D98">
-        <v>7237.7</v>
+        <v>7236.6</v>
       </c>
       <c r="E98">
         <v>-1</v>
+      </c>
+      <c r="F98">
+        <v>4523.666666666667</v>
+      </c>
+      <c r="G98">
+        <v>11591.33333333333</v>
+      </c>
+      <c r="H98">
+        <v>111803</v>
       </c>
     </row>
     <row r="99">
@@ -2048,13 +2936,22 @@
         <v>144.8666666666667</v>
       </c>
       <c r="C99">
-        <v>10430.1</v>
+        <v>10431.5</v>
       </c>
       <c r="D99">
-        <v>7319.2</v>
+        <v>7320.2</v>
       </c>
       <c r="E99">
         <v>-1</v>
+      </c>
+      <c r="F99">
+        <v>4555.333333333333</v>
+      </c>
+      <c r="G99">
+        <v>11672.33333333333</v>
+      </c>
+      <c r="H99">
+        <v>113545</v>
       </c>
     </row>
     <row r="100">
@@ -2065,13 +2962,22 @@
         <v>146.4</v>
       </c>
       <c r="C100">
-        <v>10497.7</v>
+        <v>10502</v>
       </c>
       <c r="D100">
-        <v>7409</v>
+        <v>7412</v>
       </c>
       <c r="E100">
         <v>-1</v>
+      </c>
+      <c r="F100">
+        <v>4600</v>
+      </c>
+      <c r="G100">
+        <v>11710.33333333333</v>
+      </c>
+      <c r="H100">
+        <v>118942</v>
       </c>
     </row>
     <row r="101">
@@ -2082,13 +2988,22 @@
         <v>147.2666666666667</v>
       </c>
       <c r="C101">
-        <v>10566.2</v>
+        <v>10573.5</v>
       </c>
       <c r="D101">
-        <v>7497.7</v>
+        <v>7502.9</v>
       </c>
       <c r="E101">
         <v>-1</v>
+      </c>
+      <c r="F101">
+        <v>4626.333333333333</v>
+      </c>
+      <c r="G101">
+        <v>11752</v>
+      </c>
+      <c r="H101">
+        <v>117294.3333333333</v>
       </c>
     </row>
     <row r="102">
@@ -2099,13 +3014,22 @@
         <v>148.3333333333333</v>
       </c>
       <c r="C102">
-        <v>10635.1</v>
+        <v>10645.4</v>
       </c>
       <c r="D102">
-        <v>7587.5</v>
+        <v>7595</v>
       </c>
       <c r="E102">
         <v>-1</v>
+      </c>
+      <c r="F102">
+        <v>4649.666666666667</v>
+      </c>
+      <c r="G102">
+        <v>11791.33333333333</v>
+      </c>
+      <c r="H102">
+        <v>116848.6666666667</v>
       </c>
     </row>
     <row r="103">
@@ -2116,13 +3040,22 @@
         <v>149.5</v>
       </c>
       <c r="C103">
-        <v>10704.9</v>
+        <v>10718.4</v>
       </c>
       <c r="D103">
-        <v>7674.1</v>
+        <v>7683.7</v>
       </c>
       <c r="E103">
         <v>-1</v>
+      </c>
+      <c r="F103">
+        <v>4643</v>
+      </c>
+      <c r="G103">
+        <v>11828.66666666667</v>
+      </c>
+      <c r="H103">
+        <v>124434.3333333333</v>
       </c>
     </row>
     <row r="104">
@@ -2133,13 +3066,22 @@
         <v>150.1666666666667</v>
       </c>
       <c r="C104">
-        <v>10775.4</v>
+        <v>10792</v>
       </c>
       <c r="D104">
-        <v>7762.6</v>
+        <v>7774.5</v>
       </c>
       <c r="E104">
         <v>-1</v>
+      </c>
+      <c r="F104">
+        <v>4623.666666666667</v>
+      </c>
+      <c r="G104">
+        <v>11868</v>
+      </c>
+      <c r="H104">
+        <v>125240</v>
       </c>
     </row>
     <row r="105">
@@ -2150,13 +3092,22 @@
         <v>151</v>
       </c>
       <c r="C105">
-        <v>10847.6</v>
+        <v>10867.2</v>
       </c>
       <c r="D105">
-        <v>7852.3</v>
+        <v>7866.5</v>
       </c>
       <c r="E105">
         <v>-1</v>
+      </c>
+      <c r="F105">
+        <v>4624.666666666667</v>
+      </c>
+      <c r="G105">
+        <v>11923</v>
+      </c>
+      <c r="H105">
+        <v>127572.6666666667</v>
       </c>
     </row>
     <row r="106">
@@ -2167,13 +3118,22 @@
         <v>152.4</v>
       </c>
       <c r="C106">
-        <v>10921</v>
+        <v>10943.8</v>
       </c>
       <c r="D106">
-        <v>7943.5</v>
+        <v>7960.1</v>
       </c>
       <c r="E106">
         <v>-1</v>
+      </c>
+      <c r="F106">
+        <v>4621.333333333333</v>
+      </c>
+      <c r="G106">
+        <v>11966</v>
+      </c>
+      <c r="H106">
+        <v>126179.3333333333</v>
       </c>
     </row>
     <row r="107">
@@ -2184,13 +3144,22 @@
         <v>153.7333333333334</v>
       </c>
       <c r="C107">
-        <v>10999.7</v>
+        <v>11025.2</v>
       </c>
       <c r="D107">
-        <v>8033.9</v>
+        <v>8052.5</v>
       </c>
       <c r="E107">
         <v>-1</v>
+      </c>
+      <c r="F107">
+        <v>4618.333333333333</v>
+      </c>
+      <c r="G107">
+        <v>12017.33333333333</v>
+      </c>
+      <c r="H107">
+        <v>131672</v>
       </c>
     </row>
     <row r="108">
@@ -2201,13 +3170,22 @@
         <v>154.5666666666667</v>
       </c>
       <c r="C108">
-        <v>11084.9</v>
+        <v>11112.4</v>
       </c>
       <c r="D108">
-        <v>8122.5</v>
+        <v>8142.7</v>
       </c>
       <c r="E108">
         <v>-1</v>
+      </c>
+      <c r="F108">
+        <v>4600.333333333333</v>
+      </c>
+      <c r="G108">
+        <v>12067</v>
+      </c>
+      <c r="H108">
+        <v>131615</v>
       </c>
     </row>
     <row r="109">
@@ -2218,13 +3196,22 @@
         <v>155.8666666666667</v>
       </c>
       <c r="C109">
-        <v>11176</v>
+        <v>11205.1</v>
       </c>
       <c r="D109">
-        <v>8233.1</v>
+        <v>8254.6</v>
       </c>
       <c r="E109">
         <v>-1</v>
+      </c>
+      <c r="F109">
+        <v>4581.333333333333</v>
+      </c>
+      <c r="G109">
+        <v>12139</v>
+      </c>
+      <c r="H109">
+        <v>135638.6666666667</v>
       </c>
     </row>
     <row r="110">
@@ -2235,13 +3222,22 @@
         <v>156.8</v>
       </c>
       <c r="C110">
-        <v>11273</v>
+        <v>11303.2</v>
       </c>
       <c r="D110">
-        <v>8354.1</v>
+        <v>8376.4</v>
       </c>
       <c r="E110">
         <v>-1</v>
+      </c>
+      <c r="F110">
+        <v>4574.333333333333</v>
+      </c>
+      <c r="G110">
+        <v>12185.66666666667</v>
+      </c>
+      <c r="H110">
+        <v>135471.6666666667</v>
       </c>
     </row>
     <row r="111">
@@ -2252,13 +3248,22 @@
         <v>157.1</v>
       </c>
       <c r="C111">
-        <v>11375</v>
+        <v>11406</v>
       </c>
       <c r="D111">
-        <v>8446.700000000001</v>
+        <v>8469.700000000001</v>
       </c>
       <c r="E111">
         <v>-1</v>
+      </c>
+      <c r="F111">
+        <v>4577</v>
+      </c>
+      <c r="G111">
+        <v>12229.66666666667</v>
+      </c>
+      <c r="H111">
+        <v>139479.3333333333</v>
       </c>
     </row>
     <row r="112">
@@ -2269,13 +3274,22 @@
         <v>157.8</v>
       </c>
       <c r="C112">
-        <v>11482.5</v>
+        <v>11513.8</v>
       </c>
       <c r="D112">
-        <v>8563.5</v>
+        <v>8586.9</v>
       </c>
       <c r="E112">
         <v>-1</v>
+      </c>
+      <c r="F112">
+        <v>4589</v>
+      </c>
+      <c r="G112">
+        <v>12296</v>
+      </c>
+      <c r="H112">
+        <v>141385.3333333333</v>
       </c>
     </row>
     <row r="113">
@@ -2286,13 +3300,22 @@
         <v>158.5333333333333</v>
       </c>
       <c r="C113">
-        <v>11594.2</v>
+        <v>11625.6</v>
       </c>
       <c r="D113">
-        <v>8675.200000000001</v>
+        <v>8698.700000000001</v>
       </c>
       <c r="E113">
         <v>-1</v>
+      </c>
+      <c r="F113">
+        <v>4583</v>
+      </c>
+      <c r="G113">
+        <v>12380</v>
+      </c>
+      <c r="H113">
+        <v>140102.6666666667</v>
       </c>
     </row>
     <row r="114">
@@ -2303,13 +3326,22 @@
         <v>158.7333333333333</v>
       </c>
       <c r="C114">
-        <v>11709.6</v>
+        <v>11741</v>
       </c>
       <c r="D114">
-        <v>8774.4</v>
+        <v>8797.9</v>
       </c>
       <c r="E114">
         <v>-1</v>
+      </c>
+      <c r="F114">
+        <v>4578</v>
+      </c>
+      <c r="G114">
+        <v>12437.33333333333</v>
+      </c>
+      <c r="H114">
+        <v>133975</v>
       </c>
     </row>
     <row r="115">
@@ -2320,13 +3352,22 @@
         <v>159.2</v>
       </c>
       <c r="C115">
-        <v>11828.7</v>
+        <v>11860</v>
       </c>
       <c r="D115">
-        <v>8884.6</v>
+        <v>8908.1</v>
       </c>
       <c r="E115">
         <v>-1</v>
+      </c>
+      <c r="F115">
+        <v>4596.666666666667</v>
+      </c>
+      <c r="G115">
+        <v>12501.33333333333</v>
+      </c>
+      <c r="H115">
+        <v>137818</v>
       </c>
     </row>
     <row r="116">
@@ -2337,13 +3378,22 @@
         <v>159.9666666666667</v>
       </c>
       <c r="C116">
-        <v>11950.2</v>
+        <v>11981.4</v>
       </c>
       <c r="D116">
-        <v>9014.5</v>
+        <v>9038</v>
       </c>
       <c r="E116">
         <v>-1</v>
+      </c>
+      <c r="F116">
+        <v>4631.666666666667</v>
+      </c>
+      <c r="G116">
+        <v>12553.33333333333</v>
+      </c>
+      <c r="H116">
+        <v>143529.3333333333</v>
       </c>
     </row>
     <row r="117">
@@ -2354,13 +3404,22 @@
         <v>160.7666666666667</v>
       </c>
       <c r="C117">
-        <v>12074</v>
+        <v>12105</v>
       </c>
       <c r="D117">
-        <v>9132.9</v>
+        <v>9156.299999999999</v>
       </c>
       <c r="E117">
         <v>-1</v>
+      </c>
+      <c r="F117">
+        <v>4640.666666666667</v>
+      </c>
+      <c r="G117">
+        <v>12616.33333333333</v>
+      </c>
+      <c r="H117">
+        <v>144434.6666666667</v>
       </c>
     </row>
     <row r="118">
@@ -2371,13 +3430,22 @@
         <v>161.3666666666667</v>
       </c>
       <c r="C118">
-        <v>12200.4</v>
+        <v>12231.2</v>
       </c>
       <c r="D118">
-        <v>9263.299999999999</v>
+        <v>9286.700000000001</v>
       </c>
       <c r="E118">
         <v>-1</v>
+      </c>
+      <c r="F118">
+        <v>4669</v>
+      </c>
+      <c r="G118">
+        <v>12694.66666666667</v>
+      </c>
+      <c r="H118">
+        <v>150497</v>
       </c>
     </row>
     <row r="119">
@@ -2388,13 +3456,22 @@
         <v>162.5333333333333</v>
       </c>
       <c r="C119">
-        <v>12328.4</v>
+        <v>12359</v>
       </c>
       <c r="D119">
-        <v>9394.4</v>
+        <v>9417.799999999999</v>
       </c>
       <c r="E119">
         <v>-1</v>
+      </c>
+      <c r="F119">
+        <v>4688.333333333333</v>
+      </c>
+      <c r="G119">
+        <v>12783.33333333333</v>
+      </c>
+      <c r="H119">
+        <v>152515.3333333333</v>
       </c>
     </row>
     <row r="120">
@@ -2405,13 +3482,22 @@
         <v>163.9</v>
       </c>
       <c r="C120">
-        <v>12458.5</v>
+        <v>12488.9</v>
       </c>
       <c r="D120">
-        <v>9526</v>
+        <v>9549.299999999999</v>
       </c>
       <c r="E120">
         <v>-1</v>
+      </c>
+      <c r="F120">
+        <v>4717.333333333333</v>
+      </c>
+      <c r="G120">
+        <v>12887.33333333333</v>
+      </c>
+      <c r="H120">
+        <v>155465.3333333333</v>
       </c>
     </row>
     <row r="121">
@@ -2422,13 +3508,22 @@
         <v>165.2</v>
       </c>
       <c r="C121">
-        <v>12590.9</v>
+        <v>12621</v>
       </c>
       <c r="D121">
-        <v>9679</v>
+        <v>9702.1</v>
       </c>
       <c r="E121">
         <v>-1</v>
+      </c>
+      <c r="F121">
+        <v>4757.333333333333</v>
+      </c>
+      <c r="G121">
+        <v>12972.33333333333</v>
+      </c>
+      <c r="H121">
+        <v>163365.3333333333</v>
       </c>
     </row>
     <row r="122">
@@ -2439,13 +3534,22 @@
         <v>166.8333333333333</v>
       </c>
       <c r="C122">
-        <v>12725</v>
+        <v>12754.4</v>
       </c>
       <c r="D122">
-        <v>9848.700000000001</v>
+        <v>9871.5</v>
       </c>
       <c r="E122">
         <v>-1</v>
+      </c>
+      <c r="F122">
+        <v>4768</v>
+      </c>
+      <c r="G122">
+        <v>13050.33333333333</v>
+      </c>
+      <c r="H122">
+        <v>168776.3333333333</v>
       </c>
     </row>
     <row r="123">
@@ -2456,13 +3560,22 @@
         <v>168.1666666666667</v>
       </c>
       <c r="C123">
-        <v>12857</v>
+        <v>12885.1</v>
       </c>
       <c r="D123">
-        <v>10011.1</v>
+        <v>10033</v>
       </c>
       <c r="E123">
         <v>-1</v>
+      </c>
+      <c r="F123">
+        <v>4779.333333333333</v>
+      </c>
+      <c r="G123">
+        <v>13113</v>
+      </c>
+      <c r="H123">
+        <v>165200.6666666667</v>
       </c>
     </row>
     <row r="124">
@@ -2473,13 +3586,22 @@
         <v>169.7</v>
       </c>
       <c r="C124">
-        <v>12985.1</v>
+        <v>13011.4</v>
       </c>
       <c r="D124">
-        <v>10168.4</v>
+        <v>10189</v>
       </c>
       <c r="E124">
         <v>-1</v>
+      </c>
+      <c r="F124">
+        <v>4793.333333333333</v>
+      </c>
+      <c r="G124">
+        <v>13168</v>
+      </c>
+      <c r="H124">
+        <v>166145</v>
       </c>
     </row>
     <row r="125">
@@ -2490,13 +3612,22 @@
         <v>170.8333333333333</v>
       </c>
       <c r="C125">
-        <v>13108.3</v>
+        <v>13131.9</v>
       </c>
       <c r="D125">
-        <v>10319.2</v>
+        <v>10337.8</v>
       </c>
       <c r="E125">
         <v>-1</v>
+      </c>
+      <c r="F125">
+        <v>4809</v>
+      </c>
+      <c r="G125">
+        <v>13220.66666666667</v>
+      </c>
+      <c r="H125">
+        <v>170616.6666666667</v>
       </c>
     </row>
     <row r="126">
@@ -2507,13 +3638,22 @@
         <v>172.4333333333333</v>
       </c>
       <c r="C126">
-        <v>13227</v>
+        <v>13247.1</v>
       </c>
       <c r="D126">
-        <v>10476.3</v>
+        <v>10492.2</v>
       </c>
       <c r="E126">
         <v>1</v>
+      </c>
+      <c r="F126">
+        <v>4832</v>
+      </c>
+      <c r="G126">
+        <v>13310</v>
+      </c>
+      <c r="H126">
+        <v>176411.3333333333</v>
       </c>
     </row>
     <row r="127">
@@ -2524,13 +3664,22 @@
         <v>173.7333333333334</v>
       </c>
       <c r="C127">
-        <v>13340.3</v>
+        <v>13356.2</v>
       </c>
       <c r="D127">
-        <v>10629.9</v>
+        <v>10642.6</v>
       </c>
       <c r="E127">
         <v>1</v>
+      </c>
+      <c r="F127">
+        <v>4877.666666666667</v>
+      </c>
+      <c r="G127">
+        <v>13410.66666666667</v>
+      </c>
+      <c r="H127">
+        <v>189275.6666666667</v>
       </c>
     </row>
     <row r="128">
@@ -2541,13 +3690,22 @@
         <v>174.1</v>
       </c>
       <c r="C128">
-        <v>13448.4</v>
+        <v>13459.7</v>
       </c>
       <c r="D128">
-        <v>10759.2</v>
+        <v>10768.3</v>
       </c>
       <c r="E128">
         <v>1</v>
+      </c>
+      <c r="F128">
+        <v>4936.666666666667</v>
+      </c>
+      <c r="G128">
+        <v>13500.66666666667</v>
+      </c>
+      <c r="H128">
+        <v>187116</v>
       </c>
     </row>
     <row r="129">
@@ -2558,13 +3716,22 @@
         <v>173.6666666666667</v>
       </c>
       <c r="C129">
-        <v>13551.3</v>
+        <v>13557.8</v>
       </c>
       <c r="D129">
-        <v>10877.4</v>
+        <v>10882.5</v>
       </c>
       <c r="E129">
         <v>1</v>
+      </c>
+      <c r="F129">
+        <v>4977.333333333333</v>
+      </c>
+      <c r="G129">
+        <v>13583.66666666667</v>
+      </c>
+      <c r="H129">
+        <v>193037.6666666667</v>
       </c>
     </row>
     <row r="130">
@@ -2575,13 +3742,22 @@
         <v>174.0333333333333</v>
       </c>
       <c r="C130">
-        <v>13649.8</v>
+        <v>13651.1</v>
       </c>
       <c r="D130">
-        <v>10992.6</v>
+        <v>10993.6</v>
       </c>
       <c r="E130">
         <v>-1</v>
+      </c>
+      <c r="F130">
+        <v>5004.333333333333</v>
+      </c>
+      <c r="G130">
+        <v>13639</v>
+      </c>
+      <c r="H130">
+        <v>198023.3333333333</v>
       </c>
     </row>
     <row r="131">
@@ -2592,13 +3768,22 @@
         <v>175.5333333333333</v>
       </c>
       <c r="C131">
-        <v>13745.2</v>
+        <v>13741.2</v>
       </c>
       <c r="D131">
-        <v>11109</v>
+        <v>11105.7</v>
       </c>
       <c r="E131">
         <v>-1</v>
+      </c>
+      <c r="F131">
+        <v>5039</v>
+      </c>
+      <c r="G131">
+        <v>13699.33333333333</v>
+      </c>
+      <c r="H131">
+        <v>194794</v>
       </c>
     </row>
     <row r="132">
@@ -2609,13 +3794,22 @@
         <v>176.5</v>
       </c>
       <c r="C132">
-        <v>13838.7</v>
+        <v>13829.2</v>
       </c>
       <c r="D132">
-        <v>11236.2</v>
+        <v>11228.4</v>
       </c>
       <c r="E132">
         <v>-1</v>
+      </c>
+      <c r="F132">
+        <v>5052.666666666667</v>
+      </c>
+      <c r="G132">
+        <v>13744.66666666667</v>
+      </c>
+      <c r="H132">
+        <v>196443.6666666667</v>
       </c>
     </row>
     <row r="133">
@@ -2626,13 +3820,22 @@
         <v>177.4666666666667</v>
       </c>
       <c r="C133">
-        <v>13931.2</v>
+        <v>13916</v>
       </c>
       <c r="D133">
-        <v>11375.4</v>
+        <v>11363</v>
       </c>
       <c r="E133">
         <v>-1</v>
+      </c>
+      <c r="F133">
+        <v>5020.666666666667</v>
+      </c>
+      <c r="G133">
+        <v>13775</v>
+      </c>
+      <c r="H133">
+        <v>199770.6666666667</v>
       </c>
     </row>
     <row r="134">
@@ -2643,13 +3846,22 @@
         <v>179.4666666666667</v>
       </c>
       <c r="C134">
-        <v>14023.2</v>
+        <v>14002.4</v>
       </c>
       <c r="D134">
-        <v>11502.5</v>
+        <v>11485.5</v>
       </c>
       <c r="E134">
         <v>-1</v>
+      </c>
+      <c r="F134">
+        <v>5029.333333333333</v>
+      </c>
+      <c r="G134">
+        <v>13801</v>
+      </c>
+      <c r="H134">
+        <v>197410.6666666667</v>
       </c>
     </row>
     <row r="135">
@@ -2660,13 +3872,22 @@
         <v>178.9333333333333</v>
       </c>
       <c r="C135">
-        <v>14116.2</v>
+        <v>14089.7</v>
       </c>
       <c r="D135">
-        <v>11612.9</v>
+        <v>11591.1</v>
       </c>
       <c r="E135">
         <v>-1</v>
+      </c>
+      <c r="F135">
+        <v>5007.666666666667</v>
+      </c>
+      <c r="G135">
+        <v>13820</v>
+      </c>
+      <c r="H135">
+        <v>195858</v>
       </c>
     </row>
     <row r="136">
@@ -2677,13 +3898,22 @@
         <v>180.2</v>
       </c>
       <c r="C136">
-        <v>14209.6</v>
+        <v>14177.4</v>
       </c>
       <c r="D136">
-        <v>11753</v>
+        <v>11726.4</v>
       </c>
       <c r="E136">
         <v>-1</v>
+      </c>
+      <c r="F136">
+        <v>4978.666666666667</v>
+      </c>
+      <c r="G136">
+        <v>13832.33333333333</v>
+      </c>
+      <c r="H136">
+        <v>200686</v>
       </c>
     </row>
     <row r="137">
@@ -2694,13 +3924,22 @@
         <v>180.7333333333334</v>
       </c>
       <c r="C137">
-        <v>14304.5</v>
+        <v>14266.5</v>
       </c>
       <c r="D137">
-        <v>11901.5</v>
+        <v>11869.8</v>
       </c>
       <c r="E137">
         <v>-1</v>
+      </c>
+      <c r="F137">
+        <v>4985.333333333333</v>
+      </c>
+      <c r="G137">
+        <v>13824.33333333333</v>
+      </c>
+      <c r="H137">
+        <v>199340</v>
       </c>
     </row>
     <row r="138">
@@ -2711,13 +3950,22 @@
         <v>182.3333333333333</v>
       </c>
       <c r="C138">
-        <v>14401.4</v>
+        <v>14357.5</v>
       </c>
       <c r="D138">
-        <v>12071.3</v>
+        <v>12034.5</v>
       </c>
       <c r="E138">
         <v>-1</v>
+      </c>
+      <c r="F138">
+        <v>4968.333333333333</v>
+      </c>
+      <c r="G138">
+        <v>13859</v>
+      </c>
+      <c r="H138">
+        <v>197322.3333333333</v>
       </c>
     </row>
     <row r="139">
@@ -2728,13 +3976,22 @@
         <v>183.6666666666667</v>
       </c>
       <c r="C139">
-        <v>14500.3</v>
+        <v>14450.4</v>
       </c>
       <c r="D139">
-        <v>12253.3</v>
+        <v>12211.2</v>
       </c>
       <c r="E139">
         <v>-1</v>
+      </c>
+      <c r="F139">
+        <v>4974</v>
+      </c>
+      <c r="G139">
+        <v>13898</v>
+      </c>
+      <c r="H139">
+        <v>202356.3333333333</v>
       </c>
     </row>
     <row r="140">
@@ -2745,13 +4002,22 @@
         <v>184.8666666666667</v>
       </c>
       <c r="C140">
-        <v>14601.5</v>
+        <v>14545.5</v>
       </c>
       <c r="D140">
-        <v>12419.4</v>
+        <v>12371.8</v>
       </c>
       <c r="E140">
         <v>-1</v>
+      </c>
+      <c r="F140">
+        <v>4984</v>
+      </c>
+      <c r="G140">
+        <v>13909.33333333333</v>
+      </c>
+      <c r="H140">
+        <v>202328</v>
       </c>
     </row>
     <row r="141">
@@ -2762,13 +4028,22 @@
         <v>187.0666666666667</v>
       </c>
       <c r="C141">
-        <v>14704.3</v>
+        <v>14642.1</v>
       </c>
       <c r="D141">
-        <v>12603.3</v>
+        <v>12550</v>
       </c>
       <c r="E141">
         <v>-1</v>
+      </c>
+      <c r="F141">
+        <v>4995.333333333333</v>
+      </c>
+      <c r="G141">
+        <v>13958.66666666667</v>
+      </c>
+      <c r="H141">
+        <v>204931</v>
       </c>
     </row>
     <row r="142">
@@ -2779,13 +4054,22 @@
         <v>187.9333333333333</v>
       </c>
       <c r="C142">
-        <v>14805.1</v>
+        <v>14737.1</v>
       </c>
       <c r="D142">
-        <v>12790.3</v>
+        <v>12731.5</v>
       </c>
       <c r="E142">
         <v>-1</v>
+      </c>
+      <c r="F142">
+        <v>5015.666666666667</v>
+      </c>
+      <c r="G142">
+        <v>13994.66666666667</v>
+      </c>
+      <c r="H142">
+        <v>207202</v>
       </c>
     </row>
     <row r="143">
@@ -2796,13 +4080,22 @@
         <v>189.2333333333334</v>
       </c>
       <c r="C143">
-        <v>14902.8</v>
+        <v>14829.4</v>
       </c>
       <c r="D143">
-        <v>12964.8</v>
+        <v>12901</v>
       </c>
       <c r="E143">
         <v>-1</v>
+      </c>
+      <c r="F143">
+        <v>5023.333333333333</v>
+      </c>
+      <c r="G143">
+        <v>14012</v>
+      </c>
+      <c r="H143">
+        <v>215946</v>
       </c>
     </row>
     <row r="144">
@@ -2813,13 +4106,22 @@
         <v>192.5666666666667</v>
       </c>
       <c r="C144">
-        <v>14998.3</v>
+        <v>14920.2</v>
       </c>
       <c r="D144">
-        <v>13165.9</v>
+        <v>13097.4</v>
       </c>
       <c r="E144">
         <v>-1</v>
+      </c>
+      <c r="F144">
+        <v>5039.333333333333</v>
+      </c>
+      <c r="G144">
+        <v>14085.33333333333</v>
+      </c>
+      <c r="H144">
+        <v>219407.6666666667</v>
       </c>
     </row>
     <row r="145">
@@ -2830,13 +4132,22 @@
         <v>194.2</v>
       </c>
       <c r="C145">
-        <v>15091</v>
+        <v>15008.9</v>
       </c>
       <c r="D145">
-        <v>13353.9</v>
+        <v>13281.3</v>
       </c>
       <c r="E145">
         <v>-1</v>
+      </c>
+      <c r="F145">
+        <v>5047.666666666667</v>
+      </c>
+      <c r="G145">
+        <v>14072.33333333333</v>
+      </c>
+      <c r="H145">
+        <v>222763.6666666667</v>
       </c>
     </row>
     <row r="146">
@@ -2847,13 +4158,22 @@
         <v>195.1333333333334</v>
       </c>
       <c r="C146">
-        <v>15180.8</v>
+        <v>15095.2</v>
       </c>
       <c r="D146">
-        <v>13527.1</v>
+        <v>13450.8</v>
       </c>
       <c r="E146">
         <v>-1</v>
+      </c>
+      <c r="F146">
+        <v>5047</v>
+      </c>
+      <c r="G146">
+        <v>14098</v>
+      </c>
+      <c r="H146">
+        <v>230117.6666666667</v>
       </c>
     </row>
     <row r="147">
@@ -2864,13 +4184,22 @@
         <v>196.9333333333333</v>
       </c>
       <c r="C147">
-        <v>15267.9</v>
+        <v>15179.4</v>
       </c>
       <c r="D147">
-        <v>13718.6</v>
+        <v>13639</v>
       </c>
       <c r="E147">
         <v>-1</v>
+      </c>
+      <c r="F147">
+        <v>5068.333333333333</v>
+      </c>
+      <c r="G147">
+        <v>14119.66666666667</v>
+      </c>
+      <c r="H147">
+        <v>238436</v>
       </c>
     </row>
     <row r="148">
@@ -2881,13 +4210,22 @@
         <v>198.8</v>
       </c>
       <c r="C148">
-        <v>15350.5</v>
+        <v>15259.8</v>
       </c>
       <c r="D148">
-        <v>13889.3</v>
+        <v>13807.3</v>
       </c>
       <c r="E148">
         <v>-1</v>
+      </c>
+      <c r="F148">
+        <v>5086</v>
+      </c>
+      <c r="G148">
+        <v>14201</v>
+      </c>
+      <c r="H148">
+        <v>238965</v>
       </c>
     </row>
     <row r="149">
@@ -2898,13 +4236,22 @@
         <v>197.5666666666666</v>
       </c>
       <c r="C149">
-        <v>15428.1</v>
+        <v>15336.4</v>
       </c>
       <c r="D149">
-        <v>14011.1</v>
+        <v>13927.8</v>
       </c>
       <c r="E149">
         <v>-1</v>
+      </c>
+      <c r="F149">
+        <v>5098.333333333333</v>
+      </c>
+      <c r="G149">
+        <v>14251.33333333333</v>
+      </c>
+      <c r="H149">
+        <v>242956.3333333333</v>
       </c>
     </row>
     <row r="150">
@@ -2915,13 +4262,22 @@
         <v>199.553</v>
       </c>
       <c r="C150">
-        <v>15502.8</v>
+        <v>15412.4</v>
       </c>
       <c r="D150">
-        <v>14217.4</v>
+        <v>14134.4</v>
       </c>
       <c r="E150">
         <v>-1</v>
+      </c>
+      <c r="F150">
+        <v>5106.333333333333</v>
+      </c>
+      <c r="G150">
+        <v>14287.33333333333</v>
+      </c>
+      <c r="H150">
+        <v>258254.3333333333</v>
       </c>
     </row>
     <row r="151">
@@ -2932,13 +4288,22 @@
         <v>202.077</v>
       </c>
       <c r="C151">
-        <v>15577.8</v>
+        <v>15488</v>
       </c>
       <c r="D151">
-        <v>14378.4</v>
+        <v>14295.6</v>
       </c>
       <c r="E151">
         <v>-1</v>
+      </c>
+      <c r="F151">
+        <v>5124.333333333333</v>
+      </c>
+      <c r="G151">
+        <v>14336</v>
+      </c>
+      <c r="H151">
+        <v>266203.6666666667</v>
       </c>
     </row>
     <row r="152">
@@ -2949,13 +4314,22 @@
         <v>203.37</v>
       </c>
       <c r="C152">
-        <v>15652.9</v>
+        <v>15563.8</v>
       </c>
       <c r="D152">
-        <v>14522.2</v>
+        <v>14439.6</v>
       </c>
       <c r="E152">
         <v>-1</v>
+      </c>
+      <c r="F152">
+        <v>5122</v>
+      </c>
+      <c r="G152">
+        <v>14369.33333333333</v>
+      </c>
+      <c r="H152">
+        <v>271640.3333333333</v>
       </c>
     </row>
     <row r="153">
@@ -2966,13 +4340,22 @@
         <v>206.0856666666666</v>
       </c>
       <c r="C153">
-        <v>15727</v>
+        <v>15638.8</v>
       </c>
       <c r="D153">
-        <v>14648.9</v>
+        <v>14566.7</v>
       </c>
       <c r="E153">
         <v>1</v>
+      </c>
+      <c r="F153">
+        <v>5136</v>
+      </c>
+      <c r="G153">
+        <v>14455</v>
+      </c>
+      <c r="H153">
+        <v>276454.6666666667</v>
       </c>
     </row>
     <row r="154">
@@ -2983,13 +4366,22 @@
         <v>208.516</v>
       </c>
       <c r="C154">
-        <v>15799.8</v>
+        <v>15712.6</v>
       </c>
       <c r="D154">
-        <v>14771</v>
+        <v>14689.5</v>
       </c>
       <c r="E154">
         <v>1</v>
+      </c>
+      <c r="F154">
+        <v>5148.666666666667</v>
+      </c>
+      <c r="G154">
+        <v>14521.66666666667</v>
+      </c>
+      <c r="H154">
+        <v>278038.3333333333</v>
       </c>
     </row>
     <row r="155">
@@ -3000,13 +4392,22 @@
         <v>211.5026666666667</v>
       </c>
       <c r="C155">
-        <v>15869.5</v>
+        <v>15783.7</v>
       </c>
       <c r="D155">
-        <v>14915.8</v>
+        <v>14835.1</v>
       </c>
       <c r="E155">
         <v>1</v>
+      </c>
+      <c r="F155">
+        <v>5166</v>
+      </c>
+      <c r="G155">
+        <v>14560.33333333333</v>
+      </c>
+      <c r="H155">
+        <v>283074.3333333333</v>
       </c>
     </row>
     <row r="156">
@@ -3017,13 +4418,22 @@
         <v>215.13</v>
       </c>
       <c r="C156">
-        <v>15935</v>
+        <v>15850.9</v>
       </c>
       <c r="D156">
-        <v>15089</v>
+        <v>15009.3</v>
       </c>
       <c r="E156">
         <v>1</v>
+      </c>
+      <c r="F156">
+        <v>5196.333333333333</v>
+      </c>
+      <c r="G156">
+        <v>14594</v>
+      </c>
+      <c r="H156">
+        <v>287093.6666666667</v>
       </c>
     </row>
     <row r="157">
@@ -3034,13 +4444,22 @@
         <v>208.8386666666667</v>
       </c>
       <c r="C157">
-        <v>15995.8</v>
+        <v>15913.8</v>
       </c>
       <c r="D157">
-        <v>15193.9</v>
+        <v>15116</v>
       </c>
       <c r="E157">
         <v>1</v>
+      </c>
+      <c r="F157">
+        <v>5189</v>
+      </c>
+      <c r="G157">
+        <v>14591</v>
+      </c>
+      <c r="H157">
+        <v>288334</v>
       </c>
     </row>
     <row r="158">
@@ -3051,13 +4470,22 @@
         <v>206.9433333333334</v>
       </c>
       <c r="C158">
-        <v>16050.9</v>
+        <v>15971.4</v>
       </c>
       <c r="D158">
-        <v>15244.5</v>
+        <v>15169.1</v>
       </c>
       <c r="E158">
         <v>1</v>
+      </c>
+      <c r="F158">
+        <v>5192</v>
+      </c>
+      <c r="G158">
+        <v>14587</v>
+      </c>
+      <c r="H158">
+        <v>289591.3333333333</v>
       </c>
     </row>
     <row r="159">
@@ -3068,13 +4496,22 @@
         <v>208.3903333333334</v>
       </c>
       <c r="C159">
-        <v>16101.8</v>
+        <v>16025</v>
       </c>
       <c r="D159">
-        <v>15270.6</v>
+        <v>15197.8</v>
       </c>
       <c r="E159">
         <v>1</v>
+      </c>
+      <c r="F159">
+        <v>5181.666666666667</v>
+      </c>
+      <c r="G159">
+        <v>14576.33333333333</v>
+      </c>
+      <c r="H159">
+        <v>292223.6666666667</v>
       </c>
     </row>
     <row r="160">
@@ -3085,13 +4522,22 @@
         <v>210.695</v>
       </c>
       <c r="C160">
-        <v>16149.4</v>
+        <v>16075.4</v>
       </c>
       <c r="D160">
-        <v>15331.9</v>
+        <v>15261.7</v>
       </c>
       <c r="E160">
         <v>-1</v>
+      </c>
+      <c r="F160">
+        <v>5145.333333333333</v>
+      </c>
+      <c r="G160">
+        <v>14532</v>
+      </c>
+      <c r="H160">
+        <v>287368</v>
       </c>
     </row>
     <row r="161">
@@ -3102,13 +4548,22 @@
         <v>212.6326666666666</v>
       </c>
       <c r="C161">
-        <v>16195.6</v>
+        <v>16124.4</v>
       </c>
       <c r="D161">
-        <v>15427.7</v>
+        <v>15359.8</v>
       </c>
       <c r="E161">
         <v>-1</v>
+      </c>
+      <c r="F161">
+        <v>5153.333333333333</v>
+      </c>
+      <c r="G161">
+        <v>14521</v>
+      </c>
+      <c r="H161">
+        <v>274301</v>
       </c>
     </row>
     <row r="162">
@@ -3119,13 +4574,22 @@
         <v>213.237</v>
       </c>
       <c r="C162">
-        <v>16241.9</v>
+        <v>16173.6</v>
       </c>
       <c r="D162">
-        <v>15511</v>
+        <v>15445.7</v>
       </c>
       <c r="E162">
         <v>-1</v>
+      </c>
+      <c r="F162">
+        <v>5144</v>
+      </c>
+      <c r="G162">
+        <v>14466</v>
+      </c>
+      <c r="H162">
+        <v>268022</v>
       </c>
     </row>
     <row r="163">
@@ -3136,13 +4600,22 @@
         <v>213.1506666666667</v>
       </c>
       <c r="C163">
-        <v>16289.8</v>
+        <v>16224.4</v>
       </c>
       <c r="D163">
-        <v>15628.9</v>
+        <v>15566.2</v>
       </c>
       <c r="E163">
         <v>-1</v>
+      </c>
+      <c r="F163">
+        <v>5136.666666666667</v>
+      </c>
+      <c r="G163">
+        <v>14434</v>
+      </c>
+      <c r="H163">
+        <v>274526.6666666667</v>
       </c>
     </row>
     <row r="164">
@@ -3153,13 +4626,22 @@
         <v>213.82</v>
       </c>
       <c r="C164">
-        <v>16340.1</v>
+        <v>16277.7</v>
       </c>
       <c r="D164">
-        <v>15722.7</v>
+        <v>15662.7</v>
       </c>
       <c r="E164">
         <v>-1</v>
+      </c>
+      <c r="F164">
+        <v>5129.333333333333</v>
+      </c>
+      <c r="G164">
+        <v>14327.66666666667</v>
+      </c>
+      <c r="H164">
+        <v>277232.3333333333</v>
       </c>
     </row>
     <row r="165">
@@ -3170,13 +4652,22 @@
         <v>215.764</v>
       </c>
       <c r="C165">
-        <v>16392.4</v>
+        <v>16333.2</v>
       </c>
       <c r="D165">
-        <v>15861.8</v>
+        <v>15804.5</v>
       </c>
       <c r="E165">
         <v>-1</v>
+      </c>
+      <c r="F165">
+        <v>5137</v>
+      </c>
+      <c r="G165">
+        <v>14279</v>
+      </c>
+      <c r="H165">
+        <v>269906.3333333333</v>
       </c>
     </row>
     <row r="166">
@@ -3187,13 +4678,22 @@
         <v>218.4156666666667</v>
       </c>
       <c r="C166">
-        <v>16447.1</v>
+        <v>16390.9</v>
       </c>
       <c r="D166">
-        <v>16000.1</v>
+        <v>15945.5</v>
       </c>
       <c r="E166">
         <v>-1</v>
+      </c>
+      <c r="F166">
+        <v>5113.333333333333</v>
+      </c>
+      <c r="G166">
+        <v>14232.66666666667</v>
+      </c>
+      <c r="H166">
+        <v>258077</v>
       </c>
     </row>
     <row r="167">
@@ -3204,13 +4704,22 @@
         <v>221.2876666666667</v>
       </c>
       <c r="C167">
-        <v>16503.9</v>
+        <v>16450.9</v>
       </c>
       <c r="D167">
-        <v>16160.9</v>
+        <v>16109</v>
       </c>
       <c r="E167">
         <v>-1</v>
+      </c>
+      <c r="F167">
+        <v>5084.333333333333</v>
+      </c>
+      <c r="G167">
+        <v>14207.66666666667</v>
+      </c>
+      <c r="H167">
+        <v>251739</v>
       </c>
     </row>
     <row r="168">
@@ -3221,13 +4730,22 @@
         <v>222.738</v>
       </c>
       <c r="C168">
-        <v>16563</v>
+        <v>16513.3</v>
       </c>
       <c r="D168">
-        <v>16323.5</v>
+        <v>16274.4</v>
       </c>
       <c r="E168">
         <v>-1</v>
+      </c>
+      <c r="F168">
+        <v>5069.666666666667</v>
+      </c>
+      <c r="G168">
+        <v>14094</v>
+      </c>
+      <c r="H168">
+        <v>253215.3333333333</v>
       </c>
     </row>
     <row r="169">
@@ -3238,13 +4756,22 @@
         <v>223.7746666666667</v>
       </c>
       <c r="C169">
-        <v>16623.7</v>
+        <v>16577.3</v>
       </c>
       <c r="D169">
-        <v>16408.1</v>
+        <v>16362.2</v>
       </c>
       <c r="E169">
         <v>-1</v>
+      </c>
+      <c r="F169">
+        <v>5051</v>
+      </c>
+      <c r="G169">
+        <v>14080.66666666667</v>
+      </c>
+      <c r="H169">
+        <v>258046</v>
       </c>
     </row>
     <row r="170">
@@ -3255,13 +4782,22 @@
         <v>225.0873333333333</v>
       </c>
       <c r="C170">
-        <v>16686</v>
+        <v>16642.9</v>
       </c>
       <c r="D170">
-        <v>16572.7</v>
+        <v>16529.8</v>
       </c>
       <c r="E170">
         <v>-1</v>
+      </c>
+      <c r="F170">
+        <v>5048</v>
+      </c>
+      <c r="G170">
+        <v>14067.66666666667</v>
+      </c>
+      <c r="H170">
+        <v>254528.3333333333</v>
       </c>
     </row>
     <row r="171">
@@ -3272,13 +4808,22 @@
         <v>225.4593333333333</v>
       </c>
       <c r="C171">
-        <v>16750.3</v>
+        <v>16710.5</v>
       </c>
       <c r="D171">
-        <v>16702.2</v>
+        <v>16662.5</v>
       </c>
       <c r="E171">
         <v>-1</v>
+      </c>
+      <c r="F171">
+        <v>5055.333333333333</v>
+      </c>
+      <c r="G171">
+        <v>14044.33333333333</v>
+      </c>
+      <c r="H171">
+        <v>254598.6666666667</v>
       </c>
     </row>
     <row r="172">
@@ -3289,13 +4834,22 @@
         <v>226.357</v>
       </c>
       <c r="C172">
-        <v>16816.1</v>
+        <v>16779.7</v>
       </c>
       <c r="D172">
-        <v>16854</v>
+        <v>16817.4</v>
       </c>
       <c r="E172">
         <v>-1</v>
+      </c>
+      <c r="F172">
+        <v>5064.666666666667</v>
+      </c>
+      <c r="G172">
+        <v>14034.33333333333</v>
+      </c>
+      <c r="H172">
+        <v>252248.6666666667</v>
       </c>
     </row>
     <row r="173">
@@ -3306,13 +4860,22 @@
         <v>227.9716666666667</v>
       </c>
       <c r="C173">
-        <v>16883.2</v>
+        <v>16850.1</v>
       </c>
       <c r="D173">
-        <v>17007.8</v>
+        <v>16974.5</v>
       </c>
       <c r="E173">
         <v>-1</v>
+      </c>
+      <c r="F173">
+        <v>5051.666666666667</v>
+      </c>
+      <c r="G173">
+        <v>14026.33333333333</v>
+      </c>
+      <c r="H173">
+        <v>246424.3333333333</v>
       </c>
     </row>
     <row r="174">
@@ -3323,13 +4886,22 @@
         <v>228.8366666666667</v>
       </c>
       <c r="C174">
-        <v>16951.5</v>
+        <v>16921.8</v>
       </c>
       <c r="D174">
-        <v>17144.6</v>
+        <v>17114.6</v>
       </c>
       <c r="E174">
         <v>-1</v>
+      </c>
+      <c r="F174">
+        <v>5042</v>
+      </c>
+      <c r="G174">
+        <v>14029.33333333333</v>
+      </c>
+      <c r="H174">
+        <v>242924.3333333333</v>
       </c>
     </row>
     <row r="175">
@@ -3340,13 +4912,22 @@
         <v>228.4096666666667</v>
       </c>
       <c r="C175">
-        <v>17021.3</v>
+        <v>16994.9</v>
       </c>
       <c r="D175">
-        <v>17264.8</v>
+        <v>17238</v>
       </c>
       <c r="E175">
         <v>-1</v>
+      </c>
+      <c r="F175">
+        <v>5044.666666666667</v>
+      </c>
+      <c r="G175">
+        <v>14033</v>
+      </c>
+      <c r="H175">
+        <v>245991.6666666667</v>
       </c>
     </row>
     <row r="176">
@@ -3357,13 +4938,22 @@
         <v>229.589</v>
       </c>
       <c r="C176">
-        <v>17091.8</v>
+        <v>17068.6</v>
       </c>
       <c r="D176">
-        <v>17419.5</v>
+        <v>17395.8</v>
       </c>
       <c r="E176">
         <v>-1</v>
+      </c>
+      <c r="F176">
+        <v>5040</v>
+      </c>
+      <c r="G176">
+        <v>14031</v>
+      </c>
+      <c r="H176">
+        <v>249225</v>
       </c>
     </row>
     <row r="177">
@@ -3374,13 +4964,22 @@
         <v>230.4336666666667</v>
       </c>
       <c r="C177">
-        <v>17163.4</v>
+        <v>17143.4</v>
       </c>
       <c r="D177">
-        <v>17595.5</v>
+        <v>17575</v>
       </c>
       <c r="E177">
         <v>-1</v>
+      </c>
+      <c r="F177">
+        <v>5055.333333333333</v>
+      </c>
+      <c r="G177">
+        <v>14033.66666666667</v>
+      </c>
+      <c r="H177">
+        <v>247543.3333333333</v>
       </c>
     </row>
     <row r="178">
@@ -3391,13 +4990,22 @@
         <v>231.95</v>
       </c>
       <c r="C178">
-        <v>17236.1</v>
+        <v>17219.3</v>
       </c>
       <c r="D178">
-        <v>17742.4</v>
+        <v>17725.1</v>
       </c>
       <c r="E178">
         <v>-1</v>
+      </c>
+      <c r="F178">
+        <v>5054.666666666667</v>
+      </c>
+      <c r="G178">
+        <v>14037.66666666667</v>
+      </c>
+      <c r="H178">
+        <v>242591.3333333333</v>
       </c>
     </row>
     <row r="179">
@@ -3408,13 +5016,22 @@
         <v>233.1013333333334</v>
       </c>
       <c r="C179">
-        <v>17309.7</v>
+        <v>17296.2</v>
       </c>
       <c r="D179">
-        <v>17917.6</v>
+        <v>17903.5</v>
       </c>
       <c r="E179">
         <v>-1</v>
+      </c>
+      <c r="F179">
+        <v>5054.666666666667</v>
+      </c>
+      <c r="G179">
+        <v>14077</v>
+      </c>
+      <c r="H179">
+        <v>251613.3333333333</v>
       </c>
     </row>
     <row r="180">
@@ -3425,13 +5042,22 @@
         <v>233.4943333333333</v>
       </c>
       <c r="C180">
-        <v>17384.6</v>
+        <v>17374.2</v>
       </c>
       <c r="D180">
-        <v>18072.6</v>
+        <v>18061.8</v>
       </c>
       <c r="E180">
         <v>-1</v>
+      </c>
+      <c r="F180">
+        <v>5030.666666666667</v>
+      </c>
+      <c r="G180">
+        <v>14120</v>
+      </c>
+      <c r="H180">
+        <v>257546.3333333333</v>
       </c>
     </row>
     <row r="181">
@@ -3442,13 +5068,22 @@
         <v>232.431</v>
       </c>
       <c r="C181">
-        <v>17460.2</v>
+        <v>17453</v>
       </c>
       <c r="D181">
-        <v>18180.2</v>
+        <v>18172.7</v>
       </c>
       <c r="E181">
         <v>-1</v>
+      </c>
+      <c r="F181">
+        <v>5052.666666666667</v>
+      </c>
+      <c r="G181">
+        <v>14140</v>
+      </c>
+      <c r="H181">
+        <v>260104.3333333333</v>
       </c>
     </row>
     <row r="182">
@@ -3459,13 +5094,22 @@
         <v>230.2366666666667</v>
       </c>
       <c r="C182">
-        <v>17535.8</v>
+        <v>17532.1</v>
       </c>
       <c r="D182">
-        <v>18252.9</v>
+        <v>18238.8</v>
       </c>
       <c r="E182">
         <v>-1</v>
+      </c>
+      <c r="F182">
+        <v>5067.666666666667</v>
+      </c>
+      <c r="G182">
+        <v>14155</v>
+      </c>
+      <c r="H182">
+        <v>260731.6666666667</v>
       </c>
     </row>
     <row r="183">
@@ -3476,13 +5120,22 @@
         <v>231.9576666666667</v>
       </c>
       <c r="C183">
-        <v>17611.7</v>
+        <v>17611.2</v>
       </c>
       <c r="D183">
-        <v>18435.1</v>
+        <v>18420.6</v>
       </c>
       <c r="E183">
         <v>-1</v>
+      </c>
+      <c r="F183">
+        <v>5072.333333333333</v>
+      </c>
+      <c r="G183">
+        <v>14181.66666666667</v>
+      </c>
+      <c r="H183">
+        <v>274292.3333333333</v>
       </c>
     </row>
     <row r="184">
@@ -3493,13 +5146,22 @@
         <v>232.6933333333334</v>
       </c>
       <c r="C184">
-        <v>17687</v>
+        <v>17689.6</v>
       </c>
       <c r="D184">
-        <v>18579.8</v>
+        <v>18561</v>
       </c>
       <c r="E184">
         <v>-1</v>
+      </c>
+      <c r="F184">
+        <v>5077.666666666667</v>
+      </c>
+      <c r="G184">
+        <v>14214</v>
+      </c>
+      <c r="H184">
+        <v>278090.3333333333</v>
       </c>
     </row>
     <row r="185">
@@ -3510,13 +5172,22 @@
         <v>232.2803333333334</v>
       </c>
       <c r="C185">
-        <v>17761.5</v>
+        <v>17766.8</v>
       </c>
       <c r="D185">
-        <v>18658.1</v>
+        <v>18643.9</v>
       </c>
       <c r="E185">
         <v>-1</v>
+      </c>
+      <c r="F185">
+        <v>5087.333333333333</v>
+      </c>
+      <c r="G185">
+        <v>14223.66666666667</v>
+      </c>
+      <c r="H185">
+        <v>268417</v>
       </c>
     </row>
     <row r="186">
@@ -3527,13 +5198,22 @@
         <v>231.8976666666667</v>
       </c>
       <c r="C186">
-        <v>17836</v>
+        <v>17843.2</v>
       </c>
       <c r="D186">
-        <v>18717.3</v>
+        <v>18711.2</v>
       </c>
       <c r="E186">
         <v>-1</v>
+      </c>
+      <c r="F186">
+        <v>5089.333333333333</v>
+      </c>
+      <c r="G186">
+        <v>14280.33333333333</v>
+      </c>
+      <c r="H186">
+        <v>280145</v>
       </c>
     </row>
     <row r="187">
@@ -3544,13 +5224,22 @@
         <v>233.6383333333334</v>
       </c>
       <c r="C187">
-        <v>17908.6</v>
+        <v>17918.2</v>
       </c>
       <c r="D187">
-        <v>18921.7</v>
+        <v>18920.1</v>
       </c>
       <c r="E187">
         <v>-1</v>
+      </c>
+      <c r="F187">
+        <v>5099.333333333333</v>
+      </c>
+      <c r="G187">
+        <v>14298.33333333333</v>
+      </c>
+      <c r="H187">
+        <v>275022</v>
       </c>
     </row>
     <row r="188">
@@ -3561,13 +5250,22 @@
         <v>234.569</v>
       </c>
       <c r="C188">
-        <v>17980.7</v>
+        <v>17992</v>
       </c>
       <c r="D188">
-        <v>19067.1</v>
+        <v>19062.5</v>
       </c>
       <c r="E188">
         <v>-1</v>
+      </c>
+      <c r="F188">
+        <v>5125.333333333333</v>
+      </c>
+      <c r="G188">
+        <v>14357</v>
+      </c>
+      <c r="H188">
+        <v>271266.6666666667</v>
       </c>
     </row>
     <row r="189">
@@ -3578,13 +5276,22 @@
         <v>236.0903333333333</v>
       </c>
       <c r="C189">
-        <v>18052.4</v>
+        <v>18065.1</v>
       </c>
       <c r="D189">
-        <v>19235.1</v>
+        <v>19233.7</v>
       </c>
       <c r="E189">
         <v>-1</v>
+      </c>
+      <c r="F189">
+        <v>5138</v>
+      </c>
+      <c r="G189">
+        <v>14352</v>
+      </c>
+      <c r="H189">
+        <v>274719.6666666667</v>
       </c>
     </row>
     <row r="190">
@@ -3595,13 +5302,22 @@
         <v>237.8366666666667</v>
       </c>
       <c r="C190">
-        <v>18123.9</v>
+        <v>18137.7</v>
       </c>
       <c r="D190">
-        <v>19403.1</v>
+        <v>19409</v>
       </c>
       <c r="E190">
         <v>-1</v>
+      </c>
+      <c r="F190">
+        <v>5158</v>
+      </c>
+      <c r="G190">
+        <v>14344.33333333333</v>
+      </c>
+      <c r="H190">
+        <v>274527.6666666667</v>
       </c>
     </row>
     <row r="191">
@@ -3612,13 +5328,22 @@
         <v>237.876</v>
       </c>
       <c r="C191">
-        <v>18196.9</v>
+        <v>18211.1</v>
       </c>
       <c r="D191">
-        <v>19545.5</v>
+        <v>19547.7</v>
       </c>
       <c r="E191">
         <v>-1</v>
+      </c>
+      <c r="F191">
+        <v>5170</v>
+      </c>
+      <c r="G191">
+        <v>14361.33333333333</v>
+      </c>
+      <c r="H191">
+        <v>275545.6666666667</v>
       </c>
     </row>
     <row r="192">
@@ -3629,13 +5354,22 @@
         <v>239.2166666666667</v>
       </c>
       <c r="C192">
-        <v>18272.6</v>
+        <v>18287.1</v>
       </c>
       <c r="D192">
-        <v>19729.4</v>
+        <v>19726.8</v>
       </c>
       <c r="E192">
         <v>-1</v>
+      </c>
+      <c r="F192">
+        <v>5166.666666666667</v>
+      </c>
+      <c r="G192">
+        <v>14391</v>
+      </c>
+      <c r="H192">
+        <v>273887</v>
       </c>
     </row>
     <row r="193">
@@ -3646,13 +5380,22 @@
         <v>241.274</v>
       </c>
       <c r="C193">
-        <v>18350.5</v>
+        <v>18365.3</v>
       </c>
       <c r="D193">
-        <v>19949.3</v>
+        <v>19944.4</v>
       </c>
       <c r="E193">
         <v>-1</v>
+      </c>
+      <c r="F193">
+        <v>5161.666666666667</v>
+      </c>
+      <c r="G193">
+        <v>14423</v>
+      </c>
+      <c r="H193">
+        <v>278738</v>
       </c>
     </row>
     <row r="194">
@@ -3663,13 +5406,22 @@
         <v>243.3273333333333</v>
       </c>
       <c r="C194">
-        <v>18430.7</v>
+        <v>18446.4</v>
       </c>
       <c r="D194">
-        <v>20154.9</v>
+        <v>20150.3</v>
       </c>
       <c r="E194">
         <v>-1</v>
+      </c>
+      <c r="F194">
+        <v>5150.666666666667</v>
+      </c>
+      <c r="G194">
+        <v>14442</v>
+      </c>
+      <c r="H194">
+        <v>284701</v>
       </c>
     </row>
     <row r="195">
@@ -3680,13 +5432,22 @@
         <v>244.6613333333334</v>
       </c>
       <c r="C195">
-        <v>18513.4</v>
+        <v>18530.5</v>
       </c>
       <c r="D195">
-        <v>20416.8</v>
+        <v>20416.2</v>
       </c>
       <c r="E195">
         <v>-1</v>
+      </c>
+      <c r="F195">
+        <v>5173.666666666667</v>
+      </c>
+      <c r="G195">
+        <v>14466.66666666667</v>
+      </c>
+      <c r="H195">
+        <v>293031</v>
       </c>
     </row>
     <row r="196">
@@ -3697,13 +5458,22 @@
         <v>245.9633333333333</v>
       </c>
       <c r="C196">
-        <v>18598.3</v>
+        <v>18617.4</v>
       </c>
       <c r="D196">
-        <v>20600.9</v>
+        <v>20593.4</v>
       </c>
       <c r="E196">
         <v>-1</v>
+      </c>
+      <c r="F196">
+        <v>5184.666666666667</v>
+      </c>
+      <c r="G196">
+        <v>14494.66666666667</v>
+      </c>
+      <c r="H196">
+        <v>291638.3333333333</v>
       </c>
     </row>
     <row r="197">
@@ -3714,13 +5484,22 @@
         <v>246.6076666666667</v>
       </c>
       <c r="C197">
-        <v>18684</v>
+        <v>18705.5</v>
       </c>
       <c r="D197">
-        <v>20787</v>
+        <v>20789.5</v>
       </c>
       <c r="E197">
         <v>-1</v>
+      </c>
+      <c r="F197">
+        <v>5176.666666666667</v>
+      </c>
+      <c r="G197">
+        <v>14503.66666666667</v>
+      </c>
+      <c r="H197">
+        <v>283060</v>
       </c>
     </row>
     <row r="198">
@@ -3731,13 +5510,22 @@
         <v>246.8373333333333</v>
       </c>
       <c r="C198">
-        <v>18770.2</v>
+        <v>18794.8</v>
       </c>
       <c r="D198">
-        <v>20923.6</v>
+        <v>20942.1</v>
       </c>
       <c r="E198">
         <v>-1</v>
+      </c>
+      <c r="F198">
+        <v>5173.333333333333</v>
+      </c>
+      <c r="G198">
+        <v>14529</v>
+      </c>
+      <c r="H198">
+        <v>299821.3333333333</v>
       </c>
     </row>
     <row r="199">
@@ -3748,13 +5536,22 @@
         <v>248.8213333333333</v>
       </c>
       <c r="C199">
-        <v>18856.7</v>
+        <v>18885.5</v>
       </c>
       <c r="D199">
-        <v>21155</v>
+        <v>21178.4</v>
       </c>
       <c r="E199">
         <v>-1</v>
+      </c>
+      <c r="F199">
+        <v>5161.333333333333</v>
+      </c>
+      <c r="G199">
+        <v>14565</v>
+      </c>
+      <c r="H199">
+        <v>314021</v>
       </c>
     </row>
     <row r="200">
@@ -3765,13 +5562,22 @@
         <v>249.831</v>
       </c>
       <c r="C200">
-        <v>18943.1</v>
+        <v>18976.5</v>
       </c>
       <c r="D200">
-        <v>21342</v>
+        <v>21354.4</v>
       </c>
       <c r="E200">
         <v>-1</v>
+      </c>
+      <c r="F200">
+        <v>5177.666666666667</v>
+      </c>
+      <c r="G200">
+        <v>14598.66666666667</v>
+      </c>
+      <c r="H200">
+        <v>311467.6666666667</v>
       </c>
     </row>
     <row r="201">
@@ -3782,13 +5588,22 @@
         <v>251.367</v>
       </c>
       <c r="C201">
-        <v>19029.6</v>
+        <v>19065.6</v>
       </c>
       <c r="D201">
-        <v>21511.7</v>
+        <v>21534.6</v>
       </c>
       <c r="E201">
         <v>1</v>
+      </c>
+      <c r="F201">
+        <v>5183</v>
+      </c>
+      <c r="G201">
+        <v>14631</v>
+      </c>
+      <c r="H201">
+        <v>312808.6666666667</v>
       </c>
     </row>
     <row r="202">
@@ -3799,13 +5614,22 @@
         <v>251.9656666666666</v>
       </c>
       <c r="C202">
-        <v>19115.9</v>
+        <v>19154</v>
       </c>
       <c r="D202">
-        <v>21696.9</v>
+        <v>21723.5</v>
       </c>
       <c r="E202">
         <v>1</v>
+      </c>
+      <c r="F202">
+        <v>5183.666666666667</v>
+      </c>
+      <c r="G202">
+        <v>14676</v>
+      </c>
+      <c r="H202">
+        <v>328551</v>
       </c>
     </row>
     <row r="203">
@@ -3816,13 +5640,22 @@
         <v>249.442</v>
       </c>
       <c r="C203">
-        <v>19203.8</v>
+        <v>19242</v>
       </c>
       <c r="D203">
-        <v>21657.2</v>
+        <v>21708.2</v>
       </c>
       <c r="E203">
         <v>1</v>
+      </c>
+      <c r="F203">
+        <v>4974</v>
+      </c>
+      <c r="G203">
+        <v>13591.66666666667</v>
+      </c>
+      <c r="H203">
+        <v>326980</v>
       </c>
     </row>
     <row r="204">
@@ -3833,13 +5666,22 @@
         <v>253.1416666666667</v>
       </c>
       <c r="C204">
-        <v>19267.7</v>
+        <v>19327.3</v>
       </c>
       <c r="D204">
-        <v>21803.7</v>
+        <v>22002.3</v>
       </c>
       <c r="E204">
         <v>1</v>
+      </c>
+      <c r="F204">
+        <v>4957.666666666667</v>
+      </c>
+      <c r="G204">
+        <v>13763.33333333333</v>
+      </c>
+      <c r="H204">
+        <v>318988.3333333333</v>
       </c>
     </row>
     <row r="205">
@@ -3847,16 +5689,25 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>251.5164444444444</v>
+        <v>254.6403333333334</v>
       </c>
       <c r="C205">
-        <v>19330.8</v>
+        <v>19414.2</v>
       </c>
       <c r="D205">
-        <v>21896.2</v>
+        <v>22146</v>
       </c>
       <c r="E205">
         <v>1</v>
+      </c>
+      <c r="F205">
+        <v>4840.333333333333</v>
+      </c>
+      <c r="G205">
+        <v>13685</v>
+      </c>
+      <c r="H205">
+        <v>325241.6666666667</v>
       </c>
     </row>
     <row r="206">
@@ -3864,16 +5715,25 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>251.3667037037037</v>
+        <v>252.408</v>
       </c>
       <c r="C206">
-        <v>19396.3</v>
+        <v>19502.8</v>
       </c>
       <c r="D206">
-        <v>22013.2</v>
+        <v>22361.5</v>
       </c>
       <c r="E206">
         <v>1</v>
+      </c>
+      <c r="F206">
+        <v>4924</v>
+      </c>
+      <c r="G206">
+        <v>13680</v>
+      </c>
+      <c r="H206">
+        <v>323736.6666666667</v>
       </c>
     </row>
     <row r="207">
@@ -3881,16 +5741,25 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>252.0082716049383</v>
+        <v>253.3966666666667</v>
       </c>
       <c r="C207">
-        <v>19466.4</v>
+        <v>19594.2</v>
       </c>
       <c r="D207">
-        <v>22166.5</v>
+        <v>22558.5</v>
       </c>
       <c r="E207">
         <v>1</v>
+      </c>
+      <c r="F207">
+        <v>4907.333333333333</v>
+      </c>
+      <c r="G207">
+        <v>13709.44444444445</v>
+      </c>
+      <c r="H207">
+        <v>322655.5555555556</v>
       </c>
     </row>
     <row r="208">
@@ -3898,16 +5767,25 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>251.6304732510288</v>
+        <v>253.4816666666667</v>
       </c>
       <c r="C208">
-        <v>19542.1</v>
+        <v>19687.7</v>
       </c>
       <c r="D208">
-        <v>22336.7</v>
+        <v>22781.6</v>
       </c>
       <c r="E208">
         <v>1</v>
+      </c>
+      <c r="F208">
+        <v>4890.555555555556</v>
+      </c>
+      <c r="G208">
+        <v>13691.48148148148</v>
+      </c>
+      <c r="H208">
+        <v>323877.962962963</v>
       </c>
     </row>
     <row r="209">
@@ -3915,16 +5793,25 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>251.6684828532236</v>
+        <v>253.0954444444445</v>
       </c>
       <c r="C209">
-        <v>19623.7</v>
+        <v>19783.1</v>
       </c>
       <c r="D209">
-        <v>22513.3</v>
+        <v>22992.3</v>
       </c>
       <c r="E209">
         <v>1</v>
+      </c>
+      <c r="F209">
+        <v>4907.296296296297</v>
+      </c>
+      <c r="G209">
+        <v>13693.64197530864</v>
+      </c>
+      <c r="H209">
+        <v>323423.3950617284</v>
       </c>
     </row>
     <row r="210">
@@ -3932,16 +5819,25 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>251.7690759030636</v>
+        <v>253.3245925925926</v>
       </c>
       <c r="C210">
-        <v>19708.4</v>
+        <v>19879.6</v>
       </c>
       <c r="D210">
-        <v>22704.4</v>
+        <v>23223.9</v>
       </c>
       <c r="E210">
         <v>1</v>
+      </c>
+      <c r="F210">
+        <v>4901.728395061728</v>
+      </c>
+      <c r="G210">
+        <v>13698.18930041152</v>
+      </c>
+      <c r="H210">
+        <v>323318.9711934156</v>
       </c>
     </row>
     <row r="211">
@@ -3949,16 +5845,25 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>251.6893440024387</v>
+        <v>253.3005679012346</v>
       </c>
       <c r="C211">
-        <v>19794.5</v>
+        <v>19975.5</v>
       </c>
       <c r="D211">
-        <v>22907.1</v>
+        <v>23445.8</v>
       </c>
       <c r="E211">
         <v>1</v>
+      </c>
+      <c r="F211">
+        <v>4899.860082304527</v>
+      </c>
+      <c r="G211">
+        <v>13694.43758573388</v>
+      </c>
+      <c r="H211">
+        <v>323540.109739369</v>
       </c>
     </row>
     <row r="212">
@@ -3966,16 +5871,25 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>251.7089675862419</v>
+        <v>253.2402016460906</v>
       </c>
       <c r="C212">
-        <v>19881.7</v>
+        <v>20069.9</v>
       </c>
       <c r="D212">
-        <v>23116.6</v>
+        <v>23668.9</v>
       </c>
       <c r="E212">
         <v>1</v>
+      </c>
+      <c r="F212">
+        <v>4902.961591220851</v>
+      </c>
+      <c r="G212">
+        <v>13695.42295381802</v>
+      </c>
+      <c r="H212">
+        <v>323427.491998171</v>
       </c>
     </row>
     <row r="213">
@@ -3983,16 +5897,25 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>251.7224624972481</v>
+        <v>253.2884540466393</v>
       </c>
       <c r="C213">
-        <v>19970</v>
+        <v>20163.7</v>
       </c>
       <c r="D213">
-        <v>23327.7</v>
+        <v>23896.9</v>
       </c>
       <c r="E213">
         <v>1</v>
+      </c>
+      <c r="F213">
+        <v>4901.516689529036</v>
+      </c>
+      <c r="G213">
+        <v>13696.01661332114</v>
+      </c>
+      <c r="H213">
+        <v>323428.8576436519</v>
       </c>
     </row>
     <row r="214">
@@ -4000,16 +5923,25 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>251.7069246953095</v>
+        <v>253.2764078646548</v>
       </c>
       <c r="C214">
-        <v>20059.6</v>
+        <v>20257.3</v>
       </c>
       <c r="D214">
-        <v>23541</v>
+        <v>24125.1</v>
       </c>
       <c r="E214">
         <v>1</v>
+      </c>
+      <c r="F214">
+        <v>4901.446121018138</v>
+      </c>
+      <c r="G214">
+        <v>13695.29238429101</v>
+      </c>
+      <c r="H214">
+        <v>323465.4864603973</v>
       </c>
     </row>
     <row r="215">
@@ -4017,16 +5949,25 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>251.7127849262665</v>
+        <v>253.2683545191282</v>
       </c>
       <c r="C215">
-        <v>20149.6</v>
+        <v>20351.2</v>
       </c>
       <c r="D215">
-        <v>23760.7</v>
+        <v>24357.3</v>
       </c>
       <c r="E215">
         <v>1</v>
+      </c>
+      <c r="F215">
+        <v>4901.974800589342</v>
+      </c>
+      <c r="G215">
+        <v>13695.57731714339</v>
+      </c>
+      <c r="H215">
+        <v>323440.6120340734</v>
       </c>
     </row>
     <row r="216">
@@ -4034,16 +5975,25 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>251.7140573729414</v>
+        <v>253.2777388101408</v>
       </c>
       <c r="C216">
-        <v>20240.9</v>
+        <v>20446</v>
       </c>
       <c r="D216">
-        <v>23985.2</v>
+        <v>24593.7</v>
       </c>
       <c r="E216">
         <v>1</v>
+      </c>
+      <c r="F216">
+        <v>4901.645870378839</v>
+      </c>
+      <c r="G216">
+        <v>13695.62877158518</v>
+      </c>
+      <c r="H216">
+        <v>323444.9853793742</v>
       </c>
     </row>
     <row r="217">
@@ -4051,16 +6001,25 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>251.7112556648391</v>
+        <v>253.2741670646413</v>
       </c>
       <c r="C217">
-        <v>20333.5</v>
+        <v>20541.7</v>
       </c>
       <c r="D217">
-        <v>24212.9</v>
+        <v>24835.7</v>
       </c>
       <c r="E217">
         <v>1</v>
+      </c>
+      <c r="F217">
+        <v>4901.688930662106</v>
+      </c>
+      <c r="G217">
+        <v>13695.49949100653</v>
+      </c>
+      <c r="H217">
+        <v>323450.3612912817</v>
       </c>
     </row>
     <row r="218">
@@ -4068,16 +6027,25 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>251.712699321349</v>
+        <v>253.2734201313034</v>
       </c>
       <c r="C218">
-        <v>20427.1</v>
+        <v>20638</v>
       </c>
       <c r="D218">
-        <v>24447.6</v>
+        <v>25082.5</v>
       </c>
       <c r="E218">
         <v>1</v>
+      </c>
+      <c r="F218">
+        <v>4901.769867210095</v>
+      </c>
+      <c r="G218">
+        <v>13695.56852657837</v>
+      </c>
+      <c r="H218">
+        <v>323445.3195682431</v>
       </c>
     </row>
     <row r="219">
@@ -4085,16 +6053,25 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>251.7126707863765</v>
+        <v>253.2751086686951</v>
       </c>
       <c r="C219">
-        <v>20520.9</v>
+        <v>20734.1</v>
       </c>
       <c r="D219">
-        <v>24685.7</v>
+        <v>25331.2</v>
       </c>
       <c r="E219">
         <v>1</v>
+      </c>
+      <c r="F219">
+        <v>4901.70155608368</v>
+      </c>
+      <c r="G219">
+        <v>13695.56559639003</v>
+      </c>
+      <c r="H219">
+        <v>323446.8887462996</v>
       </c>
     </row>
     <row r="220">
@@ -4102,16 +6079,25 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>251.7122085908549</v>
+        <v>253.2742319548799</v>
       </c>
       <c r="C220">
-        <v>20615.2</v>
+        <v>20830.5</v>
       </c>
       <c r="D220">
-        <v>24925.4</v>
+        <v>25582.8</v>
       </c>
       <c r="E220">
         <v>1</v>
+      </c>
+      <c r="F220">
+        <v>4901.720117985294</v>
+      </c>
+      <c r="G220">
+        <v>13695.54453799164</v>
+      </c>
+      <c r="H220">
+        <v>323447.5232019415</v>
       </c>
     </row>
     <row r="221">
@@ -4119,16 +6105,25 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>251.7125262328601</v>
+        <v>253.2742535849595</v>
       </c>
       <c r="C221">
-        <v>20710</v>
+        <v>20927.1</v>
       </c>
       <c r="D221">
-        <v>25167.5</v>
+        <v>25837.4</v>
       </c>
       <c r="E221">
         <v>1</v>
+      </c>
+      <c r="F221">
+        <v>4901.73051375969</v>
+      </c>
+      <c r="G221">
+        <v>13695.55955365334</v>
+      </c>
+      <c r="H221">
+        <v>323446.5771721614</v>
       </c>
     </row>
     <row r="222">
@@ -4136,16 +6131,25 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>251.7124685366972</v>
+        <v>253.2745314028448</v>
       </c>
       <c r="C222">
-        <v>20805</v>
+        <v>21023.6</v>
       </c>
       <c r="D222">
-        <v>25410.6</v>
+        <v>26092.8</v>
       </c>
       <c r="E222">
         <v>1</v>
+      </c>
+      <c r="F222">
+        <v>4901.717395942887</v>
+      </c>
+      <c r="G222">
+        <v>13695.55656267834</v>
+      </c>
+      <c r="H222">
+        <v>323446.9963734675</v>
       </c>
     </row>
     <row r="223">
@@ -4153,16 +6157,25 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>251.7124011201374</v>
+        <v>253.2743389808948</v>
       </c>
       <c r="C223">
-        <v>20899.5</v>
+        <v>21118.9</v>
       </c>
       <c r="D223">
-        <v>25656.1</v>
+        <v>26350</v>
       </c>
       <c r="E223">
         <v>1</v>
+      </c>
+      <c r="F223">
+        <v>4901.722675895957</v>
+      </c>
+      <c r="G223">
+        <v>13695.55355144111</v>
+      </c>
+      <c r="H223">
+        <v>323447.0322491901</v>
       </c>
     </row>
     <row r="224">
@@ -4170,16 +6183,25 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>251.7124652965649</v>
+        <v>253.274374656233</v>
       </c>
       <c r="C224">
-        <v>20994.1</v>
+        <v>21213.5</v>
       </c>
       <c r="D224">
-        <v>25903.9</v>
+        <v>26608.2</v>
       </c>
       <c r="E224">
         <v>1</v>
+      </c>
+      <c r="F224">
+        <v>4901.723528532844</v>
+      </c>
+      <c r="G224">
+        <v>13695.55655592426</v>
+      </c>
+      <c r="H224">
+        <v>323446.868598273</v>
       </c>
     </row>
     <row r="225">
@@ -4187,16 +6209,25 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>251.7124449844665</v>
+        <v>253.2744150133242</v>
       </c>
       <c r="C225">
-        <v>21088.7</v>
+        <v>21307.4</v>
       </c>
       <c r="D225">
-        <v>26153.3</v>
+        <v>26868.4</v>
       </c>
       <c r="E225">
         <v>1</v>
+      </c>
+      <c r="F225">
+        <v>4901.721200123896</v>
+      </c>
+      <c r="G225">
+        <v>13695.55555668124</v>
+      </c>
+      <c r="H225">
+        <v>323446.9657403102</v>
       </c>
     </row>
     <row r="226">
@@ -4204,16 +6235,25 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>251.7124371337229</v>
+        <v>253.2743762168173</v>
       </c>
       <c r="C226">
-        <v>21183.2</v>
+        <v>21400.7</v>
       </c>
       <c r="D226">
-        <v>26404.5</v>
+        <v>27130.7</v>
       </c>
       <c r="E226">
         <v>1</v>
+      </c>
+      <c r="F226">
+        <v>4901.722468184233</v>
+      </c>
+      <c r="G226">
+        <v>13695.55522134887</v>
+      </c>
+      <c r="H226">
+        <v>323446.9555292578</v>
       </c>
     </row>
     <row r="227">
@@ -4221,16 +6261,25 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>251.7124491382514</v>
+        <v>253.2743886287915</v>
       </c>
       <c r="C227">
-        <v>21277.3</v>
+        <v>21493.1</v>
       </c>
       <c r="D227">
-        <v>26656.7</v>
+        <v>27394</v>
       </c>
       <c r="E227">
         <v>1</v>
+      </c>
+      <c r="F227">
+        <v>4901.722398946991</v>
+      </c>
+      <c r="G227">
+        <v>13695.55577798479</v>
+      </c>
+      <c r="H227">
+        <v>323446.929955947</v>
       </c>
     </row>
     <row r="228">
@@ -4238,16 +6287,25 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>251.712443752147</v>
+        <v>253.274393286311</v>
       </c>
       <c r="C228">
-        <v>21371.1</v>
+        <v>21585.4</v>
       </c>
       <c r="D228">
-        <v>26910.6</v>
+        <v>27659.8</v>
       </c>
       <c r="E228">
         <v>1</v>
+      </c>
+      <c r="F228">
+        <v>4901.722022418373</v>
+      </c>
+      <c r="G228">
+        <v>13695.55551867163</v>
+      </c>
+      <c r="H228">
+        <v>323446.950408505</v>
       </c>
     </row>
     <row r="229">
@@ -4255,16 +6313,25 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>251.7124433413738</v>
+        <v>253.2743860439733</v>
       </c>
       <c r="C229">
-        <v>21465.2</v>
+        <v>21677.8</v>
       </c>
       <c r="D229">
-        <v>27166.5</v>
+        <v>27928.2</v>
       </c>
       <c r="E229">
         <v>1</v>
+      </c>
+      <c r="F229">
+        <v>4901.722296516532</v>
+      </c>
+      <c r="G229">
+        <v>13695.55550600176</v>
+      </c>
+      <c r="H229">
+        <v>323446.9452979033</v>
       </c>
     </row>
     <row r="230">
@@ -4272,16 +6339,25 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>251.7124454105907</v>
+        <v>253.274389319692</v>
       </c>
       <c r="C230">
-        <v>21559.9</v>
+        <v>21770.3</v>
       </c>
       <c r="D230">
-        <v>27424.5</v>
+        <v>28199.4</v>
       </c>
       <c r="E230">
         <v>1</v>
+      </c>
+      <c r="F230">
+        <v>4901.722239293966</v>
+      </c>
+      <c r="G230">
+        <v>13695.55560088606</v>
+      </c>
+      <c r="H230">
+        <v>323446.9418874517</v>
       </c>
     </row>
     <row r="231">
@@ -4289,16 +6365,25 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>251.7124441680371</v>
+        <v>253.2743895499921</v>
       </c>
       <c r="C231">
-        <v>21654.9</v>
+        <v>21862.9</v>
       </c>
       <c r="D231">
-        <v>27684.5</v>
+        <v>28472.8</v>
       </c>
       <c r="E231">
         <v>1</v>
+      </c>
+      <c r="F231">
+        <v>4901.72218607629</v>
+      </c>
+      <c r="G231">
+        <v>13695.55554185315</v>
+      </c>
+      <c r="H231">
+        <v>323446.94586462</v>
       </c>
     </row>
     <row r="232">
@@ -4306,16 +6391,25 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>251.7124443066672</v>
+        <v>253.2743883045525</v>
       </c>
       <c r="C232">
-        <v>21750.6</v>
+        <v>21956.1</v>
       </c>
       <c r="D232">
-        <v>27947.3</v>
+        <v>28749.1</v>
       </c>
       <c r="E232">
         <v>1</v>
+      </c>
+      <c r="F232">
+        <v>4901.722240628929</v>
+      </c>
+      <c r="G232">
+        <v>13695.55554958033</v>
+      </c>
+      <c r="H232">
+        <v>323446.9443499917</v>
       </c>
     </row>
     <row r="233">
@@ -4323,16 +6417,25 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>251.7124446284317</v>
+        <v>253.2743890580788</v>
       </c>
       <c r="C233">
-        <v>21847.3</v>
+        <v>22049.5</v>
       </c>
       <c r="D233">
-        <v>28213</v>
+        <v>29028.4</v>
       </c>
       <c r="E233">
         <v>1</v>
+      </c>
+      <c r="F233">
+        <v>4901.722221999728</v>
+      </c>
+      <c r="G233">
+        <v>13695.55556410651</v>
+      </c>
+      <c r="H233">
+        <v>323446.9440340211</v>
       </c>
     </row>
     <row r="234">
@@ -4340,16 +6443,25 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>251.712444367712</v>
+        <v>253.2743889708745</v>
       </c>
       <c r="C234">
-        <v>21944.5</v>
+        <v>22143.3</v>
       </c>
       <c r="D234">
-        <v>28481.1</v>
+        <v>29309.3</v>
       </c>
       <c r="E234">
         <v>1</v>
+      </c>
+      <c r="F234">
+        <v>4901.722216234983</v>
+      </c>
+      <c r="G234">
+        <v>13695.55555184666</v>
+      </c>
+      <c r="H234">
+        <v>323446.9447495443</v>
       </c>
     </row>
     <row r="235">
@@ -4357,16 +6469,25 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>251.7124444342703</v>
+        <v>253.2743887778352</v>
       </c>
       <c r="C235">
-        <v>22042.9</v>
+        <v>22238.3</v>
       </c>
       <c r="D235">
-        <v>28752.4</v>
+        <v>29593.1</v>
       </c>
       <c r="E235">
         <v>1</v>
+      </c>
+      <c r="F235">
+        <v>4901.72222628788</v>
+      </c>
+      <c r="G235">
+        <v>13695.55555517783</v>
+      </c>
+      <c r="H235">
+        <v>323446.9443778524</v>
       </c>
     </row>
     <row r="236">
@@ -4374,16 +6495,25 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>251.7124444768047</v>
+        <v>253.2743889355962</v>
       </c>
       <c r="C236">
-        <v>22142.1</v>
+        <v>22334.3</v>
       </c>
       <c r="D236">
-        <v>29026.6</v>
+        <v>29879.7</v>
       </c>
       <c r="E236">
         <v>1</v>
+      </c>
+      <c r="F236">
+        <v>4901.722221507531</v>
+      </c>
+      <c r="G236">
+        <v>13695.55555704367</v>
+      </c>
+      <c r="H236">
+        <v>323446.9443871392</v>
       </c>
     </row>
     <row r="237">
@@ -4391,16 +6521,25 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>251.7124444262623</v>
+        <v>253.2743888947686</v>
       </c>
       <c r="C237">
-        <v>22242.1</v>
+        <v>22431.4</v>
       </c>
       <c r="D237">
-        <v>29303.7</v>
+        <v>30169.2</v>
       </c>
       <c r="E237">
         <v>1</v>
+      </c>
+      <c r="F237">
+        <v>4901.722221343464</v>
+      </c>
+      <c r="G237">
+        <v>13695.55555468939</v>
+      </c>
+      <c r="H237">
+        <v>323446.9445048453</v>
       </c>
     </row>
     <row r="238">
@@ -4408,16 +6547,25 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>251.7124444457791</v>
+        <v>253.2743888694</v>
       </c>
       <c r="C238">
-        <v>22342.8</v>
+        <v>22529.4</v>
       </c>
       <c r="D238">
-        <v>29583.5</v>
+        <v>30461.2</v>
       </c>
       <c r="E238">
         <v>1</v>
+      </c>
+      <c r="F238">
+        <v>4901.722223046292</v>
+      </c>
+      <c r="G238">
+        <v>13695.55555563697</v>
+      </c>
+      <c r="H238">
+        <v>323446.944423279</v>
       </c>
     </row>
     <row r="239">
@@ -4425,16 +6573,25 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>251.7124444496154</v>
+        <v>253.2743888999216</v>
       </c>
       <c r="C239">
-        <v>22444</v>
+        <v>22628.1</v>
       </c>
       <c r="D239">
-        <v>29865.7</v>
+        <v>30755.7</v>
       </c>
       <c r="E239">
         <v>1</v>
+      </c>
+      <c r="F239">
+        <v>4901.722221965762</v>
+      </c>
+      <c r="G239">
+        <v>13695.55555579001</v>
+      </c>
+      <c r="H239">
+        <v>323446.9444384212</v>
       </c>
     </row>
     <row r="240">
@@ -4442,16 +6599,25 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>251.7124444405523</v>
+        <v>253.2743888880301</v>
       </c>
       <c r="C240">
-        <v>22544.9</v>
+        <v>22726.7</v>
       </c>
       <c r="D240">
-        <v>30149.6</v>
+        <v>31051.6</v>
       </c>
       <c r="E240">
         <v>1</v>
+      </c>
+      <c r="F240">
+        <v>4901.722222118507</v>
+      </c>
+      <c r="G240">
+        <v>13695.55555537212</v>
+      </c>
+      <c r="H240">
+        <v>323446.9444555151</v>
       </c>
     </row>
     <row r="241">
@@ -4459,16 +6625,25 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>251.7124444453156</v>
+        <v>253.2743888857839</v>
       </c>
       <c r="C241">
-        <v>22645.8</v>
+        <v>22825.1</v>
       </c>
       <c r="D241">
-        <v>30435.5</v>
+        <v>31349.1</v>
       </c>
       <c r="E241">
         <v>1</v>
+      </c>
+      <c r="F241">
+        <v>4901.722222376854</v>
+      </c>
+      <c r="G241">
+        <v>13695.5555555997</v>
+      </c>
+      <c r="H241">
+        <v>323446.9444390718</v>
       </c>
     </row>
     <row r="242">
@@ -4476,16 +6651,25 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>251.7124444451611</v>
+        <v>253.2743888912452</v>
       </c>
       <c r="C242">
-        <v>22746.7</v>
+        <v>22923.6</v>
       </c>
       <c r="D242">
-        <v>30723.8</v>
+        <v>31648.4</v>
       </c>
       <c r="E242">
         <v>1</v>
+      </c>
+      <c r="F242">
+        <v>4901.722222153708</v>
+      </c>
+      <c r="G242">
+        <v>13695.55555558728</v>
+      </c>
+      <c r="H242">
+        <v>323446.944444336</v>
       </c>
     </row>
     <row r="243">
@@ -4493,16 +6677,25 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>251.7124444436763</v>
+        <v>253.2743888883531</v>
       </c>
       <c r="C243">
-        <v>22847.3</v>
+        <v>23022.1</v>
       </c>
       <c r="D243">
-        <v>31013.8</v>
+        <v>31949.1</v>
       </c>
       <c r="E243">
         <v>1</v>
+      </c>
+      <c r="F243">
+        <v>4901.722222216356</v>
+      </c>
+      <c r="G243">
+        <v>13695.5555555197</v>
+      </c>
+      <c r="H243">
+        <v>323446.9444463076</v>
       </c>
     </row>
     <row r="244">
@@ -4510,16 +6703,25 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>251.7124444447177</v>
+        <v>253.2743888884607</v>
       </c>
       <c r="C244">
-        <v>22947.4</v>
+        <v>23120.6</v>
       </c>
       <c r="D244">
-        <v>31305.3</v>
+        <v>32251.7</v>
       </c>
       <c r="E244">
         <v>1</v>
+      </c>
+      <c r="F244">
+        <v>4901.722222248973</v>
+      </c>
+      <c r="G244">
+        <v>13695.55555556889</v>
+      </c>
+      <c r="H244">
+        <v>323446.9444432384</v>
       </c>
     </row>
     <row r="245">
@@ -4527,16 +6729,129 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>251.7124444445184</v>
+        <v>253.274388889353</v>
       </c>
       <c r="C245">
-        <v>23047.2</v>
+        <v>23219.4</v>
       </c>
       <c r="D245">
-        <v>31598.5</v>
+        <v>32556.4</v>
       </c>
       <c r="E245">
         <v>1</v>
+      </c>
+      <c r="F245">
+        <v>4901.722222206346</v>
+      </c>
+      <c r="G245">
+        <v>13695.55555555862</v>
+      </c>
+      <c r="H245">
+        <v>323446.9444446273</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>47938</v>
+      </c>
+      <c r="B246">
+        <v>253.2743888887223</v>
+      </c>
+      <c r="C246">
+        <v>23318.3</v>
+      </c>
+      <c r="D246">
+        <v>32863.2</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>4901.722222223892</v>
+      </c>
+      <c r="G246">
+        <v>13695.55555554907</v>
+      </c>
+      <c r="H246">
+        <v>323446.9444447245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>48029</v>
+      </c>
+      <c r="B247">
+        <v>253.2743888888453</v>
+      </c>
+      <c r="C247">
+        <v>23417.4</v>
+      </c>
+      <c r="D247">
+        <v>33172</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>4901.722222226404</v>
+      </c>
+      <c r="G247">
+        <v>13695.55555555886</v>
+      </c>
+      <c r="H247">
+        <v>323446.9444441968</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>48121</v>
+      </c>
+      <c r="B248">
+        <v>253.2743888889735</v>
+      </c>
+      <c r="C248">
+        <v>23516.4</v>
+      </c>
+      <c r="D248">
+        <v>33482.6</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>4901.72222221888</v>
+      </c>
+      <c r="G248">
+        <v>13695.55555555552</v>
+      </c>
+      <c r="H248">
+        <v>323446.9444445162</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>48213</v>
+      </c>
+      <c r="B249">
+        <v>253.274388888847</v>
+      </c>
+      <c r="C249">
+        <v>23615.3</v>
+      </c>
+      <c r="D249">
+        <v>33795</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>4901.722222223059</v>
+      </c>
+      <c r="G249">
+        <v>13695.55555555448</v>
+      </c>
+      <c r="H249">
+        <v>323446.9444444791</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -5195,7 +5195,7 @@
         <v>42460</v>
       </c>
       <c r="B186">
-        <v>231.8976666666667</v>
+        <v>231.781</v>
       </c>
       <c r="C186">
         <v>17843.2</v>
@@ -5207,10 +5207,10 @@
         <v>-1</v>
       </c>
       <c r="F186">
-        <v>5089.333333333333</v>
+        <v>5089</v>
       </c>
       <c r="G186">
-        <v>14280.33333333333</v>
+        <v>14277</v>
       </c>
       <c r="H186">
         <v>280145</v>
@@ -5221,7 +5221,7 @@
         <v>42551</v>
       </c>
       <c r="B187">
-        <v>233.6383333333334</v>
+        <v>233.774</v>
       </c>
       <c r="C187">
         <v>17918.2</v>
@@ -5233,10 +5233,10 @@
         <v>-1</v>
       </c>
       <c r="F187">
-        <v>5099.333333333333</v>
+        <v>5098.666666666667</v>
       </c>
       <c r="G187">
-        <v>14298.33333333333</v>
+        <v>14297.66666666667</v>
       </c>
       <c r="H187">
         <v>275022</v>
@@ -5247,7 +5247,7 @@
         <v>42643</v>
       </c>
       <c r="B188">
-        <v>234.569</v>
+        <v>234.5966666666667</v>
       </c>
       <c r="C188">
         <v>17992</v>
@@ -5259,10 +5259,10 @@
         <v>-1</v>
       </c>
       <c r="F188">
-        <v>5125.333333333333</v>
+        <v>5126.666666666667</v>
       </c>
       <c r="G188">
-        <v>14357</v>
+        <v>14369</v>
       </c>
       <c r="H188">
         <v>271266.6666666667</v>
@@ -5273,7 +5273,7 @@
         <v>42735</v>
       </c>
       <c r="B189">
-        <v>236.0903333333333</v>
+        <v>236.1406666666667</v>
       </c>
       <c r="C189">
         <v>18065.1</v>
@@ -5285,10 +5285,10 @@
         <v>-1</v>
       </c>
       <c r="F189">
-        <v>5138</v>
+        <v>5135.333333333333</v>
       </c>
       <c r="G189">
-        <v>14352</v>
+        <v>14351</v>
       </c>
       <c r="H189">
         <v>274719.6666666667</v>
@@ -5299,7 +5299,7 @@
         <v>42825</v>
       </c>
       <c r="B190">
-        <v>237.8366666666667</v>
+        <v>237.75</v>
       </c>
       <c r="C190">
         <v>18137.7</v>
@@ -5314,7 +5314,7 @@
         <v>5158</v>
       </c>
       <c r="G190">
-        <v>14344.33333333333</v>
+        <v>14347</v>
       </c>
       <c r="H190">
         <v>274527.6666666667</v>
@@ -5325,7 +5325,7 @@
         <v>42916</v>
       </c>
       <c r="B191">
-        <v>237.876</v>
+        <v>238.0306666666667</v>
       </c>
       <c r="C191">
         <v>18211.1</v>
@@ -5337,10 +5337,10 @@
         <v>-1</v>
       </c>
       <c r="F191">
-        <v>5170</v>
+        <v>5170.333333333333</v>
       </c>
       <c r="G191">
-        <v>14361.33333333333</v>
+        <v>14363</v>
       </c>
       <c r="H191">
         <v>275545.6666666667</v>
@@ -5351,7 +5351,7 @@
         <v>43008</v>
       </c>
       <c r="B192">
-        <v>239.2166666666667</v>
+        <v>239.2</v>
       </c>
       <c r="C192">
         <v>18287.1</v>
@@ -5363,10 +5363,10 @@
         <v>-1</v>
       </c>
       <c r="F192">
-        <v>5166.666666666667</v>
+        <v>5168.333333333333</v>
       </c>
       <c r="G192">
-        <v>14391</v>
+        <v>14401.66666666667</v>
       </c>
       <c r="H192">
         <v>273887</v>
@@ -5377,7 +5377,7 @@
         <v>43100</v>
       </c>
       <c r="B193">
-        <v>241.274</v>
+        <v>241.3036666666667</v>
       </c>
       <c r="C193">
         <v>18365.3</v>
@@ -5389,10 +5389,10 @@
         <v>-1</v>
       </c>
       <c r="F193">
-        <v>5161.666666666667</v>
+        <v>5160.333333333333</v>
       </c>
       <c r="G193">
-        <v>14423</v>
+        <v>14428.66666666667</v>
       </c>
       <c r="H193">
         <v>278738</v>
@@ -5403,7 +5403,7 @@
         <v>43190</v>
       </c>
       <c r="B194">
-        <v>243.3273333333333</v>
+        <v>243.2743333333333</v>
       </c>
       <c r="C194">
         <v>18446.4</v>
@@ -5415,10 +5415,10 @@
         <v>-1</v>
       </c>
       <c r="F194">
-        <v>5150.666666666667</v>
+        <v>5150.333333333333</v>
       </c>
       <c r="G194">
-        <v>14442</v>
+        <v>14442.33333333333</v>
       </c>
       <c r="H194">
         <v>284701</v>
@@ -5429,7 +5429,7 @@
         <v>43281</v>
       </c>
       <c r="B195">
-        <v>244.6613333333334</v>
+        <v>244.813</v>
       </c>
       <c r="C195">
         <v>18530.5</v>
@@ -5441,10 +5441,10 @@
         <v>-1</v>
       </c>
       <c r="F195">
-        <v>5173.666666666667</v>
+        <v>5173</v>
       </c>
       <c r="G195">
-        <v>14466.66666666667</v>
+        <v>14468.66666666667</v>
       </c>
       <c r="H195">
         <v>293031</v>
@@ -5455,7 +5455,7 @@
         <v>43373</v>
       </c>
       <c r="B196">
-        <v>245.9633333333333</v>
+        <v>245.793</v>
       </c>
       <c r="C196">
         <v>18617.4</v>
@@ -5467,10 +5467,10 @@
         <v>-1</v>
       </c>
       <c r="F196">
-        <v>5184.666666666667</v>
+        <v>5185.333333333333</v>
       </c>
       <c r="G196">
-        <v>14494.66666666667</v>
+        <v>14494.33333333333</v>
       </c>
       <c r="H196">
         <v>291638.3333333333</v>
@@ -5481,7 +5481,7 @@
         <v>43465</v>
       </c>
       <c r="B197">
-        <v>246.6076666666667</v>
+        <v>246.681</v>
       </c>
       <c r="C197">
         <v>18705.5</v>
@@ -5493,10 +5493,10 @@
         <v>-1</v>
       </c>
       <c r="F197">
-        <v>5176.666666666667</v>
+        <v>5177</v>
       </c>
       <c r="G197">
-        <v>14503.66666666667</v>
+        <v>14510</v>
       </c>
       <c r="H197">
         <v>283060</v>
@@ -5507,7 +5507,7 @@
         <v>43555</v>
       </c>
       <c r="B198">
-        <v>246.8373333333333</v>
+        <v>246.765</v>
       </c>
       <c r="C198">
         <v>18794.8</v>
@@ -5519,10 +5519,10 @@
         <v>-1</v>
       </c>
       <c r="F198">
-        <v>5173.333333333333</v>
+        <v>5171.333333333333</v>
       </c>
       <c r="G198">
-        <v>14529</v>
+        <v>14527.66666666667</v>
       </c>
       <c r="H198">
         <v>299821.3333333333</v>
@@ -5533,7 +5533,7 @@
         <v>43646</v>
       </c>
       <c r="B199">
-        <v>248.8213333333333</v>
+        <v>249.0076666666667</v>
       </c>
       <c r="C199">
         <v>18885.5</v>
@@ -5545,10 +5545,10 @@
         <v>-1</v>
       </c>
       <c r="F199">
-        <v>5161.333333333333</v>
+        <v>5177.333333333333</v>
       </c>
       <c r="G199">
-        <v>14565</v>
+        <v>14558.33333333333</v>
       </c>
       <c r="H199">
         <v>314021</v>
@@ -5559,7 +5559,7 @@
         <v>43738</v>
       </c>
       <c r="B200">
-        <v>249.831</v>
+        <v>249.665</v>
       </c>
       <c r="C200">
         <v>18976.5</v>
@@ -5571,10 +5571,10 @@
         <v>-1</v>
       </c>
       <c r="F200">
-        <v>5177.666666666667</v>
+        <v>5218.333333333333</v>
       </c>
       <c r="G200">
-        <v>14598.66666666667</v>
+        <v>14590</v>
       </c>
       <c r="H200">
         <v>311467.6666666667</v>
@@ -5585,7 +5585,7 @@
         <v>43830</v>
       </c>
       <c r="B201">
-        <v>251.367</v>
+        <v>251.4253333333334</v>
       </c>
       <c r="C201">
         <v>19065.6</v>
@@ -5597,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>5183</v>
+        <v>5250.333333333333</v>
       </c>
       <c r="G201">
-        <v>14631</v>
+        <v>14620.33333333333</v>
       </c>
       <c r="H201">
         <v>312808.6666666667</v>
@@ -5611,7 +5611,7 @@
         <v>43921</v>
       </c>
       <c r="B202">
-        <v>251.9656666666666</v>
+        <v>251.8853333333333</v>
       </c>
       <c r="C202">
         <v>19154</v>
@@ -5623,10 +5623,10 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>5183.666666666667</v>
+        <v>5276.333333333333</v>
       </c>
       <c r="G202">
-        <v>14676</v>
+        <v>14658.33333333333</v>
       </c>
       <c r="H202">
         <v>328551</v>
@@ -5637,7 +5637,7 @@
         <v>44012</v>
       </c>
       <c r="B203">
-        <v>249.442</v>
+        <v>249.576</v>
       </c>
       <c r="C203">
         <v>19242</v>
@@ -5649,10 +5649,10 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>4974</v>
+        <v>5049.333333333333</v>
       </c>
       <c r="G203">
-        <v>13591.66666666667</v>
+        <v>13569.66666666667</v>
       </c>
       <c r="H203">
         <v>326980</v>
@@ -5663,7 +5663,7 @@
         <v>44104</v>
       </c>
       <c r="B204">
-        <v>253.1416666666667</v>
+        <v>253.0136666666666</v>
       </c>
       <c r="C204">
         <v>19327.3</v>
@@ -5675,10 +5675,10 @@
         <v>1</v>
       </c>
       <c r="F204">
-        <v>4957.666666666667</v>
+        <v>5036.333333333333</v>
       </c>
       <c r="G204">
-        <v>13763.33333333333</v>
+        <v>13736.66666666667</v>
       </c>
       <c r="H204">
         <v>318988.3333333333</v>
@@ -5689,7 +5689,7 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>254.6403333333334</v>
+        <v>254.6803333333333</v>
       </c>
       <c r="C205">
         <v>19414.2</v>
@@ -5701,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>4840.333333333333</v>
+        <v>4938.666666666667</v>
       </c>
       <c r="G205">
-        <v>13685</v>
+        <v>13656</v>
       </c>
       <c r="H205">
         <v>325241.6666666667</v>
@@ -5715,7 +5715,7 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>252.408</v>
+        <v>252.4233333333333</v>
       </c>
       <c r="C206">
         <v>19502.8</v>
@@ -5727,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>4924</v>
+        <v>5008.111111111111</v>
       </c>
       <c r="G206">
-        <v>13680</v>
+        <v>13654.11111111111</v>
       </c>
       <c r="H206">
         <v>323736.6666666667</v>
@@ -5741,7 +5741,7 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>253.3966666666667</v>
+        <v>253.3724444444444</v>
       </c>
       <c r="C207">
         <v>19594.2</v>
@@ -5753,10 +5753,10 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>4907.333333333333</v>
+        <v>4994.37037037037</v>
       </c>
       <c r="G207">
-        <v>13709.44444444445</v>
+        <v>13682.25925925926</v>
       </c>
       <c r="H207">
         <v>322655.5555555556</v>
@@ -5767,7 +5767,7 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>253.4816666666667</v>
+        <v>253.492037037037</v>
       </c>
       <c r="C208">
         <v>19687.7</v>
@@ -5779,10 +5779,10 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>4890.555555555556</v>
+        <v>4980.382716049383</v>
       </c>
       <c r="G208">
-        <v>13691.48148148148</v>
+        <v>13664.12345679012</v>
       </c>
       <c r="H208">
         <v>323877.962962963</v>
@@ -5793,7 +5793,7 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>253.0954444444445</v>
+        <v>253.0959382716049</v>
       </c>
       <c r="C209">
         <v>19783.1</v>
@@ -5805,10 +5805,10 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>4907.296296296297</v>
+        <v>4994.288065843622</v>
       </c>
       <c r="G209">
-        <v>13693.64197530864</v>
+        <v>13666.83127572016</v>
       </c>
       <c r="H209">
         <v>323423.3950617284</v>
@@ -5819,7 +5819,7 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>253.3245925925926</v>
+        <v>253.3201399176955</v>
       </c>
       <c r="C210">
         <v>19879.6</v>
@@ -5831,10 +5831,10 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>4901.728395061728</v>
+        <v>4989.680384087792</v>
       </c>
       <c r="G210">
-        <v>13698.18930041152</v>
+        <v>13671.07133058985</v>
       </c>
       <c r="H210">
         <v>323318.9711934156</v>
@@ -5845,7 +5845,7 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>253.3005679012346</v>
+        <v>253.3027050754458</v>
       </c>
       <c r="C211">
         <v>19975.5</v>
@@ -5857,10 +5857,10 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>4899.860082304527</v>
+        <v>4988.117055326932</v>
       </c>
       <c r="G211">
-        <v>13694.43758573388</v>
+        <v>13667.34202103338</v>
       </c>
       <c r="H211">
         <v>323540.109739369</v>
@@ -5871,7 +5871,7 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>253.2402016460906</v>
+        <v>253.2395944215821</v>
       </c>
       <c r="C212">
         <v>20069.9</v>
@@ -5883,10 +5883,10 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>4902.961591220851</v>
+        <v>4990.695168419448</v>
       </c>
       <c r="G212">
-        <v>13695.42295381802</v>
+        <v>13668.41487578113</v>
       </c>
       <c r="H212">
         <v>323427.491998171</v>
@@ -5897,7 +5897,7 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>253.2884540466393</v>
+        <v>253.2874798049078</v>
       </c>
       <c r="C213">
         <v>20163.7</v>
@@ -5909,10 +5909,10 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>4901.516689529036</v>
+        <v>4989.497535944724</v>
       </c>
       <c r="G213">
-        <v>13696.01661332114</v>
+        <v>13668.94274246812</v>
       </c>
       <c r="H213">
         <v>323428.8576436519</v>
@@ -5923,7 +5923,7 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>253.2764078646548</v>
+        <v>253.2765931006452</v>
       </c>
       <c r="C214">
         <v>20257.3</v>
@@ -5935,10 +5935,10 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>4901.446121018138</v>
+        <v>4989.436586563702</v>
       </c>
       <c r="G214">
-        <v>13695.29238429101</v>
+        <v>13668.23321309421</v>
       </c>
       <c r="H214">
         <v>323465.4864603973</v>
@@ -5949,7 +5949,7 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>253.2683545191282</v>
+        <v>253.267889109045</v>
       </c>
       <c r="C215">
         <v>20351.2</v>
@@ -5961,10 +5961,10 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>4901.974800589342</v>
+        <v>4989.876430309291</v>
       </c>
       <c r="G215">
-        <v>13695.57731714339</v>
+        <v>13668.53027711449</v>
       </c>
       <c r="H215">
         <v>323440.6120340734</v>
@@ -5975,7 +5975,7 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>253.2777388101408</v>
+        <v>253.2773206715327</v>
       </c>
       <c r="C216">
         <v>20446</v>
@@ -5987,10 +5987,10 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>4901.645870378839</v>
+        <v>4989.603517605906</v>
       </c>
       <c r="G216">
-        <v>13695.62877158518</v>
+        <v>13668.56874422561</v>
       </c>
       <c r="H216">
         <v>323444.9853793742</v>
@@ -6001,7 +6001,7 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>253.2741670646413</v>
+        <v>253.273934293741</v>
       </c>
       <c r="C217">
         <v>20541.7</v>
@@ -6013,10 +6013,10 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>4901.688930662106</v>
+        <v>4989.6388448263</v>
       </c>
       <c r="G217">
-        <v>13695.49949100653</v>
+        <v>13668.44407814477</v>
       </c>
       <c r="H217">
         <v>323450.3612912817</v>
@@ -6027,7 +6027,7 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>253.2734201313034</v>
+        <v>253.2730480247729</v>
       </c>
       <c r="C218">
         <v>20638</v>
@@ -6039,10 +6039,10 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>4901.769867210095</v>
+        <v>4989.706264247166</v>
       </c>
       <c r="G218">
-        <v>13695.56852657837</v>
+        <v>13668.51436649495</v>
       </c>
       <c r="H218">
         <v>323445.3195682431</v>
@@ -6053,7 +6053,7 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>253.2751086686951</v>
+        <v>253.2747676633489</v>
       </c>
       <c r="C219">
         <v>20734.1</v>
@@ -6065,10 +6065,10 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>4901.70155608368</v>
+        <v>4989.649542226457</v>
       </c>
       <c r="G219">
-        <v>13695.56559639003</v>
+        <v>13668.50906295511</v>
       </c>
       <c r="H219">
         <v>323446.8887462996</v>
@@ -6079,7 +6079,7 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>253.2742319548799</v>
+        <v>253.2739166606209</v>
       </c>
       <c r="C220">
         <v>20830.5</v>
@@ -6091,10 +6091,10 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>4901.720117985294</v>
+        <v>4989.664883766641</v>
       </c>
       <c r="G220">
-        <v>13695.54453799164</v>
+        <v>13668.48916919828</v>
       </c>
       <c r="H220">
         <v>323447.5232019415</v>
@@ -6105,7 +6105,7 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>253.2742535849595</v>
+        <v>253.2739107829142</v>
       </c>
       <c r="C221">
         <v>20927.1</v>
@@ -6117,10 +6117,10 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>4901.73051375969</v>
+        <v>4989.673563413421</v>
       </c>
       <c r="G221">
-        <v>13695.55955365334</v>
+        <v>13668.50419954945</v>
       </c>
       <c r="H221">
         <v>323446.5771721614</v>
@@ -6131,7 +6131,7 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>253.2745314028448</v>
+        <v>253.2741983689613</v>
       </c>
       <c r="C222">
         <v>21023.6</v>
@@ -6143,10 +6143,10 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>4901.717395942887</v>
+        <v>4989.662663135507</v>
       </c>
       <c r="G222">
-        <v>13695.55656267834</v>
+        <v>13668.50081056761</v>
       </c>
       <c r="H222">
         <v>323446.9963734675</v>
@@ -6157,7 +6157,7 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>253.2743389808948</v>
+        <v>253.2740086041655</v>
       </c>
       <c r="C223">
         <v>21118.9</v>
@@ -6169,10 +6169,10 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>4901.722675895957</v>
+        <v>4989.667036771856</v>
       </c>
       <c r="G223">
-        <v>13695.55355144111</v>
+        <v>13668.49805977178</v>
       </c>
       <c r="H223">
         <v>323447.0322491901</v>
@@ -6183,7 +6183,7 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>253.274374656233</v>
+        <v>253.2740392520137</v>
       </c>
       <c r="C224">
         <v>21213.5</v>
@@ -6195,10 +6195,10 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>4901.723528532844</v>
+        <v>4989.667754440261</v>
       </c>
       <c r="G224">
-        <v>13695.55655592426</v>
+        <v>13668.50102329628</v>
       </c>
       <c r="H224">
         <v>323446.868598273</v>
@@ -6209,7 +6209,7 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>253.2744150133242</v>
+        <v>253.2740820750468</v>
       </c>
       <c r="C225">
         <v>21307.4</v>
@@ -6221,10 +6221,10 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>4901.721200123896</v>
+        <v>4989.665818115875</v>
       </c>
       <c r="G225">
-        <v>13695.55555668124</v>
+        <v>13668.49996454522</v>
       </c>
       <c r="H225">
         <v>323446.9657403102</v>
@@ -6235,7 +6235,7 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>253.2743762168173</v>
+        <v>253.2740433104087</v>
       </c>
       <c r="C226">
         <v>21400.7</v>
@@ -6247,10 +6247,10 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>4901.722468184233</v>
+        <v>4989.666869775997</v>
       </c>
       <c r="G226">
-        <v>13695.55522134887</v>
+        <v>13668.49968253776</v>
       </c>
       <c r="H226">
         <v>323446.9555292578</v>
@@ -6261,7 +6261,7 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>253.2743886287915</v>
+        <v>253.2740548791564</v>
       </c>
       <c r="C227">
         <v>21493.1</v>
@@ -6273,10 +6273,10 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>4901.722398946991</v>
+        <v>4989.666814110711</v>
       </c>
       <c r="G227">
-        <v>13695.55577798479</v>
+        <v>13668.50022345975</v>
       </c>
       <c r="H227">
         <v>323446.929955947</v>
@@ -6287,7 +6287,7 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>253.274393286311</v>
+        <v>253.274060088204</v>
       </c>
       <c r="C228">
         <v>21585.4</v>
@@ -6299,10 +6299,10 @@
         <v>1</v>
       </c>
       <c r="F228">
-        <v>4901.722022418373</v>
+        <v>4989.666500667528</v>
       </c>
       <c r="G228">
-        <v>13695.55551867163</v>
+        <v>13668.49995684758</v>
       </c>
       <c r="H228">
         <v>323446.950408505</v>
@@ -6313,7 +6313,7 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>253.2743860439733</v>
+        <v>253.2740527592563</v>
       </c>
       <c r="C229">
         <v>21677.8</v>
@@ -6325,10 +6325,10 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>4901.722296516532</v>
+        <v>4989.666728184745</v>
       </c>
       <c r="G229">
-        <v>13695.55550600176</v>
+        <v>13668.4999542817</v>
       </c>
       <c r="H229">
         <v>323446.9452979033</v>
@@ -6339,7 +6339,7 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>253.274389319692</v>
+        <v>253.2740559088722</v>
       </c>
       <c r="C230">
         <v>21770.3</v>
@@ -6351,10 +6351,10 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <v>4901.722239293966</v>
+        <v>4989.666680987662</v>
       </c>
       <c r="G230">
-        <v>13695.55560088606</v>
+        <v>13668.50004486301</v>
       </c>
       <c r="H230">
         <v>323446.9418874517</v>
@@ -6365,7 +6365,7 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>253.2743895499921</v>
+        <v>253.2740562521108</v>
       </c>
       <c r="C231">
         <v>21862.9</v>
@@ -6377,10 +6377,10 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>4901.72218607629</v>
+        <v>4989.666636613311</v>
       </c>
       <c r="G231">
-        <v>13695.55554185315</v>
+        <v>13668.49998533076</v>
       </c>
       <c r="H231">
         <v>323446.94586462</v>
@@ -6391,7 +6391,7 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>253.2743883045525</v>
+        <v>253.2740549734131</v>
       </c>
       <c r="C232">
         <v>21956.1</v>
@@ -6403,10 +6403,10 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>4901.722240628929</v>
+        <v>4989.666681928573</v>
       </c>
       <c r="G232">
-        <v>13695.55554958033</v>
+        <v>13668.49999482516</v>
       </c>
       <c r="H232">
         <v>323446.9443499917</v>
@@ -6417,7 +6417,7 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>253.2743890580788</v>
+        <v>253.2740557114654</v>
       </c>
       <c r="C233">
         <v>22049.5</v>
@@ -6429,10 +6429,10 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>4901.722221999728</v>
+        <v>4989.666666509848</v>
       </c>
       <c r="G233">
-        <v>13695.55556410651</v>
+        <v>13668.50000833964</v>
       </c>
       <c r="H233">
         <v>323446.9440340211</v>
@@ -6443,7 +6443,7 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>253.2743889708745</v>
+        <v>253.2740556456631</v>
       </c>
       <c r="C234">
         <v>22143.3</v>
@@ -6455,10 +6455,10 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>4901.722216234983</v>
+        <v>4989.666661683911</v>
       </c>
       <c r="G234">
-        <v>13695.55555184666</v>
+        <v>13668.49999616519</v>
       </c>
       <c r="H234">
         <v>323446.9447495443</v>
@@ -6469,7 +6469,7 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>253.2743887778352</v>
+        <v>253.2740554435139</v>
       </c>
       <c r="C235">
         <v>22238.3</v>
@@ -6481,10 +6481,10 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>4901.72222628788</v>
+        <v>4989.666670040778</v>
       </c>
       <c r="G235">
-        <v>13695.55555517783</v>
+        <v>13668.49999977666</v>
       </c>
       <c r="H235">
         <v>323446.9443778524</v>
@@ -6495,7 +6495,7 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>253.2743889355962</v>
+        <v>253.2740556002141</v>
       </c>
       <c r="C236">
         <v>22334.3</v>
@@ -6507,10 +6507,10 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>4901.722221507531</v>
+        <v>4989.666666078179</v>
       </c>
       <c r="G236">
-        <v>13695.55555704367</v>
+        <v>13668.50000142717</v>
       </c>
       <c r="H236">
         <v>323446.9443871392</v>
@@ -6521,7 +6521,7 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>253.2743888947686</v>
+        <v>253.2740555631304</v>
       </c>
       <c r="C237">
         <v>22431.4</v>
@@ -6533,10 +6533,10 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>4901.722221343464</v>
+        <v>4989.666665934289</v>
       </c>
       <c r="G237">
-        <v>13695.55555468939</v>
+        <v>13668.49999912301</v>
       </c>
       <c r="H237">
         <v>323446.9445048453</v>
@@ -6547,7 +6547,7 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>253.2743888694</v>
+        <v>253.2740555356195</v>
       </c>
       <c r="C238">
         <v>22529.4</v>
@@ -6559,10 +6559,10 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>4901.722223046292</v>
+        <v>4989.666667351082</v>
       </c>
       <c r="G238">
-        <v>13695.55555563697</v>
+        <v>13668.50000010895</v>
       </c>
       <c r="H238">
         <v>323446.944423279</v>
@@ -6573,7 +6573,7 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>253.2743888999216</v>
+        <v>253.2740555663213</v>
       </c>
       <c r="C239">
         <v>22628.1</v>
@@ -6585,10 +6585,10 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>4901.722221965762</v>
+        <v>4989.666666454516</v>
       </c>
       <c r="G239">
-        <v>13695.55555579001</v>
+        <v>13668.50000021971</v>
       </c>
       <c r="H239">
         <v>323446.9444384212</v>
@@ -6599,7 +6599,7 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>253.2743888880301</v>
+        <v>253.2740555550237</v>
       </c>
       <c r="C240">
         <v>22726.7</v>
@@ -6611,10 +6611,10 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>4901.722222118507</v>
+        <v>4989.666666579962</v>
       </c>
       <c r="G240">
-        <v>13695.55555537212</v>
+        <v>13668.49999981722</v>
       </c>
       <c r="H240">
         <v>323446.9444555151</v>
@@ -6625,7 +6625,7 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>253.2743888857839</v>
+        <v>253.2740555523215</v>
       </c>
       <c r="C241">
         <v>22825.1</v>
@@ -6637,10 +6637,10 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>4901.722222376854</v>
+        <v>4989.666666795187</v>
       </c>
       <c r="G241">
-        <v>13695.5555555997</v>
+        <v>13668.50000004862</v>
       </c>
       <c r="H241">
         <v>323446.9444390718</v>
@@ -6651,7 +6651,7 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>253.2743888912452</v>
+        <v>253.2740555578889</v>
       </c>
       <c r="C242">
         <v>22923.6</v>
@@ -6663,10 +6663,10 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>4901.722222153708</v>
+        <v>4989.666666609888</v>
       </c>
       <c r="G242">
-        <v>13695.55555558728</v>
+        <v>13668.50000002852</v>
       </c>
       <c r="H242">
         <v>323446.944444336</v>
@@ -6677,7 +6677,7 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>253.2743888883531</v>
+        <v>253.274055555078</v>
       </c>
       <c r="C243">
         <v>23022.1</v>
@@ -6689,10 +6689,10 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>4901.722222216356</v>
+        <v>4989.666666661679</v>
       </c>
       <c r="G243">
-        <v>13695.5555555197</v>
+        <v>13668.49999996479</v>
       </c>
       <c r="H243">
         <v>323446.9444463076</v>
@@ -6703,7 +6703,7 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>253.2743888884607</v>
+        <v>253.2740555550961</v>
       </c>
       <c r="C244">
         <v>23120.6</v>
@@ -6715,10 +6715,10 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>4901.722222248973</v>
+        <v>4989.666666688918</v>
       </c>
       <c r="G244">
-        <v>13695.55555556889</v>
+        <v>13668.50000001398</v>
       </c>
       <c r="H244">
         <v>323446.9444432384</v>
@@ -6729,7 +6729,7 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>253.274388889353</v>
+        <v>253.274055556021</v>
       </c>
       <c r="C245">
         <v>23219.4</v>
@@ -6741,10 +6741,10 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>4901.722222206346</v>
+        <v>4989.666666653495</v>
       </c>
       <c r="G245">
-        <v>13695.55555555862</v>
+        <v>13668.50000000243</v>
       </c>
       <c r="H245">
         <v>323446.9444446273</v>
@@ -6755,7 +6755,7 @@
         <v>47938</v>
       </c>
       <c r="B246">
-        <v>253.2743888887223</v>
+        <v>253.2740555553984</v>
       </c>
       <c r="C246">
         <v>23318.3</v>
@@ -6767,10 +6767,10 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>4901.722222223892</v>
+        <v>4989.66666666803</v>
       </c>
       <c r="G246">
-        <v>13695.55555554907</v>
+        <v>13668.49999999373</v>
       </c>
       <c r="H246">
         <v>323446.9444447245</v>
@@ -6781,7 +6781,7 @@
         <v>48029</v>
       </c>
       <c r="B247">
-        <v>253.2743888888453</v>
+        <v>253.2740555555052</v>
       </c>
       <c r="C247">
         <v>23417.4</v>
@@ -6793,10 +6793,10 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>4901.722222226404</v>
+        <v>4989.666666670148</v>
       </c>
       <c r="G247">
-        <v>13695.55555555886</v>
+        <v>13668.50000000338</v>
       </c>
       <c r="H247">
         <v>323446.9444441968</v>
@@ -6807,7 +6807,7 @@
         <v>48121</v>
       </c>
       <c r="B248">
-        <v>253.2743888889735</v>
+        <v>253.2740555556415</v>
       </c>
       <c r="C248">
         <v>23516.4</v>
@@ -6819,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>4901.72222221888</v>
+        <v>4989.666666663891</v>
       </c>
       <c r="G248">
-        <v>13695.55555555552</v>
+        <v>13668.49999999985</v>
       </c>
       <c r="H248">
         <v>323446.9444445162</v>
@@ -6833,7 +6833,7 @@
         <v>48213</v>
       </c>
       <c r="B249">
-        <v>253.274388888847</v>
+        <v>253.2740555555151</v>
       </c>
       <c r="C249">
         <v>23615.3</v>
@@ -6845,10 +6845,10 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>4901.722222223059</v>
+        <v>4989.666666667356</v>
       </c>
       <c r="G249">
-        <v>13695.55555555448</v>
+        <v>13668.49999999899</v>
       </c>
       <c r="H249">
         <v>323446.9444444791</v>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -5701,13 +5701,13 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>4938.666666666667</v>
+        <v>4935.333333333333</v>
       </c>
       <c r="G205">
-        <v>13656</v>
+        <v>13655.33333333333</v>
       </c>
       <c r="H205">
-        <v>325241.6666666667</v>
+        <v>327773.6666666667</v>
       </c>
     </row>
     <row r="206">
@@ -5715,7 +5715,7 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>252.4233333333333</v>
+        <v>257.3506666666667</v>
       </c>
       <c r="C206">
         <v>19502.8</v>
@@ -5727,13 +5727,13 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>5008.111111111111</v>
+        <v>4977.666666666667</v>
       </c>
       <c r="G206">
-        <v>13654.11111111111</v>
+        <v>13670.66666666667</v>
       </c>
       <c r="H206">
-        <v>323736.6666666667</v>
+        <v>323195.6666666667</v>
       </c>
     </row>
     <row r="207">
@@ -5741,7 +5741,7 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>253.3724444444444</v>
+        <v>255.0148888888889</v>
       </c>
       <c r="C207">
         <v>19594.2</v>
@@ -5753,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>4994.37037037037</v>
+        <v>4983.111111111111</v>
       </c>
       <c r="G207">
-        <v>13682.25925925926</v>
+        <v>13687.55555555556</v>
       </c>
       <c r="H207">
-        <v>322655.5555555556</v>
+        <v>323319.2222222223</v>
       </c>
     </row>
     <row r="208">
@@ -5767,7 +5767,7 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>253.492037037037</v>
+        <v>255.681962962963</v>
       </c>
       <c r="C208">
         <v>19687.7</v>
@@ -5779,13 +5779,13 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>4980.382716049383</v>
+        <v>4965.37037037037</v>
       </c>
       <c r="G208">
-        <v>13664.12345679012</v>
+        <v>13671.18518518518</v>
       </c>
       <c r="H208">
-        <v>323877.962962963</v>
+        <v>324762.8518518519</v>
       </c>
     </row>
     <row r="209">
@@ -5793,7 +5793,7 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>253.0959382716049</v>
+        <v>256.0158395061728</v>
       </c>
       <c r="C209">
         <v>19783.1</v>
@@ -5805,13 +5805,13 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>4994.288065843622</v>
+        <v>4975.382716049383</v>
       </c>
       <c r="G209">
-        <v>13666.83127572016</v>
+        <v>13676.46913580247</v>
       </c>
       <c r="H209">
-        <v>323423.3950617284</v>
+        <v>323759.2469135803</v>
       </c>
     </row>
     <row r="210">
@@ -5819,7 +5819,7 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>253.3201399176955</v>
+        <v>255.5708971193415</v>
       </c>
       <c r="C210">
         <v>19879.6</v>
@@ -5831,13 +5831,13 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>4989.680384087792</v>
+        <v>4974.621399176955</v>
       </c>
       <c r="G210">
-        <v>13671.07133058985</v>
+        <v>13678.40329218107</v>
       </c>
       <c r="H210">
-        <v>323318.9711934156</v>
+        <v>323947.1069958848</v>
       </c>
     </row>
     <row r="211">
@@ -5845,7 +5845,7 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>253.3027050754458</v>
+        <v>255.7562331961591</v>
       </c>
       <c r="C211">
         <v>19975.5</v>
@@ -5857,13 +5857,13 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>4988.117055326932</v>
+        <v>4971.791495198902</v>
       </c>
       <c r="G211">
-        <v>13667.34202103338</v>
+        <v>13675.35253772291</v>
       </c>
       <c r="H211">
-        <v>323540.109739369</v>
+        <v>324156.401920439</v>
       </c>
     </row>
     <row r="212">
@@ -5871,7 +5871,7 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>253.2395944215821</v>
+        <v>255.7809899405578</v>
       </c>
       <c r="C212">
         <v>20069.9</v>
@@ -5883,13 +5883,13 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>4990.695168419448</v>
+        <v>4973.931870141747</v>
       </c>
       <c r="G212">
-        <v>13668.41487578113</v>
+        <v>13676.74165523548</v>
       </c>
       <c r="H212">
-        <v>323427.491998171</v>
+        <v>323954.2519433014</v>
       </c>
     </row>
     <row r="213">
@@ -5897,7 +5897,7 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>253.2874798049078</v>
+        <v>255.7027067520195</v>
       </c>
       <c r="C213">
         <v>20163.7</v>
@@ -5909,13 +5909,13 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>4989.497535944724</v>
+        <v>4973.448254839202</v>
       </c>
       <c r="G213">
-        <v>13668.94274246812</v>
+        <v>13676.83249504649</v>
       </c>
       <c r="H213">
-        <v>323428.8576436519</v>
+        <v>324019.2536198751</v>
       </c>
     </row>
     <row r="214">
@@ -5923,7 +5923,7 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>253.2765931006452</v>
+        <v>255.7466432962455</v>
       </c>
       <c r="C214">
         <v>20257.3</v>
@@ -5935,13 +5935,13 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>4989.436586563702</v>
+        <v>4973.057206726617</v>
       </c>
       <c r="G214">
-        <v>13668.23321309421</v>
+        <v>13676.30889600163</v>
       </c>
       <c r="H214">
-        <v>323465.4864603973</v>
+        <v>324043.3024945385</v>
       </c>
     </row>
     <row r="215">
@@ -5949,7 +5949,7 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>253.267889109045</v>
+        <v>255.7434466629409</v>
       </c>
       <c r="C215">
         <v>20351.2</v>
@@ -5961,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>4989.876430309291</v>
+        <v>4973.479110569188</v>
       </c>
       <c r="G215">
-        <v>13668.53027711449</v>
+        <v>13676.62768209453</v>
       </c>
       <c r="H215">
-        <v>323440.6120340734</v>
+        <v>324005.602685905</v>
       </c>
     </row>
     <row r="216">
@@ -5975,7 +5975,7 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>253.2773206715327</v>
+        <v>255.7309322370686</v>
       </c>
       <c r="C216">
         <v>20446</v>
@@ -5987,13 +5987,13 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>4989.603517605906</v>
+        <v>4973.328190711669</v>
       </c>
       <c r="G216">
-        <v>13668.56874422561</v>
+        <v>13676.58969104755</v>
       </c>
       <c r="H216">
-        <v>323444.9853793742</v>
+        <v>324022.7196001062</v>
       </c>
     </row>
     <row r="217">
@@ -6001,7 +6001,7 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>253.273934293741</v>
+        <v>255.740340732085</v>
       </c>
       <c r="C217">
         <v>20541.7</v>
@@ -6013,13 +6013,13 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>4989.6388448263</v>
+        <v>4973.288169335825</v>
       </c>
       <c r="G217">
-        <v>13668.44407814477</v>
+        <v>13676.50875638123</v>
       </c>
       <c r="H217">
-        <v>323450.3612912817</v>
+        <v>324023.8749268499</v>
       </c>
     </row>
     <row r="218">
@@ -6027,7 +6027,7 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>253.2730480247729</v>
+        <v>255.7382398773649</v>
       </c>
       <c r="C218">
         <v>20638</v>
@@ -6039,13 +6039,13 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>4989.706264247166</v>
+        <v>4973.365156872227</v>
       </c>
       <c r="G218">
-        <v>13668.51436649495</v>
+        <v>13676.57537650777</v>
       </c>
       <c r="H218">
-        <v>323445.3195682431</v>
+        <v>324017.3990709537</v>
       </c>
     </row>
     <row r="219">
@@ -6053,7 +6053,7 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>253.2747676633489</v>
+        <v>255.7365042821728</v>
       </c>
       <c r="C219">
         <v>20734.1</v>
@@ -6065,13 +6065,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>4989.649542226457</v>
+        <v>4973.327172306574</v>
       </c>
       <c r="G219">
-        <v>13668.50906295511</v>
+        <v>13676.55794131218</v>
       </c>
       <c r="H219">
-        <v>323446.8887462996</v>
+        <v>324021.3311993032</v>
       </c>
     </row>
     <row r="220">
@@ -6079,7 +6079,7 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>253.2739166606209</v>
+        <v>255.7383616305409</v>
       </c>
       <c r="C220">
         <v>20830.5</v>
@@ -6091,13 +6091,13 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>4989.664883766641</v>
+        <v>4973.326832838208</v>
       </c>
       <c r="G220">
-        <v>13668.48916919828</v>
+        <v>13676.54735806706</v>
       </c>
       <c r="H220">
-        <v>323447.5232019415</v>
+        <v>324020.8683990356</v>
       </c>
     </row>
     <row r="221">
@@ -6105,7 +6105,7 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>253.2739107829142</v>
+        <v>255.7377019300262</v>
       </c>
       <c r="C221">
         <v>20927.1</v>
@@ -6117,13 +6117,13 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>4989.673563413421</v>
+        <v>4973.339720672337</v>
       </c>
       <c r="G221">
-        <v>13668.50419954945</v>
+        <v>13676.56022529567</v>
       </c>
       <c r="H221">
-        <v>323446.5771721614</v>
+        <v>324019.8662230975</v>
       </c>
     </row>
     <row r="222">
@@ -6131,7 +6131,7 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>253.2741983689613</v>
+        <v>255.7375226142466</v>
       </c>
       <c r="C222">
         <v>21023.6</v>
@@ -6143,13 +6143,13 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>4989.662663135507</v>
+        <v>4973.33124193904</v>
       </c>
       <c r="G222">
-        <v>13668.50081056761</v>
+        <v>13676.55517489164</v>
       </c>
       <c r="H222">
-        <v>323446.9963734675</v>
+        <v>324020.6886071455</v>
       </c>
     </row>
     <row r="223">
@@ -6157,7 +6157,7 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>253.2740086041655</v>
+        <v>255.7378620582713</v>
       </c>
       <c r="C223">
         <v>21118.9</v>
@@ -6169,13 +6169,13 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>4989.667036771856</v>
+        <v>4973.332598483195</v>
       </c>
       <c r="G223">
-        <v>13668.49805977178</v>
+        <v>13676.55425275146</v>
       </c>
       <c r="H223">
-        <v>323447.0322491901</v>
+        <v>324020.4744097595</v>
       </c>
     </row>
     <row r="224">
@@ -6183,7 +6183,7 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>253.2740392520137</v>
+        <v>255.7376955341814</v>
       </c>
       <c r="C224">
         <v>21213.5</v>
@@ -6195,13 +6195,13 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>4989.667754440261</v>
+        <v>4973.334520364857</v>
       </c>
       <c r="G224">
-        <v>13668.50102329628</v>
+        <v>13676.55655097959</v>
       </c>
       <c r="H224">
-        <v>323446.868598273</v>
+        <v>324020.3430800008</v>
       </c>
     </row>
     <row r="225">
@@ -6209,7 +6209,7 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>253.2740820750468</v>
+        <v>255.7376934022331</v>
       </c>
       <c r="C225">
         <v>21307.4</v>
@@ -6221,13 +6221,13 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>4989.665818115875</v>
+        <v>4973.332786929031</v>
       </c>
       <c r="G225">
-        <v>13668.49996454522</v>
+        <v>13676.55532620756</v>
       </c>
       <c r="H225">
-        <v>323446.9657403102</v>
+        <v>324020.5020323019</v>
       </c>
     </row>
     <row r="226">
@@ -6235,7 +6235,7 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>253.2740433104087</v>
+        <v>255.7377503315619</v>
       </c>
       <c r="C226">
         <v>21400.7</v>
@@ -6247,13 +6247,13 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>4989.666869775997</v>
+        <v>4973.333301925694</v>
       </c>
       <c r="G226">
-        <v>13668.49968253776</v>
+        <v>13676.5553766462</v>
       </c>
       <c r="H226">
-        <v>323446.9555292578</v>
+        <v>324020.4398406874</v>
       </c>
     </row>
     <row r="227">
@@ -6261,7 +6261,7 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>253.2740548791564</v>
+        <v>255.7377130893254</v>
       </c>
       <c r="C227">
         <v>21493.1</v>
@@ -6273,13 +6273,13 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>4989.666814110711</v>
+        <v>4973.333536406527</v>
       </c>
       <c r="G227">
-        <v>13668.50022345975</v>
+        <v>13676.55575127778</v>
       </c>
       <c r="H227">
-        <v>323446.929955947</v>
+        <v>324020.4283176634</v>
       </c>
     </row>
     <row r="228">
@@ -6287,7 +6287,7 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>253.274060088204</v>
+        <v>255.7377189410401</v>
       </c>
       <c r="C228">
         <v>21585.4</v>
@@ -6299,13 +6299,13 @@
         <v>1</v>
       </c>
       <c r="F228">
-        <v>4989.666500667528</v>
+        <v>4973.333208420418</v>
       </c>
       <c r="G228">
-        <v>13668.49995684758</v>
+        <v>13676.55548471052</v>
       </c>
       <c r="H228">
-        <v>323446.950408505</v>
+        <v>324020.4567302176</v>
       </c>
     </row>
     <row r="229">
@@ -6313,7 +6313,7 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>253.2740527592563</v>
+        <v>255.7377274539758</v>
       </c>
       <c r="C229">
         <v>21677.8</v>
@@ -6325,13 +6325,13 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>4989.666728184745</v>
+        <v>4973.333348917547</v>
       </c>
       <c r="G229">
-        <v>13668.4999542817</v>
+        <v>13676.55553754483</v>
       </c>
       <c r="H229">
-        <v>323446.9452979033</v>
+        <v>324020.4416295228</v>
       </c>
     </row>
     <row r="230">
@@ -6339,7 +6339,7 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>253.2740559088722</v>
+        <v>255.7377198281138</v>
       </c>
       <c r="C230">
         <v>21770.3</v>
@@ -6351,13 +6351,13 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <v>4989.666680987662</v>
+        <v>4973.333364581497</v>
       </c>
       <c r="G230">
-        <v>13668.50004486301</v>
+        <v>13676.55559117771</v>
       </c>
       <c r="H230">
-        <v>323446.9418874517</v>
+        <v>324020.4422258012</v>
       </c>
     </row>
     <row r="231">
@@ -6365,7 +6365,7 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>253.2740562521108</v>
+        <v>255.7377220743766</v>
       </c>
       <c r="C231">
         <v>21862.9</v>
@@ -6377,13 +6377,13 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>4989.666636613311</v>
+        <v>4973.333307306487</v>
       </c>
       <c r="G231">
-        <v>13668.49998533076</v>
+        <v>13676.55553781102</v>
       </c>
       <c r="H231">
-        <v>323446.94586462</v>
+        <v>324020.4468618472</v>
       </c>
     </row>
     <row r="232">
@@ -6391,7 +6391,7 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>253.2740549734131</v>
+        <v>255.7377231188221</v>
       </c>
       <c r="C232">
         <v>21956.1</v>
@@ -6403,13 +6403,13 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>4989.666681928573</v>
+        <v>4973.33334026851</v>
       </c>
       <c r="G232">
-        <v>13668.49999482516</v>
+        <v>13676.55555551119</v>
       </c>
       <c r="H232">
-        <v>323446.9443499917</v>
+        <v>324020.4435723904</v>
       </c>
     </row>
     <row r="233">
@@ -6417,7 +6417,7 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>253.2740557114654</v>
+        <v>255.7377216737708</v>
       </c>
       <c r="C233">
         <v>22049.5</v>
@@ -6429,13 +6429,13 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>4989.666666509848</v>
+        <v>4973.333337385499</v>
       </c>
       <c r="G233">
-        <v>13668.50000833964</v>
+        <v>13676.55556149997</v>
       </c>
       <c r="H233">
-        <v>323446.9440340211</v>
+        <v>324020.4442200129</v>
       </c>
     </row>
     <row r="234">
@@ -6443,7 +6443,7 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>253.2740556456631</v>
+        <v>255.7377222889898</v>
       </c>
       <c r="C234">
         <v>22143.3</v>
@@ -6455,13 +6455,13 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>4989.666661683911</v>
+        <v>4973.333328320166</v>
       </c>
       <c r="G234">
-        <v>13668.49999616519</v>
+        <v>13676.55555160739</v>
       </c>
       <c r="H234">
-        <v>323446.9447495443</v>
+        <v>324020.4448847502</v>
       </c>
     </row>
     <row r="235">
@@ -6469,7 +6469,7 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>253.2740554435139</v>
+        <v>255.7377223605276</v>
       </c>
       <c r="C235">
         <v>22238.3</v>
@@ -6481,13 +6481,13 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>4989.666670040778</v>
+        <v>4973.333335324724</v>
       </c>
       <c r="G235">
-        <v>13668.49999977666</v>
+        <v>13676.55555620618</v>
       </c>
       <c r="H235">
-        <v>323446.9443778524</v>
+        <v>324020.4442257179</v>
       </c>
     </row>
     <row r="236">
@@ -6495,7 +6495,7 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>253.2740556002141</v>
+        <v>255.7377221077627</v>
       </c>
       <c r="C236">
         <v>22334.3</v>
@@ -6507,13 +6507,13 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>4989.666666078179</v>
+        <v>4973.333333676796</v>
       </c>
       <c r="G236">
-        <v>13668.50000142717</v>
+        <v>13676.55555643785</v>
       </c>
       <c r="H236">
-        <v>323446.9443871392</v>
+        <v>324020.4444434937</v>
       </c>
     </row>
     <row r="237">
@@ -6521,7 +6521,7 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>253.2740555631304</v>
+        <v>255.7377222524267</v>
       </c>
       <c r="C237">
         <v>22431.4</v>
@@ -6533,13 +6533,13 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>4989.666665934289</v>
+        <v>4973.333332440562</v>
       </c>
       <c r="G237">
-        <v>13668.49999912301</v>
+        <v>13676.55555475048</v>
       </c>
       <c r="H237">
-        <v>323446.9445048453</v>
+        <v>324020.4445179873</v>
       </c>
     </row>
     <row r="238">
@@ -6547,7 +6547,7 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>253.2740555356195</v>
+        <v>255.737722240239</v>
       </c>
       <c r="C238">
         <v>22529.4</v>
@@ -6559,13 +6559,13 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>4989.666667351082</v>
+        <v>4973.333333814027</v>
       </c>
       <c r="G238">
-        <v>13668.50000010895</v>
+        <v>13676.55555579817</v>
       </c>
       <c r="H238">
-        <v>323446.944423279</v>
+        <v>324020.444395733</v>
       </c>
     </row>
     <row r="239">
@@ -6573,7 +6573,7 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>253.2740555663213</v>
+        <v>255.7377222001428</v>
       </c>
       <c r="C239">
         <v>22628.1</v>
@@ -6585,13 +6585,13 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>4989.666666454516</v>
+        <v>4973.333333310462</v>
       </c>
       <c r="G239">
-        <v>13668.50000021971</v>
+        <v>13676.55555566217</v>
       </c>
       <c r="H239">
-        <v>323446.9444384212</v>
+        <v>324020.4444524046</v>
       </c>
     </row>
     <row r="240">
@@ -6599,7 +6599,7 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>253.2740555550237</v>
+        <v>255.7377222309362</v>
       </c>
       <c r="C240">
         <v>22726.7</v>
@@ -6611,13 +6611,13 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>4989.666666579962</v>
+        <v>4973.333333188351</v>
       </c>
       <c r="G240">
-        <v>13668.49999981722</v>
+        <v>13676.5555554036</v>
       </c>
       <c r="H240">
-        <v>323446.9444555151</v>
+        <v>324020.444455375</v>
       </c>
     </row>
     <row r="241">
@@ -6625,7 +6625,7 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>253.2740555523215</v>
+        <v>255.7377222237726</v>
       </c>
       <c r="C241">
         <v>22825.1</v>
@@ -6637,13 +6637,13 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>4989.666666795187</v>
+        <v>4973.333333437613</v>
       </c>
       <c r="G241">
-        <v>13668.50000004862</v>
+        <v>13676.55555562131</v>
       </c>
       <c r="H241">
-        <v>323446.9444390718</v>
+        <v>324020.4444345042</v>
       </c>
     </row>
     <row r="242">
@@ -6651,7 +6651,7 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>253.2740555578889</v>
+        <v>255.7377222182839</v>
       </c>
       <c r="C242">
         <v>22923.6</v>
@@ -6663,13 +6663,13 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>4989.666666609888</v>
+        <v>4973.333333312142</v>
       </c>
       <c r="G242">
-        <v>13668.50000002852</v>
+        <v>13676.55555556236</v>
       </c>
       <c r="H242">
-        <v>323446.944444336</v>
+        <v>324020.4444474279</v>
       </c>
     </row>
     <row r="243">
@@ -6677,7 +6677,7 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>253.274055555078</v>
+        <v>255.7377222243309</v>
       </c>
       <c r="C243">
         <v>23022.1</v>
@@ -6689,13 +6689,13 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>4989.666666661679</v>
+        <v>4973.333333312702</v>
       </c>
       <c r="G243">
-        <v>13668.49999996479</v>
+        <v>13676.55555552909</v>
       </c>
       <c r="H243">
-        <v>323446.9444463076</v>
+        <v>324020.444445769</v>
       </c>
     </row>
     <row r="244">
@@ -6703,7 +6703,7 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>253.2740555550961</v>
+        <v>255.7377222221291</v>
       </c>
       <c r="C244">
         <v>23120.6</v>
@@ -6715,13 +6715,13 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>4989.666666688918</v>
+        <v>4973.333333354152</v>
       </c>
       <c r="G244">
-        <v>13668.50000001398</v>
+        <v>13676.55555557092</v>
       </c>
       <c r="H244">
-        <v>323446.9444432384</v>
+        <v>324020.4444425671</v>
       </c>
     </row>
     <row r="245">
@@ -6729,7 +6729,7 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>253.274055556021</v>
+        <v>255.7377222215813</v>
       </c>
       <c r="C245">
         <v>23219.4</v>
@@ -6741,13 +6741,13 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>4989.666666653495</v>
+        <v>4973.333333326332</v>
       </c>
       <c r="G245">
-        <v>13668.50000000243</v>
+        <v>13676.55555555413</v>
       </c>
       <c r="H245">
-        <v>323446.9444446273</v>
+        <v>324020.4444452547</v>
       </c>
     </row>
     <row r="246">
@@ -6755,7 +6755,7 @@
         <v>47938</v>
       </c>
       <c r="B246">
-        <v>253.2740555553984</v>
+        <v>255.7377222226805</v>
       </c>
       <c r="C246">
         <v>23318.3</v>
@@ -6767,13 +6767,13 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>4989.66666666803</v>
+        <v>4973.333333331062</v>
       </c>
       <c r="G246">
-        <v>13668.49999999373</v>
+        <v>13676.55555555138</v>
       </c>
       <c r="H246">
-        <v>323446.9444447245</v>
+        <v>324020.4444445302</v>
       </c>
     </row>
     <row r="247">
@@ -6781,7 +6781,7 @@
         <v>48029</v>
       </c>
       <c r="B247">
-        <v>253.2740555555052</v>
+        <v>255.7377222221303</v>
       </c>
       <c r="C247">
         <v>23417.4</v>
@@ -6793,13 +6793,13 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>4989.666666670148</v>
+        <v>4973.333333337182</v>
       </c>
       <c r="G247">
-        <v>13668.50000000338</v>
+        <v>13676.55555555881</v>
       </c>
       <c r="H247">
-        <v>323446.9444441968</v>
+        <v>324020.4444441173</v>
       </c>
     </row>
     <row r="248">
@@ -6807,7 +6807,7 @@
         <v>48121</v>
       </c>
       <c r="B248">
-        <v>253.2740555556415</v>
+        <v>255.7377222221307</v>
       </c>
       <c r="C248">
         <v>23516.4</v>
@@ -6819,13 +6819,13 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>4989.666666663891</v>
+        <v>4973.333333331525</v>
       </c>
       <c r="G248">
-        <v>13668.49999999985</v>
+        <v>13676.55555555477</v>
       </c>
       <c r="H248">
-        <v>323446.9444445162</v>
+        <v>324020.4444446341</v>
       </c>
     </row>
     <row r="249">
@@ -6833,7 +6833,7 @@
         <v>48213</v>
       </c>
       <c r="B249">
-        <v>253.2740555555151</v>
+        <v>255.7377222223138</v>
       </c>
       <c r="C249">
         <v>23615.3</v>
@@ -6845,13 +6845,13 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>4989.666666667356</v>
+        <v>4973.333333333257</v>
       </c>
       <c r="G249">
-        <v>13668.49999999899</v>
+        <v>13676.55555555499</v>
       </c>
       <c r="H249">
-        <v>323446.9444444791</v>
+        <v>324020.4444444272</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -5727,13 +5727,13 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>4977.666666666667</v>
+        <v>4976.666666666667</v>
       </c>
       <c r="G206">
-        <v>13670.66666666667</v>
+        <v>13671.33333333333</v>
       </c>
       <c r="H206">
-        <v>323195.6666666667</v>
+        <v>323711.6666666667</v>
       </c>
     </row>
     <row r="207">
@@ -5753,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>4983.111111111111</v>
+        <v>4982.777777777777</v>
       </c>
       <c r="G207">
-        <v>13687.55555555556</v>
+        <v>13687.77777777778</v>
       </c>
       <c r="H207">
-        <v>323319.2222222223</v>
+        <v>323491.2222222223</v>
       </c>
     </row>
     <row r="208">
@@ -5779,13 +5779,13 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>4965.37037037037</v>
+        <v>4964.925925925926</v>
       </c>
       <c r="G208">
-        <v>13671.18518518518</v>
+        <v>13671.48148148148</v>
       </c>
       <c r="H208">
-        <v>324762.8518518519</v>
+        <v>324992.1851851852</v>
       </c>
     </row>
     <row r="209">
@@ -5805,13 +5805,13 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>4975.382716049383</v>
+        <v>4974.79012345679</v>
       </c>
       <c r="G209">
-        <v>13676.46913580247</v>
+        <v>13676.86419753086</v>
       </c>
       <c r="H209">
-        <v>323759.2469135803</v>
+        <v>324065.024691358</v>
       </c>
     </row>
     <row r="210">
@@ -5831,13 +5831,13 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>4974.621399176955</v>
+        <v>4974.164609053498</v>
       </c>
       <c r="G210">
-        <v>13678.40329218107</v>
+        <v>13678.70781893004</v>
       </c>
       <c r="H210">
-        <v>323947.1069958848</v>
+        <v>324182.8106995885</v>
       </c>
     </row>
     <row r="211">
@@ -5857,13 +5857,13 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>4971.791495198902</v>
+        <v>4971.293552812072</v>
       </c>
       <c r="G211">
-        <v>13675.35253772291</v>
+        <v>13675.68449931413</v>
       </c>
       <c r="H211">
-        <v>324156.401920439</v>
+        <v>324413.3401920439</v>
       </c>
     </row>
     <row r="212">
@@ -5883,13 +5883,13 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>4973.931870141747</v>
+        <v>4973.416095107453</v>
       </c>
       <c r="G212">
-        <v>13676.74165523548</v>
+        <v>13677.08550525835</v>
       </c>
       <c r="H212">
-        <v>323954.2519433014</v>
+        <v>324220.3918609968</v>
       </c>
     </row>
     <row r="213">
@@ -5909,13 +5909,13 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>4973.448254839202</v>
+        <v>4972.958085657674</v>
       </c>
       <c r="G213">
-        <v>13676.83249504649</v>
+        <v>13677.15927450084</v>
       </c>
       <c r="H213">
-        <v>324019.2536198751</v>
+        <v>324272.1809175431</v>
       </c>
     </row>
     <row r="214">
@@ -5935,13 +5935,13 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>4973.057206726617</v>
+        <v>4972.555911192399</v>
       </c>
       <c r="G214">
-        <v>13676.30889600163</v>
+        <v>13676.64309302444</v>
       </c>
       <c r="H214">
-        <v>324043.3024945385</v>
+        <v>324301.9709901946</v>
       </c>
     </row>
     <row r="215">
@@ -5961,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>4973.479110569188</v>
+        <v>4972.976697319175</v>
       </c>
       <c r="G215">
-        <v>13676.62768209453</v>
+        <v>13676.96262426121</v>
       </c>
       <c r="H215">
-        <v>324005.602685905</v>
+        <v>324264.8479229115</v>
       </c>
     </row>
     <row r="216">
@@ -5987,13 +5987,13 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>4973.328190711669</v>
+        <v>4972.830231389749</v>
       </c>
       <c r="G216">
-        <v>13676.58969104755</v>
+        <v>13676.92166392883</v>
       </c>
       <c r="H216">
-        <v>324022.7196001062</v>
+        <v>324279.6666102164</v>
       </c>
     </row>
     <row r="217">
@@ -6013,13 +6013,13 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>4973.288169335825</v>
+        <v>4972.787613300441</v>
       </c>
       <c r="G217">
-        <v>13676.50875638123</v>
+        <v>13676.84246040482</v>
       </c>
       <c r="H217">
-        <v>324023.8749268499</v>
+        <v>324282.1618411075</v>
       </c>
     </row>
     <row r="218">
@@ -6039,13 +6039,13 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>4973.365156872227</v>
+        <v>4972.864847336456</v>
       </c>
       <c r="G218">
-        <v>13676.57537650777</v>
+        <v>13676.90891619829</v>
       </c>
       <c r="H218">
-        <v>324017.3990709537</v>
+        <v>324275.5587914118</v>
       </c>
     </row>
     <row r="219">
@@ -6065,13 +6065,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>4973.327172306574</v>
+        <v>4972.827564008882</v>
       </c>
       <c r="G219">
-        <v>13676.55794131218</v>
+        <v>13676.89101351065</v>
       </c>
       <c r="H219">
-        <v>324021.3311993032</v>
+        <v>324279.1290809119</v>
       </c>
     </row>
     <row r="220">
@@ -6091,13 +6091,13 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>4973.326832838208</v>
+        <v>4972.826674881926</v>
       </c>
       <c r="G220">
-        <v>13676.54735806706</v>
+        <v>13676.88079670459</v>
       </c>
       <c r="H220">
-        <v>324020.8683990356</v>
+        <v>324278.9499044771</v>
       </c>
     </row>
     <row r="221">
@@ -6117,13 +6117,13 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>4973.339720672337</v>
+        <v>4972.839695409088</v>
       </c>
       <c r="G221">
-        <v>13676.56022529567</v>
+        <v>13676.89357547117</v>
       </c>
       <c r="H221">
-        <v>324019.8662230975</v>
+        <v>324277.8792589336</v>
       </c>
     </row>
     <row r="222">
@@ -6143,13 +6143,13 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>4973.33124193904</v>
+        <v>4972.831311433299</v>
       </c>
       <c r="G222">
-        <v>13676.55517489164</v>
+        <v>13676.88846189547</v>
       </c>
       <c r="H222">
-        <v>324020.6886071455</v>
+        <v>324278.6527481075</v>
       </c>
     </row>
     <row r="223">
@@ -6169,13 +6169,13 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>4973.332598483195</v>
+        <v>4972.832560574771</v>
       </c>
       <c r="G223">
-        <v>13676.55425275146</v>
+        <v>13676.88761135708</v>
       </c>
       <c r="H223">
-        <v>324020.4744097595</v>
+        <v>324278.4939705061</v>
       </c>
     </row>
     <row r="224">
@@ -6195,13 +6195,13 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>4973.334520364857</v>
+        <v>4972.834522472385</v>
       </c>
       <c r="G224">
-        <v>13676.55655097959</v>
+        <v>13676.8898829079</v>
       </c>
       <c r="H224">
-        <v>324020.3430800008</v>
+        <v>324278.3419925157</v>
       </c>
     </row>
     <row r="225">
@@ -6221,13 +6221,13 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>4973.332786929031</v>
+        <v>4972.832798160152</v>
       </c>
       <c r="G225">
-        <v>13676.55532620756</v>
+        <v>13676.88865205348</v>
       </c>
       <c r="H225">
-        <v>324020.5020323019</v>
+        <v>324278.4962370431</v>
       </c>
     </row>
     <row r="226">
@@ -6247,13 +6247,13 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>4973.333301925694</v>
+        <v>4972.833293735769</v>
       </c>
       <c r="G226">
-        <v>13676.5553766462</v>
+        <v>13676.88871543949</v>
       </c>
       <c r="H226">
-        <v>324020.4398406874</v>
+        <v>324278.4440666883</v>
       </c>
     </row>
     <row r="227">
@@ -6273,13 +6273,13 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>4973.333536406527</v>
+        <v>4972.833538122769</v>
       </c>
       <c r="G227">
-        <v>13676.55575127778</v>
+        <v>13676.88908346696</v>
       </c>
       <c r="H227">
-        <v>324020.4283176634</v>
+        <v>324278.4274320824</v>
       </c>
     </row>
     <row r="228">
@@ -6299,13 +6299,13 @@
         <v>1</v>
       </c>
       <c r="F228">
-        <v>4973.333208420418</v>
+        <v>4972.83321000623</v>
       </c>
       <c r="G228">
-        <v>13676.55548471052</v>
+        <v>13676.88881698664</v>
       </c>
       <c r="H228">
-        <v>324020.4567302176</v>
+        <v>324278.4559119379</v>
       </c>
     </row>
     <row r="229">
@@ -6325,13 +6325,13 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>4973.333348917547</v>
+        <v>4972.833347288256</v>
       </c>
       <c r="G229">
-        <v>13676.55553754483</v>
+        <v>13676.88887196436</v>
       </c>
       <c r="H229">
-        <v>324020.4416295228</v>
+        <v>324278.4424702362</v>
       </c>
     </row>
     <row r="230">
@@ -6351,13 +6351,13 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <v>4973.333364581497</v>
+        <v>4972.833365139085</v>
       </c>
       <c r="G230">
-        <v>13676.55559117771</v>
+        <v>13676.88892413932</v>
       </c>
       <c r="H230">
-        <v>324020.4422258012</v>
+        <v>324278.4419380855</v>
       </c>
     </row>
     <row r="231">
@@ -6377,13 +6377,13 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>4973.333307306487</v>
+        <v>4972.833307477857</v>
       </c>
       <c r="G231">
-        <v>13676.55553781102</v>
+        <v>13676.88887103011</v>
       </c>
       <c r="H231">
-        <v>324020.4468618472</v>
+        <v>324278.4467734199</v>
       </c>
     </row>
     <row r="232">
@@ -6403,13 +6403,13 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>4973.33334026851</v>
+        <v>4972.833339968399</v>
       </c>
       <c r="G232">
-        <v>13676.55555551119</v>
+        <v>13676.8888890446</v>
       </c>
       <c r="H232">
-        <v>324020.4435723904</v>
+        <v>324278.4437272472</v>
       </c>
     </row>
     <row r="233">
@@ -6429,13 +6429,13 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>4973.333337385499</v>
+        <v>4972.833337528447</v>
       </c>
       <c r="G233">
-        <v>13676.55556149997</v>
+        <v>13676.88889473801</v>
       </c>
       <c r="H233">
-        <v>324020.4442200129</v>
+        <v>324278.4441462508</v>
       </c>
     </row>
     <row r="234">
@@ -6455,13 +6455,13 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>4973.333328320166</v>
+        <v>4972.8333283249</v>
       </c>
       <c r="G234">
-        <v>13676.55555160739</v>
+        <v>13676.88888493757</v>
       </c>
       <c r="H234">
-        <v>324020.4448847502</v>
+        <v>324278.444882306</v>
       </c>
     </row>
     <row r="235">
@@ -6481,13 +6481,13 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>4973.333335324724</v>
+        <v>4972.833335273916</v>
       </c>
       <c r="G235">
-        <v>13676.55555620618</v>
+        <v>13676.88888957339</v>
       </c>
       <c r="H235">
-        <v>324020.4442257179</v>
+        <v>324278.4442519347</v>
       </c>
     </row>
     <row r="236">
@@ -6507,13 +6507,13 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>4973.333333676796</v>
+        <v>4972.833333709087</v>
       </c>
       <c r="G236">
-        <v>13676.55555643785</v>
+        <v>13676.88888974966</v>
       </c>
       <c r="H236">
-        <v>324020.4444434937</v>
+        <v>324278.4444268305</v>
       </c>
     </row>
     <row r="237">
@@ -6533,13 +6533,13 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>4973.333332440562</v>
+        <v>4972.833332435967</v>
       </c>
       <c r="G237">
-        <v>13676.55555475048</v>
+        <v>13676.88888808687</v>
       </c>
       <c r="H237">
-        <v>324020.4445179873</v>
+        <v>324278.4445203571</v>
       </c>
     </row>
     <row r="238">
@@ -6559,13 +6559,13 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>4973.333333814027</v>
+        <v>4972.833333806323</v>
       </c>
       <c r="G238">
-        <v>13676.55555579817</v>
+        <v>13676.88888913664</v>
       </c>
       <c r="H238">
-        <v>324020.444395733</v>
+        <v>324278.4443997074</v>
       </c>
     </row>
     <row r="239">
@@ -6585,13 +6585,13 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>4973.333333310462</v>
+        <v>4972.833333317126</v>
       </c>
       <c r="G239">
-        <v>13676.55555566217</v>
+        <v>13676.88888899106</v>
       </c>
       <c r="H239">
-        <v>324020.4444524046</v>
+        <v>324278.444448965</v>
       </c>
     </row>
     <row r="240">
@@ -6611,13 +6611,13 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>4973.333333188351</v>
+        <v>4972.833333186472</v>
       </c>
       <c r="G240">
-        <v>13676.5555554036</v>
+        <v>13676.88888873819</v>
       </c>
       <c r="H240">
-        <v>324020.444455375</v>
+        <v>324278.4444563432</v>
       </c>
     </row>
     <row r="241">
@@ -6637,13 +6637,13 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>4973.333333437613</v>
+        <v>4972.833333436641</v>
       </c>
       <c r="G241">
-        <v>13676.55555562131</v>
+        <v>13676.8888889553</v>
       </c>
       <c r="H241">
-        <v>324020.4444345042</v>
+        <v>324278.4444350052</v>
       </c>
     </row>
     <row r="242">
@@ -6663,13 +6663,13 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>4973.333333312142</v>
+        <v>4972.833333313413</v>
       </c>
       <c r="G242">
-        <v>13676.55555556236</v>
+        <v>13676.88888889485</v>
       </c>
       <c r="H242">
-        <v>324020.4444474279</v>
+        <v>324278.4444467711</v>
       </c>
     </row>
     <row r="243">
@@ -6689,13 +6689,13 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>4973.333333312702</v>
+        <v>4972.833333312176</v>
       </c>
       <c r="G243">
-        <v>13676.55555552909</v>
+        <v>13676.88888886278</v>
       </c>
       <c r="H243">
-        <v>324020.444445769</v>
+        <v>324278.4444460399</v>
       </c>
     </row>
     <row r="244">
@@ -6715,13 +6715,13 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>4973.333333354152</v>
+        <v>4972.833333354077</v>
       </c>
       <c r="G244">
-        <v>13676.55555557092</v>
+        <v>13676.88888890431</v>
       </c>
       <c r="H244">
-        <v>324020.4444425671</v>
+        <v>324278.4444426054</v>
       </c>
     </row>
     <row r="245">
@@ -6741,13 +6741,13 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>4973.333333326332</v>
+        <v>4972.833333326556</v>
       </c>
       <c r="G245">
-        <v>13676.55555555413</v>
+        <v>13676.88888888731</v>
       </c>
       <c r="H245">
-        <v>324020.4444452547</v>
+        <v>324278.4444451388</v>
       </c>
     </row>
     <row r="246">
@@ -6767,13 +6767,13 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>4973.333333331062</v>
+        <v>4972.833333330936</v>
       </c>
       <c r="G246">
-        <v>13676.55555555138</v>
+        <v>13676.8888888848</v>
       </c>
       <c r="H246">
-        <v>324020.4444445302</v>
+        <v>324278.4444445947</v>
       </c>
     </row>
     <row r="247">
@@ -6793,13 +6793,13 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>4973.333333337182</v>
+        <v>4972.833333337189</v>
       </c>
       <c r="G247">
-        <v>13676.55555555881</v>
+        <v>13676.88888889214</v>
       </c>
       <c r="H247">
-        <v>324020.4444441173</v>
+        <v>324278.444444113</v>
       </c>
     </row>
     <row r="248">
@@ -6819,13 +6819,13 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>4973.333333331525</v>
+        <v>4972.83333333156</v>
       </c>
       <c r="G248">
-        <v>13676.55555555477</v>
+        <v>13676.88888888808</v>
       </c>
       <c r="H248">
-        <v>324020.4444446341</v>
+        <v>324278.4444446155</v>
       </c>
     </row>
     <row r="249">
@@ -6845,13 +6845,13 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>4973.333333333257</v>
+        <v>4972.833333333228</v>
       </c>
       <c r="G249">
-        <v>13676.55555555499</v>
+        <v>13676.88888888834</v>
       </c>
       <c r="H249">
-        <v>324020.4444444272</v>
+        <v>324278.444444441</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -414,10 +414,10 @@
         <v>38.3</v>
       </c>
       <c r="C2">
-        <v>4940.7</v>
+        <v>4942.2</v>
       </c>
       <c r="D2">
-        <v>1052.1</v>
+        <v>1052.4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -440,10 +440,10 @@
         <v>38.83333333333334</v>
       </c>
       <c r="C3">
-        <v>4982</v>
+        <v>4983.4</v>
       </c>
       <c r="D3">
-        <v>1075.7</v>
+        <v>1076</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -466,10 +466,10 @@
         <v>39.23333333333334</v>
       </c>
       <c r="C4">
-        <v>5021.9</v>
+        <v>5023.3</v>
       </c>
       <c r="D4">
-        <v>1093.2</v>
+        <v>1093.5</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -492,10 +492,10 @@
         <v>39.8</v>
       </c>
       <c r="C5">
-        <v>5060.8</v>
+        <v>5062.2</v>
       </c>
       <c r="D5">
-        <v>1116.2</v>
+        <v>1116.5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -518,10 +518,10 @@
         <v>40.16666666666667</v>
       </c>
       <c r="C6">
-        <v>5099.9</v>
+        <v>5101.1</v>
       </c>
       <c r="D6">
-        <v>1142</v>
+        <v>1142.2</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -544,10 +544,10 @@
         <v>40.53333333333334</v>
       </c>
       <c r="C7">
-        <v>5139.7</v>
+        <v>5140.8</v>
       </c>
       <c r="D7">
-        <v>1165.9</v>
+        <v>1166.2</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -570,10 +570,10 @@
         <v>40.96666666666667</v>
       </c>
       <c r="C8">
-        <v>5180</v>
+        <v>5181</v>
       </c>
       <c r="D8">
-        <v>1187.1</v>
+        <v>1187.3</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -596,10 +596,10 @@
         <v>41.23333333333334</v>
       </c>
       <c r="C9">
-        <v>5221</v>
+        <v>5221.9</v>
       </c>
       <c r="D9">
-        <v>1206.4</v>
+        <v>1206.6</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -622,10 +622,10 @@
         <v>41.6</v>
       </c>
       <c r="C10">
-        <v>5262.8</v>
+        <v>5263.6</v>
       </c>
       <c r="D10">
-        <v>1234.6</v>
+        <v>1234.7</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -648,10 +648,10 @@
         <v>41.8</v>
       </c>
       <c r="C11">
-        <v>5305.2</v>
+        <v>5305.9</v>
       </c>
       <c r="D11">
-        <v>1252.3</v>
+        <v>1252.4</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -674,10 +674,10 @@
         <v>42.2</v>
       </c>
       <c r="C12">
-        <v>5348.2</v>
+        <v>5348.8</v>
       </c>
       <c r="D12">
-        <v>1274.5</v>
+        <v>1274.7</v>
       </c>
       <c r="E12">
         <v>-1</v>
@@ -700,10 +700,10 @@
         <v>42.63333333333333</v>
       </c>
       <c r="C13">
-        <v>5391.9</v>
+        <v>5392.4</v>
       </c>
       <c r="D13">
-        <v>1301.3</v>
+        <v>1301.4</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -726,10 +726,10 @@
         <v>43.26666666666667</v>
       </c>
       <c r="C14">
-        <v>5436.6</v>
+        <v>5437</v>
       </c>
       <c r="D14">
-        <v>1327.2</v>
+        <v>1327.3</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -752,10 +752,10 @@
         <v>44.16666666666666</v>
       </c>
       <c r="C15">
-        <v>5483.5</v>
+        <v>5483.8</v>
       </c>
       <c r="D15">
-        <v>1359.2</v>
+        <v>1359.3</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -778,10 +778,10 @@
         <v>45.06666666666666</v>
       </c>
       <c r="C16">
-        <v>5530.8</v>
+        <v>5531.1</v>
       </c>
       <c r="D16">
-        <v>1397.6</v>
+        <v>1397.7</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -804,10 +804,10 @@
         <v>46.16666666666666</v>
       </c>
       <c r="C17">
-        <v>5579.2</v>
+        <v>5579.5</v>
       </c>
       <c r="D17">
-        <v>1437.9</v>
+        <v>1438</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -830,10 +830,10 @@
         <v>47.56666666666666</v>
       </c>
       <c r="C18">
-        <v>5628.2</v>
+        <v>5628.5</v>
       </c>
       <c r="D18">
-        <v>1477.9</v>
+        <v>1478</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>48.76666666666667</v>
       </c>
       <c r="C19">
-        <v>5677.5</v>
+        <v>5677.8</v>
       </c>
       <c r="D19">
         <v>1526.2</v>
@@ -882,10 +882,10 @@
         <v>50.23333333333334</v>
       </c>
       <c r="C20">
-        <v>5726.2</v>
+        <v>5726.5</v>
       </c>
       <c r="D20">
-        <v>1584.3</v>
+        <v>1584.4</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -908,10 +908,10 @@
         <v>51.76666666666667</v>
       </c>
       <c r="C21">
-        <v>5774.2</v>
+        <v>5774.5</v>
       </c>
       <c r="D21">
-        <v>1644.6</v>
+        <v>1644.7</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -934,10 +934,10 @@
         <v>52.86666666666667</v>
       </c>
       <c r="C22">
-        <v>5820.9</v>
+        <v>5821.2</v>
       </c>
       <c r="D22">
-        <v>1695.5</v>
+        <v>1695.6</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -960,10 +960,10 @@
         <v>53.5</v>
       </c>
       <c r="C23">
-        <v>5866.7</v>
+        <v>5866.9</v>
       </c>
       <c r="D23">
-        <v>1734.3</v>
+        <v>1734.4</v>
       </c>
       <c r="E23">
         <v>-1</v>
@@ -986,7 +986,7 @@
         <v>54.56666666666666</v>
       </c>
       <c r="C24">
-        <v>5912</v>
+        <v>5912.2</v>
       </c>
       <c r="D24">
         <v>1778.6</v>
@@ -1012,7 +1012,7 @@
         <v>55.56666666666667</v>
       </c>
       <c r="C25">
-        <v>5957.4</v>
+        <v>5957.5</v>
       </c>
       <c r="D25">
         <v>1822.2</v>
@@ -1064,7 +1064,7 @@
         <v>56.73333333333333</v>
       </c>
       <c r="C27">
-        <v>6048.9</v>
+        <v>6048.8</v>
       </c>
       <c r="D27">
         <v>1888.6</v>
@@ -1090,10 +1090,10 @@
         <v>57.6</v>
       </c>
       <c r="C28">
-        <v>6096.4</v>
+        <v>6096.3</v>
       </c>
       <c r="D28">
-        <v>1928.1</v>
+        <v>1928</v>
       </c>
       <c r="E28">
         <v>-1</v>
@@ -1116,7 +1116,7 @@
         <v>58.43333333333334</v>
       </c>
       <c r="C29">
-        <v>6144.7</v>
+        <v>6144.6</v>
       </c>
       <c r="D29">
         <v>1978.1</v>
@@ -1142,7 +1142,7 @@
         <v>59.53333333333333</v>
       </c>
       <c r="C30">
-        <v>6194.5</v>
+        <v>6194.4</v>
       </c>
       <c r="D30">
         <v>2026.2</v>
@@ -1168,10 +1168,10 @@
         <v>60.6</v>
       </c>
       <c r="C31">
-        <v>6245.6</v>
+        <v>6245.4</v>
       </c>
       <c r="D31">
-        <v>2071.8</v>
+        <v>2071.7</v>
       </c>
       <c r="E31">
         <v>-1</v>
@@ -1194,7 +1194,7 @@
         <v>61.43333333333334</v>
       </c>
       <c r="C32">
-        <v>6297.4</v>
+        <v>6297.2</v>
       </c>
       <c r="D32">
         <v>2114.4</v>
@@ -1220,7 +1220,7 @@
         <v>62.26666666666666</v>
       </c>
       <c r="C33">
-        <v>6350.6</v>
+        <v>6350.4</v>
       </c>
       <c r="D33">
         <v>2178.3</v>
@@ -1246,7 +1246,7 @@
         <v>63.36666666666667</v>
       </c>
       <c r="C34">
-        <v>6405.2</v>
+        <v>6404.9</v>
       </c>
       <c r="D34">
         <v>2229</v>
@@ -1272,10 +1272,10 @@
         <v>64.76666666666667</v>
       </c>
       <c r="C35">
-        <v>6460.8</v>
+        <v>6460.6</v>
       </c>
       <c r="D35">
-        <v>2291.3</v>
+        <v>2291.2</v>
       </c>
       <c r="E35">
         <v>-1</v>
@@ -1298,7 +1298,7 @@
         <v>66.23333333333333</v>
       </c>
       <c r="C36">
-        <v>6518</v>
+        <v>6517.8</v>
       </c>
       <c r="D36">
         <v>2350.9</v>
@@ -1324,10 +1324,10 @@
         <v>67.83333333333333</v>
       </c>
       <c r="C37">
-        <v>6576.2</v>
+        <v>6576</v>
       </c>
       <c r="D37">
-        <v>2420.4</v>
+        <v>2420.3</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -1350,7 +1350,7 @@
         <v>69.56666666666666</v>
       </c>
       <c r="C38">
-        <v>6636</v>
+        <v>6635.8</v>
       </c>
       <c r="D38">
         <v>2486.9</v>
@@ -1376,10 +1376,10 @@
         <v>71.89999999999999</v>
       </c>
       <c r="C39">
-        <v>6693.8</v>
+        <v>6693.6</v>
       </c>
       <c r="D39">
-        <v>2570</v>
+        <v>2569.9</v>
       </c>
       <c r="E39">
         <v>-1</v>
@@ -1402,10 +1402,10 @@
         <v>74.23333333333333</v>
       </c>
       <c r="C40">
-        <v>6748.7</v>
+        <v>6748.6</v>
       </c>
       <c r="D40">
-        <v>2647.8</v>
+        <v>2647.7</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -1428,7 +1428,7 @@
         <v>76.5</v>
       </c>
       <c r="C41">
-        <v>6800.2</v>
+        <v>6800.1</v>
       </c>
       <c r="D41">
         <v>2717.5</v>
@@ -1454,10 +1454,10 @@
         <v>79.5</v>
       </c>
       <c r="C42">
-        <v>6847.6</v>
+        <v>6847.5</v>
       </c>
       <c r="D42">
-        <v>2793.9</v>
+        <v>2793.8</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>82.2</v>
       </c>
       <c r="C43">
-        <v>6890.3</v>
+        <v>6890.1</v>
       </c>
       <c r="D43">
         <v>2878.2</v>
@@ -1506,10 +1506,10 @@
         <v>83.73333333333333</v>
       </c>
       <c r="C44">
-        <v>6928.3</v>
+        <v>6928.1</v>
       </c>
       <c r="D44">
-        <v>2958.8</v>
+        <v>2958.7</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1532,10 +1532,10 @@
         <v>86.16666666666667</v>
       </c>
       <c r="C45">
-        <v>6968.3</v>
+        <v>6968</v>
       </c>
       <c r="D45">
-        <v>3053.4</v>
+        <v>3053.3</v>
       </c>
       <c r="E45">
         <v>-1</v>
@@ -1558,10 +1558,10 @@
         <v>88.46666666666665</v>
       </c>
       <c r="C46">
-        <v>7012.5</v>
+        <v>7012.1</v>
       </c>
       <c r="D46">
-        <v>3153.6</v>
+        <v>3153.5</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -1584,10 +1584,10 @@
         <v>90.23333333333335</v>
       </c>
       <c r="C47">
-        <v>7059.7</v>
+        <v>7059.3</v>
       </c>
       <c r="D47">
-        <v>3237.8</v>
+        <v>3237.6</v>
       </c>
       <c r="E47">
         <v>-1</v>
@@ -1610,10 +1610,10 @@
         <v>92.73333333333333</v>
       </c>
       <c r="C48">
-        <v>7109.5</v>
+        <v>7109.1</v>
       </c>
       <c r="D48">
-        <v>3322</v>
+        <v>3321.8</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1636,10 +1636,10 @@
         <v>94.16666666666667</v>
       </c>
       <c r="C49">
-        <v>7161.9</v>
+        <v>7161.4</v>
       </c>
       <c r="D49">
-        <v>3404.3</v>
+        <v>3404.1</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1662,10 +1662,10 @@
         <v>94.96666666666665</v>
       </c>
       <c r="C50">
-        <v>7216.2</v>
+        <v>7215.7</v>
       </c>
       <c r="D50">
-        <v>3477.3</v>
+        <v>3477.1</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1688,10 +1688,10 @@
         <v>96.23333333333333</v>
       </c>
       <c r="C51">
-        <v>7271.9</v>
+        <v>7271.2</v>
       </c>
       <c r="D51">
-        <v>3549.7</v>
+        <v>3549.4</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1714,10 +1714,10 @@
         <v>98</v>
       </c>
       <c r="C52">
-        <v>7328.5</v>
+        <v>7327.8</v>
       </c>
       <c r="D52">
-        <v>3628</v>
+        <v>3627.7</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1740,10 +1740,10 @@
         <v>98.33333333333333</v>
       </c>
       <c r="C53">
-        <v>7386.2</v>
+        <v>7385.4</v>
       </c>
       <c r="D53">
-        <v>3694.6</v>
+        <v>3694.2</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1766,10 +1766,10 @@
         <v>98.3</v>
       </c>
       <c r="C54">
-        <v>7443.9</v>
+        <v>7443</v>
       </c>
       <c r="D54">
-        <v>3751.5</v>
+        <v>3751</v>
       </c>
       <c r="E54">
         <v>-1</v>
@@ -1792,10 +1792,10 @@
         <v>99.43333333333334</v>
       </c>
       <c r="C55">
-        <v>7502.9</v>
+        <v>7501.9</v>
       </c>
       <c r="D55">
-        <v>3809.3</v>
+        <v>3808.7</v>
       </c>
       <c r="E55">
         <v>-1</v>
@@ -1818,10 +1818,10 @@
         <v>100.4</v>
       </c>
       <c r="C56">
-        <v>7563.6</v>
+        <v>7562.5</v>
       </c>
       <c r="D56">
-        <v>3881</v>
+        <v>3880.4</v>
       </c>
       <c r="E56">
         <v>-1</v>
@@ -1844,10 +1844,10 @@
         <v>101.1666666666667</v>
       </c>
       <c r="C57">
-        <v>7626.8</v>
+        <v>7625.6</v>
       </c>
       <c r="D57">
-        <v>3943</v>
+        <v>3942.4</v>
       </c>
       <c r="E57">
         <v>-1</v>
@@ -1870,10 +1870,10 @@
         <v>101.9333333333333</v>
       </c>
       <c r="C58">
-        <v>7692.5</v>
+        <v>7691.2</v>
       </c>
       <c r="D58">
-        <v>4017.3</v>
+        <v>4016.6</v>
       </c>
       <c r="E58">
         <v>-1</v>
@@ -1896,10 +1896,10 @@
         <v>102.4666666666667</v>
       </c>
       <c r="C59">
-        <v>7760.5</v>
+        <v>7759.3</v>
       </c>
       <c r="D59">
-        <v>4087.5</v>
+        <v>4086.8</v>
       </c>
       <c r="E59">
         <v>-1</v>
@@ -1922,10 +1922,10 @@
         <v>103.9333333333333</v>
       </c>
       <c r="C60">
-        <v>7830.2</v>
+        <v>7829</v>
       </c>
       <c r="D60">
-        <v>4160.9</v>
+        <v>4160.2</v>
       </c>
       <c r="E60">
         <v>-1</v>
@@ -1948,10 +1948,10 @@
         <v>104.8</v>
       </c>
       <c r="C61">
-        <v>7901.2</v>
+        <v>7899.9</v>
       </c>
       <c r="D61">
-        <v>4230</v>
+        <v>4229.3</v>
       </c>
       <c r="E61">
         <v>-1</v>
@@ -1974,10 +1974,10 @@
         <v>105.6666666666667</v>
       </c>
       <c r="C62">
-        <v>7972.5</v>
+        <v>7971.2</v>
       </c>
       <c r="D62">
-        <v>4310.4</v>
+        <v>4309.7</v>
       </c>
       <c r="E62">
         <v>-1</v>
@@ -2000,10 +2000,10 @@
         <v>106.6333333333333</v>
       </c>
       <c r="C63">
-        <v>8044.2</v>
+        <v>8042.9</v>
       </c>
       <c r="D63">
-        <v>4377.1</v>
+        <v>4376.4</v>
       </c>
       <c r="E63">
         <v>-1</v>
@@ -2026,10 +2026,10 @@
         <v>107.1333333333333</v>
       </c>
       <c r="C64">
-        <v>8115.9</v>
+        <v>8114.7</v>
       </c>
       <c r="D64">
-        <v>4442.8</v>
+        <v>4442.1</v>
       </c>
       <c r="E64">
         <v>-1</v>
@@ -2052,10 +2052,10 @@
         <v>108.2</v>
       </c>
       <c r="C65">
-        <v>8187.2</v>
+        <v>8185.9</v>
       </c>
       <c r="D65">
-        <v>4506.8</v>
+        <v>4506.1</v>
       </c>
       <c r="E65">
         <v>-1</v>
@@ -2078,10 +2078,10 @@
         <v>108.6666666666667</v>
       </c>
       <c r="C66">
-        <v>8257.9</v>
+        <v>8256.6</v>
       </c>
       <c r="D66">
-        <v>4568.4</v>
+        <v>4567.6</v>
       </c>
       <c r="E66">
         <v>-1</v>
@@ -2104,10 +2104,10 @@
         <v>107.9333333333333</v>
       </c>
       <c r="C67">
-        <v>8328.299999999999</v>
+        <v>8326.9</v>
       </c>
       <c r="D67">
-        <v>4624.7</v>
+        <v>4623.9</v>
       </c>
       <c r="E67">
         <v>-1</v>
@@ -2130,10 +2130,10 @@
         <v>108.5</v>
       </c>
       <c r="C68">
-        <v>8398.5</v>
+        <v>8397.1</v>
       </c>
       <c r="D68">
-        <v>4682.9</v>
+        <v>4682.1</v>
       </c>
       <c r="E68">
         <v>-1</v>
@@ -2156,10 +2156,10 @@
         <v>109.2</v>
       </c>
       <c r="C69">
-        <v>8468.4</v>
+        <v>8467</v>
       </c>
       <c r="D69">
-        <v>4747.5</v>
+        <v>4746.7</v>
       </c>
       <c r="E69">
         <v>-1</v>
@@ -2182,10 +2182,10 @@
         <v>110.6666666666667</v>
       </c>
       <c r="C70">
-        <v>8537.9</v>
+        <v>8536.4</v>
       </c>
       <c r="D70">
-        <v>4817</v>
+        <v>4816.1</v>
       </c>
       <c r="E70">
         <v>-1</v>
@@ -2208,10 +2208,10 @@
         <v>111.9666666666667</v>
       </c>
       <c r="C71">
-        <v>8606.700000000001</v>
+        <v>8605.200000000001</v>
       </c>
       <c r="D71">
-        <v>4889.4</v>
+        <v>4888.5</v>
       </c>
       <c r="E71">
         <v>-1</v>
@@ -2234,10 +2234,10 @@
         <v>113.1666666666667</v>
       </c>
       <c r="C72">
-        <v>8675.1</v>
+        <v>8673.5</v>
       </c>
       <c r="D72">
-        <v>4965.6</v>
+        <v>4964.7</v>
       </c>
       <c r="E72">
         <v>-1</v>
@@ -2260,10 +2260,10 @@
         <v>114.1666666666667</v>
       </c>
       <c r="C73">
-        <v>8743.5</v>
+        <v>8741.799999999999</v>
       </c>
       <c r="D73">
-        <v>5044.5</v>
+        <v>5043.5</v>
       </c>
       <c r="E73">
         <v>-1</v>
@@ -2286,10 +2286,10 @@
         <v>114.9333333333333</v>
       </c>
       <c r="C74">
-        <v>8811.200000000001</v>
+        <v>8809.4</v>
       </c>
       <c r="D74">
-        <v>5123.5</v>
+        <v>5122.5</v>
       </c>
       <c r="E74">
         <v>-1</v>
@@ -2312,10 +2312,10 @@
         <v>116.2</v>
       </c>
       <c r="C75">
-        <v>8878.9</v>
+        <v>8877.1</v>
       </c>
       <c r="D75">
-        <v>5213.1</v>
+        <v>5212</v>
       </c>
       <c r="E75">
         <v>-1</v>
@@ -2338,10 +2338,10 @@
         <v>117.7333333333333</v>
       </c>
       <c r="C76">
-        <v>8946.299999999999</v>
+        <v>8944.4</v>
       </c>
       <c r="D76">
-        <v>5315.4</v>
+        <v>5314.3</v>
       </c>
       <c r="E76">
         <v>-1</v>
@@ -2364,10 +2364,10 @@
         <v>118.9333333333333</v>
       </c>
       <c r="C77">
-        <v>9013.700000000001</v>
+        <v>9011.799999999999</v>
       </c>
       <c r="D77">
-        <v>5401.8</v>
+        <v>5400.6</v>
       </c>
       <c r="E77">
         <v>-1</v>
@@ -2390,10 +2390,10 @@
         <v>120.3666666666667</v>
       </c>
       <c r="C78">
-        <v>9080.700000000001</v>
+        <v>9078.799999999999</v>
       </c>
       <c r="D78">
-        <v>5498.7</v>
+        <v>5497.5</v>
       </c>
       <c r="E78">
         <v>-1</v>
@@ -2416,10 +2416,10 @@
         <v>122.4</v>
       </c>
       <c r="C79">
-        <v>9147.6</v>
+        <v>9145.6</v>
       </c>
       <c r="D79">
-        <v>5598.2</v>
+        <v>5597</v>
       </c>
       <c r="E79">
         <v>-1</v>
@@ -2442,10 +2442,10 @@
         <v>123.2666666666667</v>
       </c>
       <c r="C80">
-        <v>9214.200000000001</v>
+        <v>9212.200000000001</v>
       </c>
       <c r="D80">
-        <v>5680.2</v>
+        <v>5678.9</v>
       </c>
       <c r="E80">
         <v>-1</v>
@@ -2468,10 +2468,10 @@
         <v>124.4</v>
       </c>
       <c r="C81">
-        <v>9280.700000000001</v>
+        <v>9278.6</v>
       </c>
       <c r="D81">
-        <v>5761.9</v>
+        <v>5760.6</v>
       </c>
       <c r="E81">
         <v>-1</v>
@@ -2494,10 +2494,10 @@
         <v>126.5666666666667</v>
       </c>
       <c r="C82">
-        <v>9346.4</v>
+        <v>9344.299999999999</v>
       </c>
       <c r="D82">
-        <v>5865.2</v>
+        <v>5863.9</v>
       </c>
       <c r="E82">
         <v>-1</v>
@@ -2520,10 +2520,10 @@
         <v>127.6666666666667</v>
       </c>
       <c r="C83">
-        <v>9411.5</v>
+        <v>9409.5</v>
       </c>
       <c r="D83">
-        <v>5972.2</v>
+        <v>5970.9</v>
       </c>
       <c r="E83">
         <v>-1</v>
@@ -2546,10 +2546,10 @@
         <v>129.8666666666667</v>
       </c>
       <c r="C84">
-        <v>9475.299999999999</v>
+        <v>9473.4</v>
       </c>
       <c r="D84">
-        <v>6064.3</v>
+        <v>6063</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2572,10 +2572,10 @@
         <v>132.1</v>
       </c>
       <c r="C85">
-        <v>9537.799999999999</v>
+        <v>9535.799999999999</v>
       </c>
       <c r="D85">
-        <v>6149.7</v>
+        <v>6148.4</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2598,10 +2598,10 @@
         <v>132.9333333333333</v>
       </c>
       <c r="C86">
-        <v>9599.200000000001</v>
+        <v>9597.4</v>
       </c>
       <c r="D86">
-        <v>6249.9</v>
+        <v>6248.7</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2624,10 +2624,10 @@
         <v>133.7333333333334</v>
       </c>
       <c r="C87">
-        <v>9659.6</v>
+        <v>9657.799999999999</v>
       </c>
       <c r="D87">
-        <v>6335.5</v>
+        <v>6334.3</v>
       </c>
       <c r="E87">
         <v>-1</v>
@@ -2650,10 +2650,10 @@
         <v>134.6333333333333</v>
       </c>
       <c r="C88">
-        <v>9719.4</v>
+        <v>9717.700000000001</v>
       </c>
       <c r="D88">
-        <v>6424.4</v>
+        <v>6423.3</v>
       </c>
       <c r="E88">
         <v>-1</v>
@@ -2676,10 +2676,10 @@
         <v>135.7333333333333</v>
       </c>
       <c r="C89">
-        <v>9779.4</v>
+        <v>9777.799999999999</v>
       </c>
       <c r="D89">
-        <v>6502.4</v>
+        <v>6501.3</v>
       </c>
       <c r="E89">
         <v>-1</v>
@@ -2702,10 +2702,10 @@
         <v>136.5333333333333</v>
       </c>
       <c r="C90">
-        <v>9839.700000000001</v>
+        <v>9838.1</v>
       </c>
       <c r="D90">
-        <v>6566.9</v>
+        <v>6565.9</v>
       </c>
       <c r="E90">
         <v>-1</v>
@@ -2728,10 +2728,10 @@
         <v>137.5666666666667</v>
       </c>
       <c r="C91">
-        <v>9900.9</v>
+        <v>9899.4</v>
       </c>
       <c r="D91">
-        <v>6647.5</v>
+        <v>6646.5</v>
       </c>
       <c r="E91">
         <v>-1</v>
@@ -2754,10 +2754,10 @@
         <v>138.7</v>
       </c>
       <c r="C92">
-        <v>9963.6</v>
+        <v>9962.200000000001</v>
       </c>
       <c r="D92">
-        <v>6722.2</v>
+        <v>6721.3</v>
       </c>
       <c r="E92">
         <v>-1</v>
@@ -2780,10 +2780,10 @@
         <v>139.8</v>
       </c>
       <c r="C93">
-        <v>10027.2</v>
+        <v>10025.9</v>
       </c>
       <c r="D93">
-        <v>6811.7</v>
+        <v>6810.8</v>
       </c>
       <c r="E93">
         <v>-1</v>
@@ -2806,10 +2806,10 @@
         <v>140.7666666666667</v>
       </c>
       <c r="C94">
-        <v>10091.8</v>
+        <v>10090.7</v>
       </c>
       <c r="D94">
-        <v>6894</v>
+        <v>6893.2</v>
       </c>
       <c r="E94">
         <v>-1</v>
@@ -2832,10 +2832,10 @@
         <v>141.7333333333334</v>
       </c>
       <c r="C95">
-        <v>10158.1</v>
+        <v>10157</v>
       </c>
       <c r="D95">
-        <v>6980.6</v>
+        <v>6979.8</v>
       </c>
       <c r="E95">
         <v>-1</v>
@@ -2858,10 +2858,10 @@
         <v>142.3333333333333</v>
       </c>
       <c r="C96">
-        <v>10225.2</v>
+        <v>10224.3</v>
       </c>
       <c r="D96">
-        <v>7068.5</v>
+        <v>7067.8</v>
       </c>
       <c r="E96">
         <v>-1</v>
@@ -2884,10 +2884,10 @@
         <v>143.4333333333333</v>
       </c>
       <c r="C97">
-        <v>10293.3</v>
+        <v>10292.6</v>
       </c>
       <c r="D97">
-        <v>7154.3</v>
+        <v>7153.8</v>
       </c>
       <c r="E97">
         <v>-1</v>
@@ -2910,10 +2910,10 @@
         <v>144.0333333333333</v>
       </c>
       <c r="C98">
-        <v>10362.2</v>
+        <v>10361.5</v>
       </c>
       <c r="D98">
-        <v>7236.6</v>
+        <v>7236.2</v>
       </c>
       <c r="E98">
         <v>-1</v>
@@ -2936,10 +2936,10 @@
         <v>144.8666666666667</v>
       </c>
       <c r="C99">
-        <v>10431.5</v>
+        <v>10431</v>
       </c>
       <c r="D99">
-        <v>7320.2</v>
+        <v>7319.9</v>
       </c>
       <c r="E99">
         <v>-1</v>
@@ -2962,10 +2962,10 @@
         <v>146.4</v>
       </c>
       <c r="C100">
-        <v>10502</v>
+        <v>10501.8</v>
       </c>
       <c r="D100">
-        <v>7412</v>
+        <v>7411.8</v>
       </c>
       <c r="E100">
         <v>-1</v>
@@ -2988,7 +2988,7 @@
         <v>147.2666666666667</v>
       </c>
       <c r="C101">
-        <v>10573.5</v>
+        <v>10573.4</v>
       </c>
       <c r="D101">
         <v>7502.9</v>
@@ -3014,10 +3014,10 @@
         <v>148.3333333333333</v>
       </c>
       <c r="C102">
-        <v>10645.4</v>
+        <v>10645.6</v>
       </c>
       <c r="D102">
-        <v>7595</v>
+        <v>7595.1</v>
       </c>
       <c r="E102">
         <v>-1</v>
@@ -3040,10 +3040,10 @@
         <v>149.5</v>
       </c>
       <c r="C103">
-        <v>10718.4</v>
+        <v>10718.7</v>
       </c>
       <c r="D103">
-        <v>7683.7</v>
+        <v>7684</v>
       </c>
       <c r="E103">
         <v>-1</v>
@@ -3066,10 +3066,10 @@
         <v>150.1666666666667</v>
       </c>
       <c r="C104">
-        <v>10792</v>
+        <v>10792.5</v>
       </c>
       <c r="D104">
-        <v>7774.5</v>
+        <v>7774.9</v>
       </c>
       <c r="E104">
         <v>-1</v>
@@ -3092,10 +3092,10 @@
         <v>151</v>
       </c>
       <c r="C105">
-        <v>10867.2</v>
+        <v>10868</v>
       </c>
       <c r="D105">
-        <v>7866.5</v>
+        <v>7867.1</v>
       </c>
       <c r="E105">
         <v>-1</v>
@@ -3118,10 +3118,10 @@
         <v>152.4</v>
       </c>
       <c r="C106">
-        <v>10943.8</v>
+        <v>10944.9</v>
       </c>
       <c r="D106">
-        <v>7960.1</v>
+        <v>7960.9</v>
       </c>
       <c r="E106">
         <v>-1</v>
@@ -3144,10 +3144,10 @@
         <v>153.7333333333334</v>
       </c>
       <c r="C107">
-        <v>11025.2</v>
+        <v>11026.5</v>
       </c>
       <c r="D107">
-        <v>8052.5</v>
+        <v>8053.4</v>
       </c>
       <c r="E107">
         <v>-1</v>
@@ -3170,10 +3170,10 @@
         <v>154.5666666666667</v>
       </c>
       <c r="C108">
-        <v>11112.4</v>
+        <v>11113.8</v>
       </c>
       <c r="D108">
-        <v>8142.7</v>
+        <v>8143.7</v>
       </c>
       <c r="E108">
         <v>-1</v>
@@ -3196,10 +3196,10 @@
         <v>155.8666666666667</v>
       </c>
       <c r="C109">
-        <v>11205.1</v>
+        <v>11206.7</v>
       </c>
       <c r="D109">
-        <v>8254.6</v>
+        <v>8255.700000000001</v>
       </c>
       <c r="E109">
         <v>-1</v>
@@ -3222,10 +3222,10 @@
         <v>156.8</v>
       </c>
       <c r="C110">
-        <v>11303.2</v>
+        <v>11304.9</v>
       </c>
       <c r="D110">
-        <v>8376.4</v>
+        <v>8377.700000000001</v>
       </c>
       <c r="E110">
         <v>-1</v>
@@ -3248,10 +3248,10 @@
         <v>157.1</v>
       </c>
       <c r="C111">
-        <v>11406</v>
+        <v>11407.8</v>
       </c>
       <c r="D111">
-        <v>8469.700000000001</v>
+        <v>8471.1</v>
       </c>
       <c r="E111">
         <v>-1</v>
@@ -3274,10 +3274,10 @@
         <v>157.8</v>
       </c>
       <c r="C112">
-        <v>11513.8</v>
+        <v>11515.8</v>
       </c>
       <c r="D112">
-        <v>8586.9</v>
+        <v>8588.4</v>
       </c>
       <c r="E112">
         <v>-1</v>
@@ -3300,10 +3300,10 @@
         <v>158.5333333333333</v>
       </c>
       <c r="C113">
-        <v>11625.6</v>
+        <v>11627.7</v>
       </c>
       <c r="D113">
-        <v>8698.700000000001</v>
+        <v>8700.299999999999</v>
       </c>
       <c r="E113">
         <v>-1</v>
@@ -3326,10 +3326,10 @@
         <v>158.7333333333333</v>
       </c>
       <c r="C114">
-        <v>11741</v>
+        <v>11743.2</v>
       </c>
       <c r="D114">
-        <v>8797.9</v>
+        <v>8799.6</v>
       </c>
       <c r="E114">
         <v>-1</v>
@@ -3352,10 +3352,10 @@
         <v>159.2</v>
       </c>
       <c r="C115">
-        <v>11860</v>
+        <v>11862.3</v>
       </c>
       <c r="D115">
-        <v>8908.1</v>
+        <v>8909.799999999999</v>
       </c>
       <c r="E115">
         <v>-1</v>
@@ -3378,10 +3378,10 @@
         <v>159.9666666666667</v>
       </c>
       <c r="C116">
-        <v>11981.4</v>
+        <v>11983.8</v>
       </c>
       <c r="D116">
-        <v>9038</v>
+        <v>9039.799999999999</v>
       </c>
       <c r="E116">
         <v>-1</v>
@@ -3404,10 +3404,10 @@
         <v>160.7666666666667</v>
       </c>
       <c r="C117">
-        <v>12105</v>
+        <v>12107.5</v>
       </c>
       <c r="D117">
-        <v>9156.299999999999</v>
+        <v>9158.200000000001</v>
       </c>
       <c r="E117">
         <v>-1</v>
@@ -3430,10 +3430,10 @@
         <v>161.3666666666667</v>
       </c>
       <c r="C118">
-        <v>12231.2</v>
+        <v>12233.9</v>
       </c>
       <c r="D118">
-        <v>9286.700000000001</v>
+        <v>9288.700000000001</v>
       </c>
       <c r="E118">
         <v>-1</v>
@@ -3456,10 +3456,10 @@
         <v>162.5333333333333</v>
       </c>
       <c r="C119">
-        <v>12359</v>
+        <v>12361.8</v>
       </c>
       <c r="D119">
-        <v>9417.799999999999</v>
+        <v>9419.9</v>
       </c>
       <c r="E119">
         <v>-1</v>
@@ -3482,10 +3482,10 @@
         <v>163.9</v>
       </c>
       <c r="C120">
-        <v>12488.9</v>
+        <v>12491.8</v>
       </c>
       <c r="D120">
-        <v>9549.299999999999</v>
+        <v>9551.5</v>
       </c>
       <c r="E120">
         <v>-1</v>
@@ -3508,10 +3508,10 @@
         <v>165.2</v>
       </c>
       <c r="C121">
-        <v>12621</v>
+        <v>12624</v>
       </c>
       <c r="D121">
-        <v>9702.1</v>
+        <v>9704.5</v>
       </c>
       <c r="E121">
         <v>-1</v>
@@ -3534,10 +3534,10 @@
         <v>166.8333333333333</v>
       </c>
       <c r="C122">
-        <v>12754.4</v>
+        <v>12757.5</v>
       </c>
       <c r="D122">
-        <v>9871.5</v>
+        <v>9873.9</v>
       </c>
       <c r="E122">
         <v>-1</v>
@@ -3560,10 +3560,10 @@
         <v>168.1666666666667</v>
       </c>
       <c r="C123">
-        <v>12885.1</v>
+        <v>12888.3</v>
       </c>
       <c r="D123">
-        <v>10033</v>
+        <v>10035.5</v>
       </c>
       <c r="E123">
         <v>-1</v>
@@ -3586,10 +3586,10 @@
         <v>169.7</v>
       </c>
       <c r="C124">
-        <v>13011.4</v>
+        <v>13014.4</v>
       </c>
       <c r="D124">
-        <v>10189</v>
+        <v>10191.4</v>
       </c>
       <c r="E124">
         <v>-1</v>
@@ -3612,10 +3612,10 @@
         <v>170.8333333333333</v>
       </c>
       <c r="C125">
-        <v>13131.9</v>
+        <v>13134.8</v>
       </c>
       <c r="D125">
-        <v>10337.8</v>
+        <v>10340</v>
       </c>
       <c r="E125">
         <v>-1</v>
@@ -3638,10 +3638,10 @@
         <v>172.4333333333333</v>
       </c>
       <c r="C126">
-        <v>13247.1</v>
+        <v>13249.5</v>
       </c>
       <c r="D126">
-        <v>10492.2</v>
+        <v>10494.1</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -3664,10 +3664,10 @@
         <v>173.7333333333334</v>
       </c>
       <c r="C127">
-        <v>13356.2</v>
+        <v>13358.1</v>
       </c>
       <c r="D127">
-        <v>10642.6</v>
+        <v>10644.1</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -3690,10 +3690,10 @@
         <v>174.1</v>
       </c>
       <c r="C128">
-        <v>13459.7</v>
+        <v>13461</v>
       </c>
       <c r="D128">
-        <v>10768.3</v>
+        <v>10769.2</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -3716,10 +3716,10 @@
         <v>173.6666666666667</v>
       </c>
       <c r="C129">
-        <v>13557.8</v>
+        <v>13558.2</v>
       </c>
       <c r="D129">
-        <v>10882.5</v>
+        <v>10882.9</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -3742,10 +3742,10 @@
         <v>174.0333333333333</v>
       </c>
       <c r="C130">
-        <v>13651.1</v>
+        <v>13650.7</v>
       </c>
       <c r="D130">
-        <v>10993.6</v>
+        <v>10993.3</v>
       </c>
       <c r="E130">
         <v>-1</v>
@@ -3768,10 +3768,10 @@
         <v>175.5333333333333</v>
       </c>
       <c r="C131">
-        <v>13741.2</v>
+        <v>13739.9</v>
       </c>
       <c r="D131">
-        <v>11105.7</v>
+        <v>11104.7</v>
       </c>
       <c r="E131">
         <v>-1</v>
@@ -3794,10 +3794,10 @@
         <v>176.5</v>
       </c>
       <c r="C132">
-        <v>13829.2</v>
+        <v>13826.9</v>
       </c>
       <c r="D132">
-        <v>11228.4</v>
+        <v>11226.6</v>
       </c>
       <c r="E132">
         <v>-1</v>
@@ -3820,10 +3820,10 @@
         <v>177.4666666666667</v>
       </c>
       <c r="C133">
-        <v>13916</v>
+        <v>13912.8</v>
       </c>
       <c r="D133">
-        <v>11363</v>
+        <v>11360.4</v>
       </c>
       <c r="E133">
         <v>-1</v>
@@ -3846,10 +3846,10 @@
         <v>179.4666666666667</v>
       </c>
       <c r="C134">
-        <v>14002.4</v>
+        <v>13998.3</v>
       </c>
       <c r="D134">
-        <v>11485.5</v>
+        <v>11482</v>
       </c>
       <c r="E134">
         <v>-1</v>
@@ -3872,10 +3872,10 @@
         <v>178.9333333333333</v>
       </c>
       <c r="C135">
-        <v>14089.7</v>
+        <v>14084.6</v>
       </c>
       <c r="D135">
-        <v>11591.1</v>
+        <v>11586.9</v>
       </c>
       <c r="E135">
         <v>-1</v>
@@ -3898,10 +3898,10 @@
         <v>180.2</v>
       </c>
       <c r="C136">
-        <v>14177.4</v>
+        <v>14171.3</v>
       </c>
       <c r="D136">
-        <v>11726.4</v>
+        <v>11721.3</v>
       </c>
       <c r="E136">
         <v>-1</v>
@@ -3924,10 +3924,10 @@
         <v>180.7333333333334</v>
       </c>
       <c r="C137">
-        <v>14266.5</v>
+        <v>14259.3</v>
       </c>
       <c r="D137">
-        <v>11869.8</v>
+        <v>11863.9</v>
       </c>
       <c r="E137">
         <v>-1</v>
@@ -3950,10 +3950,10 @@
         <v>182.3333333333333</v>
       </c>
       <c r="C138">
-        <v>14357.5</v>
+        <v>14349.4</v>
       </c>
       <c r="D138">
-        <v>12034.5</v>
+        <v>12027.7</v>
       </c>
       <c r="E138">
         <v>-1</v>
@@ -3976,10 +3976,10 @@
         <v>183.6666666666667</v>
       </c>
       <c r="C139">
-        <v>14450.4</v>
+        <v>14441.3</v>
       </c>
       <c r="D139">
-        <v>12211.2</v>
+        <v>12203.5</v>
       </c>
       <c r="E139">
         <v>-1</v>
@@ -4002,10 +4002,10 @@
         <v>184.8666666666667</v>
       </c>
       <c r="C140">
-        <v>14545.5</v>
+        <v>14535.5</v>
       </c>
       <c r="D140">
-        <v>12371.8</v>
+        <v>12363.2</v>
       </c>
       <c r="E140">
         <v>-1</v>
@@ -4028,10 +4028,10 @@
         <v>187.0666666666667</v>
       </c>
       <c r="C141">
-        <v>14642.1</v>
+        <v>14631.1</v>
       </c>
       <c r="D141">
-        <v>12550</v>
+        <v>12540.5</v>
       </c>
       <c r="E141">
         <v>-1</v>
@@ -4054,10 +4054,10 @@
         <v>187.9333333333333</v>
       </c>
       <c r="C142">
-        <v>14737.1</v>
+        <v>14725.1</v>
       </c>
       <c r="D142">
-        <v>12731.5</v>
+        <v>12721.1</v>
       </c>
       <c r="E142">
         <v>-1</v>
@@ -4080,10 +4080,10 @@
         <v>189.2333333333334</v>
       </c>
       <c r="C143">
-        <v>14829.4</v>
+        <v>14816.5</v>
       </c>
       <c r="D143">
-        <v>12901</v>
+        <v>12889.7</v>
       </c>
       <c r="E143">
         <v>-1</v>
@@ -4106,10 +4106,10 @@
         <v>192.5666666666667</v>
       </c>
       <c r="C144">
-        <v>14920.2</v>
+        <v>14906.4</v>
       </c>
       <c r="D144">
-        <v>13097.4</v>
+        <v>13085.3</v>
       </c>
       <c r="E144">
         <v>-1</v>
@@ -4132,10 +4132,10 @@
         <v>194.2</v>
       </c>
       <c r="C145">
-        <v>15008.9</v>
+        <v>14994.3</v>
       </c>
       <c r="D145">
-        <v>13281.3</v>
+        <v>13268.4</v>
       </c>
       <c r="E145">
         <v>-1</v>
@@ -4158,10 +4158,10 @@
         <v>195.1333333333334</v>
       </c>
       <c r="C146">
-        <v>15095.2</v>
+        <v>15079.8</v>
       </c>
       <c r="D146">
-        <v>13450.8</v>
+        <v>13437.1</v>
       </c>
       <c r="E146">
         <v>-1</v>
@@ -4184,10 +4184,10 @@
         <v>196.9333333333333</v>
       </c>
       <c r="C147">
-        <v>15179.4</v>
+        <v>15163.2</v>
       </c>
       <c r="D147">
-        <v>13639</v>
+        <v>13624.5</v>
       </c>
       <c r="E147">
         <v>-1</v>
@@ -4210,10 +4210,10 @@
         <v>198.8</v>
       </c>
       <c r="C148">
-        <v>15259.8</v>
+        <v>15243</v>
       </c>
       <c r="D148">
-        <v>13807.3</v>
+        <v>13792</v>
       </c>
       <c r="E148">
         <v>-1</v>
@@ -4236,10 +4236,10 @@
         <v>197.5666666666666</v>
       </c>
       <c r="C149">
-        <v>15336.4</v>
+        <v>15319</v>
       </c>
       <c r="D149">
-        <v>13927.8</v>
+        <v>13912</v>
       </c>
       <c r="E149">
         <v>-1</v>
@@ -4262,10 +4262,10 @@
         <v>199.553</v>
       </c>
       <c r="C150">
-        <v>15412.4</v>
+        <v>15394.6</v>
       </c>
       <c r="D150">
-        <v>14134.4</v>
+        <v>14118.1</v>
       </c>
       <c r="E150">
         <v>-1</v>
@@ -4288,10 +4288,10 @@
         <v>202.077</v>
       </c>
       <c r="C151">
-        <v>15488</v>
+        <v>15470.2</v>
       </c>
       <c r="D151">
-        <v>14295.6</v>
+        <v>14279.2</v>
       </c>
       <c r="E151">
         <v>-1</v>
@@ -4314,10 +4314,10 @@
         <v>203.37</v>
       </c>
       <c r="C152">
-        <v>15563.8</v>
+        <v>15546.4</v>
       </c>
       <c r="D152">
-        <v>14439.6</v>
+        <v>14423.4</v>
       </c>
       <c r="E152">
         <v>-1</v>
@@ -4340,10 +4340,10 @@
         <v>206.0856666666666</v>
       </c>
       <c r="C153">
-        <v>15638.8</v>
+        <v>15622</v>
       </c>
       <c r="D153">
-        <v>14566.7</v>
+        <v>14551.1</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -4366,10 +4366,10 @@
         <v>208.516</v>
       </c>
       <c r="C154">
-        <v>15712.6</v>
+        <v>15696.8</v>
       </c>
       <c r="D154">
-        <v>14689.5</v>
+        <v>14674.8</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -4392,10 +4392,10 @@
         <v>211.5026666666667</v>
       </c>
       <c r="C155">
-        <v>15783.7</v>
+        <v>15769.3</v>
       </c>
       <c r="D155">
-        <v>14835.1</v>
+        <v>14821.6</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -4418,10 +4418,10 @@
         <v>215.13</v>
       </c>
       <c r="C156">
-        <v>15850.9</v>
+        <v>15838.1</v>
       </c>
       <c r="D156">
-        <v>15009.3</v>
+        <v>14997.2</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -4444,10 +4444,10 @@
         <v>208.8386666666667</v>
       </c>
       <c r="C157">
-        <v>15913.8</v>
+        <v>15903</v>
       </c>
       <c r="D157">
-        <v>15116</v>
+        <v>15105.6</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -4470,10 +4470,10 @@
         <v>206.9433333333334</v>
       </c>
       <c r="C158">
-        <v>15971.4</v>
+        <v>15962.6</v>
       </c>
       <c r="D158">
-        <v>15169.1</v>
+        <v>15160.7</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -4496,10 +4496,10 @@
         <v>208.3903333333334</v>
       </c>
       <c r="C159">
-        <v>16025</v>
+        <v>16018.4</v>
       </c>
       <c r="D159">
-        <v>15197.8</v>
+        <v>15191.5</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -4522,10 +4522,10 @@
         <v>210.695</v>
       </c>
       <c r="C160">
-        <v>16075.4</v>
+        <v>16070.9</v>
       </c>
       <c r="D160">
-        <v>15261.7</v>
+        <v>15257.4</v>
       </c>
       <c r="E160">
         <v>-1</v>
@@ -4548,10 +4548,10 @@
         <v>212.6326666666666</v>
       </c>
       <c r="C161">
-        <v>16124.4</v>
+        <v>16122.2</v>
       </c>
       <c r="D161">
-        <v>15359.8</v>
+        <v>15357.7</v>
       </c>
       <c r="E161">
         <v>-1</v>
@@ -4574,10 +4574,10 @@
         <v>213.237</v>
       </c>
       <c r="C162">
-        <v>16173.6</v>
+        <v>16173.8</v>
       </c>
       <c r="D162">
-        <v>15445.7</v>
+        <v>15446</v>
       </c>
       <c r="E162">
         <v>-1</v>
@@ -4600,10 +4600,10 @@
         <v>213.1506666666667</v>
       </c>
       <c r="C163">
-        <v>16224.4</v>
+        <v>16227.2</v>
       </c>
       <c r="D163">
-        <v>15566.2</v>
+        <v>15568.9</v>
       </c>
       <c r="E163">
         <v>-1</v>
@@ -4626,10 +4626,10 @@
         <v>213.82</v>
       </c>
       <c r="C164">
-        <v>16277.7</v>
+        <v>16283.3</v>
       </c>
       <c r="D164">
-        <v>15662.7</v>
+        <v>15668.1</v>
       </c>
       <c r="E164">
         <v>-1</v>
@@ -4652,10 +4652,10 @@
         <v>215.764</v>
       </c>
       <c r="C165">
-        <v>16333.2</v>
+        <v>16341.6</v>
       </c>
       <c r="D165">
-        <v>15804.5</v>
+        <v>15812.7</v>
       </c>
       <c r="E165">
         <v>-1</v>
@@ -4678,10 +4678,10 @@
         <v>218.4156666666667</v>
       </c>
       <c r="C166">
-        <v>16390.9</v>
+        <v>16402.4</v>
       </c>
       <c r="D166">
-        <v>15945.5</v>
+        <v>15956.6</v>
       </c>
       <c r="E166">
         <v>-1</v>
@@ -4704,10 +4704,10 @@
         <v>221.2876666666667</v>
       </c>
       <c r="C167">
-        <v>16450.9</v>
+        <v>16465.5</v>
       </c>
       <c r="D167">
-        <v>16109</v>
+        <v>16123.3</v>
       </c>
       <c r="E167">
         <v>-1</v>
@@ -4730,10 +4730,10 @@
         <v>222.738</v>
       </c>
       <c r="C168">
-        <v>16513.3</v>
+        <v>16531</v>
       </c>
       <c r="D168">
-        <v>16274.4</v>
+        <v>16291.9</v>
       </c>
       <c r="E168">
         <v>-1</v>
@@ -4756,10 +4756,10 @@
         <v>223.7746666666667</v>
       </c>
       <c r="C169">
-        <v>16577.3</v>
+        <v>16598.2</v>
       </c>
       <c r="D169">
-        <v>16362.2</v>
+        <v>16382.9</v>
       </c>
       <c r="E169">
         <v>-1</v>
@@ -4782,10 +4782,10 @@
         <v>225.0873333333333</v>
       </c>
       <c r="C170">
-        <v>16642.9</v>
+        <v>16667</v>
       </c>
       <c r="D170">
-        <v>16529.8</v>
+        <v>16553.8</v>
       </c>
       <c r="E170">
         <v>-1</v>
@@ -4808,10 +4808,10 @@
         <v>225.4593333333333</v>
       </c>
       <c r="C171">
-        <v>16710.5</v>
+        <v>16737.8</v>
       </c>
       <c r="D171">
-        <v>16662.5</v>
+        <v>16689.8</v>
       </c>
       <c r="E171">
         <v>-1</v>
@@ -4834,10 +4834,10 @@
         <v>226.357</v>
       </c>
       <c r="C172">
-        <v>16779.7</v>
+        <v>16810.1</v>
       </c>
       <c r="D172">
-        <v>16817.4</v>
+        <v>16848</v>
       </c>
       <c r="E172">
         <v>-1</v>
@@ -4860,10 +4860,10 @@
         <v>227.9716666666667</v>
       </c>
       <c r="C173">
-        <v>16850.1</v>
+        <v>16883.7</v>
       </c>
       <c r="D173">
-        <v>16974.5</v>
+        <v>17008.2</v>
       </c>
       <c r="E173">
         <v>-1</v>
@@ -4886,10 +4886,10 @@
         <v>228.8366666666667</v>
       </c>
       <c r="C174">
-        <v>16921.8</v>
+        <v>16958.3</v>
       </c>
       <c r="D174">
-        <v>17114.6</v>
+        <v>17151.4</v>
       </c>
       <c r="E174">
         <v>-1</v>
@@ -4912,10 +4912,10 @@
         <v>228.4096666666667</v>
       </c>
       <c r="C175">
-        <v>16994.9</v>
+        <v>17034.1</v>
       </c>
       <c r="D175">
-        <v>17238</v>
+        <v>17277.8</v>
       </c>
       <c r="E175">
         <v>-1</v>
@@ -4938,10 +4938,10 @@
         <v>229.589</v>
       </c>
       <c r="C176">
-        <v>17068.6</v>
+        <v>17110.5</v>
       </c>
       <c r="D176">
-        <v>17395.8</v>
+        <v>17438.5</v>
       </c>
       <c r="E176">
         <v>-1</v>
@@ -4964,10 +4964,10 @@
         <v>230.4336666666667</v>
       </c>
       <c r="C177">
-        <v>17143.4</v>
+        <v>17187.9</v>
       </c>
       <c r="D177">
-        <v>17575</v>
+        <v>17620.6</v>
       </c>
       <c r="E177">
         <v>-1</v>
@@ -4990,10 +4990,10 @@
         <v>231.95</v>
       </c>
       <c r="C178">
-        <v>17219.3</v>
+        <v>17266.3</v>
       </c>
       <c r="D178">
-        <v>17725.1</v>
+        <v>17773.5</v>
       </c>
       <c r="E178">
         <v>-1</v>
@@ -5005,7 +5005,7 @@
         <v>14037.66666666667</v>
       </c>
       <c r="H178">
-        <v>242591.3333333333</v>
+        <v>242281</v>
       </c>
     </row>
     <row r="179">
@@ -5016,10 +5016,10 @@
         <v>233.1013333333334</v>
       </c>
       <c r="C179">
-        <v>17296.2</v>
+        <v>17345.6</v>
       </c>
       <c r="D179">
-        <v>17903.5</v>
+        <v>17954.7</v>
       </c>
       <c r="E179">
         <v>-1</v>
@@ -5031,7 +5031,7 @@
         <v>14077</v>
       </c>
       <c r="H179">
-        <v>251613.3333333333</v>
+        <v>251080</v>
       </c>
     </row>
     <row r="180">
@@ -5042,10 +5042,10 @@
         <v>233.4943333333333</v>
       </c>
       <c r="C180">
-        <v>17374.2</v>
+        <v>17426.1</v>
       </c>
       <c r="D180">
-        <v>18061.8</v>
+        <v>18115.7</v>
       </c>
       <c r="E180">
         <v>-1</v>
@@ -5057,7 +5057,7 @@
         <v>14120</v>
       </c>
       <c r="H180">
-        <v>257546.3333333333</v>
+        <v>258128</v>
       </c>
     </row>
     <row r="181">
@@ -5068,10 +5068,10 @@
         <v>232.431</v>
       </c>
       <c r="C181">
-        <v>17453</v>
+        <v>17507.2</v>
       </c>
       <c r="D181">
-        <v>18172.7</v>
+        <v>18229.1</v>
       </c>
       <c r="E181">
         <v>-1</v>
@@ -5083,7 +5083,7 @@
         <v>14140</v>
       </c>
       <c r="H181">
-        <v>260104.3333333333</v>
+        <v>260687.6666666667</v>
       </c>
     </row>
     <row r="182">
@@ -5094,10 +5094,10 @@
         <v>230.2366666666667</v>
       </c>
       <c r="C182">
-        <v>17532.1</v>
+        <v>17588.4</v>
       </c>
       <c r="D182">
-        <v>18238.8</v>
+        <v>18297.4</v>
       </c>
       <c r="E182">
         <v>-1</v>
@@ -5109,7 +5109,7 @@
         <v>14155</v>
       </c>
       <c r="H182">
-        <v>260731.6666666667</v>
+        <v>260300</v>
       </c>
     </row>
     <row r="183">
@@ -5120,10 +5120,10 @@
         <v>231.9576666666667</v>
       </c>
       <c r="C183">
-        <v>17611.2</v>
+        <v>17669.6</v>
       </c>
       <c r="D183">
-        <v>18420.6</v>
+        <v>18481.8</v>
       </c>
       <c r="E183">
         <v>-1</v>
@@ -5135,7 +5135,7 @@
         <v>14181.66666666667</v>
       </c>
       <c r="H183">
-        <v>274292.3333333333</v>
+        <v>273597.3333333333</v>
       </c>
     </row>
     <row r="184">
@@ -5146,10 +5146,10 @@
         <v>232.6933333333334</v>
       </c>
       <c r="C184">
-        <v>17689.6</v>
+        <v>17750</v>
       </c>
       <c r="D184">
-        <v>18561</v>
+        <v>18624.4</v>
       </c>
       <c r="E184">
         <v>-1</v>
@@ -5161,7 +5161,7 @@
         <v>14214</v>
       </c>
       <c r="H184">
-        <v>278090.3333333333</v>
+        <v>278438.6666666667</v>
       </c>
     </row>
     <row r="185">
@@ -5172,10 +5172,10 @@
         <v>232.2803333333334</v>
       </c>
       <c r="C185">
-        <v>17766.8</v>
+        <v>17829</v>
       </c>
       <c r="D185">
-        <v>18643.9</v>
+        <v>18709.3</v>
       </c>
       <c r="E185">
         <v>-1</v>
@@ -5187,7 +5187,7 @@
         <v>14223.66666666667</v>
       </c>
       <c r="H185">
-        <v>268417</v>
+        <v>269445</v>
       </c>
     </row>
     <row r="186">
@@ -5198,10 +5198,10 @@
         <v>231.781</v>
       </c>
       <c r="C186">
-        <v>17843.2</v>
+        <v>17906.9</v>
       </c>
       <c r="D186">
-        <v>18711.2</v>
+        <v>18778</v>
       </c>
       <c r="E186">
         <v>-1</v>
@@ -5213,7 +5213,7 @@
         <v>14277</v>
       </c>
       <c r="H186">
-        <v>280145</v>
+        <v>278949.3333333333</v>
       </c>
     </row>
     <row r="187">
@@ -5224,10 +5224,10 @@
         <v>233.774</v>
       </c>
       <c r="C187">
-        <v>17918.2</v>
+        <v>17983.7</v>
       </c>
       <c r="D187">
-        <v>18920.1</v>
+        <v>18989.4</v>
       </c>
       <c r="E187">
         <v>-1</v>
@@ -5239,7 +5239,7 @@
         <v>14297.66666666667</v>
       </c>
       <c r="H187">
-        <v>275022</v>
+        <v>274095</v>
       </c>
     </row>
     <row r="188">
@@ -5250,10 +5250,10 @@
         <v>234.5966666666667</v>
       </c>
       <c r="C188">
-        <v>17992</v>
+        <v>18059.3</v>
       </c>
       <c r="D188">
-        <v>19062.5</v>
+        <v>19133.9</v>
       </c>
       <c r="E188">
         <v>-1</v>
@@ -5265,7 +5265,7 @@
         <v>14369</v>
       </c>
       <c r="H188">
-        <v>271266.6666666667</v>
+        <v>271667</v>
       </c>
     </row>
     <row r="189">
@@ -5276,10 +5276,10 @@
         <v>236.1406666666667</v>
       </c>
       <c r="C189">
-        <v>18065.1</v>
+        <v>18134.2</v>
       </c>
       <c r="D189">
-        <v>19233.7</v>
+        <v>19307.3</v>
       </c>
       <c r="E189">
         <v>-1</v>
@@ -5291,7 +5291,7 @@
         <v>14351</v>
       </c>
       <c r="H189">
-        <v>274719.6666666667</v>
+        <v>276420.3333333333</v>
       </c>
     </row>
     <row r="190">
@@ -5302,10 +5302,10 @@
         <v>237.75</v>
       </c>
       <c r="C190">
-        <v>18137.7</v>
+        <v>18209.5</v>
       </c>
       <c r="D190">
-        <v>19409</v>
+        <v>19485.9</v>
       </c>
       <c r="E190">
         <v>-1</v>
@@ -5317,7 +5317,7 @@
         <v>14347</v>
       </c>
       <c r="H190">
-        <v>274527.6666666667</v>
+        <v>272574.3333333333</v>
       </c>
     </row>
     <row r="191">
@@ -5328,10 +5328,10 @@
         <v>238.0306666666667</v>
       </c>
       <c r="C191">
-        <v>18211.1</v>
+        <v>18284.5</v>
       </c>
       <c r="D191">
-        <v>19547.7</v>
+        <v>19626.5</v>
       </c>
       <c r="E191">
         <v>-1</v>
@@ -5343,7 +5343,7 @@
         <v>14363</v>
       </c>
       <c r="H191">
-        <v>275545.6666666667</v>
+        <v>274286.3333333333</v>
       </c>
     </row>
     <row r="192">
@@ -5354,10 +5354,10 @@
         <v>239.2</v>
       </c>
       <c r="C192">
-        <v>18287.1</v>
+        <v>18362.1</v>
       </c>
       <c r="D192">
-        <v>19726.8</v>
+        <v>19807.6</v>
       </c>
       <c r="E192">
         <v>-1</v>
@@ -5369,7 +5369,7 @@
         <v>14401.66666666667</v>
       </c>
       <c r="H192">
-        <v>273887</v>
+        <v>274862.6666666667</v>
       </c>
     </row>
     <row r="193">
@@ -5380,10 +5380,10 @@
         <v>241.3036666666667</v>
       </c>
       <c r="C193">
-        <v>18365.3</v>
+        <v>18441.6</v>
       </c>
       <c r="D193">
-        <v>19944.4</v>
+        <v>20027.3</v>
       </c>
       <c r="E193">
         <v>-1</v>
@@ -5395,7 +5395,7 @@
         <v>14428.66666666667</v>
       </c>
       <c r="H193">
-        <v>278738</v>
+        <v>280795.3333333333</v>
       </c>
     </row>
     <row r="194">
@@ -5406,10 +5406,10 @@
         <v>243.2743333333333</v>
       </c>
       <c r="C194">
-        <v>18446.4</v>
+        <v>18523.9</v>
       </c>
       <c r="D194">
-        <v>20150.3</v>
+        <v>20235</v>
       </c>
       <c r="E194">
         <v>-1</v>
@@ -5421,7 +5421,7 @@
         <v>14442.33333333333</v>
       </c>
       <c r="H194">
-        <v>284701</v>
+        <v>282163</v>
       </c>
     </row>
     <row r="195">
@@ -5432,10 +5432,10 @@
         <v>244.813</v>
       </c>
       <c r="C195">
-        <v>18530.5</v>
+        <v>18609.6</v>
       </c>
       <c r="D195">
-        <v>20416.2</v>
+        <v>20503.3</v>
       </c>
       <c r="E195">
         <v>-1</v>
@@ -5447,7 +5447,7 @@
         <v>14468.66666666667</v>
       </c>
       <c r="H195">
-        <v>293031</v>
+        <v>291235.6666666667</v>
       </c>
     </row>
     <row r="196">
@@ -5458,10 +5458,10 @@
         <v>245.793</v>
       </c>
       <c r="C196">
-        <v>18617.4</v>
+        <v>18698.1</v>
       </c>
       <c r="D196">
-        <v>20593.4</v>
+        <v>20682.7</v>
       </c>
       <c r="E196">
         <v>-1</v>
@@ -5473,7 +5473,7 @@
         <v>14494.33333333333</v>
       </c>
       <c r="H196">
-        <v>291638.3333333333</v>
+        <v>292706.6666666667</v>
       </c>
     </row>
     <row r="197">
@@ -5484,10 +5484,10 @@
         <v>246.681</v>
       </c>
       <c r="C197">
-        <v>18705.5</v>
+        <v>18787.9</v>
       </c>
       <c r="D197">
-        <v>20789.5</v>
+        <v>20881.1</v>
       </c>
       <c r="E197">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>14510</v>
       </c>
       <c r="H197">
-        <v>283060</v>
+        <v>285420</v>
       </c>
     </row>
     <row r="198">
@@ -5510,10 +5510,10 @@
         <v>246.765</v>
       </c>
       <c r="C198">
-        <v>18794.8</v>
+        <v>18879</v>
       </c>
       <c r="D198">
-        <v>20942.1</v>
+        <v>21035.8</v>
       </c>
       <c r="E198">
         <v>-1</v>
@@ -5525,7 +5525,7 @@
         <v>14527.66666666667</v>
       </c>
       <c r="H198">
-        <v>299821.3333333333</v>
+        <v>304217</v>
       </c>
     </row>
     <row r="199">
@@ -5536,10 +5536,10 @@
         <v>249.0076666666667</v>
       </c>
       <c r="C199">
-        <v>18885.5</v>
+        <v>18971.4</v>
       </c>
       <c r="D199">
-        <v>21178.4</v>
+        <v>21274.7</v>
       </c>
       <c r="E199">
         <v>-1</v>
@@ -5551,7 +5551,7 @@
         <v>14558.33333333333</v>
       </c>
       <c r="H199">
-        <v>314021</v>
+        <v>321543</v>
       </c>
     </row>
     <row r="200">
@@ -5562,10 +5562,10 @@
         <v>249.665</v>
       </c>
       <c r="C200">
-        <v>18976.5</v>
+        <v>19064.1</v>
       </c>
       <c r="D200">
-        <v>21354.4</v>
+        <v>21452.9</v>
       </c>
       <c r="E200">
         <v>-1</v>
@@ -5577,7 +5577,7 @@
         <v>14590</v>
       </c>
       <c r="H200">
-        <v>311467.6666666667</v>
+        <v>322016</v>
       </c>
     </row>
     <row r="201">
@@ -5588,10 +5588,10 @@
         <v>251.4253333333334</v>
       </c>
       <c r="C201">
-        <v>19065.6</v>
+        <v>19157.1</v>
       </c>
       <c r="D201">
-        <v>21534.6</v>
+        <v>21638</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -5603,7 +5603,7 @@
         <v>14620.33333333333</v>
       </c>
       <c r="H201">
-        <v>312808.6666666667</v>
+        <v>324071.6666666667</v>
       </c>
     </row>
     <row r="202">
@@ -5614,10 +5614,10 @@
         <v>251.8853333333333</v>
       </c>
       <c r="C202">
-        <v>19154</v>
+        <v>19250.2</v>
       </c>
       <c r="D202">
-        <v>21723.5</v>
+        <v>21832.6</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -5629,7 +5629,7 @@
         <v>14658.33333333333</v>
       </c>
       <c r="H202">
-        <v>328551</v>
+        <v>341494</v>
       </c>
     </row>
     <row r="203">
@@ -5640,10 +5640,10 @@
         <v>249.576</v>
       </c>
       <c r="C203">
-        <v>19242</v>
+        <v>19340.2</v>
       </c>
       <c r="D203">
-        <v>21708.2</v>
+        <v>21819</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -5655,7 +5655,7 @@
         <v>13569.66666666667</v>
       </c>
       <c r="H203">
-        <v>326980</v>
+        <v>335548.3333333333</v>
       </c>
     </row>
     <row r="204">
@@ -5666,13 +5666,13 @@
         <v>253.0136666666666</v>
       </c>
       <c r="C204">
-        <v>19327.3</v>
+        <v>19424.2</v>
       </c>
       <c r="D204">
-        <v>22002.3</v>
+        <v>22112.5</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F204">
         <v>5036.333333333333</v>
@@ -5681,7 +5681,7 @@
         <v>13736.66666666667</v>
       </c>
       <c r="H204">
-        <v>318988.3333333333</v>
+        <v>323099.3333333333</v>
       </c>
     </row>
     <row r="205">
@@ -5692,13 +5692,13 @@
         <v>254.6803333333333</v>
       </c>
       <c r="C205">
-        <v>19414.2</v>
+        <v>19512</v>
       </c>
       <c r="D205">
-        <v>22146</v>
+        <v>22315.4</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F205">
         <v>4935.333333333333</v>
@@ -5707,7 +5707,7 @@
         <v>13655.33333333333</v>
       </c>
       <c r="H205">
-        <v>327773.6666666667</v>
+        <v>328325</v>
       </c>
     </row>
     <row r="206">
@@ -5718,13 +5718,13 @@
         <v>257.3506666666667</v>
       </c>
       <c r="C206">
-        <v>19502.8</v>
+        <v>19602.5</v>
       </c>
       <c r="D206">
-        <v>22361.5</v>
+        <v>22645</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F206">
         <v>4976.666666666667</v>
@@ -5733,7 +5733,7 @@
         <v>13671.33333333333</v>
       </c>
       <c r="H206">
-        <v>323711.6666666667</v>
+        <v>322875.3333333333</v>
       </c>
     </row>
     <row r="207">
@@ -5741,25 +5741,25 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>255.0148888888889</v>
+        <v>263.1253333333333</v>
       </c>
       <c r="C207">
-        <v>19594.2</v>
+        <v>19697.4</v>
       </c>
       <c r="D207">
-        <v>22558.5</v>
+        <v>22983.3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F207">
-        <v>4982.777777777777</v>
+        <v>5031.333333333333</v>
       </c>
       <c r="G207">
-        <v>13687.77777777778</v>
+        <v>13778.33333333333</v>
       </c>
       <c r="H207">
-        <v>323491.2222222223</v>
+        <v>324766.5555555556</v>
       </c>
     </row>
     <row r="208">
@@ -5767,25 +5767,25 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>255.681962962963</v>
+        <v>258.3854444444444</v>
       </c>
       <c r="C208">
-        <v>19687.7</v>
+        <v>19795.8</v>
       </c>
       <c r="D208">
-        <v>22781.6</v>
+        <v>23233.1</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F208">
-        <v>4964.925925925926</v>
+        <v>4981.111111111111</v>
       </c>
       <c r="G208">
-        <v>13671.48148148148</v>
+        <v>13701.66666666667</v>
       </c>
       <c r="H208">
-        <v>324992.1851851852</v>
+        <v>325322.2962962963</v>
       </c>
     </row>
     <row r="209">
@@ -5793,25 +5793,25 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>256.0158395061728</v>
+        <v>259.6204814814815</v>
       </c>
       <c r="C209">
-        <v>19783.1</v>
+        <v>19898.3</v>
       </c>
       <c r="D209">
-        <v>22992.3</v>
+        <v>23461.3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F209">
-        <v>4974.79012345679</v>
+        <v>4996.37037037037</v>
       </c>
       <c r="G209">
-        <v>13676.86419753086</v>
+        <v>13717.11111111111</v>
       </c>
       <c r="H209">
-        <v>324065.024691358</v>
+        <v>324321.3950617284</v>
       </c>
     </row>
     <row r="210">
@@ -5819,25 +5819,25 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>255.5708971193415</v>
+        <v>260.3770864197531</v>
       </c>
       <c r="C210">
-        <v>19879.6</v>
+        <v>20003.7</v>
       </c>
       <c r="D210">
-        <v>23223.9</v>
+        <v>23698</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F210">
-        <v>4974.164609053498</v>
+        <v>5002.938271604939</v>
       </c>
       <c r="G210">
-        <v>13678.70781893004</v>
+        <v>13732.37037037037</v>
       </c>
       <c r="H210">
-        <v>324182.8106995885</v>
+        <v>324803.4156378601</v>
       </c>
     </row>
     <row r="211">
@@ -5845,25 +5845,25 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>255.7562331961591</v>
+        <v>259.4610041152263</v>
       </c>
       <c r="C211">
-        <v>19975.5</v>
+        <v>20109.9</v>
       </c>
       <c r="D211">
-        <v>23445.8</v>
+        <v>23945.8</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F211">
-        <v>4971.293552812072</v>
+        <v>4993.473251028807</v>
       </c>
       <c r="G211">
-        <v>13675.68449931413</v>
+        <v>13717.04938271605</v>
       </c>
       <c r="H211">
-        <v>324413.3401920439</v>
+        <v>324815.7023319616</v>
       </c>
     </row>
     <row r="212">
@@ -5871,25 +5871,25 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>255.7809899405578</v>
+        <v>259.819524005487</v>
       </c>
       <c r="C212">
-        <v>20069.9</v>
+        <v>20216.1</v>
       </c>
       <c r="D212">
-        <v>23668.9</v>
+        <v>24200.8</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F212">
-        <v>4973.416095107453</v>
+        <v>4997.593964334706</v>
       </c>
       <c r="G212">
-        <v>13677.08550525835</v>
+        <v>13722.17695473251</v>
       </c>
       <c r="H212">
-        <v>324220.3918609968</v>
+        <v>324646.8376771833</v>
       </c>
     </row>
     <row r="213">
@@ -5897,25 +5897,25 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>255.7027067520195</v>
+        <v>259.8858715134888</v>
       </c>
       <c r="C213">
-        <v>20163.7</v>
+        <v>20321.5</v>
       </c>
       <c r="D213">
-        <v>23896.9</v>
+        <v>24461.3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F213">
-        <v>4972.958085657674</v>
+        <v>4998.001828989483</v>
       </c>
       <c r="G213">
-        <v>13677.15927450084</v>
+        <v>13723.86556927298</v>
       </c>
       <c r="H213">
-        <v>324272.1809175431</v>
+        <v>324755.3185490017</v>
       </c>
     </row>
     <row r="214">
@@ -5923,25 +5923,25 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>255.7466432962455</v>
+        <v>259.7221332114007</v>
       </c>
       <c r="C214">
-        <v>20257.3</v>
+        <v>20425.7</v>
       </c>
       <c r="D214">
-        <v>24125.1</v>
+        <v>24721.9</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F214">
-        <v>4972.555911192399</v>
+        <v>4996.356348117665</v>
       </c>
       <c r="G214">
-        <v>13676.64309302444</v>
+        <v>13721.03063557385</v>
       </c>
       <c r="H214">
-        <v>324301.9709901946</v>
+        <v>324739.2861860489</v>
       </c>
     </row>
     <row r="215">
@@ -5949,25 +5949,25 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>255.7434466629409</v>
+        <v>259.8091762434588</v>
       </c>
       <c r="C215">
-        <v>20351.2</v>
+        <v>20529.6</v>
       </c>
       <c r="D215">
-        <v>24357.3</v>
+        <v>24984.5</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F215">
-        <v>4972.976697319175</v>
+        <v>4997.317380480618</v>
       </c>
       <c r="G215">
-        <v>13676.96262426121</v>
+        <v>13722.35771985978</v>
       </c>
       <c r="H215">
-        <v>324264.8479229115</v>
+        <v>324713.8141374113</v>
       </c>
     </row>
     <row r="216">
@@ -5975,25 +5975,25 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>255.7309322370686</v>
+        <v>259.8057269894495</v>
       </c>
       <c r="C216">
-        <v>20446</v>
+        <v>20633.3</v>
       </c>
       <c r="D216">
-        <v>24593.7</v>
+        <v>25248.1</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F216">
-        <v>4972.830231389749</v>
+        <v>4997.225185862589</v>
       </c>
       <c r="G216">
-        <v>13676.92166392883</v>
+        <v>13722.4179749022</v>
       </c>
       <c r="H216">
-        <v>324279.6666102164</v>
+        <v>324736.139624154</v>
       </c>
     </row>
     <row r="217">
@@ -6001,25 +6001,25 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>255.740340732085</v>
+        <v>259.779012148103</v>
       </c>
       <c r="C217">
-        <v>20541.7</v>
+        <v>20736.1</v>
       </c>
       <c r="D217">
-        <v>24835.7</v>
+        <v>25511.7</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F217">
-        <v>4972.787613300441</v>
+        <v>4996.966304820291</v>
       </c>
       <c r="G217">
-        <v>13676.84246040482</v>
+        <v>13721.93544344527</v>
       </c>
       <c r="H217">
-        <v>324282.1618411075</v>
+        <v>324729.7466492047</v>
       </c>
     </row>
     <row r="218">
@@ -6027,25 +6027,25 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>255.7382398773649</v>
+        <v>259.7979717936704</v>
       </c>
       <c r="C218">
-        <v>20638</v>
+        <v>20837.6</v>
       </c>
       <c r="D218">
-        <v>25082.5</v>
+        <v>25774.7</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F218">
-        <v>4972.864847336456</v>
+        <v>4997.169623721166</v>
       </c>
       <c r="G218">
-        <v>13676.90891619829</v>
+        <v>13722.23704606908</v>
       </c>
       <c r="H218">
-        <v>324275.5587914118</v>
+        <v>324726.56680359</v>
       </c>
     </row>
     <row r="219">
@@ -6053,25 +6053,25 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>255.7365042821728</v>
+        <v>259.7942369770743</v>
       </c>
       <c r="C219">
-        <v>20734.1</v>
+        <v>20937.8</v>
       </c>
       <c r="D219">
-        <v>25331.2</v>
+        <v>26036.8</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F219">
-        <v>4972.827564008882</v>
+        <v>4997.120371468015</v>
       </c>
       <c r="G219">
-        <v>13676.89101351065</v>
+        <v>13722.19682147219</v>
       </c>
       <c r="H219">
-        <v>324279.1290809119</v>
+        <v>324730.8176923162</v>
       </c>
     </row>
     <row r="220">
@@ -6079,25 +6079,25 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>255.7383616305409</v>
+        <v>259.7904069729492</v>
       </c>
       <c r="C220">
-        <v>20830.5</v>
+        <v>21037.3</v>
       </c>
       <c r="D220">
-        <v>25582.8</v>
+        <v>26299.5</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F220">
-        <v>4972.826674881926</v>
+        <v>4997.085433336491</v>
       </c>
       <c r="G220">
-        <v>13676.88079670459</v>
+        <v>13722.12310366218</v>
       </c>
       <c r="H220">
-        <v>324278.9499044771</v>
+        <v>324729.0437150369</v>
       </c>
     </row>
     <row r="221">
@@ -6105,25 +6105,25 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>255.7377019300262</v>
+        <v>259.7942052478979</v>
       </c>
       <c r="C221">
-        <v>20927.1</v>
+        <v>21135.8</v>
       </c>
       <c r="D221">
-        <v>25837.4</v>
+        <v>26563.5</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F221">
-        <v>4972.839695409088</v>
+        <v>4997.125142841891</v>
       </c>
       <c r="G221">
-        <v>13676.89357547117</v>
+        <v>13722.18565706782</v>
       </c>
       <c r="H221">
-        <v>324277.8792589336</v>
+        <v>324728.8094036477</v>
       </c>
     </row>
     <row r="222">
@@ -6131,25 +6131,25 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>255.7375226142466</v>
+        <v>259.7929497326405</v>
       </c>
       <c r="C222">
-        <v>21023.6</v>
+        <v>21233</v>
       </c>
       <c r="D222">
-        <v>26092.8</v>
+        <v>26826.5</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F222">
-        <v>4972.831311433299</v>
+        <v>4997.110315882133</v>
       </c>
       <c r="G222">
-        <v>13676.88846189547</v>
+        <v>13722.16852740073</v>
       </c>
       <c r="H222">
-        <v>324278.6527481075</v>
+        <v>324729.5569370003</v>
       </c>
     </row>
     <row r="223">
@@ -6157,25 +6157,25 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>255.7378620582713</v>
+        <v>259.7925206511625</v>
       </c>
       <c r="C223">
-        <v>21118.9</v>
+        <v>21328.7</v>
       </c>
       <c r="D223">
-        <v>26350</v>
+        <v>27090.3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F223">
-        <v>4972.832560574771</v>
+        <v>4997.106964020171</v>
       </c>
       <c r="G223">
-        <v>13676.88761135708</v>
+        <v>13722.15909604358</v>
       </c>
       <c r="H223">
-        <v>324278.4939705061</v>
+        <v>324729.1366852283</v>
       </c>
     </row>
     <row r="224">
@@ -6183,25 +6183,25 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>255.7376955341814</v>
+        <v>259.793225210567</v>
       </c>
       <c r="C224">
-        <v>21213.5</v>
+        <v>21423.4</v>
       </c>
       <c r="D224">
-        <v>26608.2</v>
+        <v>27354.2</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F224">
-        <v>4972.834522472385</v>
+        <v>4997.114140914731</v>
       </c>
       <c r="G224">
-        <v>13676.8898829079</v>
+        <v>13722.17109350404</v>
       </c>
       <c r="H224">
-        <v>324278.3419925157</v>
+        <v>324729.1676752921</v>
       </c>
     </row>
     <row r="225">
@@ -6209,25 +6209,25 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>255.7376934022331</v>
+        <v>259.7928985314567</v>
       </c>
       <c r="C225">
-        <v>21307.4</v>
+        <v>21517.1</v>
       </c>
       <c r="D225">
-        <v>26868.4</v>
+        <v>27618.4</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F225">
-        <v>4972.832798160152</v>
+        <v>4997.110473605679</v>
       </c>
       <c r="G225">
-        <v>13676.88865205348</v>
+        <v>13722.16623898278</v>
       </c>
       <c r="H225">
-        <v>324278.4962370431</v>
+        <v>324729.2870991736</v>
       </c>
     </row>
     <row r="226">
@@ -6235,25 +6235,25 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>255.7377503315619</v>
+        <v>259.7928814643954</v>
       </c>
       <c r="C226">
-        <v>21400.7</v>
+        <v>21609.7</v>
       </c>
       <c r="D226">
-        <v>27130.7</v>
+        <v>27884.4</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F226">
-        <v>4972.833293735769</v>
+        <v>4997.110526180194</v>
       </c>
       <c r="G226">
-        <v>13676.88871543949</v>
+        <v>13722.1654761768</v>
       </c>
       <c r="H226">
-        <v>324278.4440666883</v>
+        <v>324729.1971532314</v>
       </c>
     </row>
     <row r="227">
@@ -6261,25 +6261,25 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>255.7377130893254</v>
+        <v>259.793001735473</v>
       </c>
       <c r="C227">
-        <v>21493.1</v>
+        <v>21701.4</v>
       </c>
       <c r="D227">
-        <v>27394</v>
+        <v>28150</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F227">
-        <v>4972.833538122769</v>
+        <v>4997.111713566868</v>
       </c>
       <c r="G227">
-        <v>13676.88908346696</v>
+        <v>13722.16760288787</v>
       </c>
       <c r="H227">
-        <v>324278.4274320824</v>
+        <v>324729.2173092323</v>
       </c>
     </row>
     <row r="228">
@@ -6287,25 +6287,25 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>255.7377189410401</v>
+        <v>259.792927243775</v>
       </c>
       <c r="C228">
-        <v>21585.4</v>
+        <v>21793.1</v>
       </c>
       <c r="D228">
-        <v>27659.8</v>
+        <v>28418.2</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F228">
-        <v>4972.83321000623</v>
+        <v>4997.110904450914</v>
       </c>
       <c r="G228">
-        <v>13676.88881698664</v>
+        <v>13722.16643934915</v>
       </c>
       <c r="H228">
-        <v>324278.4559119379</v>
+        <v>324729.2338538791</v>
       </c>
     </row>
     <row r="229">
@@ -6313,25 +6313,25 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>255.7377274539758</v>
+        <v>259.7929368145478</v>
       </c>
       <c r="C229">
-        <v>21677.8</v>
+        <v>21885.1</v>
       </c>
       <c r="D229">
-        <v>27928.2</v>
+        <v>28689.4</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F229">
-        <v>4972.833347288256</v>
+        <v>4997.111048065992</v>
       </c>
       <c r="G229">
-        <v>13676.88887196436</v>
+        <v>13722.16650613794</v>
       </c>
       <c r="H229">
-        <v>324278.4424702362</v>
+        <v>324729.2161054476</v>
       </c>
     </row>
     <row r="230">
@@ -6339,25 +6339,25 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>255.7377198281138</v>
+        <v>259.7929552645986</v>
       </c>
       <c r="C230">
-        <v>21770.3</v>
+        <v>21977.8</v>
       </c>
       <c r="D230">
-        <v>28199.4</v>
+        <v>28964.4</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F230">
-        <v>4972.833365139085</v>
+        <v>4997.111222027925</v>
       </c>
       <c r="G230">
-        <v>13676.88892413932</v>
+        <v>13722.16684945832</v>
       </c>
       <c r="H230">
-        <v>324278.4419380855</v>
+        <v>324729.222422853</v>
       </c>
     </row>
     <row r="231">
@@ -6365,25 +6365,25 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>255.7377220743766</v>
+        <v>259.7929397743072</v>
       </c>
       <c r="C231">
-        <v>21862.9</v>
+        <v>22070.9</v>
       </c>
       <c r="D231">
-        <v>28472.8</v>
+        <v>29241.7</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F231">
-        <v>4972.833307477857</v>
+        <v>4997.11105818161</v>
       </c>
       <c r="G231">
-        <v>13676.88887103011</v>
+        <v>13722.16659831514</v>
       </c>
       <c r="H231">
-        <v>324278.4467734199</v>
+        <v>324729.2241273932</v>
       </c>
     </row>
     <row r="232">
@@ -6391,25 +6391,25 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>255.7377231188221</v>
+        <v>259.7929439511512</v>
       </c>
       <c r="C232">
-        <v>21956.1</v>
+        <v>22164.3</v>
       </c>
       <c r="D232">
-        <v>28749.1</v>
+        <v>29521.7</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F232">
-        <v>4972.833339968399</v>
+        <v>4997.111109425176</v>
       </c>
       <c r="G232">
-        <v>13676.8888890446</v>
+        <v>13722.1666513038</v>
       </c>
       <c r="H232">
-        <v>324278.4437272472</v>
+        <v>324729.2208852313</v>
       </c>
     </row>
     <row r="233">
@@ -6417,25 +6417,25 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>255.7377216737708</v>
+        <v>259.792946330019</v>
       </c>
       <c r="C233">
-        <v>22049.5</v>
+        <v>22257.7</v>
       </c>
       <c r="D233">
-        <v>29028.4</v>
+        <v>29804.2</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F233">
-        <v>4972.833337528447</v>
+        <v>4997.111129878237</v>
       </c>
       <c r="G233">
-        <v>13676.88889473801</v>
+        <v>13722.16669969242</v>
       </c>
       <c r="H233">
-        <v>324278.4441462508</v>
+        <v>324729.2224784925</v>
       </c>
     </row>
     <row r="234">
@@ -6443,25 +6443,25 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>255.7377222889898</v>
+        <v>259.7929433518258</v>
       </c>
       <c r="C234">
-        <v>22143.3</v>
+        <v>22351.6</v>
       </c>
       <c r="D234">
-        <v>29309.3</v>
+        <v>30088.3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F234">
-        <v>4972.8333283249</v>
+        <v>4997.111099161674</v>
       </c>
       <c r="G234">
-        <v>13676.88888493757</v>
+        <v>13722.16664977045</v>
       </c>
       <c r="H234">
-        <v>324278.444882306</v>
+        <v>324729.222497039</v>
       </c>
     </row>
     <row r="235">
@@ -6469,25 +6469,25 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>255.7377223605276</v>
+        <v>259.792944544332</v>
       </c>
       <c r="C235">
-        <v>22238.3</v>
+        <v>22446.5</v>
       </c>
       <c r="D235">
-        <v>29593.1</v>
+        <v>30375</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F235">
-        <v>4972.833335273916</v>
+        <v>4997.111112821695</v>
       </c>
       <c r="G235">
-        <v>13676.88888957339</v>
+        <v>13722.16666692222</v>
       </c>
       <c r="H235">
-        <v>324278.4442519347</v>
+        <v>324729.2219535876</v>
       </c>
     </row>
     <row r="236">
@@ -6495,25 +6495,25 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>255.7377221077627</v>
+        <v>259.7929447420589</v>
       </c>
       <c r="C236">
-        <v>22334.3</v>
+        <v>22542.3</v>
       </c>
       <c r="D236">
-        <v>29879.7</v>
+        <v>30664.5</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F236">
-        <v>4972.833333709087</v>
+        <v>4997.111113953869</v>
       </c>
       <c r="G236">
-        <v>13676.88888974966</v>
+        <v>13722.16667212837</v>
       </c>
       <c r="H236">
-        <v>324278.4444268305</v>
+        <v>324729.2223097064</v>
       </c>
     </row>
     <row r="237">
@@ -6521,25 +6521,25 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>255.7377222524267</v>
+        <v>259.7929442127389</v>
       </c>
       <c r="C237">
-        <v>22431.4</v>
+        <v>22638.9</v>
       </c>
       <c r="D237">
-        <v>30169.2</v>
+        <v>30956.5</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F237">
-        <v>4972.833332435967</v>
+        <v>4997.111108645746</v>
       </c>
       <c r="G237">
-        <v>13676.88888808687</v>
+        <v>13722.16666294035</v>
       </c>
       <c r="H237">
-        <v>324278.4445203571</v>
+        <v>324729.2222534443</v>
       </c>
     </row>
     <row r="238">
@@ -6547,25 +6547,25 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>255.737722240239</v>
+        <v>259.79294449971</v>
       </c>
       <c r="C238">
-        <v>22529.4</v>
+        <v>22736.3</v>
       </c>
       <c r="D238">
-        <v>30461.2</v>
+        <v>31250.7</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F238">
-        <v>4972.833333806323</v>
+        <v>4997.111111807103</v>
       </c>
       <c r="G238">
-        <v>13676.88888913664</v>
+        <v>13722.16666733031</v>
       </c>
       <c r="H238">
-        <v>324278.4443997074</v>
+        <v>324729.2221722461</v>
       </c>
     </row>
     <row r="239">
@@ -6573,25 +6573,25 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>255.7377222001428</v>
+        <v>259.7929444848359</v>
       </c>
       <c r="C239">
-        <v>22628.1</v>
+        <v>22834.2</v>
       </c>
       <c r="D239">
-        <v>30755.7</v>
+        <v>31547.4</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F239">
-        <v>4972.833333317126</v>
+        <v>4997.111111468906</v>
       </c>
       <c r="G239">
-        <v>13676.88888899106</v>
+        <v>13722.16666746634</v>
       </c>
       <c r="H239">
-        <v>324278.444448965</v>
+        <v>324729.2222451323</v>
       </c>
     </row>
     <row r="240">
@@ -6599,25 +6599,25 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>255.7377222309362</v>
+        <v>259.792944399095</v>
       </c>
       <c r="C240">
-        <v>22726.7</v>
+        <v>22932.1</v>
       </c>
       <c r="D240">
-        <v>31051.6</v>
+        <v>31846.1</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F240">
-        <v>4972.833333186472</v>
+        <v>4997.111110640585</v>
       </c>
       <c r="G240">
-        <v>13676.88888873819</v>
+        <v>13722.16666591233</v>
       </c>
       <c r="H240">
-        <v>324278.4444563432</v>
+        <v>324729.2222236075</v>
       </c>
     </row>
     <row r="241">
@@ -6625,25 +6625,25 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>255.7377222237726</v>
+        <v>259.7929444612136</v>
       </c>
       <c r="C241">
-        <v>22825.1</v>
+        <v>23029.9</v>
       </c>
       <c r="D241">
-        <v>31349.1</v>
+        <v>32146.7</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F241">
-        <v>4972.833333436641</v>
+        <v>4997.111111305531</v>
       </c>
       <c r="G241">
-        <v>13676.8888889553</v>
+        <v>13722.166666903</v>
       </c>
       <c r="H241">
-        <v>324278.4444350052</v>
+        <v>324729.2222136619</v>
       </c>
     </row>
     <row r="242">
@@ -6651,25 +6651,25 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>255.7377222182839</v>
+        <v>259.7929444483815</v>
       </c>
       <c r="C242">
-        <v>22923.6</v>
+        <v>23127.9</v>
       </c>
       <c r="D242">
-        <v>31648.4</v>
+        <v>32449.6</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F242">
-        <v>4972.833333313413</v>
+        <v>4997.111111138341</v>
       </c>
       <c r="G242">
-        <v>13676.88888889485</v>
+        <v>13722.16666676056</v>
       </c>
       <c r="H242">
-        <v>324278.4444467711</v>
+        <v>324729.2222274672</v>
       </c>
     </row>
     <row r="243">
@@ -6677,25 +6677,25 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>255.7377222243309</v>
+        <v>259.79294443623</v>
       </c>
       <c r="C243">
-        <v>23022.1</v>
+        <v>23226.1</v>
       </c>
       <c r="D243">
-        <v>31949.1</v>
+        <v>32754.3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F243">
-        <v>4972.833333312176</v>
+        <v>4997.111111028153</v>
       </c>
       <c r="G243">
-        <v>13676.88888886278</v>
+        <v>13722.16666652529</v>
       </c>
       <c r="H243">
-        <v>324278.4444460399</v>
+        <v>324729.2222215789</v>
       </c>
     </row>
     <row r="244">
@@ -6703,25 +6703,25 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>255.7377222221291</v>
+        <v>259.7929444486084</v>
       </c>
       <c r="C244">
-        <v>23120.6</v>
+        <v>23324.6</v>
       </c>
       <c r="D244">
-        <v>32251.7</v>
+        <v>33061.2</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F244">
-        <v>4972.833333354077</v>
+        <v>4997.111111157342</v>
       </c>
       <c r="G244">
-        <v>13676.88888890431</v>
+        <v>13722.16666672962</v>
       </c>
       <c r="H244">
-        <v>324278.4444426054</v>
+        <v>324729.2222209027</v>
       </c>
     </row>
     <row r="245">
@@ -6729,25 +6729,25 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>255.7377222215813</v>
+        <v>259.7929444444066</v>
       </c>
       <c r="C245">
-        <v>23219.4</v>
+        <v>23423.4</v>
       </c>
       <c r="D245">
-        <v>32556.4</v>
+        <v>33370.5</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F245">
-        <v>4972.833333326556</v>
+        <v>4997.111111107945</v>
       </c>
       <c r="G245">
-        <v>13676.88888888731</v>
+        <v>13722.16666667182</v>
       </c>
       <c r="H245">
-        <v>324278.4444451388</v>
+        <v>324729.2222233163</v>
       </c>
     </row>
     <row r="246">
@@ -6755,25 +6755,25 @@
         <v>47938</v>
       </c>
       <c r="B246">
-        <v>255.7377222226805</v>
+        <v>259.7929444430816</v>
       </c>
       <c r="C246">
-        <v>23318.3</v>
+        <v>23522.6</v>
       </c>
       <c r="D246">
-        <v>32863.2</v>
+        <v>33682.3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F246">
-        <v>4972.833333330936</v>
+        <v>4997.111111097814</v>
       </c>
       <c r="G246">
-        <v>13676.8888888848</v>
+        <v>13722.16666664224</v>
       </c>
       <c r="H246">
-        <v>324278.4444445947</v>
+        <v>324729.2222219326</v>
       </c>
     </row>
     <row r="247">
@@ -6781,25 +6781,25 @@
         <v>48029</v>
       </c>
       <c r="B247">
-        <v>255.7377222221303</v>
+        <v>259.7929444453656</v>
       </c>
       <c r="C247">
-        <v>23417.4</v>
+        <v>23622.1</v>
       </c>
       <c r="D247">
-        <v>33172</v>
+        <v>33996.5</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F247">
-        <v>4972.833333337189</v>
+        <v>4997.111111121034</v>
       </c>
       <c r="G247">
-        <v>13676.88888889214</v>
+        <v>13722.16666668123</v>
       </c>
       <c r="H247">
-        <v>324278.444444113</v>
+        <v>324729.2222220505</v>
       </c>
     </row>
     <row r="248">
@@ -6807,25 +6807,25 @@
         <v>48121</v>
       </c>
       <c r="B248">
-        <v>255.7377222221307</v>
+        <v>259.7929444442846</v>
       </c>
       <c r="C248">
-        <v>23516.4</v>
+        <v>23721.7</v>
       </c>
       <c r="D248">
-        <v>33482.6</v>
+        <v>34313</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F248">
-        <v>4972.83333333156</v>
+        <v>4997.111111108931</v>
       </c>
       <c r="G248">
-        <v>13676.88888888808</v>
+        <v>13722.1666666651</v>
       </c>
       <c r="H248">
-        <v>324278.4444446155</v>
+        <v>324729.2222224331</v>
       </c>
     </row>
     <row r="249">
@@ -6833,25 +6833,25 @@
         <v>48213</v>
       </c>
       <c r="B249">
-        <v>255.7377222223138</v>
+        <v>259.7929444442439</v>
       </c>
       <c r="C249">
-        <v>23615.3</v>
+        <v>23821.3</v>
       </c>
       <c r="D249">
-        <v>33795</v>
+        <v>34631.5</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F249">
-        <v>4972.833333333228</v>
+        <v>4997.11111110926</v>
       </c>
       <c r="G249">
-        <v>13676.88888888834</v>
+        <v>13722.16666666286</v>
       </c>
       <c r="H249">
-        <v>324278.444444441</v>
+        <v>324729.2222221388</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -5753,13 +5753,13 @@
         <v>-1</v>
       </c>
       <c r="F207">
-        <v>5031.333333333333</v>
+        <v>5025.666666666667</v>
       </c>
       <c r="G207">
-        <v>13778.33333333333</v>
+        <v>13773.66666666667</v>
       </c>
       <c r="H207">
-        <v>324766.5555555556</v>
+        <v>317911</v>
       </c>
     </row>
     <row r="208">
@@ -5779,13 +5779,13 @@
         <v>-1</v>
       </c>
       <c r="F208">
-        <v>4981.111111111111</v>
+        <v>4979.222222222223</v>
       </c>
       <c r="G208">
-        <v>13701.66666666667</v>
+        <v>13700.11111111111</v>
       </c>
       <c r="H208">
-        <v>325322.2962962963</v>
+        <v>323037.1111111111</v>
       </c>
     </row>
     <row r="209">
@@ -5805,13 +5805,13 @@
         <v>-1</v>
       </c>
       <c r="F209">
-        <v>4996.37037037037</v>
+        <v>4993.851851851852</v>
       </c>
       <c r="G209">
-        <v>13717.11111111111</v>
+        <v>13715.03703703704</v>
       </c>
       <c r="H209">
-        <v>324321.3950617284</v>
+        <v>321274.4814814815</v>
       </c>
     </row>
     <row r="210">
@@ -5831,13 +5831,13 @@
         <v>-1</v>
       </c>
       <c r="F210">
-        <v>5002.938271604939</v>
+        <v>4999.580246913581</v>
       </c>
       <c r="G210">
-        <v>13732.37037037037</v>
+        <v>13729.60493827161</v>
       </c>
       <c r="H210">
-        <v>324803.4156378601</v>
+        <v>320740.8641975308</v>
       </c>
     </row>
     <row r="211">
@@ -5857,13 +5857,13 @@
         <v>-1</v>
       </c>
       <c r="F211">
-        <v>4993.473251028807</v>
+        <v>4990.884773662552</v>
       </c>
       <c r="G211">
-        <v>13717.04938271605</v>
+        <v>13714.91769547325</v>
       </c>
       <c r="H211">
-        <v>324815.7023319616</v>
+        <v>321684.1522633745</v>
       </c>
     </row>
     <row r="212">
@@ -5883,13 +5883,13 @@
         <v>-1</v>
       </c>
       <c r="F212">
-        <v>4997.593964334706</v>
+        <v>4994.772290809328</v>
       </c>
       <c r="G212">
-        <v>13722.17695473251</v>
+        <v>13719.85322359396</v>
       </c>
       <c r="H212">
-        <v>324646.8376771833</v>
+        <v>321233.1659807956</v>
       </c>
     </row>
     <row r="213">
@@ -5909,13 +5909,13 @@
         <v>-1</v>
       </c>
       <c r="F213">
-        <v>4998.001828989483</v>
+        <v>4995.079103795154</v>
       </c>
       <c r="G213">
-        <v>13723.86556927298</v>
+        <v>13721.45861911294</v>
       </c>
       <c r="H213">
-        <v>324755.3185490017</v>
+        <v>321219.3941472336</v>
       </c>
     </row>
     <row r="214">
@@ -5935,13 +5935,13 @@
         <v>-1</v>
       </c>
       <c r="F214">
-        <v>4996.356348117665</v>
+        <v>4993.578722755678</v>
       </c>
       <c r="G214">
-        <v>13721.03063557385</v>
+        <v>13718.74317939339</v>
       </c>
       <c r="H214">
-        <v>324739.2861860489</v>
+        <v>321378.9041304679</v>
       </c>
     </row>
     <row r="215">
@@ -5961,13 +5961,13 @@
         <v>-1</v>
       </c>
       <c r="F215">
-        <v>4997.317380480618</v>
+        <v>4994.47670578672</v>
       </c>
       <c r="G215">
-        <v>13722.35771985978</v>
+        <v>13720.0183407001</v>
       </c>
       <c r="H215">
-        <v>324713.8141374113</v>
+        <v>321277.1547528324</v>
       </c>
     </row>
     <row r="216">
@@ -5987,13 +5987,13 @@
         <v>-1</v>
       </c>
       <c r="F216">
-        <v>4997.225185862589</v>
+        <v>4994.378177445851</v>
       </c>
       <c r="G216">
-        <v>13722.4179749022</v>
+        <v>13720.07337973547</v>
       </c>
       <c r="H216">
-        <v>324736.139624154</v>
+        <v>321291.8176768447</v>
       </c>
     </row>
     <row r="217">
@@ -6013,13 +6013,13 @@
         <v>-1</v>
       </c>
       <c r="F217">
-        <v>4996.966304820291</v>
+        <v>4994.144535329417</v>
       </c>
       <c r="G217">
-        <v>13721.93544344527</v>
+        <v>13719.61163327632</v>
       </c>
       <c r="H217">
-        <v>324729.7466492047</v>
+        <v>321315.9588533816</v>
       </c>
     </row>
     <row r="218">
@@ -6039,13 +6039,13 @@
         <v>-1</v>
       </c>
       <c r="F218">
-        <v>4997.169623721166</v>
+        <v>4994.333139520662</v>
       </c>
       <c r="G218">
-        <v>13722.23704606908</v>
+        <v>13719.90111790396</v>
       </c>
       <c r="H218">
-        <v>324726.56680359</v>
+        <v>321294.9770943529</v>
       </c>
     </row>
     <row r="219">
@@ -6065,13 +6065,13 @@
         <v>-1</v>
       </c>
       <c r="F219">
-        <v>4997.120371468015</v>
+        <v>4994.285284098643</v>
       </c>
       <c r="G219">
-        <v>13722.19682147219</v>
+        <v>13719.86204363859</v>
       </c>
       <c r="H219">
-        <v>324730.8176923162</v>
+        <v>321300.9178748597</v>
       </c>
     </row>
     <row r="220">
@@ -6091,13 +6091,13 @@
         <v>-1</v>
       </c>
       <c r="F220">
-        <v>4997.085433336491</v>
+        <v>4994.254319649574</v>
       </c>
       <c r="G220">
-        <v>13722.12310366218</v>
+        <v>13719.79159827296</v>
       </c>
       <c r="H220">
-        <v>324729.0437150369</v>
+        <v>321303.9512741981</v>
       </c>
     </row>
     <row r="221">
@@ -6117,13 +6117,13 @@
         <v>-1</v>
       </c>
       <c r="F221">
-        <v>4997.125142841891</v>
+        <v>4994.29091442296</v>
       </c>
       <c r="G221">
-        <v>13722.18565706782</v>
+        <v>13719.85158660517</v>
       </c>
       <c r="H221">
-        <v>324728.8094036477</v>
+        <v>321299.9487478036</v>
       </c>
     </row>
     <row r="222">
@@ -6143,13 +6143,13 @@
         <v>-1</v>
       </c>
       <c r="F222">
-        <v>4997.110315882133</v>
+        <v>4994.276839390393</v>
       </c>
       <c r="G222">
-        <v>13722.16852740073</v>
+        <v>13719.83507617224</v>
       </c>
       <c r="H222">
-        <v>324729.5569370003</v>
+        <v>321301.6059656204</v>
       </c>
     </row>
     <row r="223">
@@ -6169,13 +6169,13 @@
         <v>-1</v>
       </c>
       <c r="F223">
-        <v>4997.106964020171</v>
+        <v>4994.274024487642</v>
       </c>
       <c r="G223">
-        <v>13722.15909604358</v>
+        <v>13719.82608701679</v>
       </c>
       <c r="H223">
-        <v>324729.1366852283</v>
+        <v>321301.8353292074</v>
       </c>
     </row>
     <row r="224">
@@ -6195,13 +6195,13 @@
         <v>-1</v>
       </c>
       <c r="F224">
-        <v>4997.114140914731</v>
+        <v>4994.280592766998</v>
       </c>
       <c r="G224">
-        <v>13722.17109350404</v>
+        <v>13719.83758326473</v>
       </c>
       <c r="H224">
-        <v>324729.1676752921</v>
+        <v>321301.1300142105</v>
       </c>
     </row>
     <row r="225">
@@ -6221,13 +6221,13 @@
         <v>-1</v>
       </c>
       <c r="F225">
-        <v>4997.110473605679</v>
+        <v>4994.277152215011</v>
       </c>
       <c r="G225">
-        <v>13722.16623898278</v>
+        <v>13719.83291548459</v>
       </c>
       <c r="H225">
-        <v>324729.2870991736</v>
+        <v>321301.5237696794</v>
       </c>
     </row>
     <row r="226">
@@ -6247,13 +6247,13 @@
         <v>-1</v>
       </c>
       <c r="F226">
-        <v>4997.110526180194</v>
+        <v>4994.277256489883</v>
       </c>
       <c r="G226">
-        <v>13722.1654761768</v>
+        <v>13719.83219525537</v>
       </c>
       <c r="H226">
-        <v>324729.1971532314</v>
+        <v>321301.4963710324</v>
       </c>
     </row>
     <row r="227">
@@ -6273,13 +6273,13 @@
         <v>-1</v>
       </c>
       <c r="F227">
-        <v>4997.111713566868</v>
+        <v>4994.278333823964</v>
       </c>
       <c r="G227">
-        <v>13722.16760288787</v>
+        <v>13719.8342313349</v>
       </c>
       <c r="H227">
-        <v>324729.2173092323</v>
+        <v>321301.3833849741</v>
       </c>
     </row>
     <row r="228">
@@ -6299,13 +6299,13 @@
         <v>-1</v>
       </c>
       <c r="F228">
-        <v>4997.110904450914</v>
+        <v>4994.277580842952</v>
       </c>
       <c r="G228">
-        <v>13722.16643934915</v>
+        <v>13719.83311402495</v>
       </c>
       <c r="H228">
-        <v>324729.2338538791</v>
+        <v>321301.4678418953</v>
       </c>
     </row>
     <row r="229">
@@ -6325,13 +6325,13 @@
         <v>-1</v>
       </c>
       <c r="F229">
-        <v>4997.111048065992</v>
+        <v>4994.277723718933</v>
       </c>
       <c r="G229">
-        <v>13722.16650613794</v>
+        <v>13719.83318020507</v>
       </c>
       <c r="H229">
-        <v>324729.2161054476</v>
+        <v>321301.4491993006</v>
       </c>
     </row>
     <row r="230">
@@ -6351,13 +6351,13 @@
         <v>-1</v>
       </c>
       <c r="F230">
-        <v>4997.111222027925</v>
+        <v>4994.27787946195</v>
       </c>
       <c r="G230">
-        <v>13722.16684945832</v>
+        <v>13719.83350852164</v>
       </c>
       <c r="H230">
-        <v>324729.222422853</v>
+        <v>321301.43347539</v>
       </c>
     </row>
     <row r="231">
@@ -6377,13 +6377,13 @@
         <v>-1</v>
       </c>
       <c r="F231">
-        <v>4997.11105818161</v>
+        <v>4994.277728007945</v>
       </c>
       <c r="G231">
-        <v>13722.16659831514</v>
+        <v>13719.83326758389</v>
       </c>
       <c r="H231">
-        <v>324729.2241273932</v>
+        <v>321301.4501721953</v>
       </c>
     </row>
     <row r="232">
@@ -6403,13 +6403,13 @@
         <v>-1</v>
       </c>
       <c r="F232">
-        <v>4997.111109425176</v>
+        <v>4994.277777062943</v>
       </c>
       <c r="G232">
-        <v>13722.1666513038</v>
+        <v>13719.8333187702</v>
       </c>
       <c r="H232">
-        <v>324729.2208852313</v>
+        <v>321301.4442822953</v>
       </c>
     </row>
     <row r="233">
@@ -6429,13 +6429,13 @@
         <v>-1</v>
       </c>
       <c r="F233">
-        <v>4997.111129878237</v>
+        <v>4994.277794844279</v>
       </c>
       <c r="G233">
-        <v>13722.16669969242</v>
+        <v>13719.83336495858</v>
       </c>
       <c r="H233">
-        <v>324729.2224784925</v>
+        <v>321301.4426432935</v>
       </c>
     </row>
     <row r="234">
@@ -6455,13 +6455,13 @@
         <v>-1</v>
       </c>
       <c r="F234">
-        <v>4997.111099161674</v>
+        <v>4994.277766638389</v>
       </c>
       <c r="G234">
-        <v>13722.16664977045</v>
+        <v>13719.83331710422</v>
       </c>
       <c r="H234">
-        <v>324729.222497039</v>
+        <v>321301.4456992614</v>
       </c>
     </row>
     <row r="235">
@@ -6481,13 +6481,13 @@
         <v>-1</v>
       </c>
       <c r="F235">
-        <v>4997.111112821695</v>
+        <v>4994.277779515203</v>
       </c>
       <c r="G235">
-        <v>13722.16666692222</v>
+        <v>13719.833333611</v>
       </c>
       <c r="H235">
-        <v>324729.2219535876</v>
+        <v>321301.4442082834</v>
       </c>
     </row>
     <row r="236">
@@ -6507,13 +6507,13 @@
         <v>-1</v>
       </c>
       <c r="F236">
-        <v>4997.111113953869</v>
+        <v>4994.277780332624</v>
       </c>
       <c r="G236">
-        <v>13722.16667212837</v>
+        <v>13719.83333855793</v>
       </c>
       <c r="H236">
-        <v>324729.2223097064</v>
+        <v>321301.4441836128</v>
       </c>
     </row>
     <row r="237">
@@ -6533,13 +6533,13 @@
         <v>-1</v>
       </c>
       <c r="F237">
-        <v>4997.111108645746</v>
+        <v>4994.277775495405</v>
       </c>
       <c r="G237">
-        <v>13722.16666294035</v>
+        <v>13719.83332975772</v>
       </c>
       <c r="H237">
-        <v>324729.2222534443</v>
+        <v>321301.4446970525</v>
       </c>
     </row>
     <row r="238">
@@ -6559,13 +6559,13 @@
         <v>-1</v>
       </c>
       <c r="F238">
-        <v>4997.111111807103</v>
+        <v>4994.277778447744</v>
       </c>
       <c r="G238">
-        <v>13722.16666733031</v>
+        <v>13719.83333397555</v>
       </c>
       <c r="H238">
-        <v>324729.2221722461</v>
+        <v>321301.4443629829</v>
       </c>
     </row>
     <row r="239">
@@ -6585,13 +6585,13 @@
         <v>-1</v>
       </c>
       <c r="F239">
-        <v>4997.111111468906</v>
+        <v>4994.277778091924</v>
       </c>
       <c r="G239">
-        <v>13722.16666746634</v>
+        <v>13719.83333409706</v>
       </c>
       <c r="H239">
-        <v>324729.2222451323</v>
+        <v>321301.4444145494</v>
       </c>
     </row>
     <row r="240">
@@ -6611,13 +6611,13 @@
         <v>-1</v>
       </c>
       <c r="F240">
-        <v>4997.111110640585</v>
+        <v>4994.277777345024</v>
       </c>
       <c r="G240">
-        <v>13722.16666591233</v>
+        <v>13719.83333261011</v>
       </c>
       <c r="H240">
-        <v>324729.2222236075</v>
+        <v>321301.4444915283</v>
       </c>
     </row>
     <row r="241">
@@ -6637,13 +6637,13 @@
         <v>-1</v>
       </c>
       <c r="F241">
-        <v>4997.111111305531</v>
+        <v>4994.277777961564</v>
       </c>
       <c r="G241">
-        <v>13722.166666903</v>
+        <v>13719.83333356091</v>
       </c>
       <c r="H241">
-        <v>324729.2222136619</v>
+        <v>321301.4444230202</v>
       </c>
     </row>
     <row r="242">
@@ -6663,13 +6663,13 @@
         <v>-1</v>
       </c>
       <c r="F242">
-        <v>4997.111111138341</v>
+        <v>4994.277777799504</v>
       </c>
       <c r="G242">
-        <v>13722.16666676056</v>
+        <v>13719.83333342269</v>
       </c>
       <c r="H242">
-        <v>324729.2222274672</v>
+        <v>321301.4444430326</v>
       </c>
     </row>
     <row r="243">
@@ -6689,13 +6689,13 @@
         <v>-1</v>
       </c>
       <c r="F243">
-        <v>4997.111111028153</v>
+        <v>4994.277777702031</v>
       </c>
       <c r="G243">
-        <v>13722.16666652529</v>
+        <v>13719.8333331979</v>
       </c>
       <c r="H243">
-        <v>324729.2222215789</v>
+        <v>321301.444452527</v>
       </c>
     </row>
     <row r="244">
@@ -6715,13 +6715,13 @@
         <v>-1</v>
       </c>
       <c r="F244">
-        <v>4997.111111157342</v>
+        <v>4994.277777821033</v>
       </c>
       <c r="G244">
-        <v>13722.16666672962</v>
+        <v>13719.83333339384</v>
       </c>
       <c r="H244">
-        <v>324729.2222209027</v>
+        <v>321301.4444395266</v>
       </c>
     </row>
     <row r="245">
@@ -6741,13 +6741,13 @@
         <v>-1</v>
       </c>
       <c r="F245">
-        <v>4997.111111107945</v>
+        <v>4994.277777774189</v>
       </c>
       <c r="G245">
-        <v>13722.16666667182</v>
+        <v>13719.83333333814</v>
       </c>
       <c r="H245">
-        <v>324729.2222233163</v>
+        <v>321301.4444450287</v>
       </c>
     </row>
     <row r="246">
@@ -6767,13 +6767,13 @@
         <v>-1</v>
       </c>
       <c r="F246">
-        <v>4997.111111097814</v>
+        <v>4994.277777765751</v>
       </c>
       <c r="G246">
-        <v>13722.16666664224</v>
+        <v>13719.83333330996</v>
       </c>
       <c r="H246">
-        <v>324729.2222219326</v>
+        <v>321301.4444456941</v>
       </c>
     </row>
     <row r="247">
@@ -6793,13 +6793,13 @@
         <v>-1</v>
       </c>
       <c r="F247">
-        <v>4997.111111121034</v>
+        <v>4994.277777786992</v>
       </c>
       <c r="G247">
-        <v>13722.16666668123</v>
+        <v>13719.83333334731</v>
       </c>
       <c r="H247">
-        <v>324729.2222220505</v>
+        <v>321301.4444434165</v>
       </c>
     </row>
     <row r="248">
@@ -6819,13 +6819,13 @@
         <v>-1</v>
       </c>
       <c r="F248">
-        <v>4997.111111108931</v>
+        <v>4994.277777775644</v>
       </c>
       <c r="G248">
-        <v>13722.1666666651</v>
+        <v>13719.83333333181</v>
       </c>
       <c r="H248">
-        <v>324729.2222224331</v>
+        <v>321301.4444447131</v>
       </c>
     </row>
     <row r="249">
@@ -6845,13 +6845,13 @@
         <v>-1</v>
       </c>
       <c r="F249">
-        <v>4997.11111110926</v>
+        <v>4994.277777776129</v>
       </c>
       <c r="G249">
-        <v>13722.16666666286</v>
+        <v>13719.83333332969</v>
       </c>
       <c r="H249">
-        <v>324729.2222221388</v>
+        <v>321301.4444446079</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -5753,13 +5753,13 @@
         <v>-1</v>
       </c>
       <c r="F207">
-        <v>5025.666666666667</v>
+        <v>5023</v>
       </c>
       <c r="G207">
-        <v>13773.66666666667</v>
+        <v>13769.33333333333</v>
       </c>
       <c r="H207">
-        <v>317911</v>
+        <v>317506.6666666667</v>
       </c>
     </row>
     <row r="208">
@@ -5779,13 +5779,13 @@
         <v>-1</v>
       </c>
       <c r="F208">
-        <v>4979.222222222223</v>
+        <v>4978.333333333333</v>
       </c>
       <c r="G208">
-        <v>13700.11111111111</v>
+        <v>13698.66666666667</v>
       </c>
       <c r="H208">
-        <v>323037.1111111111</v>
+        <v>322902.3333333333</v>
       </c>
     </row>
     <row r="209">
@@ -5805,13 +5805,13 @@
         <v>-1</v>
       </c>
       <c r="F209">
-        <v>4993.851851851852</v>
+        <v>4992.666666666667</v>
       </c>
       <c r="G209">
-        <v>13715.03703703704</v>
+        <v>13713.11111111111</v>
       </c>
       <c r="H209">
-        <v>321274.4814814815</v>
+        <v>321094.7777777778</v>
       </c>
     </row>
     <row r="210">
@@ -5831,13 +5831,13 @@
         <v>-1</v>
       </c>
       <c r="F210">
-        <v>4999.580246913581</v>
+        <v>4998</v>
       </c>
       <c r="G210">
-        <v>13729.60493827161</v>
+        <v>13727.03703703704</v>
       </c>
       <c r="H210">
-        <v>320740.8641975308</v>
+        <v>320501.2592592593</v>
       </c>
     </row>
     <row r="211">
@@ -5857,13 +5857,13 @@
         <v>-1</v>
       </c>
       <c r="F211">
-        <v>4990.884773662552</v>
+        <v>4989.666666666667</v>
       </c>
       <c r="G211">
-        <v>13714.91769547325</v>
+        <v>13712.93827160494</v>
       </c>
       <c r="H211">
-        <v>321684.1522633745</v>
+        <v>321499.4567901234</v>
       </c>
     </row>
     <row r="212">
@@ -5883,13 +5883,13 @@
         <v>-1</v>
       </c>
       <c r="F212">
-        <v>4994.772290809328</v>
+        <v>4993.444444444444</v>
       </c>
       <c r="G212">
-        <v>13719.85322359396</v>
+        <v>13717.69547325103</v>
       </c>
       <c r="H212">
-        <v>321233.1659807956</v>
+        <v>321031.8312757202</v>
       </c>
     </row>
     <row r="213">
@@ -5909,13 +5909,13 @@
         <v>-1</v>
       </c>
       <c r="F213">
-        <v>4995.079103795154</v>
+        <v>4993.703703703704</v>
       </c>
       <c r="G213">
-        <v>13721.45861911294</v>
+        <v>13719.22359396434</v>
       </c>
       <c r="H213">
-        <v>321219.3941472336</v>
+        <v>321010.8491083676</v>
       </c>
     </row>
     <row r="214">
@@ -5935,13 +5935,13 @@
         <v>-1</v>
       </c>
       <c r="F214">
-        <v>4993.578722755678</v>
+        <v>4992.271604938272</v>
       </c>
       <c r="G214">
-        <v>13718.74317939339</v>
+        <v>13716.6191129401</v>
       </c>
       <c r="H214">
-        <v>321378.9041304679</v>
+        <v>321180.7123914037</v>
       </c>
     </row>
     <row r="215">
@@ -5961,13 +5961,13 @@
         <v>-1</v>
       </c>
       <c r="F215">
-        <v>4994.47670578672</v>
+        <v>4993.139917695473</v>
       </c>
       <c r="G215">
-        <v>13720.0183407001</v>
+        <v>13717.84606005182</v>
       </c>
       <c r="H215">
-        <v>321277.1547528324</v>
+        <v>321074.4642584972</v>
       </c>
     </row>
     <row r="216">
@@ -5987,13 +5987,13 @@
         <v>-1</v>
       </c>
       <c r="F216">
-        <v>4994.378177445851</v>
+        <v>4993.038408779149</v>
       </c>
       <c r="G216">
-        <v>13720.07337973547</v>
+        <v>13717.89625565209</v>
       </c>
       <c r="H216">
-        <v>321291.8176768447</v>
+        <v>321088.6752527562</v>
       </c>
     </row>
     <row r="217">
@@ -6013,13 +6013,13 @@
         <v>-1</v>
       </c>
       <c r="F217">
-        <v>4994.144535329417</v>
+        <v>4992.816643804298</v>
       </c>
       <c r="G217">
-        <v>13719.61163327632</v>
+        <v>13717.453809548</v>
       </c>
       <c r="H217">
-        <v>321315.9588533816</v>
+        <v>321114.6173008857</v>
       </c>
     </row>
     <row r="218">
@@ -6039,13 +6039,13 @@
         <v>-1</v>
       </c>
       <c r="F218">
-        <v>4994.333139520662</v>
+        <v>4992.998323426306</v>
       </c>
       <c r="G218">
-        <v>13719.90111790396</v>
+        <v>13717.73204175064</v>
       </c>
       <c r="H218">
-        <v>321294.9770943529</v>
+        <v>321092.5856040464</v>
       </c>
     </row>
     <row r="219">
@@ -6065,13 +6065,13 @@
         <v>-1</v>
       </c>
       <c r="F219">
-        <v>4994.285284098643</v>
+        <v>4992.951125336585</v>
       </c>
       <c r="G219">
-        <v>13719.86204363859</v>
+        <v>13717.69403565024</v>
       </c>
       <c r="H219">
-        <v>321300.9178748597</v>
+        <v>321098.6260525627</v>
       </c>
     </row>
     <row r="220">
@@ -6091,13 +6091,13 @@
         <v>-1</v>
       </c>
       <c r="F220">
-        <v>4994.254319649574</v>
+        <v>4992.92203085573</v>
       </c>
       <c r="G220">
-        <v>13719.79159827296</v>
+        <v>13717.62662898296</v>
       </c>
       <c r="H220">
-        <v>321303.9512741981</v>
+        <v>321101.9429858316</v>
       </c>
     </row>
     <row r="221">
@@ -6117,13 +6117,13 @@
         <v>-1</v>
       </c>
       <c r="F221">
-        <v>4994.29091442296</v>
+        <v>4992.957159872874</v>
       </c>
       <c r="G221">
-        <v>13719.85158660517</v>
+        <v>13717.68423546128</v>
       </c>
       <c r="H221">
-        <v>321299.9487478036</v>
+        <v>321097.7182141469</v>
       </c>
     </row>
     <row r="222">
@@ -6143,13 +6143,13 @@
         <v>-1</v>
       </c>
       <c r="F222">
-        <v>4994.276839390393</v>
+        <v>4992.943438688396</v>
       </c>
       <c r="G222">
-        <v>13719.83507617224</v>
+        <v>13717.6683000315</v>
       </c>
       <c r="H222">
-        <v>321301.6059656204</v>
+        <v>321099.4290841804</v>
       </c>
     </row>
     <row r="223">
@@ -6169,13 +6169,13 @@
         <v>-1</v>
       </c>
       <c r="F223">
-        <v>4994.274024487642</v>
+        <v>4992.940876472333</v>
       </c>
       <c r="G223">
-        <v>13719.82608701679</v>
+        <v>13717.65972149191</v>
       </c>
       <c r="H223">
-        <v>321301.8353292074</v>
+        <v>321099.6967613863</v>
       </c>
     </row>
     <row r="224">
@@ -6195,13 +6195,13 @@
         <v>-1</v>
       </c>
       <c r="F224">
-        <v>4994.280592766998</v>
+        <v>4992.947158344534</v>
       </c>
       <c r="G224">
-        <v>13719.83758326473</v>
+        <v>13717.67075232823</v>
       </c>
       <c r="H224">
-        <v>321301.1300142105</v>
+        <v>321098.9480199046</v>
       </c>
     </row>
     <row r="225">
@@ -6221,13 +6221,13 @@
         <v>-1</v>
       </c>
       <c r="F225">
-        <v>4994.277152215011</v>
+        <v>4992.943824501755</v>
       </c>
       <c r="G225">
-        <v>13719.83291548459</v>
+        <v>13717.66625795055</v>
       </c>
       <c r="H225">
-        <v>321301.5237696794</v>
+        <v>321099.3579551571</v>
       </c>
     </row>
     <row r="226">
@@ -6247,13 +6247,13 @@
         <v>-1</v>
       </c>
       <c r="F226">
-        <v>4994.277256489883</v>
+        <v>4992.943953106207</v>
       </c>
       <c r="G226">
-        <v>13719.83219525537</v>
+        <v>13717.6655772569</v>
       </c>
       <c r="H226">
-        <v>321301.4963710324</v>
+        <v>321099.3342454826</v>
       </c>
     </row>
     <row r="227">
@@ -6273,13 +6273,13 @@
         <v>-1</v>
       </c>
       <c r="F227">
-        <v>4994.278333823964</v>
+        <v>4992.944978650832</v>
       </c>
       <c r="G227">
-        <v>13719.8342313349</v>
+        <v>13717.66752917856</v>
       </c>
       <c r="H227">
-        <v>321301.3833849741</v>
+        <v>321099.2134068481</v>
       </c>
     </row>
     <row r="228">
@@ -6299,13 +6299,13 @@
         <v>-1</v>
       </c>
       <c r="F228">
-        <v>4994.277580842952</v>
+        <v>4992.944252086265</v>
       </c>
       <c r="G228">
-        <v>13719.83311402495</v>
+        <v>13717.66645479533</v>
       </c>
       <c r="H228">
-        <v>321301.4678418953</v>
+        <v>321099.3018691626</v>
       </c>
     </row>
     <row r="229">
@@ -6325,13 +6325,13 @@
         <v>-1</v>
       </c>
       <c r="F229">
-        <v>4994.277723718933</v>
+        <v>4992.944394614435</v>
       </c>
       <c r="G229">
-        <v>13719.83318020507</v>
+        <v>13717.66652041026</v>
       </c>
       <c r="H229">
-        <v>321301.4491993006</v>
+        <v>321099.2831738311</v>
       </c>
     </row>
     <row r="230">
@@ -6351,13 +6351,13 @@
         <v>-1</v>
       </c>
       <c r="F230">
-        <v>4994.27787946195</v>
+        <v>4992.944541783844</v>
       </c>
       <c r="G230">
-        <v>13719.83350852164</v>
+        <v>13717.66683479472</v>
       </c>
       <c r="H230">
-        <v>321301.43347539</v>
+        <v>321099.2661499473</v>
       </c>
     </row>
     <row r="231">
@@ -6377,13 +6377,13 @@
         <v>-1</v>
       </c>
       <c r="F231">
-        <v>4994.277728007945</v>
+        <v>4992.944396161514</v>
       </c>
       <c r="G231">
-        <v>13719.83326758389</v>
+        <v>13717.66660333344</v>
       </c>
       <c r="H231">
-        <v>321301.4501721953</v>
+        <v>321099.2837309803</v>
       </c>
     </row>
     <row r="232">
@@ -6403,13 +6403,13 @@
         <v>-1</v>
       </c>
       <c r="F232">
-        <v>4994.277777062943</v>
+        <v>4992.944444186598</v>
       </c>
       <c r="G232">
-        <v>13719.8333187702</v>
+        <v>13717.66665284614</v>
       </c>
       <c r="H232">
-        <v>321301.4442822953</v>
+        <v>321099.2776849195</v>
       </c>
     </row>
     <row r="233">
@@ -6429,13 +6429,13 @@
         <v>-1</v>
       </c>
       <c r="F233">
-        <v>4994.277794844279</v>
+        <v>4992.944460710653</v>
       </c>
       <c r="G233">
-        <v>13719.83336495858</v>
+        <v>13717.66669699143</v>
       </c>
       <c r="H233">
-        <v>321301.4426432935</v>
+        <v>321099.2758552824</v>
       </c>
     </row>
     <row r="234">
@@ -6455,13 +6455,13 @@
         <v>-1</v>
       </c>
       <c r="F234">
-        <v>4994.277766638389</v>
+        <v>4992.944433686255</v>
       </c>
       <c r="G234">
-        <v>13719.83331710422</v>
+        <v>13717.666651057</v>
       </c>
       <c r="H234">
-        <v>321301.4456992614</v>
+        <v>321099.2790903941</v>
       </c>
     </row>
     <row r="235">
@@ -6481,13 +6481,13 @@
         <v>-1</v>
       </c>
       <c r="F235">
-        <v>4994.277779515203</v>
+        <v>4992.944446194502</v>
       </c>
       <c r="G235">
-        <v>13719.833333611</v>
+        <v>13717.66666696486</v>
       </c>
       <c r="H235">
-        <v>321301.4442082834</v>
+        <v>321099.277543532</v>
       </c>
     </row>
     <row r="236">
@@ -6507,13 +6507,13 @@
         <v>-1</v>
       </c>
       <c r="F236">
-        <v>4994.277780332624</v>
+        <v>4992.944446863803</v>
       </c>
       <c r="G236">
-        <v>13719.83333855793</v>
+        <v>13717.6666716711</v>
       </c>
       <c r="H236">
-        <v>321301.4441836128</v>
+        <v>321099.2774964029</v>
       </c>
     </row>
     <row r="237">
@@ -6533,13 +6533,13 @@
         <v>-1</v>
       </c>
       <c r="F237">
-        <v>4994.277775495405</v>
+        <v>4992.944442248187</v>
       </c>
       <c r="G237">
-        <v>13719.83332975772</v>
+        <v>13717.66666323099</v>
       </c>
       <c r="H237">
-        <v>321301.4446970525</v>
+        <v>321099.278043443</v>
       </c>
     </row>
     <row r="238">
@@ -6559,13 +6559,13 @@
         <v>-1</v>
       </c>
       <c r="F238">
-        <v>4994.277778447744</v>
+        <v>4992.944445102164</v>
       </c>
       <c r="G238">
-        <v>13719.83333397555</v>
+        <v>13717.66666728898</v>
       </c>
       <c r="H238">
-        <v>321301.4443629829</v>
+        <v>321099.2776944593</v>
       </c>
     </row>
     <row r="239">
@@ -6585,13 +6585,13 @@
         <v>-1</v>
       </c>
       <c r="F239">
-        <v>4994.277778091924</v>
+        <v>4992.944444738051</v>
       </c>
       <c r="G239">
-        <v>13719.83333409706</v>
+        <v>13717.66666739702</v>
       </c>
       <c r="H239">
-        <v>321301.4444145494</v>
+        <v>321099.2777447684</v>
       </c>
     </row>
     <row r="240">
@@ -6611,13 +6611,13 @@
         <v>-1</v>
       </c>
       <c r="F240">
-        <v>4994.277777345024</v>
+        <v>4992.944444029467</v>
       </c>
       <c r="G240">
-        <v>13719.83333261011</v>
+        <v>13717.66666597233</v>
       </c>
       <c r="H240">
-        <v>321301.4444915283</v>
+        <v>321099.2778275569</v>
       </c>
     </row>
     <row r="241">
@@ -6637,13 +6637,13 @@
         <v>-1</v>
       </c>
       <c r="F241">
-        <v>4994.277777961564</v>
+        <v>4992.944444623227</v>
       </c>
       <c r="G241">
-        <v>13719.83333356091</v>
+        <v>13717.66666688611</v>
       </c>
       <c r="H241">
-        <v>321301.4444230202</v>
+        <v>321099.2777555949</v>
       </c>
     </row>
     <row r="242">
@@ -6663,13 +6663,13 @@
         <v>-1</v>
       </c>
       <c r="F242">
-        <v>4994.277777799504</v>
+        <v>4992.944444463582</v>
       </c>
       <c r="G242">
-        <v>13719.83333342269</v>
+        <v>13717.66666675182</v>
       </c>
       <c r="H242">
-        <v>321301.4444430326</v>
+        <v>321099.2777759734</v>
       </c>
     </row>
     <row r="243">
@@ -6689,13 +6689,13 @@
         <v>-1</v>
       </c>
       <c r="F243">
-        <v>4994.277777702031</v>
+        <v>4992.944444372092</v>
       </c>
       <c r="G243">
-        <v>13719.8333331979</v>
+        <v>13717.66666653675</v>
       </c>
       <c r="H243">
-        <v>321301.444452527</v>
+        <v>321099.277786375</v>
       </c>
     </row>
     <row r="244">
@@ -6715,13 +6715,13 @@
         <v>-1</v>
       </c>
       <c r="F244">
-        <v>4994.277777821033</v>
+        <v>4992.9444444863</v>
       </c>
       <c r="G244">
-        <v>13719.83333339384</v>
+        <v>13717.6666667249</v>
       </c>
       <c r="H244">
-        <v>321301.4444395266</v>
+        <v>321099.2777726477</v>
       </c>
     </row>
     <row r="245">
@@ -6741,13 +6741,13 @@
         <v>-1</v>
       </c>
       <c r="F245">
-        <v>4994.277777774189</v>
+        <v>4992.944444440658</v>
       </c>
       <c r="G245">
-        <v>13719.83333333814</v>
+        <v>13717.66666667116</v>
       </c>
       <c r="H245">
-        <v>321301.4444450287</v>
+        <v>321099.2777783321</v>
       </c>
     </row>
     <row r="246">
@@ -6767,13 +6767,13 @@
         <v>-1</v>
       </c>
       <c r="F246">
-        <v>4994.277777765751</v>
+        <v>4992.944444433017</v>
       </c>
       <c r="G246">
-        <v>13719.83333330996</v>
+        <v>13717.66666664427</v>
       </c>
       <c r="H246">
-        <v>321301.4444456941</v>
+        <v>321099.2777791183</v>
       </c>
     </row>
     <row r="247">
@@ -6793,13 +6793,13 @@
         <v>-1</v>
       </c>
       <c r="F247">
-        <v>4994.277777786992</v>
+        <v>4992.944444453325</v>
       </c>
       <c r="G247">
-        <v>13719.83333334731</v>
+        <v>13717.66666668011</v>
       </c>
       <c r="H247">
-        <v>321301.4444434165</v>
+        <v>321099.2777766993</v>
       </c>
     </row>
     <row r="248">
@@ -6819,13 +6819,13 @@
         <v>-1</v>
       </c>
       <c r="F248">
-        <v>4994.277777775644</v>
+        <v>4992.944444442333</v>
       </c>
       <c r="G248">
-        <v>13719.83333333181</v>
+        <v>13717.66666666518</v>
       </c>
       <c r="H248">
-        <v>321301.4444447131</v>
+        <v>321099.2777780499</v>
       </c>
     </row>
     <row r="249">
@@ -6845,13 +6845,13 @@
         <v>-1</v>
       </c>
       <c r="F249">
-        <v>4994.277777776129</v>
+        <v>4992.944444442892</v>
       </c>
       <c r="G249">
-        <v>13719.83333332969</v>
+        <v>13717.66666666319</v>
       </c>
       <c r="H249">
-        <v>321301.4444446079</v>
+        <v>321099.2777779558</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -5759,7 +5759,7 @@
         <v>13769.33333333333</v>
       </c>
       <c r="H207">
-        <v>317506.6666666667</v>
+        <v>318491.3333333333</v>
       </c>
     </row>
     <row r="208">
@@ -5767,7 +5767,7 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>258.3854444444444</v>
+        <v>267.8553333333334</v>
       </c>
       <c r="C208">
         <v>19795.8</v>
@@ -5779,13 +5779,13 @@
         <v>-1</v>
       </c>
       <c r="F208">
-        <v>4978.333333333333</v>
+        <v>5062.666666666667</v>
       </c>
       <c r="G208">
-        <v>13698.66666666667</v>
+        <v>14107</v>
       </c>
       <c r="H208">
-        <v>322902.3333333333</v>
+        <v>323230.5555555556</v>
       </c>
     </row>
     <row r="209">
@@ -5793,7 +5793,7 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>259.6204814814815</v>
+        <v>262.7771111111111</v>
       </c>
       <c r="C209">
         <v>19898.3</v>
@@ -5805,13 +5805,13 @@
         <v>-1</v>
       </c>
       <c r="F209">
-        <v>4992.666666666667</v>
+        <v>5020.777777777778</v>
       </c>
       <c r="G209">
-        <v>13713.11111111111</v>
+        <v>13849.22222222222</v>
       </c>
       <c r="H209">
-        <v>321094.7777777778</v>
+        <v>321532.4074074074</v>
       </c>
     </row>
     <row r="210">
@@ -5819,7 +5819,7 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>260.3770864197531</v>
+        <v>264.585925925926</v>
       </c>
       <c r="C210">
         <v>20003.7</v>
@@ -5831,13 +5831,13 @@
         <v>-1</v>
       </c>
       <c r="F210">
-        <v>4998</v>
+        <v>5035.481481481482</v>
       </c>
       <c r="G210">
-        <v>13727.03703703704</v>
+        <v>13908.51851851852</v>
       </c>
       <c r="H210">
-        <v>320501.2592592593</v>
+        <v>321084.7654320988</v>
       </c>
     </row>
     <row r="211">
@@ -5845,7 +5845,7 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>259.4610041152263</v>
+        <v>265.0727901234568</v>
       </c>
       <c r="C211">
         <v>20109.9</v>
@@ -5857,13 +5857,13 @@
         <v>-1</v>
       </c>
       <c r="F211">
-        <v>4989.666666666667</v>
+        <v>5039.641975308642</v>
       </c>
       <c r="G211">
-        <v>13712.93827160494</v>
+        <v>13954.91358024691</v>
       </c>
       <c r="H211">
-        <v>321499.4567901234</v>
+        <v>321949.2427983539</v>
       </c>
     </row>
     <row r="212">
@@ -5871,7 +5871,7 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>259.819524005487</v>
+        <v>264.1452757201647</v>
       </c>
       <c r="C212">
         <v>20216.1</v>
@@ -5883,13 +5883,13 @@
         <v>-1</v>
       </c>
       <c r="F212">
-        <v>4993.444444444444</v>
+        <v>5031.967078189301</v>
       </c>
       <c r="G212">
-        <v>13717.69547325103</v>
+        <v>13904.21810699588</v>
       </c>
       <c r="H212">
-        <v>321031.8312757202</v>
+        <v>321522.1385459534</v>
       </c>
     </row>
     <row r="213">
@@ -5897,7 +5897,7 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>259.8858715134888</v>
+        <v>264.6013305898491</v>
       </c>
       <c r="C213">
         <v>20321.5</v>
@@ -5909,13 +5909,13 @@
         <v>-1</v>
       </c>
       <c r="F213">
-        <v>4993.703703703704</v>
+        <v>5035.696844993142</v>
       </c>
       <c r="G213">
-        <v>13719.22359396434</v>
+        <v>13922.55006858711</v>
       </c>
       <c r="H213">
-        <v>321010.8491083676</v>
+        <v>321518.7155921353</v>
       </c>
     </row>
     <row r="214">
@@ -5923,7 +5923,7 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>259.7221332114007</v>
+        <v>264.6064654778235</v>
       </c>
       <c r="C214">
         <v>20425.7</v>
@@ -5935,13 +5935,13 @@
         <v>-1</v>
       </c>
       <c r="F214">
-        <v>4992.271604938272</v>
+        <v>5035.768632830362</v>
       </c>
       <c r="G214">
-        <v>13716.6191129401</v>
+        <v>13927.2272519433</v>
       </c>
       <c r="H214">
-        <v>321180.7123914037</v>
+        <v>321663.3656454809</v>
       </c>
     </row>
     <row r="215">
@@ -5949,7 +5949,7 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>259.8091762434588</v>
+        <v>264.4510239292791</v>
       </c>
       <c r="C215">
         <v>20529.6</v>
@@ -5961,13 +5961,13 @@
         <v>-1</v>
       </c>
       <c r="F215">
-        <v>4993.139917695473</v>
+        <v>5034.477518670935</v>
       </c>
       <c r="G215">
-        <v>13717.84606005182</v>
+        <v>13917.9984758421</v>
       </c>
       <c r="H215">
-        <v>321074.4642584972</v>
+        <v>321568.0732611899</v>
       </c>
     </row>
     <row r="216">
@@ -5975,7 +5975,7 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>259.8057269894495</v>
+        <v>264.5529399989839</v>
       </c>
       <c r="C216">
         <v>20633.3</v>
@@ -5987,13 +5987,13 @@
         <v>-1</v>
       </c>
       <c r="F216">
-        <v>4993.038408779149</v>
+        <v>5035.314332164813</v>
       </c>
       <c r="G216">
-        <v>13717.89625565209</v>
+        <v>13922.59193212417</v>
       </c>
       <c r="H216">
-        <v>321088.6752527562</v>
+        <v>321583.3848329354</v>
       </c>
     </row>
     <row r="217">
@@ -6001,7 +6001,7 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>259.779012148103</v>
+        <v>264.5368098020288</v>
       </c>
       <c r="C217">
         <v>20736.1</v>
@@ -6013,13 +6013,13 @@
         <v>-1</v>
       </c>
       <c r="F217">
-        <v>4992.816643804298</v>
+        <v>5035.186827888703</v>
       </c>
       <c r="G217">
-        <v>13717.453809548</v>
+        <v>13922.60588663652</v>
       </c>
       <c r="H217">
-        <v>321114.6173008857</v>
+        <v>321604.9412465353</v>
       </c>
     </row>
     <row r="218">
@@ -6027,7 +6027,7 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>259.7979717936704</v>
+        <v>264.5135912434306</v>
       </c>
       <c r="C218">
         <v>20837.6</v>
@@ -6039,13 +6039,13 @@
         <v>-1</v>
       </c>
       <c r="F218">
-        <v>4992.998323426306</v>
+        <v>5034.992892908151</v>
       </c>
       <c r="G218">
-        <v>13717.73204175064</v>
+        <v>13921.06543153426</v>
       </c>
       <c r="H218">
-        <v>321092.5856040464</v>
+        <v>321585.4664468868</v>
       </c>
     </row>
     <row r="219">
@@ -6053,7 +6053,7 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>259.7942369770743</v>
+        <v>264.5344470148144</v>
       </c>
       <c r="C219">
         <v>20937.8</v>
@@ -6065,13 +6065,13 @@
         <v>-1</v>
       </c>
       <c r="F219">
-        <v>4992.951125336585</v>
+        <v>5035.164684320555</v>
       </c>
       <c r="G219">
-        <v>13717.69403565024</v>
+        <v>13922.08775009832</v>
       </c>
       <c r="H219">
-        <v>321098.6260525627</v>
+        <v>321591.2641754525</v>
       </c>
     </row>
     <row r="220">
@@ -6079,7 +6079,7 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>259.7904069729492</v>
+        <v>264.528282686758</v>
       </c>
       <c r="C220">
         <v>21037.3</v>
@@ -6091,13 +6091,13 @@
         <v>-1</v>
       </c>
       <c r="F220">
-        <v>4992.92203085573</v>
+        <v>5035.114801705803</v>
       </c>
       <c r="G220">
-        <v>13717.62662898296</v>
+        <v>13921.91968942303</v>
       </c>
       <c r="H220">
-        <v>321101.9429858316</v>
+        <v>321593.8906229583</v>
       </c>
     </row>
     <row r="221">
@@ -6105,7 +6105,7 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>259.7942052478979</v>
+        <v>264.525440315001</v>
       </c>
       <c r="C221">
         <v>21135.8</v>
@@ -6117,13 +6117,13 @@
         <v>-1</v>
       </c>
       <c r="F221">
-        <v>4992.957159872874</v>
+        <v>5035.09079297817</v>
       </c>
       <c r="G221">
-        <v>13717.68423546128</v>
+        <v>13921.69095701854</v>
       </c>
       <c r="H221">
-        <v>321097.7182141469</v>
+        <v>321590.2070817659</v>
       </c>
     </row>
     <row r="222">
@@ -6131,7 +6131,7 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>259.7929497326405</v>
+        <v>264.5293900055245</v>
       </c>
       <c r="C222">
         <v>21233</v>
@@ -6143,13 +6143,13 @@
         <v>-1</v>
       </c>
       <c r="F222">
-        <v>4992.943438688396</v>
+        <v>5035.123426334842</v>
       </c>
       <c r="G222">
-        <v>13717.6683000315</v>
+        <v>13921.8994655133</v>
       </c>
       <c r="H222">
-        <v>321099.4290841804</v>
+        <v>321591.7872933922</v>
       </c>
     </row>
     <row r="223">
@@ -6157,7 +6157,7 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>259.7925206511625</v>
+        <v>264.5277043357611</v>
       </c>
       <c r="C223">
         <v>21328.7</v>
@@ -6169,13 +6169,13 @@
         <v>-1</v>
       </c>
       <c r="F223">
-        <v>4992.940876472333</v>
+        <v>5035.109673672939</v>
       </c>
       <c r="G223">
-        <v>13717.65972149191</v>
+        <v>13921.83670398496</v>
       </c>
       <c r="H223">
-        <v>321099.6967613863</v>
+        <v>321591.9616660388</v>
       </c>
     </row>
     <row r="224">
@@ -6183,7 +6183,7 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>259.793225210567</v>
+        <v>264.5275115520955</v>
       </c>
       <c r="C224">
         <v>21423.4</v>
@@ -6195,13 +6195,13 @@
         <v>-1</v>
       </c>
       <c r="F224">
-        <v>4992.947158344534</v>
+        <v>5035.10796432865</v>
       </c>
       <c r="G224">
-        <v>13717.67075232823</v>
+        <v>13921.80904217226</v>
       </c>
       <c r="H224">
-        <v>321098.9480199046</v>
+        <v>321591.318680399</v>
       </c>
     </row>
     <row r="225">
@@ -6209,7 +6209,7 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>259.7928985314567</v>
+        <v>264.5282019644604</v>
       </c>
       <c r="C225">
         <v>21517.1</v>
@@ -6221,13 +6221,13 @@
         <v>-1</v>
       </c>
       <c r="F225">
-        <v>4992.943824501755</v>
+        <v>5035.113688112144</v>
       </c>
       <c r="G225">
-        <v>13717.66625795055</v>
+        <v>13921.84840389017</v>
       </c>
       <c r="H225">
-        <v>321099.3579551571</v>
+        <v>321591.6892132767</v>
       </c>
     </row>
     <row r="226">
@@ -6235,7 +6235,7 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>259.7928814643954</v>
+        <v>264.5278059507724</v>
       </c>
       <c r="C226">
         <v>21609.7</v>
@@ -6247,13 +6247,13 @@
         <v>-1</v>
       </c>
       <c r="F226">
-        <v>4992.943953106207</v>
+        <v>5035.110442037911</v>
       </c>
       <c r="G226">
-        <v>13717.6655772569</v>
+        <v>13921.83138334913</v>
       </c>
       <c r="H226">
-        <v>321099.3342454826</v>
+        <v>321591.6565199048</v>
       </c>
     </row>
     <row r="227">
@@ -6261,7 +6261,7 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>259.793001735473</v>
+        <v>264.5278398224427</v>
       </c>
       <c r="C227">
         <v>21701.4</v>
@@ -6273,13 +6273,13 @@
         <v>-1</v>
       </c>
       <c r="F227">
-        <v>4992.944978650832</v>
+        <v>5035.110698159569</v>
       </c>
       <c r="G227">
-        <v>13717.66752917856</v>
+        <v>13921.82960980386</v>
       </c>
       <c r="H227">
-        <v>321099.2134068481</v>
+        <v>321591.5548045268</v>
       </c>
     </row>
     <row r="228">
@@ -6287,7 +6287,7 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>259.792927243775</v>
+        <v>264.5279492458918</v>
       </c>
       <c r="C228">
         <v>21793.1</v>
@@ -6299,13 +6299,13 @@
         <v>-1</v>
       </c>
       <c r="F228">
-        <v>4992.944252086265</v>
+        <v>5035.111609436541</v>
       </c>
       <c r="G228">
-        <v>13717.66645479533</v>
+        <v>13921.83646568105</v>
       </c>
       <c r="H228">
-        <v>321099.3018691626</v>
+        <v>321591.6335125694</v>
       </c>
     </row>
     <row r="229">
@@ -6313,7 +6313,7 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>259.7929368145478</v>
+        <v>264.527865006369</v>
       </c>
       <c r="C229">
         <v>21885.1</v>
@@ -6325,13 +6325,13 @@
         <v>-1</v>
       </c>
       <c r="F229">
-        <v>4992.944394614435</v>
+        <v>5035.110916544673</v>
       </c>
       <c r="G229">
-        <v>13717.66652041026</v>
+        <v>13921.83248627801</v>
       </c>
       <c r="H229">
-        <v>321099.2831738311</v>
+        <v>321591.614945667</v>
       </c>
     </row>
     <row r="230">
@@ -6339,7 +6339,7 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>259.7929552645986</v>
+        <v>264.5278846915679</v>
       </c>
       <c r="C230">
         <v>21977.8</v>
@@ -6351,13 +6351,13 @@
         <v>-1</v>
       </c>
       <c r="F230">
-        <v>4992.944541783844</v>
+        <v>5035.111074713595</v>
       </c>
       <c r="G230">
-        <v>13717.66683479472</v>
+        <v>13921.83285392097</v>
       </c>
       <c r="H230">
-        <v>321099.2661499473</v>
+        <v>321591.6010875877</v>
       </c>
     </row>
     <row r="231">
@@ -6365,7 +6365,7 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>259.7929397743072</v>
+        <v>264.5278996479429</v>
       </c>
       <c r="C231">
         <v>22070.9</v>
@@ -6377,13 +6377,13 @@
         <v>-1</v>
       </c>
       <c r="F231">
-        <v>4992.944396161514</v>
+        <v>5035.111200231603</v>
       </c>
       <c r="G231">
-        <v>13717.66660333344</v>
+        <v>13921.83393529335</v>
       </c>
       <c r="H231">
-        <v>321099.2837309803</v>
+        <v>321591.6165152747</v>
       </c>
     </row>
     <row r="232">
@@ -6391,7 +6391,7 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>259.7929439511512</v>
+        <v>264.5278831152933</v>
       </c>
       <c r="C232">
         <v>22164.3</v>
@@ -6403,13 +6403,13 @@
         <v>-1</v>
       </c>
       <c r="F232">
-        <v>4992.944444186598</v>
+        <v>5035.111063829957</v>
       </c>
       <c r="G232">
-        <v>13717.66665284614</v>
+        <v>13921.83309183078</v>
       </c>
       <c r="H232">
-        <v>321099.2776849195</v>
+        <v>321591.6108495098</v>
       </c>
     </row>
     <row r="233">
@@ -6417,7 +6417,7 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>259.792946330019</v>
+        <v>264.5278891516014</v>
       </c>
       <c r="C233">
         <v>22257.7</v>
@@ -6429,13 +6429,13 @@
         <v>-1</v>
       </c>
       <c r="F233">
-        <v>4992.944460710653</v>
+        <v>5035.111112925051</v>
       </c>
       <c r="G233">
-        <v>13717.66669699143</v>
+        <v>13921.8332936817</v>
       </c>
       <c r="H233">
-        <v>321099.2758552824</v>
+        <v>321591.6094841241</v>
       </c>
     </row>
     <row r="234">
@@ -6443,7 +6443,7 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>259.7929433518258</v>
+        <v>264.5278906382792</v>
       </c>
       <c r="C234">
         <v>22351.6</v>
@@ -6455,13 +6455,13 @@
         <v>-1</v>
       </c>
       <c r="F234">
-        <v>4992.944433686255</v>
+        <v>5035.111125662203</v>
       </c>
       <c r="G234">
-        <v>13717.666651057</v>
+        <v>13921.83344026861</v>
       </c>
       <c r="H234">
-        <v>321099.2790903941</v>
+        <v>321591.6122829695</v>
       </c>
     </row>
     <row r="235">
@@ -6469,7 +6469,7 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>259.792944544332</v>
+        <v>264.5278876350579</v>
       </c>
       <c r="C235">
         <v>22446.5</v>
@@ -6481,13 +6481,13 @@
         <v>-1</v>
       </c>
       <c r="F235">
-        <v>4992.944446194502</v>
+        <v>5035.111100805737</v>
       </c>
       <c r="G235">
-        <v>13717.66666696486</v>
+        <v>13921.83327526036</v>
       </c>
       <c r="H235">
-        <v>321099.277543532</v>
+        <v>321591.6108722011</v>
       </c>
     </row>
     <row r="236">
@@ -6495,7 +6495,7 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>259.7929447420589</v>
+        <v>264.5278891416461</v>
       </c>
       <c r="C236">
         <v>22542.3</v>
@@ -6507,13 +6507,13 @@
         <v>-1</v>
       </c>
       <c r="F236">
-        <v>4992.944446863803</v>
+        <v>5035.111113130997</v>
       </c>
       <c r="G236">
-        <v>13717.6666716711</v>
+        <v>13921.83333640356</v>
       </c>
       <c r="H236">
-        <v>321099.2774964029</v>
+        <v>321591.6108797649</v>
       </c>
     </row>
     <row r="237">
@@ -6521,7 +6521,7 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>259.7929442127389</v>
+        <v>264.5278891383277</v>
       </c>
       <c r="C237">
         <v>22638.9</v>
@@ -6533,13 +6533,13 @@
         <v>-1</v>
       </c>
       <c r="F237">
-        <v>4992.944442248187</v>
+        <v>5035.111113199646</v>
       </c>
       <c r="G237">
-        <v>13717.66666323099</v>
+        <v>13921.83335064417</v>
       </c>
       <c r="H237">
-        <v>321099.278043443</v>
+        <v>321591.6113449785</v>
       </c>
     </row>
     <row r="238">
@@ -6547,7 +6547,7 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>259.79294449971</v>
+        <v>264.5278886383439</v>
       </c>
       <c r="C238">
         <v>22736.3</v>
@@ -6559,13 +6559,13 @@
         <v>-1</v>
       </c>
       <c r="F238">
-        <v>4992.944445102164</v>
+        <v>5035.11110904546</v>
       </c>
       <c r="G238">
-        <v>13717.66666728898</v>
+        <v>13921.83332076936</v>
       </c>
       <c r="H238">
-        <v>321099.2776944593</v>
+        <v>321591.6110323148</v>
       </c>
     </row>
     <row r="239">
@@ -6573,7 +6573,7 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>259.7929444848359</v>
+        <v>264.5278889727726</v>
       </c>
       <c r="C239">
         <v>22834.2</v>
@@ -6585,13 +6585,13 @@
         <v>-1</v>
       </c>
       <c r="F239">
-        <v>4992.944444738051</v>
+        <v>5035.111111792035</v>
       </c>
       <c r="G239">
-        <v>13717.66666739702</v>
+        <v>13921.83333593903</v>
       </c>
       <c r="H239">
-        <v>321099.2777447684</v>
+        <v>321591.6110856861</v>
       </c>
     </row>
     <row r="240">
@@ -6599,7 +6599,7 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>259.792944399095</v>
+        <v>264.5278889164814</v>
       </c>
       <c r="C240">
         <v>22932.1</v>
@@ -6611,13 +6611,13 @@
         <v>-1</v>
       </c>
       <c r="F240">
-        <v>4992.944444029467</v>
+        <v>5035.111111345714</v>
       </c>
       <c r="G240">
-        <v>13717.66666597233</v>
+        <v>13921.83333578419</v>
       </c>
       <c r="H240">
-        <v>321099.2778275569</v>
+        <v>321591.6111543265</v>
       </c>
     </row>
     <row r="241">
@@ -6625,7 +6625,7 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>259.7929444612136</v>
+        <v>264.5278888425327</v>
       </c>
       <c r="C241">
         <v>23029.9</v>
@@ -6637,13 +6637,13 @@
         <v>-1</v>
       </c>
       <c r="F241">
-        <v>4992.944444623227</v>
+        <v>5035.111110727736</v>
       </c>
       <c r="G241">
-        <v>13717.66666688611</v>
+        <v>13921.83333083086</v>
       </c>
       <c r="H241">
-        <v>321099.2777555949</v>
+        <v>321591.6110907758</v>
       </c>
     </row>
     <row r="242">
@@ -6651,7 +6651,7 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>259.7929444483815</v>
+        <v>264.5278889105956</v>
       </c>
       <c r="C242">
         <v>23127.9</v>
@@ -6663,13 +6663,13 @@
         <v>-1</v>
       </c>
       <c r="F242">
-        <v>4992.944444463582</v>
+        <v>5035.111111288495</v>
       </c>
       <c r="G242">
-        <v>13717.66666675182</v>
+        <v>13921.83333418469</v>
       </c>
       <c r="H242">
-        <v>321099.2777759734</v>
+        <v>321591.6111102628</v>
       </c>
     </row>
     <row r="243">
@@ -6677,7 +6677,7 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>259.79294443623</v>
+        <v>264.5278888898699</v>
       </c>
       <c r="C243">
         <v>23226.1</v>
@@ -6689,13 +6689,13 @@
         <v>-1</v>
       </c>
       <c r="F243">
-        <v>4992.944444372092</v>
+        <v>5035.111111120648</v>
       </c>
       <c r="G243">
-        <v>13717.66666653675</v>
+        <v>13921.83333359991</v>
       </c>
       <c r="H243">
-        <v>321099.277786375</v>
+        <v>321591.611118455</v>
       </c>
     </row>
     <row r="244">
@@ -6703,7 +6703,7 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>259.7929444486084</v>
+        <v>264.5278888809993</v>
       </c>
       <c r="C244">
         <v>23324.6</v>
@@ -6715,13 +6715,13 @@
         <v>-1</v>
       </c>
       <c r="F244">
-        <v>4992.9444444863</v>
+        <v>5035.111111045626</v>
       </c>
       <c r="G244">
-        <v>13717.6666667249</v>
+        <v>13921.83333287182</v>
       </c>
       <c r="H244">
-        <v>321099.2777726477</v>
+        <v>321591.6111064979</v>
       </c>
     </row>
     <row r="245">
@@ -6729,7 +6729,7 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>259.7929444444066</v>
+        <v>264.5278888938216</v>
       </c>
       <c r="C245">
         <v>23423.4</v>
@@ -6741,13 +6741,13 @@
         <v>-1</v>
       </c>
       <c r="F245">
-        <v>4992.944444440658</v>
+        <v>5035.111111151589</v>
       </c>
       <c r="G245">
-        <v>13717.66666667116</v>
+        <v>13921.83333355214</v>
       </c>
       <c r="H245">
-        <v>321099.2777783321</v>
+        <v>321591.6111117385</v>
       </c>
     </row>
     <row r="246">
@@ -6755,7 +6755,7 @@
         <v>47938</v>
       </c>
       <c r="B246">
-        <v>259.7929444430816</v>
+        <v>264.5278888882303</v>
       </c>
       <c r="C246">
         <v>23522.6</v>
@@ -6767,13 +6767,13 @@
         <v>-1</v>
       </c>
       <c r="F246">
-        <v>4992.944444433017</v>
+        <v>5035.111111105955</v>
       </c>
       <c r="G246">
-        <v>13717.66666664427</v>
+        <v>13921.83333334129</v>
       </c>
       <c r="H246">
-        <v>321099.2777791183</v>
+        <v>321591.6111122305</v>
       </c>
     </row>
     <row r="247">
@@ -6781,7 +6781,7 @@
         <v>48029</v>
       </c>
       <c r="B247">
-        <v>259.7929444453656</v>
+        <v>264.5278888876837</v>
       </c>
       <c r="C247">
         <v>23622.1</v>
@@ -6793,13 +6793,13 @@
         <v>-1</v>
       </c>
       <c r="F247">
-        <v>4992.944444453325</v>
+        <v>5035.111111101057</v>
       </c>
       <c r="G247">
-        <v>13717.66666668011</v>
+        <v>13921.83333325509</v>
       </c>
       <c r="H247">
-        <v>321099.2777766993</v>
+        <v>321591.6111101557</v>
       </c>
     </row>
     <row r="248">
@@ -6807,7 +6807,7 @@
         <v>48121</v>
       </c>
       <c r="B248">
-        <v>259.7929444442846</v>
+        <v>264.5278888899119</v>
       </c>
       <c r="C248">
         <v>23721.7</v>
@@ -6819,13 +6819,13 @@
         <v>-1</v>
       </c>
       <c r="F248">
-        <v>4992.944444442333</v>
+        <v>5035.111111119533</v>
       </c>
       <c r="G248">
-        <v>13717.66666666518</v>
+        <v>13921.83333338284</v>
       </c>
       <c r="H248">
-        <v>321099.2777780499</v>
+        <v>321591.6111113749</v>
       </c>
     </row>
     <row r="249">
@@ -6833,7 +6833,7 @@
         <v>48213</v>
       </c>
       <c r="B249">
-        <v>259.7929444442439</v>
+        <v>264.5278888886086</v>
       </c>
       <c r="C249">
         <v>23821.3</v>
@@ -6845,13 +6845,13 @@
         <v>-1</v>
       </c>
       <c r="F249">
-        <v>4992.944444442892</v>
+        <v>5035.111111108849</v>
       </c>
       <c r="G249">
-        <v>13717.66666666319</v>
+        <v>13921.83333332641</v>
       </c>
       <c r="H249">
-        <v>321099.2777779558</v>
+        <v>321591.6111112537</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -5779,13 +5779,13 @@
         <v>-1</v>
       </c>
       <c r="F208">
-        <v>5062.666666666667</v>
+        <v>5069</v>
       </c>
       <c r="G208">
-        <v>14107</v>
+        <v>14088.33333333333</v>
       </c>
       <c r="H208">
-        <v>323230.5555555556</v>
+        <v>321326.3333333333</v>
       </c>
     </row>
     <row r="209">
@@ -5805,13 +5805,13 @@
         <v>-1</v>
       </c>
       <c r="F209">
-        <v>5020.777777777778</v>
+        <v>5022.888888888889</v>
       </c>
       <c r="G209">
-        <v>13849.22222222222</v>
+        <v>13843</v>
       </c>
       <c r="H209">
-        <v>321532.4074074074</v>
+        <v>320897.6666666666</v>
       </c>
     </row>
     <row r="210">
@@ -5831,13 +5831,13 @@
         <v>-1</v>
       </c>
       <c r="F210">
-        <v>5035.481481481482</v>
+        <v>5038.296296296297</v>
       </c>
       <c r="G210">
-        <v>13908.51851851852</v>
+        <v>13900.22222222222</v>
       </c>
       <c r="H210">
-        <v>321084.7654320988</v>
+        <v>320238.4444444444</v>
       </c>
     </row>
     <row r="211">
@@ -5857,13 +5857,13 @@
         <v>-1</v>
       </c>
       <c r="F211">
-        <v>5039.641975308642</v>
+        <v>5043.395061728395</v>
       </c>
       <c r="G211">
-        <v>13954.91358024691</v>
+        <v>13943.85185185185</v>
       </c>
       <c r="H211">
-        <v>321949.2427983539</v>
+        <v>320820.8148148148</v>
       </c>
     </row>
     <row r="212">
@@ -5883,13 +5883,13 @@
         <v>-1</v>
       </c>
       <c r="F212">
-        <v>5031.967078189301</v>
+        <v>5034.860082304527</v>
       </c>
       <c r="G212">
-        <v>13904.21810699588</v>
+        <v>13895.69135802469</v>
       </c>
       <c r="H212">
-        <v>321522.1385459534</v>
+        <v>320652.3086419753</v>
       </c>
     </row>
     <row r="213">
@@ -5909,13 +5909,13 @@
         <v>-1</v>
       </c>
       <c r="F213">
-        <v>5035.696844993142</v>
+        <v>5038.85048010974</v>
       </c>
       <c r="G213">
-        <v>13922.55006858711</v>
+        <v>13913.25514403292</v>
       </c>
       <c r="H213">
-        <v>321518.7155921353</v>
+        <v>320570.5226337448</v>
       </c>
     </row>
     <row r="214">
@@ -5935,13 +5935,13 @@
         <v>-1</v>
       </c>
       <c r="F214">
-        <v>5035.768632830362</v>
+        <v>5039.035208047554</v>
       </c>
       <c r="G214">
-        <v>13927.2272519433</v>
+        <v>13917.59945130316</v>
       </c>
       <c r="H214">
-        <v>321663.3656454809</v>
+        <v>320681.2153635116</v>
       </c>
     </row>
     <row r="215">
@@ -5961,13 +5961,13 @@
         <v>-1</v>
       </c>
       <c r="F215">
-        <v>5034.477518670935</v>
+        <v>5037.581923487273</v>
       </c>
       <c r="G215">
-        <v>13917.9984758421</v>
+        <v>13908.84865112026</v>
       </c>
       <c r="H215">
-        <v>321568.0732611899</v>
+        <v>320634.6822130773</v>
       </c>
     </row>
     <row r="216">
@@ -5987,13 +5987,13 @@
         <v>-1</v>
       </c>
       <c r="F216">
-        <v>5035.314332164813</v>
+        <v>5038.489203881522</v>
       </c>
       <c r="G216">
-        <v>13922.59193212417</v>
+        <v>13913.23441548544</v>
       </c>
       <c r="H216">
-        <v>321583.3848329354</v>
+        <v>320628.8067367779</v>
       </c>
     </row>
     <row r="217">
@@ -6013,13 +6013,13 @@
         <v>-1</v>
       </c>
       <c r="F217">
-        <v>5035.186827888703</v>
+        <v>5038.368778472117</v>
       </c>
       <c r="G217">
-        <v>13922.60588663652</v>
+        <v>13913.22750596962</v>
       </c>
       <c r="H217">
-        <v>321604.9412465353</v>
+        <v>320648.2347711223</v>
       </c>
     </row>
     <row r="218">
@@ -6039,13 +6039,13 @@
         <v>-1</v>
       </c>
       <c r="F218">
-        <v>5034.992892908151</v>
+        <v>5038.146635280305</v>
       </c>
       <c r="G218">
-        <v>13921.06543153426</v>
+        <v>13911.77019085844</v>
       </c>
       <c r="H218">
-        <v>321585.4664468868</v>
+        <v>320637.2412403258</v>
       </c>
     </row>
     <row r="219">
@@ -6065,13 +6065,13 @@
         <v>-1</v>
       </c>
       <c r="F219">
-        <v>5035.164684320555</v>
+        <v>5038.334872544648</v>
       </c>
       <c r="G219">
-        <v>13922.08775009832</v>
+        <v>13912.74403743783</v>
       </c>
       <c r="H219">
-        <v>321591.2641754525</v>
+        <v>320638.0942494086</v>
       </c>
     </row>
     <row r="220">
@@ -6091,13 +6091,13 @@
         <v>-1</v>
       </c>
       <c r="F220">
-        <v>5035.114801705803</v>
+        <v>5038.28342876569</v>
       </c>
       <c r="G220">
-        <v>13921.91968942303</v>
+        <v>13912.58057808863</v>
       </c>
       <c r="H220">
-        <v>321593.8906229583</v>
+        <v>320641.1900869522</v>
       </c>
     </row>
     <row r="221">
@@ -6117,13 +6117,13 @@
         <v>-1</v>
       </c>
       <c r="F221">
-        <v>5035.09079297817</v>
+        <v>5038.254978863547</v>
       </c>
       <c r="G221">
-        <v>13921.69095701854</v>
+        <v>13912.36493546163</v>
       </c>
       <c r="H221">
-        <v>321590.2070817659</v>
+        <v>320638.8418588956</v>
       </c>
     </row>
     <row r="222">
@@ -6143,13 +6143,13 @@
         <v>-1</v>
       </c>
       <c r="F222">
-        <v>5035.123426334842</v>
+        <v>5038.291093391295</v>
       </c>
       <c r="G222">
-        <v>13921.8994655133</v>
+        <v>13912.5631836627</v>
       </c>
       <c r="H222">
-        <v>321591.7872933922</v>
+        <v>320639.3753984188</v>
       </c>
     </row>
     <row r="223">
@@ -6169,13 +6169,13 @@
         <v>-1</v>
       </c>
       <c r="F223">
-        <v>5035.109673672939</v>
+        <v>5038.276500340177</v>
       </c>
       <c r="G223">
-        <v>13921.83670398496</v>
+        <v>13912.50289907099</v>
       </c>
       <c r="H223">
-        <v>321591.9616660388</v>
+        <v>320639.8024480889</v>
       </c>
     </row>
     <row r="224">
@@ -6195,13 +6195,13 @@
         <v>-1</v>
       </c>
       <c r="F224">
-        <v>5035.10796432865</v>
+        <v>5038.274190865006</v>
       </c>
       <c r="G224">
-        <v>13921.80904217226</v>
+        <v>13912.47700606511</v>
       </c>
       <c r="H224">
-        <v>321591.318680399</v>
+        <v>320639.3399018011</v>
       </c>
     </row>
     <row r="225">
@@ -6221,13 +6221,13 @@
         <v>-1</v>
       </c>
       <c r="F225">
-        <v>5035.113688112144</v>
+        <v>5038.280594865492</v>
       </c>
       <c r="G225">
-        <v>13921.84840389017</v>
+        <v>13912.51436293293</v>
       </c>
       <c r="H225">
-        <v>321591.6892132767</v>
+        <v>320639.5059161029</v>
       </c>
     </row>
     <row r="226">
@@ -6247,13 +6247,13 @@
         <v>-1</v>
       </c>
       <c r="F226">
-        <v>5035.110442037911</v>
+        <v>5038.277095356892</v>
       </c>
       <c r="G226">
-        <v>13921.83138334913</v>
+        <v>13912.49808935634</v>
       </c>
       <c r="H226">
-        <v>321591.6565199048</v>
+        <v>320639.5494219976</v>
       </c>
     </row>
     <row r="227">
@@ -6273,13 +6273,13 @@
         <v>-1</v>
       </c>
       <c r="F227">
-        <v>5035.110698159569</v>
+        <v>5038.277293695796</v>
       </c>
       <c r="G227">
-        <v>13921.82960980386</v>
+        <v>13912.49648611813</v>
       </c>
       <c r="H227">
-        <v>321591.5548045268</v>
+        <v>320639.4650799672</v>
       </c>
     </row>
     <row r="228">
@@ -6299,13 +6299,13 @@
         <v>-1</v>
       </c>
       <c r="F228">
-        <v>5035.111609436541</v>
+        <v>5038.278327972726</v>
       </c>
       <c r="G228">
-        <v>13921.83646568105</v>
+        <v>13912.50297946913</v>
       </c>
       <c r="H228">
-        <v>321591.6335125694</v>
+        <v>320639.5068060226</v>
       </c>
     </row>
     <row r="229">
@@ -6325,13 +6325,13 @@
         <v>-1</v>
       </c>
       <c r="F229">
-        <v>5035.110916544673</v>
+        <v>5038.277572341804</v>
       </c>
       <c r="G229">
-        <v>13921.83248627801</v>
+        <v>13912.4991849812</v>
       </c>
       <c r="H229">
-        <v>321591.614945667</v>
+        <v>320639.5071026625</v>
       </c>
     </row>
     <row r="230">
@@ -6351,13 +6351,13 @@
         <v>-1</v>
       </c>
       <c r="F230">
-        <v>5035.111074713595</v>
+        <v>5038.277731336776</v>
       </c>
       <c r="G230">
-        <v>13921.83285392097</v>
+        <v>13912.49955018949</v>
       </c>
       <c r="H230">
-        <v>321591.6010875877</v>
+        <v>320639.4929962175</v>
       </c>
     </row>
     <row r="231">
@@ -6377,13 +6377,13 @@
         <v>-1</v>
       </c>
       <c r="F231">
-        <v>5035.111200231603</v>
+        <v>5038.277877217102</v>
       </c>
       <c r="G231">
-        <v>13921.83393529335</v>
+        <v>13912.50057154661</v>
       </c>
       <c r="H231">
-        <v>321591.6165152747</v>
+        <v>320639.5023016342</v>
       </c>
     </row>
     <row r="232">
@@ -6403,13 +6403,13 @@
         <v>-1</v>
       </c>
       <c r="F232">
-        <v>5035.111063829957</v>
+        <v>5038.277726965228</v>
       </c>
       <c r="G232">
-        <v>13921.83309183078</v>
+        <v>13912.49976890576</v>
       </c>
       <c r="H232">
-        <v>321591.6108495098</v>
+        <v>320639.5008001713</v>
       </c>
     </row>
     <row r="233">
@@ -6429,13 +6429,13 @@
         <v>-1</v>
       </c>
       <c r="F233">
-        <v>5035.111112925051</v>
+        <v>5038.277778506369</v>
       </c>
       <c r="G233">
-        <v>13921.8332936817</v>
+        <v>13912.49996354729</v>
       </c>
       <c r="H233">
-        <v>321591.6094841241</v>
+        <v>320639.498699341</v>
       </c>
     </row>
     <row r="234">
@@ -6455,13 +6455,13 @@
         <v>-1</v>
       </c>
       <c r="F234">
-        <v>5035.111125662203</v>
+        <v>5038.277794229566</v>
       </c>
       <c r="G234">
-        <v>13921.83344026861</v>
+        <v>13912.50010133322</v>
       </c>
       <c r="H234">
-        <v>321591.6122829695</v>
+        <v>320639.5006003822</v>
       </c>
     </row>
     <row r="235">
@@ -6481,13 +6481,13 @@
         <v>-1</v>
       </c>
       <c r="F235">
-        <v>5035.111100805737</v>
+        <v>5038.277766567055</v>
       </c>
       <c r="G235">
-        <v>13921.83327526036</v>
+        <v>13912.49994459542</v>
       </c>
       <c r="H235">
-        <v>321591.6108722011</v>
+        <v>320639.5000332982</v>
       </c>
     </row>
     <row r="236">
@@ -6507,13 +6507,13 @@
         <v>-1</v>
       </c>
       <c r="F236">
-        <v>5035.111113130997</v>
+        <v>5038.277779767664</v>
       </c>
       <c r="G236">
-        <v>13921.83333640356</v>
+        <v>13912.50000315864</v>
       </c>
       <c r="H236">
-        <v>321591.6108797649</v>
+        <v>320639.4997776737</v>
       </c>
     </row>
     <row r="237">
@@ -6533,13 +6533,13 @@
         <v>-1</v>
       </c>
       <c r="F237">
-        <v>5035.111113199646</v>
+        <v>5038.277780188095</v>
       </c>
       <c r="G237">
-        <v>13921.83335064417</v>
+        <v>13912.50001636243</v>
       </c>
       <c r="H237">
-        <v>321591.6113449785</v>
+        <v>320639.500137118</v>
       </c>
     </row>
     <row r="238">
@@ -6559,13 +6559,13 @@
         <v>-1</v>
       </c>
       <c r="F238">
-        <v>5035.11110904546</v>
+        <v>5038.277775507604</v>
       </c>
       <c r="G238">
-        <v>13921.83332076936</v>
+        <v>13912.49998803883</v>
       </c>
       <c r="H238">
-        <v>321591.6110323148</v>
+        <v>320639.4999826967</v>
       </c>
     </row>
     <row r="239">
@@ -6585,13 +6585,13 @@
         <v>-1</v>
       </c>
       <c r="F239">
-        <v>5035.111111792035</v>
+        <v>5038.277778487787</v>
       </c>
       <c r="G239">
-        <v>13921.83333593903</v>
+        <v>13912.50000251997</v>
       </c>
       <c r="H239">
-        <v>321591.6110856861</v>
+        <v>320639.4999658295</v>
       </c>
     </row>
     <row r="240">
@@ -6611,13 +6611,13 @@
         <v>-1</v>
       </c>
       <c r="F240">
-        <v>5035.111111345714</v>
+        <v>5038.277778061162</v>
       </c>
       <c r="G240">
-        <v>13921.83333578419</v>
+        <v>13912.50000230708</v>
       </c>
       <c r="H240">
-        <v>321591.6111543265</v>
+        <v>320639.5000285481</v>
       </c>
     </row>
     <row r="241">
@@ -6637,13 +6637,13 @@
         <v>-1</v>
       </c>
       <c r="F241">
-        <v>5035.111110727736</v>
+        <v>5038.277777352185</v>
       </c>
       <c r="G241">
-        <v>13921.83333083086</v>
+        <v>13912.49999762196</v>
       </c>
       <c r="H241">
-        <v>321591.6110907758</v>
+        <v>320639.4999923581</v>
       </c>
     </row>
     <row r="242">
@@ -6663,13 +6663,13 @@
         <v>-1</v>
       </c>
       <c r="F242">
-        <v>5035.111111288495</v>
+        <v>5038.277777967045</v>
       </c>
       <c r="G242">
-        <v>13921.83333418469</v>
+        <v>13912.50000081633</v>
       </c>
       <c r="H242">
-        <v>321591.6111102628</v>
+        <v>320639.4999955786</v>
       </c>
     </row>
     <row r="243">
@@ -6689,13 +6689,13 @@
         <v>-1</v>
       </c>
       <c r="F243">
-        <v>5035.111111120648</v>
+        <v>5038.277777793464</v>
       </c>
       <c r="G243">
-        <v>13921.83333359991</v>
+        <v>13912.50000024846</v>
       </c>
       <c r="H243">
-        <v>321591.611118455</v>
+        <v>320639.5000054949</v>
       </c>
     </row>
     <row r="244">
@@ -6715,13 +6715,13 @@
         <v>-1</v>
       </c>
       <c r="F244">
-        <v>5035.111111045626</v>
+        <v>5038.277777704231</v>
       </c>
       <c r="G244">
-        <v>13921.83333287182</v>
+        <v>13912.49999956225</v>
       </c>
       <c r="H244">
-        <v>321591.6111064979</v>
+        <v>320639.4999978105</v>
       </c>
     </row>
     <row r="245">
@@ -6741,13 +6741,13 @@
         <v>-1</v>
       </c>
       <c r="F245">
-        <v>5035.111111151589</v>
+        <v>5038.277777821581</v>
       </c>
       <c r="G245">
-        <v>13921.83333355214</v>
+        <v>13912.50000020901</v>
       </c>
       <c r="H245">
-        <v>321591.6111117385</v>
+        <v>320639.499999628</v>
       </c>
     </row>
     <row r="246">
@@ -6767,13 +6767,13 @@
         <v>-1</v>
       </c>
       <c r="F246">
-        <v>5035.111111105955</v>
+        <v>5038.277777773092</v>
       </c>
       <c r="G246">
-        <v>13921.83333334129</v>
+        <v>13912.50000000657</v>
       </c>
       <c r="H246">
-        <v>321591.6111122305</v>
+        <v>320639.5000009778</v>
       </c>
     </row>
     <row r="247">
@@ -6793,13 +6793,13 @@
         <v>-1</v>
       </c>
       <c r="F247">
-        <v>5035.111111101057</v>
+        <v>5038.277777766301</v>
       </c>
       <c r="G247">
-        <v>13921.83333325509</v>
+        <v>13912.49999992595</v>
       </c>
       <c r="H247">
-        <v>321591.6111101557</v>
+        <v>320639.4999994721</v>
       </c>
     </row>
     <row r="248">
@@ -6819,13 +6819,13 @@
         <v>-1</v>
       </c>
       <c r="F248">
-        <v>5035.111111119533</v>
+        <v>5038.277777786992</v>
       </c>
       <c r="G248">
-        <v>13921.83333338284</v>
+        <v>13912.50000004718</v>
       </c>
       <c r="H248">
-        <v>321591.6111113749</v>
+        <v>320639.500000026</v>
       </c>
     </row>
     <row r="249">
@@ -6845,13 +6845,13 @@
         <v>-1</v>
       </c>
       <c r="F249">
-        <v>5035.111111108849</v>
+        <v>5038.277777775462</v>
       </c>
       <c r="G249">
-        <v>13921.83333332641</v>
+        <v>13912.49999999323</v>
       </c>
       <c r="H249">
-        <v>321591.6111112537</v>
+        <v>320639.5000001586</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -5779,13 +5779,13 @@
         <v>-1</v>
       </c>
       <c r="F208">
-        <v>5069</v>
+        <v>5072.666666666667</v>
       </c>
       <c r="G208">
         <v>14088.33333333333</v>
       </c>
       <c r="H208">
-        <v>321326.3333333333</v>
+        <v>321889.6666666667</v>
       </c>
     </row>
     <row r="209">
@@ -5793,7 +5793,7 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>262.7771111111111</v>
+        <v>273.7576666666666</v>
       </c>
       <c r="C209">
         <v>19898.3</v>
@@ -5805,13 +5805,13 @@
         <v>-1</v>
       </c>
       <c r="F209">
-        <v>5022.888888888889</v>
+        <v>5035.333333333333</v>
       </c>
       <c r="G209">
-        <v>13843</v>
+        <v>14007.66666666667</v>
       </c>
       <c r="H209">
-        <v>320897.6666666666</v>
+        <v>321085.4444444444</v>
       </c>
     </row>
     <row r="210">
@@ -5819,7 +5819,7 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>264.585925925926</v>
+        <v>268.2461111111111</v>
       </c>
       <c r="C210">
         <v>20003.7</v>
@@ -5831,13 +5831,13 @@
         <v>-1</v>
       </c>
       <c r="F210">
-        <v>5038.296296296297</v>
+        <v>5043.666666666667</v>
       </c>
       <c r="G210">
-        <v>13900.22222222222</v>
+        <v>13955.11111111111</v>
       </c>
       <c r="H210">
-        <v>320238.4444444444</v>
+        <v>320488.8148148148</v>
       </c>
     </row>
     <row r="211">
@@ -5845,7 +5845,7 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>265.0727901234568</v>
+        <v>269.9530370370371</v>
       </c>
       <c r="C211">
         <v>20109.9</v>
@@ -5857,13 +5857,13 @@
         <v>-1</v>
       </c>
       <c r="F211">
-        <v>5043.395061728395</v>
+        <v>5050.555555555556</v>
       </c>
       <c r="G211">
-        <v>13943.85185185185</v>
+        <v>14017.03703703704</v>
       </c>
       <c r="H211">
-        <v>320820.8148148148</v>
+        <v>321154.6419753087</v>
       </c>
     </row>
     <row r="212">
@@ -5871,7 +5871,7 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>264.1452757201647</v>
+        <v>270.6522716049383</v>
       </c>
       <c r="C212">
         <v>20216.1</v>
@@ -5883,13 +5883,13 @@
         <v>-1</v>
       </c>
       <c r="F212">
-        <v>5034.860082304527</v>
+        <v>5043.185185185185</v>
       </c>
       <c r="G212">
-        <v>13895.69135802469</v>
+        <v>13993.27160493827</v>
       </c>
       <c r="H212">
-        <v>320652.3086419753</v>
+        <v>320909.633744856</v>
       </c>
     </row>
     <row r="213">
@@ -5897,7 +5897,7 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>264.6013305898491</v>
+        <v>269.6171399176955</v>
       </c>
       <c r="C213">
         <v>20321.5</v>
@@ -5909,13 +5909,13 @@
         <v>-1</v>
       </c>
       <c r="F213">
-        <v>5038.85048010974</v>
+        <v>5045.802469135802</v>
       </c>
       <c r="G213">
-        <v>13913.25514403292</v>
+        <v>13988.47325102881</v>
       </c>
       <c r="H213">
-        <v>320570.5226337448</v>
+        <v>320851.0301783265</v>
       </c>
     </row>
     <row r="214">
@@ -5923,7 +5923,7 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>264.6064654778235</v>
+        <v>270.0741495198903</v>
       </c>
       <c r="C214">
         <v>20425.7</v>
@@ -5935,13 +5935,13 @@
         <v>-1</v>
       </c>
       <c r="F214">
-        <v>5039.035208047554</v>
+        <v>5046.514403292181</v>
       </c>
       <c r="G214">
-        <v>13917.59945130316</v>
+        <v>13999.59396433471</v>
       </c>
       <c r="H214">
-        <v>320681.2153635116</v>
+        <v>320971.7686328304</v>
       </c>
     </row>
     <row r="215">
@@ -5949,7 +5949,7 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>264.4510239292791</v>
+        <v>270.114520347508</v>
       </c>
       <c r="C215">
         <v>20529.6</v>
@@ -5961,13 +5961,13 @@
         <v>-1</v>
       </c>
       <c r="F215">
-        <v>5037.581923487273</v>
+        <v>5045.167352537723</v>
       </c>
       <c r="G215">
-        <v>13908.84865112026</v>
+        <v>13993.77960676726</v>
       </c>
       <c r="H215">
-        <v>320634.6822130773</v>
+        <v>320910.8108520043</v>
       </c>
     </row>
     <row r="216">
@@ -5975,7 +5975,7 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>264.5529399989839</v>
+        <v>269.9352699283646</v>
       </c>
       <c r="C216">
         <v>20633.3</v>
@@ -5987,13 +5987,13 @@
         <v>-1</v>
       </c>
       <c r="F216">
-        <v>5038.489203881522</v>
+        <v>5045.828074988569</v>
       </c>
       <c r="G216">
-        <v>13913.23441548544</v>
+        <v>13993.94894071026</v>
       </c>
       <c r="H216">
-        <v>320628.8067367779</v>
+        <v>320911.2032210537</v>
       </c>
     </row>
     <row r="217">
@@ -6001,7 +6001,7 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>264.5368098020288</v>
+        <v>270.0413132652543</v>
       </c>
       <c r="C217">
         <v>20736.1</v>
@@ -6013,13 +6013,13 @@
         <v>-1</v>
       </c>
       <c r="F217">
-        <v>5038.368778472117</v>
+        <v>5045.836610272824</v>
       </c>
       <c r="G217">
-        <v>13913.22750596962</v>
+        <v>13995.77417060407</v>
       </c>
       <c r="H217">
-        <v>320648.2347711223</v>
+        <v>320931.2609019628</v>
       </c>
     </row>
     <row r="218">
@@ -6027,7 +6027,7 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>264.5135912434306</v>
+        <v>270.0303678470423</v>
       </c>
       <c r="C218">
         <v>20837.6</v>
@@ -6039,13 +6039,13 @@
         <v>-1</v>
       </c>
       <c r="F218">
-        <v>5038.146635280305</v>
+        <v>5045.610679266372</v>
       </c>
       <c r="G218">
-        <v>13911.77019085844</v>
+        <v>13994.5009060272</v>
       </c>
       <c r="H218">
-        <v>320637.2412403258</v>
+        <v>320917.7583250069</v>
       </c>
     </row>
     <row r="219">
@@ -6053,7 +6053,7 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>264.5344470148144</v>
+        <v>270.0023170135538</v>
       </c>
       <c r="C219">
         <v>20937.8</v>
@@ -6065,13 +6065,13 @@
         <v>-1</v>
       </c>
       <c r="F219">
-        <v>5038.334872544648</v>
+        <v>5045.758454842588</v>
       </c>
       <c r="G219">
-        <v>13912.74403743783</v>
+        <v>13994.74133911384</v>
       </c>
       <c r="H219">
-        <v>320638.0942494086</v>
+        <v>320920.0741493412</v>
       </c>
     </row>
     <row r="220">
@@ -6079,7 +6079,7 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>264.528282686758</v>
+        <v>270.0246660419501</v>
       </c>
       <c r="C220">
         <v>21037.3</v>
@@ -6091,13 +6091,13 @@
         <v>-1</v>
       </c>
       <c r="F220">
-        <v>5038.28342876569</v>
+        <v>5045.735248127262</v>
       </c>
       <c r="G220">
-        <v>13912.58057808863</v>
+        <v>13995.00547191504</v>
       </c>
       <c r="H220">
-        <v>320641.1900869522</v>
+        <v>320923.0311254369</v>
       </c>
     </row>
     <row r="221">
@@ -6105,7 +6105,7 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>264.525440315001</v>
+        <v>270.0191169675154</v>
       </c>
       <c r="C221">
         <v>21135.8</v>
@@ -6117,13 +6117,13 @@
         <v>-1</v>
       </c>
       <c r="F221">
-        <v>5038.254978863547</v>
+        <v>5045.701460745408</v>
       </c>
       <c r="G221">
-        <v>13912.36493546163</v>
+        <v>13994.74923901869</v>
       </c>
       <c r="H221">
-        <v>320638.8418588956</v>
+        <v>320920.287866595</v>
       </c>
     </row>
     <row r="222">
@@ -6131,7 +6131,7 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>264.5293900055245</v>
+        <v>270.0153666743398</v>
       </c>
       <c r="C222">
         <v>21233</v>
@@ -6143,13 +6143,13 @@
         <v>-1</v>
       </c>
       <c r="F222">
-        <v>5038.291093391295</v>
+        <v>5045.73172123842</v>
       </c>
       <c r="G222">
-        <v>13912.5631836627</v>
+        <v>13994.83201668253</v>
       </c>
       <c r="H222">
-        <v>320639.3753984188</v>
+        <v>320921.1310471244</v>
       </c>
     </row>
     <row r="223">
@@ -6157,7 +6157,7 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>264.5277043357611</v>
+        <v>270.0197165612684</v>
       </c>
       <c r="C223">
         <v>21328.7</v>
@@ -6169,13 +6169,13 @@
         <v>-1</v>
       </c>
       <c r="F223">
-        <v>5038.276500340177</v>
+        <v>5045.722810037029</v>
       </c>
       <c r="G223">
-        <v>13912.50289907099</v>
+        <v>13994.86224253875</v>
       </c>
       <c r="H223">
-        <v>320639.8024480889</v>
+        <v>320921.4833463855</v>
       </c>
     </row>
     <row r="224">
@@ -6183,7 +6183,7 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>264.5275115520955</v>
+        <v>270.0180667343745</v>
       </c>
       <c r="C224">
         <v>21423.4</v>
@@ -6195,13 +6195,13 @@
         <v>-1</v>
       </c>
       <c r="F224">
-        <v>5038.274190865006</v>
+        <v>5045.718664006952</v>
       </c>
       <c r="G224">
-        <v>13912.47700606511</v>
+        <v>13994.81449941332</v>
       </c>
       <c r="H224">
-        <v>320639.3399018011</v>
+        <v>320920.967420035</v>
       </c>
     </row>
     <row r="225">
@@ -6209,7 +6209,7 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>264.5282019644604</v>
+        <v>270.0177166566609</v>
       </c>
       <c r="C225">
         <v>21517.1</v>
@@ -6221,13 +6221,13 @@
         <v>-1</v>
       </c>
       <c r="F225">
-        <v>5038.280594865492</v>
+        <v>5045.724398427467</v>
       </c>
       <c r="G225">
-        <v>13912.51436293293</v>
+        <v>13994.8362528782</v>
       </c>
       <c r="H225">
-        <v>320639.5059161029</v>
+        <v>320921.1939378483</v>
       </c>
     </row>
     <row r="226">
@@ -6235,7 +6235,7 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>264.5278059507724</v>
+        <v>270.0184999841013</v>
       </c>
       <c r="C226">
         <v>21609.7</v>
@@ -6247,13 +6247,13 @@
         <v>-1</v>
       </c>
       <c r="F226">
-        <v>5038.277095356892</v>
+        <v>5045.721957490483</v>
       </c>
       <c r="G226">
-        <v>13912.49808935634</v>
+        <v>13994.83766494343</v>
       </c>
       <c r="H226">
-        <v>320639.5494219976</v>
+        <v>320921.2149014229</v>
       </c>
     </row>
     <row r="227">
@@ -6261,7 +6261,7 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>264.5278398224427</v>
+        <v>270.0180944583789</v>
       </c>
       <c r="C227">
         <v>21701.4</v>
@@ -6273,13 +6273,13 @@
         <v>-1</v>
       </c>
       <c r="F227">
-        <v>5038.277293695796</v>
+        <v>5045.721673308301</v>
       </c>
       <c r="G227">
-        <v>13912.49648611813</v>
+        <v>13994.82947241165</v>
       </c>
       <c r="H227">
-        <v>320639.4650799672</v>
+        <v>320921.1254197687</v>
       </c>
     </row>
     <row r="228">
@@ -6287,7 +6287,7 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>264.5279492458918</v>
+        <v>270.0181036997137</v>
       </c>
       <c r="C228">
         <v>21793.1</v>
@@ -6299,13 +6299,13 @@
         <v>-1</v>
       </c>
       <c r="F228">
-        <v>5038.278327972726</v>
+        <v>5045.72267640875</v>
       </c>
       <c r="G228">
-        <v>13912.50297946913</v>
+        <v>13994.83446341109</v>
       </c>
       <c r="H228">
-        <v>320639.5068060226</v>
+        <v>320921.1780863467</v>
       </c>
     </row>
     <row r="229">
@@ -6313,7 +6313,7 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>264.527865006369</v>
+        <v>270.0182327140647</v>
       </c>
       <c r="C229">
         <v>21885.1</v>
@@ -6325,13 +6325,13 @@
         <v>-1</v>
       </c>
       <c r="F229">
-        <v>5038.277572341804</v>
+        <v>5045.722102402511</v>
       </c>
       <c r="G229">
-        <v>13912.4991849812</v>
+        <v>13994.83386692206</v>
       </c>
       <c r="H229">
-        <v>320639.5071026625</v>
+        <v>320921.1728025128</v>
       </c>
     </row>
     <row r="230">
@@ -6339,7 +6339,7 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>264.5278846915679</v>
+        <v>270.0181436240524</v>
       </c>
       <c r="C230">
         <v>21977.8</v>
@@ -6351,13 +6351,13 @@
         <v>-1</v>
       </c>
       <c r="F230">
-        <v>5038.277731336776</v>
+        <v>5045.722150706521</v>
       </c>
       <c r="G230">
-        <v>13912.49955018949</v>
+        <v>13994.83260091493</v>
       </c>
       <c r="H230">
-        <v>320639.4929962175</v>
+        <v>320921.1587695427</v>
       </c>
     </row>
     <row r="231">
@@ -6365,7 +6365,7 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>264.5278996479429</v>
+        <v>270.0181600126103</v>
       </c>
       <c r="C231">
         <v>22070.9</v>
@@ -6377,13 +6377,13 @@
         <v>-1</v>
       </c>
       <c r="F231">
-        <v>5038.277877217102</v>
+        <v>5045.722309839261</v>
       </c>
       <c r="G231">
-        <v>13912.50057154661</v>
+        <v>13994.83364374936</v>
       </c>
       <c r="H231">
-        <v>320639.5023016342</v>
+        <v>320921.169886134</v>
       </c>
     </row>
     <row r="232">
@@ -6391,7 +6391,7 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>264.5278831152933</v>
+        <v>270.0181787835758</v>
       </c>
       <c r="C232">
         <v>22164.3</v>
@@ -6403,13 +6403,13 @@
         <v>-1</v>
       </c>
       <c r="F232">
-        <v>5038.277726965228</v>
+        <v>5045.722187649431</v>
       </c>
       <c r="G232">
-        <v>13912.49976890576</v>
+        <v>13994.83337052878</v>
       </c>
       <c r="H232">
-        <v>320639.5008001713</v>
+        <v>320921.1671527298</v>
       </c>
     </row>
     <row r="233">
@@ -6417,7 +6417,7 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>264.5278891516014</v>
+        <v>270.0181608067462</v>
       </c>
       <c r="C233">
         <v>22257.7</v>
@@ -6429,13 +6429,13 @@
         <v>-1</v>
       </c>
       <c r="F233">
-        <v>5038.277778506369</v>
+        <v>5045.722216065071</v>
       </c>
       <c r="G233">
-        <v>13912.49996354729</v>
+        <v>13994.83320506436</v>
       </c>
       <c r="H233">
-        <v>320639.498699341</v>
+        <v>320921.1652694689</v>
       </c>
     </row>
     <row r="234">
@@ -6443,7 +6443,7 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>264.5278906382792</v>
+        <v>270.0181665343108</v>
       </c>
       <c r="C234">
         <v>22351.6</v>
@@ -6455,13 +6455,13 @@
         <v>-1</v>
       </c>
       <c r="F234">
-        <v>5038.277794229566</v>
+        <v>5045.722237851254</v>
       </c>
       <c r="G234">
-        <v>13912.50010133322</v>
+        <v>13994.8334064475</v>
       </c>
       <c r="H234">
-        <v>320639.5006003822</v>
+        <v>320921.1674361109</v>
       </c>
     </row>
     <row r="235">
@@ -6469,7 +6469,7 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>264.5278876350579</v>
+        <v>270.0181687082109</v>
       </c>
       <c r="C235">
         <v>22446.5</v>
@@ -6481,13 +6481,13 @@
         <v>-1</v>
       </c>
       <c r="F235">
-        <v>5038.277766567055</v>
+        <v>5045.722213855252</v>
       </c>
       <c r="G235">
-        <v>13912.49994459542</v>
+        <v>13994.83332734688</v>
       </c>
       <c r="H235">
-        <v>320639.5000332982</v>
+        <v>320921.1666194365</v>
       </c>
     </row>
     <row r="236">
@@ -6495,7 +6495,7 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>264.5278891416461</v>
+        <v>270.0181653497559</v>
       </c>
       <c r="C236">
         <v>22542.3</v>
@@ -6507,13 +6507,13 @@
         <v>-1</v>
       </c>
       <c r="F236">
-        <v>5038.277779767664</v>
+        <v>5045.722222590525</v>
       </c>
       <c r="G236">
-        <v>13912.50000315864</v>
+        <v>13994.83331295291</v>
       </c>
       <c r="H236">
-        <v>320639.4997776737</v>
+        <v>320921.1664416721</v>
       </c>
     </row>
     <row r="237">
@@ -6521,7 +6521,7 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>264.5278891383277</v>
+        <v>270.0181668640925</v>
       </c>
       <c r="C237">
         <v>22638.9</v>
@@ -6533,13 +6533,13 @@
         <v>-1</v>
       </c>
       <c r="F237">
-        <v>5038.277780188095</v>
+        <v>5045.722224765677</v>
       </c>
       <c r="G237">
-        <v>13912.50001636243</v>
+        <v>13994.83334891577</v>
       </c>
       <c r="H237">
-        <v>320639.500137118</v>
+        <v>320921.1668324065</v>
       </c>
     </row>
     <row r="238">
@@ -6547,7 +6547,7 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>264.5278886383439</v>
+        <v>270.0181669740198</v>
       </c>
       <c r="C238">
         <v>22736.3</v>
@@ -6559,13 +6559,13 @@
         <v>-1</v>
       </c>
       <c r="F238">
-        <v>5038.277775507604</v>
+        <v>5045.722220403818</v>
       </c>
       <c r="G238">
-        <v>13912.49998803883</v>
+        <v>13994.83332973852</v>
       </c>
       <c r="H238">
-        <v>320639.4999826967</v>
+        <v>320921.1666311717</v>
       </c>
     </row>
     <row r="239">
@@ -6573,7 +6573,7 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>264.5278889727726</v>
+        <v>270.0181663959561</v>
       </c>
       <c r="C239">
         <v>22834.2</v>
@@ -6585,13 +6585,13 @@
         <v>-1</v>
       </c>
       <c r="F239">
-        <v>5038.277778487787</v>
+        <v>5045.722222586674</v>
       </c>
       <c r="G239">
-        <v>13912.50000251997</v>
+        <v>13994.83333053573</v>
       </c>
       <c r="H239">
-        <v>320639.4999658295</v>
+        <v>320921.1666350834</v>
       </c>
     </row>
     <row r="240">
@@ -6599,7 +6599,7 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>264.5278889164814</v>
+        <v>270.0181667446894</v>
       </c>
       <c r="C240">
         <v>22932.1</v>
@@ -6611,13 +6611,13 @@
         <v>-1</v>
       </c>
       <c r="F240">
-        <v>5038.277778061162</v>
+        <v>5045.722222585389</v>
       </c>
       <c r="G240">
-        <v>13912.50000230708</v>
+        <v>13994.83333639667</v>
       </c>
       <c r="H240">
-        <v>320639.5000285481</v>
+        <v>320921.1666995539</v>
       </c>
     </row>
     <row r="241">
@@ -6625,7 +6625,7 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>264.5278888425327</v>
+        <v>270.0181667048884</v>
       </c>
       <c r="C241">
         <v>23029.9</v>
@@ -6637,13 +6637,13 @@
         <v>-1</v>
       </c>
       <c r="F241">
-        <v>5038.277777352185</v>
+        <v>5045.722221858627</v>
       </c>
       <c r="G241">
-        <v>13912.49999762196</v>
+        <v>13994.83333222364</v>
       </c>
       <c r="H241">
-        <v>320639.4999923581</v>
+        <v>320921.1666552697</v>
       </c>
     </row>
     <row r="242">
@@ -6651,7 +6651,7 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>264.5278889105956</v>
+        <v>270.018166615178</v>
       </c>
       <c r="C242">
         <v>23127.9</v>
@@ -6663,13 +6663,13 @@
         <v>-1</v>
       </c>
       <c r="F242">
-        <v>5038.277777967045</v>
+        <v>5045.722222343563</v>
       </c>
       <c r="G242">
-        <v>13912.50000081633</v>
+        <v>13994.83333305201</v>
       </c>
       <c r="H242">
-        <v>320639.4999955786</v>
+        <v>320921.1666633023</v>
       </c>
     </row>
     <row r="243">
@@ -6677,7 +6677,7 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>264.5278888898699</v>
+        <v>270.0181666882519</v>
       </c>
       <c r="C243">
         <v>23226.1</v>
@@ -6689,13 +6689,13 @@
         <v>-1</v>
       </c>
       <c r="F243">
-        <v>5038.277777793464</v>
+        <v>5045.722222262526</v>
       </c>
       <c r="G243">
-        <v>13912.50000024846</v>
+        <v>13994.83333389078</v>
       </c>
       <c r="H243">
-        <v>320639.5000054949</v>
+        <v>320921.1666727086</v>
       </c>
     </row>
     <row r="244">
@@ -6703,7 +6703,7 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>264.5278888809993</v>
+        <v>270.0181666694394</v>
       </c>
       <c r="C244">
         <v>23324.6</v>
@@ -6715,13 +6715,13 @@
         <v>-1</v>
       </c>
       <c r="F244">
-        <v>5038.277777704231</v>
+        <v>5045.722222154906</v>
       </c>
       <c r="G244">
-        <v>13912.49999956225</v>
+        <v>13994.83333305548</v>
       </c>
       <c r="H244">
-        <v>320639.4999978105</v>
+        <v>320921.1666637602</v>
       </c>
     </row>
     <row r="245">
@@ -6729,7 +6729,7 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>264.5278888938216</v>
+        <v>270.0181666576231</v>
       </c>
       <c r="C245">
         <v>23423.4</v>
@@ -6741,13 +6741,13 @@
         <v>-1</v>
       </c>
       <c r="F245">
-        <v>5038.277777821581</v>
+        <v>5045.722222253665</v>
       </c>
       <c r="G245">
-        <v>13912.50000020901</v>
+        <v>13994.83333333276</v>
       </c>
       <c r="H245">
-        <v>320639.499999628</v>
+        <v>320921.1666665904</v>
       </c>
     </row>
     <row r="246">
@@ -6755,7 +6755,7 @@
         <v>47938</v>
       </c>
       <c r="B246">
-        <v>264.5278888882303</v>
+        <v>270.0181666717715</v>
       </c>
       <c r="C246">
         <v>23522.6</v>
@@ -6767,13 +6767,13 @@
         <v>-1</v>
       </c>
       <c r="F246">
-        <v>5038.277777773092</v>
+        <v>5045.722222223699</v>
       </c>
       <c r="G246">
-        <v>13912.50000000657</v>
+        <v>13994.83333342634</v>
       </c>
       <c r="H246">
-        <v>320639.5000009778</v>
+        <v>320921.1666676864</v>
       </c>
     </row>
     <row r="247">
@@ -6781,7 +6781,7 @@
         <v>48029</v>
       </c>
       <c r="B247">
-        <v>264.5278888876837</v>
+        <v>270.018166666278</v>
       </c>
       <c r="C247">
         <v>23622.1</v>
@@ -6793,13 +6793,13 @@
         <v>-1</v>
       </c>
       <c r="F247">
-        <v>5038.277777766301</v>
+        <v>5045.722222210757</v>
       </c>
       <c r="G247">
-        <v>13912.49999992595</v>
+        <v>13994.83333327152</v>
       </c>
       <c r="H247">
-        <v>320639.4999994721</v>
+        <v>320921.1666660123</v>
       </c>
     </row>
     <row r="248">
@@ -6807,7 +6807,7 @@
         <v>48121</v>
       </c>
       <c r="B248">
-        <v>264.5278888899119</v>
+        <v>270.0181666652242</v>
       </c>
       <c r="C248">
         <v>23721.7</v>
@@ -6819,13 +6819,13 @@
         <v>-1</v>
       </c>
       <c r="F248">
-        <v>5038.277777786992</v>
+        <v>5045.722222229373</v>
       </c>
       <c r="G248">
-        <v>13912.50000004718</v>
+        <v>13994.83333334354</v>
       </c>
       <c r="H248">
-        <v>320639.500000026</v>
+        <v>320921.166666763</v>
       </c>
     </row>
     <row r="249">
@@ -6833,7 +6833,7 @@
         <v>48213</v>
       </c>
       <c r="B249">
-        <v>264.5278888886086</v>
+        <v>270.0181666677579</v>
       </c>
       <c r="C249">
         <v>23821.3</v>
@@ -6845,13 +6845,13 @@
         <v>-1</v>
       </c>
       <c r="F249">
-        <v>5038.277777775462</v>
+        <v>5045.722222221276</v>
       </c>
       <c r="G249">
-        <v>13912.49999999323</v>
+        <v>13994.83333334713</v>
       </c>
       <c r="H249">
-        <v>320639.5000001586</v>
+        <v>320921.1666668206</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -5299,7 +5299,7 @@
         <v>42825</v>
       </c>
       <c r="B190">
-        <v>237.75</v>
+        <v>237.859</v>
       </c>
       <c r="C190">
         <v>18209.5</v>
@@ -5311,10 +5311,10 @@
         <v>-1</v>
       </c>
       <c r="F190">
-        <v>5158</v>
+        <v>5159.666666666667</v>
       </c>
       <c r="G190">
-        <v>14347</v>
+        <v>14352.33333333333</v>
       </c>
       <c r="H190">
         <v>272574.3333333333</v>
@@ -5325,7 +5325,7 @@
         <v>42916</v>
       </c>
       <c r="B191">
-        <v>238.0306666666667</v>
+        <v>237.9253333333333</v>
       </c>
       <c r="C191">
         <v>18284.5</v>
@@ -5337,10 +5337,10 @@
         <v>-1</v>
       </c>
       <c r="F191">
-        <v>5170.333333333333</v>
+        <v>5174.666666666667</v>
       </c>
       <c r="G191">
-        <v>14363</v>
+        <v>14369</v>
       </c>
       <c r="H191">
         <v>274286.3333333333</v>
@@ -5351,7 +5351,7 @@
         <v>43008</v>
       </c>
       <c r="B192">
-        <v>239.2</v>
+        <v>239.1366666666667</v>
       </c>
       <c r="C192">
         <v>18362.1</v>
@@ -5363,10 +5363,10 @@
         <v>-1</v>
       </c>
       <c r="F192">
-        <v>5168.333333333333</v>
+        <v>5163.666666666667</v>
       </c>
       <c r="G192">
-        <v>14401.66666666667</v>
+        <v>14373</v>
       </c>
       <c r="H192">
         <v>274862.6666666667</v>
@@ -5377,7 +5377,7 @@
         <v>43100</v>
       </c>
       <c r="B193">
-        <v>241.3036666666667</v>
+        <v>241.2763333333333</v>
       </c>
       <c r="C193">
         <v>18441.6</v>
@@ -5389,10 +5389,10 @@
         <v>-1</v>
       </c>
       <c r="F193">
-        <v>5160.333333333333</v>
+        <v>5157.333333333333</v>
       </c>
       <c r="G193">
-        <v>14428.66666666667</v>
+        <v>14421.66666666667</v>
       </c>
       <c r="H193">
         <v>280795.3333333333</v>
@@ -5403,7 +5403,7 @@
         <v>43190</v>
       </c>
       <c r="B194">
-        <v>243.2743333333333</v>
+        <v>243.3603333333333</v>
       </c>
       <c r="C194">
         <v>18523.9</v>
@@ -5415,10 +5415,10 @@
         <v>-1</v>
       </c>
       <c r="F194">
-        <v>5150.333333333333</v>
+        <v>5152</v>
       </c>
       <c r="G194">
-        <v>14442.33333333333</v>
+        <v>14453.66666666667</v>
       </c>
       <c r="H194">
         <v>282163</v>
@@ -5429,7 +5429,7 @@
         <v>43281</v>
       </c>
       <c r="B195">
-        <v>244.813</v>
+        <v>244.732</v>
       </c>
       <c r="C195">
         <v>18609.6</v>
@@ -5441,10 +5441,10 @@
         <v>-1</v>
       </c>
       <c r="F195">
-        <v>5173</v>
+        <v>5177.666666666667</v>
       </c>
       <c r="G195">
-        <v>14468.66666666667</v>
+        <v>14486</v>
       </c>
       <c r="H195">
         <v>291235.6666666667</v>
@@ -5455,7 +5455,7 @@
         <v>43373</v>
       </c>
       <c r="B196">
-        <v>245.793</v>
+        <v>245.8403333333333</v>
       </c>
       <c r="C196">
         <v>18698.1</v>
@@ -5467,10 +5467,10 @@
         <v>-1</v>
       </c>
       <c r="F196">
-        <v>5185.333333333333</v>
+        <v>5182.666666666667</v>
       </c>
       <c r="G196">
-        <v>14494.33333333333</v>
+        <v>14482</v>
       </c>
       <c r="H196">
         <v>292706.6666666667</v>
@@ -5481,7 +5481,7 @@
         <v>43465</v>
       </c>
       <c r="B197">
-        <v>246.681</v>
+        <v>246.6133333333333</v>
       </c>
       <c r="C197">
         <v>18787.9</v>
@@ -5493,10 +5493,10 @@
         <v>-1</v>
       </c>
       <c r="F197">
-        <v>5177</v>
+        <v>5174</v>
       </c>
       <c r="G197">
-        <v>14510</v>
+        <v>14507</v>
       </c>
       <c r="H197">
         <v>285420</v>
@@ -5507,7 +5507,7 @@
         <v>43555</v>
       </c>
       <c r="B198">
-        <v>246.765</v>
+        <v>246.874</v>
       </c>
       <c r="C198">
         <v>18879</v>
@@ -5519,10 +5519,10 @@
         <v>-1</v>
       </c>
       <c r="F198">
-        <v>5171.333333333333</v>
+        <v>5175</v>
       </c>
       <c r="G198">
-        <v>14527.66666666667</v>
+        <v>14550</v>
       </c>
       <c r="H198">
         <v>304217</v>
@@ -5533,7 +5533,7 @@
         <v>43646</v>
       </c>
       <c r="B199">
-        <v>249.0076666666667</v>
+        <v>248.912</v>
       </c>
       <c r="C199">
         <v>18971.4</v>
@@ -5545,10 +5545,10 @@
         <v>-1</v>
       </c>
       <c r="F199">
-        <v>5177.333333333333</v>
+        <v>5182</v>
       </c>
       <c r="G199">
-        <v>14558.33333333333</v>
+        <v>14587.66666666667</v>
       </c>
       <c r="H199">
         <v>321543</v>
@@ -5559,7 +5559,7 @@
         <v>43738</v>
       </c>
       <c r="B200">
-        <v>249.665</v>
+        <v>249.725</v>
       </c>
       <c r="C200">
         <v>19064.1</v>
@@ -5571,10 +5571,10 @@
         <v>-1</v>
       </c>
       <c r="F200">
-        <v>5218.333333333333</v>
+        <v>5214.666666666667</v>
       </c>
       <c r="G200">
-        <v>14590</v>
+        <v>14542.66666666667</v>
       </c>
       <c r="H200">
         <v>322016</v>
@@ -5585,7 +5585,7 @@
         <v>43830</v>
       </c>
       <c r="B201">
-        <v>251.4253333333334</v>
+        <v>251.3256666666667</v>
       </c>
       <c r="C201">
         <v>19157.1</v>
@@ -5597,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>5250.333333333333</v>
+        <v>5244</v>
       </c>
       <c r="G201">
-        <v>14620.33333333333</v>
+        <v>14625.66666666667</v>
       </c>
       <c r="H201">
         <v>324071.6666666667</v>
@@ -5611,7 +5611,7 @@
         <v>43921</v>
       </c>
       <c r="B202">
-        <v>251.8853333333333</v>
+        <v>251.9903333333333</v>
       </c>
       <c r="C202">
         <v>19250.2</v>
@@ -5623,10 +5623,10 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>5276.333333333333</v>
+        <v>5273.666666666667</v>
       </c>
       <c r="G202">
-        <v>14658.33333333333</v>
+        <v>14691.33333333333</v>
       </c>
       <c r="H202">
         <v>341494</v>
@@ -5637,7 +5637,7 @@
         <v>44012</v>
       </c>
       <c r="B203">
-        <v>249.576</v>
+        <v>249.543</v>
       </c>
       <c r="C203">
         <v>19340.2</v>
@@ -5649,10 +5649,10 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>5049.333333333333</v>
+        <v>5082.333333333333</v>
       </c>
       <c r="G203">
-        <v>13569.66666666667</v>
+        <v>13620</v>
       </c>
       <c r="H203">
         <v>335548.3333333333</v>
@@ -5663,7 +5663,7 @@
         <v>44104</v>
       </c>
       <c r="B204">
-        <v>253.0136666666666</v>
+        <v>253.0396666666667</v>
       </c>
       <c r="C204">
         <v>19424.2</v>
@@ -5675,10 +5675,10 @@
         <v>-1</v>
       </c>
       <c r="F204">
-        <v>5036.333333333333</v>
+        <v>5100</v>
       </c>
       <c r="G204">
-        <v>13736.66666666667</v>
+        <v>13637.33333333333</v>
       </c>
       <c r="H204">
         <v>323099.3333333333</v>
@@ -5689,7 +5689,7 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>254.6803333333333</v>
+        <v>254.556</v>
       </c>
       <c r="C205">
         <v>19512</v>
@@ -5701,10 +5701,10 @@
         <v>-1</v>
       </c>
       <c r="F205">
-        <v>4935.333333333333</v>
+        <v>5078</v>
       </c>
       <c r="G205">
-        <v>13655.33333333333</v>
+        <v>13719</v>
       </c>
       <c r="H205">
         <v>328325</v>
@@ -5715,7 +5715,7 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>257.3506666666667</v>
+        <v>257.472</v>
       </c>
       <c r="C206">
         <v>19602.5</v>
@@ -5727,10 +5727,10 @@
         <v>-1</v>
       </c>
       <c r="F206">
-        <v>4976.666666666667</v>
+        <v>5160.333333333333</v>
       </c>
       <c r="G206">
-        <v>13671.33333333333</v>
+        <v>13769.66666666667</v>
       </c>
       <c r="H206">
         <v>322875.3333333333</v>
@@ -5741,7 +5741,7 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>263.1253333333333</v>
+        <v>263.117</v>
       </c>
       <c r="C207">
         <v>19697.4</v>
@@ -5753,10 +5753,10 @@
         <v>-1</v>
       </c>
       <c r="F207">
-        <v>5023</v>
+        <v>5218.333333333333</v>
       </c>
       <c r="G207">
-        <v>13769.33333333333</v>
+        <v>13862.33333333333</v>
       </c>
       <c r="H207">
         <v>318491.3333333333</v>
@@ -5767,7 +5767,7 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>267.8553333333334</v>
+        <v>267.8986666666667</v>
       </c>
       <c r="C208">
         <v>19795.8</v>
@@ -5779,10 +5779,10 @@
         <v>-1</v>
       </c>
       <c r="F208">
-        <v>5072.666666666667</v>
+        <v>5230.333333333333</v>
       </c>
       <c r="G208">
-        <v>14088.33333333333</v>
+        <v>13978</v>
       </c>
       <c r="H208">
         <v>321889.6666666667</v>
@@ -5793,7 +5793,7 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>273.7576666666666</v>
+        <v>273.5366666666667</v>
       </c>
       <c r="C209">
         <v>19898.3</v>
@@ -5805,13 +5805,13 @@
         <v>-1</v>
       </c>
       <c r="F209">
-        <v>5035.333333333333</v>
+        <v>5220.666666666667</v>
       </c>
       <c r="G209">
-        <v>14007.66666666667</v>
+        <v>14009.33333333333</v>
       </c>
       <c r="H209">
-        <v>321085.4444444444</v>
+        <v>324549.6666666667</v>
       </c>
     </row>
     <row r="210">
@@ -5819,7 +5819,7 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>268.2461111111111</v>
+        <v>268.1841111111111</v>
       </c>
       <c r="C210">
         <v>20003.7</v>
@@ -5831,13 +5831,13 @@
         <v>-1</v>
       </c>
       <c r="F210">
-        <v>5043.666666666667</v>
+        <v>5223.111111111111</v>
       </c>
       <c r="G210">
-        <v>13955.11111111111</v>
+        <v>13949.88888888889</v>
       </c>
       <c r="H210">
-        <v>320488.8148148148</v>
+        <v>321643.5555555556</v>
       </c>
     </row>
     <row r="211">
@@ -5845,7 +5845,7 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>269.9530370370371</v>
+        <v>269.8731481481482</v>
       </c>
       <c r="C211">
         <v>20109.9</v>
@@ -5857,13 +5857,13 @@
         <v>-1</v>
       </c>
       <c r="F211">
-        <v>5050.555555555556</v>
+        <v>5224.703703703704</v>
       </c>
       <c r="G211">
-        <v>14017.03703703704</v>
+        <v>13979.07407407408</v>
       </c>
       <c r="H211">
-        <v>321154.6419753087</v>
+        <v>322694.2962962963</v>
       </c>
     </row>
     <row r="212">
@@ -5871,7 +5871,7 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>270.6522716049383</v>
+        <v>270.5313086419753</v>
       </c>
       <c r="C212">
         <v>20216.1</v>
@@ -5883,13 +5883,13 @@
         <v>-1</v>
       </c>
       <c r="F212">
-        <v>5043.185185185185</v>
+        <v>5222.827160493827</v>
       </c>
       <c r="G212">
-        <v>13993.27160493827</v>
+        <v>13979.43209876543</v>
       </c>
       <c r="H212">
-        <v>320909.633744856</v>
+        <v>322962.5061728395</v>
       </c>
     </row>
     <row r="213">
@@ -5897,7 +5897,7 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>269.6171399176955</v>
+        <v>269.5295226337449</v>
       </c>
       <c r="C213">
         <v>20321.5</v>
@@ -5909,13 +5909,13 @@
         <v>-1</v>
       </c>
       <c r="F213">
-        <v>5045.802469135802</v>
+        <v>5223.547325102881</v>
       </c>
       <c r="G213">
-        <v>13988.47325102881</v>
+        <v>13969.46502057613</v>
       </c>
       <c r="H213">
-        <v>320851.0301783265</v>
+        <v>322433.4526748971</v>
       </c>
     </row>
     <row r="214">
@@ -5923,7 +5923,7 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>270.0741495198903</v>
+        <v>269.9779931412895</v>
       </c>
       <c r="C214">
         <v>20425.7</v>
@@ -5935,13 +5935,13 @@
         <v>-1</v>
       </c>
       <c r="F214">
-        <v>5046.514403292181</v>
+        <v>5223.692729766804</v>
       </c>
       <c r="G214">
-        <v>13999.59396433471</v>
+        <v>13975.99039780521</v>
       </c>
       <c r="H214">
-        <v>320971.7686328304</v>
+        <v>322696.7517146776</v>
       </c>
     </row>
     <row r="215">
@@ -5949,7 +5949,7 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>270.114520347508</v>
+        <v>270.0129414723365</v>
       </c>
       <c r="C215">
         <v>20529.6</v>
@@ -5961,13 +5961,13 @@
         <v>-1</v>
       </c>
       <c r="F215">
-        <v>5045.167352537723</v>
+        <v>5223.355738454504</v>
       </c>
       <c r="G215">
-        <v>13993.77960676726</v>
+        <v>13974.96250571559</v>
       </c>
       <c r="H215">
-        <v>320910.8108520043</v>
+        <v>322697.5701874714</v>
       </c>
     </row>
     <row r="216">
@@ -5975,7 +5975,7 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>269.9352699283646</v>
+        <v>269.8401524157903</v>
       </c>
       <c r="C216">
         <v>20633.3</v>
@@ -5987,13 +5987,13 @@
         <v>-1</v>
       </c>
       <c r="F216">
-        <v>5045.828074988569</v>
+        <v>5223.531931108063</v>
       </c>
       <c r="G216">
-        <v>13993.94894071026</v>
+        <v>13973.47264136565</v>
       </c>
       <c r="H216">
-        <v>320911.2032210537</v>
+        <v>322609.2581923487</v>
       </c>
     </row>
     <row r="217">
@@ -6001,7 +6001,7 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>270.0413132652543</v>
+        <v>269.9436956764721</v>
       </c>
       <c r="C217">
         <v>20736.1</v>
@@ -6013,13 +6013,13 @@
         <v>-1</v>
       </c>
       <c r="F217">
-        <v>5045.836610272824</v>
+        <v>5223.526799776457</v>
       </c>
       <c r="G217">
-        <v>13995.77417060407</v>
+        <v>13974.80851496215</v>
       </c>
       <c r="H217">
-        <v>320931.2609019628</v>
+        <v>322667.8600314992</v>
       </c>
     </row>
     <row r="218">
@@ -6027,7 +6027,7 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>270.0303678470423</v>
+        <v>269.9322631881996</v>
       </c>
       <c r="C218">
         <v>20837.6</v>
@@ -6039,13 +6039,13 @@
         <v>-1</v>
       </c>
       <c r="F218">
-        <v>5045.610679266372</v>
+        <v>5223.471489779675</v>
       </c>
       <c r="G218">
-        <v>13994.5009060272</v>
+        <v>13974.41455401446</v>
       </c>
       <c r="H218">
-        <v>320917.7583250069</v>
+        <v>322658.2294704398</v>
       </c>
     </row>
     <row r="219">
@@ -6053,7 +6053,7 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>270.0023170135538</v>
+        <v>269.9053704268206</v>
       </c>
       <c r="C219">
         <v>20937.8</v>
@@ -6065,13 +6065,13 @@
         <v>-1</v>
       </c>
       <c r="F219">
-        <v>5045.758454842588</v>
+        <v>5223.510073554731</v>
       </c>
       <c r="G219">
-        <v>13994.74133911384</v>
+        <v>13974.23190344742</v>
       </c>
       <c r="H219">
-        <v>320920.0741493412</v>
+        <v>322645.1158980959</v>
       </c>
     </row>
     <row r="220">
@@ -6079,7 +6079,7 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>270.0246660419501</v>
+        <v>269.9271097638308</v>
       </c>
       <c r="C220">
         <v>21037.3</v>
@@ -6091,13 +6091,13 @@
         <v>-1</v>
       </c>
       <c r="F220">
-        <v>5045.735248127262</v>
+        <v>5223.502787703621</v>
       </c>
       <c r="G220">
-        <v>13995.00547191504</v>
+        <v>13974.48499080801</v>
       </c>
       <c r="H220">
-        <v>320923.0311254369</v>
+        <v>322657.0684666783</v>
       </c>
     </row>
     <row r="221">
@@ -6105,7 +6105,7 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>270.0191169675154</v>
+        <v>269.9215811262837</v>
       </c>
       <c r="C221">
         <v>21135.8</v>
@@ -6117,13 +6117,13 @@
         <v>-1</v>
       </c>
       <c r="F221">
-        <v>5045.701460745408</v>
+        <v>5223.494783679343</v>
       </c>
       <c r="G221">
-        <v>13994.74923901869</v>
+        <v>13974.3771494233</v>
       </c>
       <c r="H221">
-        <v>320920.287866595</v>
+        <v>322653.4712784046</v>
       </c>
     </row>
     <row r="222">
@@ -6131,7 +6131,7 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>270.0153666743398</v>
+        <v>269.9180204389784</v>
       </c>
       <c r="C222">
         <v>21233</v>
@@ -6143,13 +6143,13 @@
         <v>-1</v>
       </c>
       <c r="F222">
-        <v>5045.73172123842</v>
+        <v>5223.502548312565</v>
       </c>
       <c r="G222">
-        <v>13994.83201668253</v>
+        <v>13974.36468122624</v>
       </c>
       <c r="H222">
-        <v>320921.1310471244</v>
+        <v>322651.885214393</v>
       </c>
     </row>
     <row r="223">
@@ -6157,7 +6157,7 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>270.0197165612684</v>
+        <v>269.9222371096976</v>
       </c>
       <c r="C223">
         <v>21328.7</v>
@@ -6169,13 +6169,13 @@
         <v>-1</v>
       </c>
       <c r="F223">
-        <v>5045.722810037029</v>
+        <v>5223.500039898509</v>
       </c>
       <c r="G223">
-        <v>13994.86224253875</v>
+        <v>13974.40894048585</v>
       </c>
       <c r="H223">
-        <v>320921.4833463855</v>
+        <v>322654.1416531586</v>
       </c>
     </row>
     <row r="224">
@@ -6183,7 +6183,7 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>270.0180667343745</v>
+        <v>269.9206128916532</v>
       </c>
       <c r="C224">
         <v>21423.4</v>
@@ -6195,13 +6195,13 @@
         <v>-1</v>
       </c>
       <c r="F224">
-        <v>5045.718664006952</v>
+        <v>5223.499123963472</v>
       </c>
       <c r="G224">
-        <v>13994.81449941332</v>
+        <v>13974.38359037846</v>
       </c>
       <c r="H224">
-        <v>320920.967420035</v>
+        <v>322653.1660486521</v>
       </c>
     </row>
     <row r="225">
@@ -6209,7 +6209,7 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>270.0177166566609</v>
+        <v>269.9202901467764</v>
       </c>
       <c r="C225">
         <v>21517.1</v>
@@ -6221,13 +6221,13 @@
         <v>-1</v>
       </c>
       <c r="F225">
-        <v>5045.724398427467</v>
+        <v>5223.500570724848</v>
       </c>
       <c r="G225">
-        <v>13994.8362528782</v>
+        <v>13974.38573736352</v>
       </c>
       <c r="H225">
-        <v>320921.1939378483</v>
+        <v>322653.0643054012</v>
       </c>
     </row>
     <row r="226">
@@ -6235,7 +6235,7 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>270.0184999841013</v>
+        <v>269.9210467160424</v>
       </c>
       <c r="C226">
         <v>21609.7</v>
@@ -6247,13 +6247,13 @@
         <v>-1</v>
       </c>
       <c r="F226">
-        <v>5045.721957490483</v>
+        <v>5223.499911528943</v>
       </c>
       <c r="G226">
-        <v>13994.83766494343</v>
+        <v>13974.39275607595</v>
       </c>
       <c r="H226">
-        <v>320921.2149014229</v>
+        <v>322653.4573357373</v>
       </c>
     </row>
     <row r="227">
@@ -6261,7 +6261,7 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>270.0180944583789</v>
+        <v>269.9206499181573</v>
       </c>
       <c r="C227">
         <v>21701.4</v>
@@ -6273,13 +6273,13 @@
         <v>-1</v>
       </c>
       <c r="F227">
-        <v>5045.721673308301</v>
+        <v>5223.499868739088</v>
       </c>
       <c r="G227">
-        <v>13994.82947241165</v>
+        <v>13974.38736127264</v>
       </c>
       <c r="H227">
-        <v>320921.1254197687</v>
+        <v>322653.2292299302</v>
       </c>
     </row>
     <row r="228">
@@ -6287,7 +6287,7 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>270.0181036997137</v>
+        <v>269.9206622603253</v>
       </c>
       <c r="C228">
         <v>21793.1</v>
@@ -6299,13 +6299,13 @@
         <v>-1</v>
       </c>
       <c r="F228">
-        <v>5045.72267640875</v>
+        <v>5223.500116997627</v>
       </c>
       <c r="G228">
-        <v>13994.83446341109</v>
+        <v>13974.38861823737</v>
       </c>
       <c r="H228">
-        <v>320921.1780863467</v>
+        <v>322653.2502903562</v>
       </c>
     </row>
     <row r="229">
@@ -6313,7 +6313,7 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>270.0182327140647</v>
+        <v>269.920786298175</v>
       </c>
       <c r="C229">
         <v>21885.1</v>
@@ -6325,13 +6325,13 @@
         <v>-1</v>
       </c>
       <c r="F229">
-        <v>5045.722102402511</v>
+        <v>5223.499965755219</v>
       </c>
       <c r="G229">
-        <v>13994.83386692206</v>
+        <v>13974.38957852865</v>
       </c>
       <c r="H229">
-        <v>320921.1728025128</v>
+        <v>322653.3122853413</v>
       </c>
     </row>
     <row r="230">
@@ -6339,7 +6339,7 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>270.0181436240524</v>
+        <v>269.9206994922192</v>
       </c>
       <c r="C230">
         <v>21977.8</v>
@@ -6351,13 +6351,13 @@
         <v>-1</v>
       </c>
       <c r="F230">
-        <v>5045.722150706521</v>
+        <v>5223.499983830645</v>
       </c>
       <c r="G230">
-        <v>13994.83260091493</v>
+        <v>13974.38851934622</v>
       </c>
       <c r="H230">
-        <v>320921.1587695427</v>
+        <v>322653.2639352093</v>
       </c>
     </row>
     <row r="231">
@@ -6365,7 +6365,7 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>270.0181600126103</v>
+        <v>269.9207160169065</v>
       </c>
       <c r="C231">
         <v>22070.9</v>
@@ -6377,13 +6377,13 @@
         <v>-1</v>
       </c>
       <c r="F231">
-        <v>5045.722309839261</v>
+        <v>5223.500022194497</v>
       </c>
       <c r="G231">
-        <v>13994.83364374936</v>
+        <v>13974.38890537075</v>
       </c>
       <c r="H231">
-        <v>320921.169886134</v>
+        <v>322653.2755036356</v>
       </c>
     </row>
     <row r="232">
@@ -6391,7 +6391,7 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>270.0181787835758</v>
+        <v>269.9207339357669</v>
       </c>
       <c r="C232">
         <v>22164.3</v>
@@ -6403,13 +6403,13 @@
         <v>-1</v>
       </c>
       <c r="F232">
-        <v>5045.722187649431</v>
+        <v>5223.499990593454</v>
       </c>
       <c r="G232">
-        <v>13994.83337052878</v>
+        <v>13974.38900108187</v>
       </c>
       <c r="H232">
-        <v>320921.1671527298</v>
+        <v>322653.283908062</v>
       </c>
     </row>
     <row r="233">
@@ -6417,7 +6417,7 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>270.0181608067462</v>
+        <v>269.9207164816309</v>
       </c>
       <c r="C233">
         <v>22257.7</v>
@@ -6429,13 +6429,13 @@
         <v>-1</v>
       </c>
       <c r="F233">
-        <v>5045.722216065071</v>
+        <v>5223.499998872865</v>
       </c>
       <c r="G233">
-        <v>13994.83320506436</v>
+        <v>13974.38880859962</v>
       </c>
       <c r="H233">
-        <v>320921.1652694689</v>
+        <v>322653.2744489689</v>
       </c>
     </row>
     <row r="234">
@@ -6443,7 +6443,7 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>270.0181665343108</v>
+        <v>269.9207221447681</v>
       </c>
       <c r="C234">
         <v>22351.6</v>
@@ -6455,13 +6455,13 @@
         <v>-1</v>
       </c>
       <c r="F234">
-        <v>5045.722237851254</v>
+        <v>5223.500003886938</v>
       </c>
       <c r="G234">
-        <v>13994.8334064475</v>
+        <v>13974.38890501741</v>
       </c>
       <c r="H234">
-        <v>320921.1674361109</v>
+        <v>322653.2779535555</v>
       </c>
     </row>
     <row r="235">
@@ -6469,7 +6469,7 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>270.0181687082109</v>
+        <v>269.9207241873887</v>
       </c>
       <c r="C235">
         <v>22446.5</v>
@@ -6481,13 +6481,13 @@
         <v>-1</v>
       </c>
       <c r="F235">
-        <v>5045.722213855252</v>
+        <v>5223.499997784419</v>
       </c>
       <c r="G235">
-        <v>13994.83332734688</v>
+        <v>13974.38890489963</v>
       </c>
       <c r="H235">
-        <v>320921.1666194365</v>
+        <v>322653.2787701955</v>
       </c>
     </row>
     <row r="236">
@@ -6495,7 +6495,7 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>270.0181653497559</v>
+        <v>269.9207209379292</v>
       </c>
       <c r="C236">
         <v>22542.3</v>
@@ -6507,13 +6507,13 @@
         <v>-1</v>
       </c>
       <c r="F236">
-        <v>5045.722222590525</v>
+        <v>5223.500000181408</v>
       </c>
       <c r="G236">
-        <v>13994.83331295291</v>
+        <v>13974.38887283889</v>
       </c>
       <c r="H236">
-        <v>320921.1664416721</v>
+        <v>322653.2770575733</v>
       </c>
     </row>
     <row r="237">
@@ -6521,7 +6521,7 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>270.0181668640925</v>
+        <v>269.920722423362</v>
       </c>
       <c r="C237">
         <v>22638.9</v>
@@ -6533,13 +6533,13 @@
         <v>-1</v>
       </c>
       <c r="F237">
-        <v>5045.722224765677</v>
+        <v>5223.500000617589</v>
       </c>
       <c r="G237">
-        <v>13994.83334891577</v>
+        <v>13974.38889425198</v>
       </c>
       <c r="H237">
-        <v>320921.1668324065</v>
+        <v>322653.2779271081</v>
       </c>
     </row>
     <row r="238">
@@ -6547,7 +6547,7 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>270.0181669740198</v>
+        <v>269.9207225162267</v>
       </c>
       <c r="C238">
         <v>22736.3</v>
@@ -6559,13 +6559,13 @@
         <v>-1</v>
       </c>
       <c r="F238">
-        <v>5045.722220403818</v>
+        <v>5223.499999527805</v>
       </c>
       <c r="G238">
-        <v>13994.83332973852</v>
+        <v>13974.3888906635</v>
       </c>
       <c r="H238">
-        <v>320921.1666311717</v>
+        <v>322653.2779182923</v>
       </c>
     </row>
     <row r="239">
@@ -6573,7 +6573,7 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>270.0181663959561</v>
+        <v>269.9207219591726</v>
       </c>
       <c r="C239">
         <v>22834.2</v>
@@ -6585,13 +6585,13 @@
         <v>-1</v>
       </c>
       <c r="F239">
-        <v>5045.722222586674</v>
+        <v>5223.500000108934</v>
       </c>
       <c r="G239">
-        <v>13994.83333053573</v>
+        <v>13974.38888591812</v>
       </c>
       <c r="H239">
-        <v>320921.1666350834</v>
+        <v>322653.2776343246</v>
       </c>
     </row>
     <row r="240">
@@ -6599,7 +6599,7 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>270.0181667446894</v>
+        <v>269.9207222995871</v>
       </c>
       <c r="C240">
         <v>22932.1</v>
@@ -6611,13 +6611,13 @@
         <v>-1</v>
       </c>
       <c r="F240">
-        <v>5045.722222585389</v>
+        <v>5223.500000084776</v>
       </c>
       <c r="G240">
-        <v>13994.83333639667</v>
+        <v>13974.38889027787</v>
       </c>
       <c r="H240">
-        <v>320921.1666995539</v>
+        <v>322653.277826575</v>
       </c>
     </row>
     <row r="241">
@@ -6625,7 +6625,7 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>270.0181667048884</v>
+        <v>269.9207222583288</v>
       </c>
       <c r="C241">
         <v>23029.9</v>
@@ -6637,13 +6637,13 @@
         <v>-1</v>
       </c>
       <c r="F241">
-        <v>5045.722221858627</v>
+        <v>5223.499999907172</v>
       </c>
       <c r="G241">
-        <v>13994.83333222364</v>
+        <v>13974.38888895316</v>
       </c>
       <c r="H241">
-        <v>320921.1666552697</v>
+        <v>322653.277793064</v>
       </c>
     </row>
     <row r="242">
@@ -6651,7 +6651,7 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>270.018166615178</v>
+        <v>269.9207221723628</v>
       </c>
       <c r="C242">
         <v>23127.9</v>
@@ -6663,13 +6663,13 @@
         <v>-1</v>
       </c>
       <c r="F242">
-        <v>5045.722222343563</v>
+        <v>5223.500000033627</v>
       </c>
       <c r="G242">
-        <v>13994.83333305201</v>
+        <v>13974.38888838305</v>
       </c>
       <c r="H242">
-        <v>320921.1666633023</v>
+        <v>322653.2777513212</v>
       </c>
     </row>
     <row r="243">
@@ -6677,7 +6677,7 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>270.0181666882519</v>
+        <v>269.9207222434263</v>
       </c>
       <c r="C243">
         <v>23226.1</v>
@@ -6689,13 +6689,13 @@
         <v>-1</v>
       </c>
       <c r="F243">
-        <v>5045.722222262526</v>
+        <v>5223.500000008525</v>
       </c>
       <c r="G243">
-        <v>13994.83333389078</v>
+        <v>13974.38888920469</v>
       </c>
       <c r="H243">
-        <v>320921.1666727086</v>
+        <v>322653.2777903201</v>
       </c>
     </row>
     <row r="244">
@@ -6703,7 +6703,7 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>270.0181666694394</v>
+        <v>269.920722224706</v>
       </c>
       <c r="C244">
         <v>23324.6</v>
@@ -6715,13 +6715,13 @@
         <v>-1</v>
       </c>
       <c r="F244">
-        <v>5045.722222154906</v>
+        <v>5223.499999983108</v>
       </c>
       <c r="G244">
-        <v>13994.83333305548</v>
+        <v>13974.38888884697</v>
       </c>
       <c r="H244">
-        <v>320921.1666637602</v>
+        <v>322653.277778235</v>
       </c>
     </row>
     <row r="245">
@@ -6729,7 +6729,7 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>270.0181666576231</v>
+        <v>269.9207222134984</v>
       </c>
       <c r="C245">
         <v>23423.4</v>
@@ -6741,13 +6741,13 @@
         <v>-1</v>
       </c>
       <c r="F245">
-        <v>5045.722222253665</v>
+        <v>5223.50000000842</v>
       </c>
       <c r="G245">
-        <v>13994.83333333276</v>
+        <v>13974.38888881157</v>
       </c>
       <c r="H245">
-        <v>320921.1666665904</v>
+        <v>322653.2777732921</v>
       </c>
     </row>
     <row r="246">
@@ -6755,7 +6755,7 @@
         <v>47938</v>
       </c>
       <c r="B246">
-        <v>270.0181666717715</v>
+        <v>269.9207222272102</v>
       </c>
       <c r="C246">
         <v>23522.6</v>
@@ -6767,13 +6767,13 @@
         <v>-1</v>
       </c>
       <c r="F246">
-        <v>5045.722222223699</v>
+        <v>5223.500000000017</v>
       </c>
       <c r="G246">
-        <v>13994.83333342634</v>
+        <v>13974.38888895441</v>
       </c>
       <c r="H246">
-        <v>320921.1666676864</v>
+        <v>322653.2777806157</v>
       </c>
     </row>
     <row r="247">
@@ -6781,7 +6781,7 @@
         <v>48029</v>
       </c>
       <c r="B247">
-        <v>270.018166666278</v>
+        <v>269.9207222218049</v>
       </c>
       <c r="C247">
         <v>23622.1</v>
@@ -6793,13 +6793,13 @@
         <v>-1</v>
       </c>
       <c r="F247">
-        <v>5045.722222210757</v>
+        <v>5223.499999997182</v>
       </c>
       <c r="G247">
-        <v>13994.83333327152</v>
+        <v>13974.38888887098</v>
       </c>
       <c r="H247">
-        <v>320921.1666660123</v>
+        <v>322653.277777381</v>
       </c>
     </row>
     <row r="248">
@@ -6807,7 +6807,7 @@
         <v>48121</v>
       </c>
       <c r="B248">
-        <v>270.0181666652242</v>
+        <v>269.9207222208378</v>
       </c>
       <c r="C248">
         <v>23721.7</v>
@@ -6819,13 +6819,13 @@
         <v>-1</v>
       </c>
       <c r="F248">
-        <v>5045.722222229373</v>
+        <v>5223.500000001873</v>
       </c>
       <c r="G248">
-        <v>13994.83333334354</v>
+        <v>13974.38888887899</v>
       </c>
       <c r="H248">
-        <v>320921.166666763</v>
+        <v>322653.2777770963</v>
       </c>
     </row>
     <row r="249">
@@ -6833,7 +6833,7 @@
         <v>48213</v>
       </c>
       <c r="B249">
-        <v>270.0181666677579</v>
+        <v>269.9207222232843</v>
       </c>
       <c r="C249">
         <v>23821.3</v>
@@ -6845,13 +6845,13 @@
         <v>-1</v>
       </c>
       <c r="F249">
-        <v>5045.722222221276</v>
+        <v>5223.499999999691</v>
       </c>
       <c r="G249">
-        <v>13994.83333334713</v>
+        <v>13974.38888890146</v>
       </c>
       <c r="H249">
-        <v>320921.1666668206</v>
+        <v>322653.2777783643</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/economic_statistics.xlsx
+++ b/inst/extdata/economic_statistics.xlsx
@@ -5805,13 +5805,13 @@
         <v>-1</v>
       </c>
       <c r="F209">
-        <v>5220.666666666667</v>
+        <v>5227</v>
       </c>
       <c r="G209">
         <v>14009.33333333333</v>
       </c>
       <c r="H209">
-        <v>324549.6666666667</v>
+        <v>325065.6666666667</v>
       </c>
     </row>
     <row r="210">
@@ -5831,13 +5831,13 @@
         <v>-1</v>
       </c>
       <c r="F210">
-        <v>5223.111111111111</v>
+        <v>5225.222222222222</v>
       </c>
       <c r="G210">
         <v>13949.88888888889</v>
       </c>
       <c r="H210">
-        <v>321643.5555555556</v>
+        <v>321815.5555555556</v>
       </c>
     </row>
     <row r="211">
@@ -5857,13 +5857,13 @@
         <v>-1</v>
       </c>
       <c r="F211">
-        <v>5224.703703703704</v>
+        <v>5227.518518518518</v>
       </c>
       <c r="G211">
         <v>13979.07407407408</v>
       </c>
       <c r="H211">
-        <v>322694.2962962963</v>
+        <v>322923.6296296297</v>
       </c>
     </row>
     <row r="212">
@@ -5883,13 +5883,13 @@
         <v>-1</v>
       </c>
       <c r="F212">
-        <v>5222.827160493827</v>
+        <v>5226.58024691358</v>
       </c>
       <c r="G212">
         <v>13979.43209876543</v>
       </c>
       <c r="H212">
-        <v>322962.5061728395</v>
+        <v>323268.2839506173</v>
       </c>
     </row>
     <row r="213">
@@ -5909,13 +5909,13 @@
         <v>-1</v>
       </c>
       <c r="F213">
-        <v>5223.547325102881</v>
+        <v>5226.440329218107</v>
       </c>
       <c r="G213">
         <v>13969.46502057613</v>
       </c>
       <c r="H213">
-        <v>322433.4526748971</v>
+        <v>322669.1563786009</v>
       </c>
     </row>
     <row r="214">
@@ -5935,13 +5935,13 @@
         <v>-1</v>
       </c>
       <c r="F214">
-        <v>5223.692729766804</v>
+        <v>5226.846364883401</v>
       </c>
       <c r="G214">
         <v>13975.99039780521</v>
       </c>
       <c r="H214">
-        <v>322696.7517146776</v>
+        <v>322953.6899862826</v>
       </c>
     </row>
     <row r="215">
@@ -5961,13 +5961,13 @@
         <v>-1</v>
       </c>
       <c r="F215">
-        <v>5223.355738454504</v>
+        <v>5226.622313671696</v>
       </c>
       <c r="G215">
         <v>13974.96250571559</v>
       </c>
       <c r="H215">
-        <v>322697.5701874714</v>
+        <v>322963.710105167</v>
       </c>
     </row>
     <row r="216">
@@ -5987,13 +5987,13 @@
         <v>-1</v>
       </c>
       <c r="F216">
-        <v>5223.531931108063</v>
+        <v>5226.636335924402</v>
       </c>
       <c r="G216">
         <v>13973.47264136565</v>
       </c>
       <c r="H216">
-        <v>322609.2581923487</v>
+        <v>322862.1854900168</v>
       </c>
     </row>
     <row r="217">
@@ -6013,13 +6013,13 @@
         <v>-1</v>
       </c>
       <c r="F217">
-        <v>5223.526799776457</v>
+        <v>5226.701671493166</v>
       </c>
       <c r="G217">
         <v>13974.80851496215</v>
       </c>
       <c r="H217">
-        <v>322667.8600314992</v>
+        <v>322926.5285271555</v>
       </c>
     </row>
     <row r="218">
@@ -6039,13 +6039,13 @@
         <v>-1</v>
       </c>
       <c r="F218">
-        <v>5223.471489779675</v>
+        <v>5226.653440363088</v>
       </c>
       <c r="G218">
         <v>13974.41455401446</v>
       </c>
       <c r="H218">
-        <v>322658.2294704398</v>
+        <v>322917.4747074464</v>
       </c>
     </row>
     <row r="219">
@@ -6065,13 +6065,13 @@
         <v>-1</v>
       </c>
       <c r="F219">
-        <v>5223.510073554731</v>
+        <v>5226.663815926885</v>
       </c>
       <c r="G219">
         <v>13974.23190344742</v>
       </c>
       <c r="H219">
-        <v>322645.1158980959</v>
+        <v>322902.0629082063</v>
       </c>
     </row>
     <row r="220">
@@ -6091,13 +6091,13 @@
         <v>-1</v>
       </c>
       <c r="F220">
-        <v>5223.502787703621</v>
+        <v>5226.672975927713</v>
       </c>
       <c r="G220">
         <v>13974.48499080801</v>
       </c>
       <c r="H220">
-        <v>322657.0684666783</v>
+        <v>322915.3553809361</v>
       </c>
     </row>
     <row r="221">
@@ -6117,13 +6117,13 @@
         <v>-1</v>
       </c>
       <c r="F221">
-        <v>5223.494783679343</v>
+        <v>5226.663410739228</v>
       </c>
       <c r="G221">
         <v>13974.3771494233</v>
       </c>
       <c r="H221">
-        <v>322653.4712784046</v>
+        <v>322911.6309988629</v>
       </c>
     </row>
     <row r="222">
@@ -6143,13 +6143,13 @@
         <v>-1</v>
       </c>
       <c r="F222">
-        <v>5223.502548312565</v>
+        <v>5226.666734197942</v>
       </c>
       <c r="G222">
         <v>13974.36468122624</v>
       </c>
       <c r="H222">
-        <v>322651.885214393</v>
+        <v>322909.6830960017</v>
       </c>
     </row>
     <row r="223">
@@ -6169,13 +6169,13 @@
         <v>-1</v>
       </c>
       <c r="F223">
-        <v>5223.500039898509</v>
+        <v>5226.667706954961</v>
       </c>
       <c r="G223">
         <v>13974.40894048585</v>
       </c>
       <c r="H223">
-        <v>322654.1416531586</v>
+        <v>322912.2231586002</v>
       </c>
     </row>
     <row r="224">
@@ -6195,13 +6195,13 @@
         <v>-1</v>
       </c>
       <c r="F224">
-        <v>5223.499123963472</v>
+        <v>5226.665950630711</v>
       </c>
       <c r="G224">
         <v>13974.38359037846</v>
       </c>
       <c r="H224">
-        <v>322653.1660486521</v>
+        <v>322911.1790844883</v>
       </c>
     </row>
     <row r="225">
@@ -6221,13 +6221,13 @@
         <v>-1</v>
       </c>
       <c r="F225">
-        <v>5223.500570724848</v>
+        <v>5226.666797261205</v>
       </c>
       <c r="G225">
         <v>13974.38573736352</v>
       </c>
       <c r="H225">
-        <v>322653.0643054012</v>
+        <v>322911.0284463634</v>
       </c>
     </row>
     <row r="226">
@@ -6247,13 +6247,13 @@
         <v>-1</v>
       </c>
       <c r="F226">
-        <v>5223.499911528943</v>
+        <v>5226.666818282292</v>
       </c>
       <c r="G226">
         <v>13974.39275607595</v>
       </c>
       <c r="H226">
-        <v>322653.4573357373</v>
+        <v>322911.476896484</v>
       </c>
     </row>
     <row r="227">
@@ -6273,13 +6273,13 @@
         <v>-1</v>
       </c>
       <c r="F227">
-        <v>5223.499868739088</v>
+        <v>5226.666522058069</v>
       </c>
       <c r="G227">
         <v>13974.38736127264</v>
       </c>
       <c r="H227">
-        <v>322653.2292299302</v>
+        <v>322911.2281424452</v>
       </c>
     </row>
     <row r="228">
@@ -6299,13 +6299,13 @@
         <v>-1</v>
       </c>
       <c r="F228">
-        <v>5223.500116997627</v>
+        <v>5226.666712533855</v>
       </c>
       <c r="G228">
         <v>13974.38861823737</v>
       </c>
       <c r="H228">
-        <v>322653.2502903562</v>
+        <v>322911.2444950976</v>
       </c>
     </row>
     <row r="229">
@@ -6325,13 +6325,13 @@
         <v>-1</v>
       </c>
       <c r="F229">
-        <v>5223.499965755219</v>
+        <v>5226.666684291406</v>
       </c>
       <c r="G229">
         <v>13974.38957852865</v>
       </c>
       <c r="H229">
-        <v>322653.3122853413</v>
+        <v>322911.3165113422</v>
       </c>
     </row>
     <row r="230">
@@ -6351,13 +6351,13 @@
         <v>-1</v>
       </c>
       <c r="F230">
-        <v>5223.499983830645</v>
+        <v>5226.666639627777</v>
       </c>
       <c r="G230">
         <v>13974.38851934622</v>
       </c>
       <c r="H230">
-        <v>322653.2639352093</v>
+        <v>322911.2630496284</v>
       </c>
     </row>
     <row r="231">
@@ -6377,13 +6377,13 @@
         <v>-1</v>
       </c>
       <c r="F231">
-        <v>5223.500022194497</v>
+        <v>5226.666678817679</v>
       </c>
       <c r="G231">
         <v>13974.38890537075</v>
       </c>
       <c r="H231">
-        <v>322653.2755036356</v>
+        <v>322911.2746853561</v>
       </c>
     </row>
     <row r="232">
@@ -6403,13 +6403,13 @@
         <v>-1</v>
       </c>
       <c r="F232">
-        <v>5223.499990593454</v>
+        <v>5226.666667578954</v>
       </c>
       <c r="G232">
         <v>13974.38900108187</v>
       </c>
       <c r="H232">
-        <v>322653.283908062</v>
+        <v>322911.2847487755</v>
       </c>
     </row>
     <row r="233">
@@ -6429,13 +6429,13 @@
         <v>-1</v>
       </c>
       <c r="F233">
-        <v>5223.499998872865</v>
+        <v>5226.666662008137</v>
       </c>
       <c r="G233">
         <v>13974.38880859962</v>
       </c>
       <c r="H233">
-        <v>322653.2744489689</v>
+        <v>322911.2741612533</v>
       </c>
     </row>
     <row r="234">
@@ -6455,13 +6455,13 @@
         <v>-1</v>
       </c>
       <c r="F234">
-        <v>5223.500003886938</v>
+        <v>5226.666669468256</v>
       </c>
       <c r="G234">
         <v>13974.38890501741</v>
       </c>
       <c r="H234">
-        <v>322653.2779535555</v>
+        <v>322911.2778651283</v>
       </c>
     </row>
     <row r="235">
@@ -6481,13 +6481,13 @@
         <v>-1</v>
       </c>
       <c r="F235">
-        <v>5223.499997784419</v>
+        <v>5226.666666351783</v>
       </c>
       <c r="G235">
         <v>13974.38890489963</v>
       </c>
       <c r="H235">
-        <v>322653.2787701955</v>
+        <v>322911.2789250524</v>
       </c>
     </row>
     <row r="236">
@@ -6507,13 +6507,13 @@
         <v>-1</v>
       </c>
       <c r="F236">
-        <v>5223.500000181408</v>
+        <v>5226.666665942726</v>
       </c>
       <c r="G236">
         <v>13974.38887283889</v>
       </c>
       <c r="H236">
-        <v>322653.2770575733</v>
+        <v>322911.2769838114</v>
       </c>
     </row>
     <row r="237">
@@ -6533,13 +6533,13 @@
         <v>-1</v>
       </c>
       <c r="F237">
-        <v>5223.500000617589</v>
+        <v>5226.666667254255</v>
       </c>
       <c r="G237">
         <v>13974.38889425198</v>
       </c>
       <c r="H237">
-        <v>322653.2779271081</v>
+        <v>322911.277924664</v>
       </c>
     </row>
     <row r="238">
@@ -6559,13 +6559,13 @@
         <v>-1</v>
       </c>
       <c r="F238">
-        <v>5223.499999527805</v>
+        <v>5226.666666516255</v>
       </c>
       <c r="G238">
         <v>13974.3888906635</v>
       </c>
       <c r="H238">
-        <v>322653.2779182923</v>
+        <v>322911.2779445092</v>
       </c>
     </row>
     <row r="239">
@@ -6585,13 +6585,13 @@
         <v>-1</v>
       </c>
       <c r="F239">
-        <v>5223.500000108934</v>
+        <v>5226.666666571078</v>
       </c>
       <c r="G239">
         <v>13974.38888591812</v>
       </c>
       <c r="H239">
-        <v>322653.2776343246</v>
+        <v>322911.2776176615</v>
       </c>
     </row>
     <row r="240">
@@ -6611,13 +6611,13 @@
         <v>-1</v>
       </c>
       <c r="F240">
-        <v>5223.500000084776</v>
+        <v>5226.666666780529</v>
       </c>
       <c r="G240">
         <v>13974.38889027787</v>
       </c>
       <c r="H240">
-        <v>322653.277826575</v>
+        <v>322911.2778289449</v>
       </c>
     </row>
     <row r="241">
@@ -6637,13 +6637,13 @@
         <v>-1</v>
       </c>
       <c r="F241">
-        <v>5223.499999907172</v>
+        <v>5226.666666622621</v>
       </c>
       <c r="G241">
         <v>13974.38888895316</v>
       </c>
       <c r="H241">
-        <v>322653.277793064</v>
+        <v>322911.2777970386</v>
       </c>
     </row>
     <row r="242">
@@ -6663,13 +6663,13 @@
         <v>-1</v>
       </c>
       <c r="F242">
-        <v>5223.500000033627</v>
+        <v>5226.666666658076</v>
       </c>
       <c r="G242">
         <v>13974.38888838305</v>
       </c>
       <c r="H242">
-        <v>322653.2777513212</v>
+        <v>322911.2777478817</v>
       </c>
     </row>
     <row r="243">
@@ -6689,13 +6689,13 @@
         <v>-1</v>
       </c>
       <c r="F243">
-        <v>5223.500000008525</v>
+        <v>5226.666666687075</v>
       </c>
       <c r="G243">
         <v>13974.38888920469</v>
       </c>
       <c r="H243">
-        <v>322653.2777903201</v>
+        <v>322911.2777912884</v>
       </c>
     </row>
     <row r="244">
@@ -6715,13 +6715,13 @@
         <v>-1</v>
       </c>
       <c r="F244">
-        <v>5223.499999983108</v>
+        <v>5226.666666655924</v>
       </c>
       <c r="G244">
         <v>13974.38888884697</v>
       </c>
       <c r="H244">
-        <v>322653.277778235</v>
+        <v>322911.2777787362</v>
       </c>
     </row>
     <row r="245">
@@ -6741,13 +6741,13 @@
         <v>-1</v>
       </c>
       <c r="F245">
-        <v>5223.50000000842</v>
+        <v>5226.666666667025</v>
       </c>
       <c r="G245">
         <v>13974.38888881157</v>
       </c>
       <c r="H245">
-        <v>322653.2777732921</v>
+        <v>322911.2777726354</v>
       </c>
     </row>
     <row r="246">
@@ -6767,13 +6767,13 @@
         <v>-1</v>
       </c>
       <c r="F246">
-        <v>5223.500000000017</v>
+        <v>5226.666666670009</v>
       </c>
       <c r="G246">
         <v>13974.38888895441</v>
       </c>
       <c r="H246">
-        <v>322653.2777806157</v>
+        <v>322911.2777808867</v>
       </c>
     </row>
     <row r="247">
@@ -6793,13 +6793,13 @@
         <v>-1</v>
       </c>
       <c r="F247">
-        <v>5223.499999997182</v>
+        <v>5226.66666666432</v>
       </c>
       <c r="G247">
         <v>13974.38888887098</v>
       </c>
       <c r="H247">
-        <v>322653.277777381</v>
+        <v>322911.2777774194</v>
       </c>
     </row>
     <row r="248">
@@ -6819,13 +6819,13 @@
         <v>-1</v>
       </c>
       <c r="F248">
-        <v>5223.500000001873</v>
+        <v>5226.666666667118</v>
       </c>
       <c r="G248">
         <v>13974.38888887899</v>
       </c>
       <c r="H248">
-        <v>322653.2777770963</v>
+        <v>322911.2777769805</v>
       </c>
     </row>
     <row r="249">
@@ -6845,13 +6845,13 @@
         <v>-1</v>
       </c>
       <c r="F249">
-        <v>5223.499999999691</v>
+        <v>5226.666666667149</v>
       </c>
       <c r="G249">
         <v>13974.38888890146</v>
       </c>
       <c r="H249">
-        <v>322653.2777783643</v>
+        <v>322911.2777784289</v>
       </c>
     </row>
   </sheetData>
